--- a/data/vaccine/vaccination_number.xlsx
+++ b/data/vaccine/vaccination_number.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yjlee/repos/COVID19_SeoulGyeonggi/data/vaccine/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iyunjeong/repos/COVID19_SeoulGyeonggi/data/vaccine/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4947CF00-97C8-824F-898F-3848F863EEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A70C423-ED63-324F-8E03-8DF9EE8E2633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15240" yWindow="580" windowWidth="15140" windowHeight="13380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13120" yWindow="1380" windowWidth="13180" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="total" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="212">
   <si>
     <t>2021.03.07</t>
   </si>
@@ -639,17 +639,62 @@
   </si>
   <si>
     <t>2021.02.23</t>
+  </si>
+  <si>
+    <t>2021.09.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.09.02</t>
+  </si>
+  <si>
+    <t>2021.09.03</t>
+  </si>
+  <si>
+    <t>2021.09.04</t>
+  </si>
+  <si>
+    <t>2021.09.05</t>
+  </si>
+  <si>
+    <t>2021.09.06</t>
+  </si>
+  <si>
+    <t>2021.09.07</t>
+  </si>
+  <si>
+    <t>2021.09.08</t>
+  </si>
+  <si>
+    <t>2021.09.09</t>
+  </si>
+  <si>
+    <t>09/02-09/09</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -674,7 +719,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -683,6 +728,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -868,7 +922,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -877,7 +931,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1191,10 +1245,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C199"/>
+  <dimension ref="A1:C321"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C199" sqref="C199"/>
+    <sheetView tabSelected="1" topLeftCell="A300" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D312" sqref="D312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="18"/>
@@ -1211,8 +1265,8 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>199</v>
+      <c r="A2" s="5">
+        <v>44242</v>
       </c>
       <c r="B2" s="2">
         <f>서울!B2+경기!B2</f>
@@ -1224,8 +1278,8 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>198</v>
+      <c r="A3" s="5">
+        <v>44243</v>
       </c>
       <c r="B3" s="2">
         <f>서울!B3+경기!B3</f>
@@ -1237,8 +1291,8 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>191</v>
+      <c r="A4" s="5">
+        <v>44244</v>
       </c>
       <c r="B4" s="2">
         <f>서울!B4+경기!B4</f>
@@ -1250,8 +1304,8 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>190</v>
+      <c r="A5" s="5">
+        <v>44245</v>
       </c>
       <c r="B5" s="2">
         <f>서울!B5+경기!B5</f>
@@ -1263,8 +1317,8 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>189</v>
+      <c r="A6" s="5">
+        <v>44246</v>
       </c>
       <c r="B6" s="2">
         <f>서울!B6+경기!B6</f>
@@ -1276,8 +1330,8 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>193</v>
+      <c r="A7" s="5">
+        <v>44247</v>
       </c>
       <c r="B7" s="2">
         <f>서울!B7+경기!B7</f>
@@ -1289,8 +1343,8 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>192</v>
+      <c r="A8" s="5">
+        <v>44248</v>
       </c>
       <c r="B8" s="2">
         <f>서울!B8+경기!B8</f>
@@ -1302,8 +1356,8 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>188</v>
+      <c r="A9" s="5">
+        <v>44249</v>
       </c>
       <c r="B9" s="2">
         <f>서울!B9+경기!B9</f>
@@ -1315,8 +1369,8 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>201</v>
+      <c r="A10" s="5">
+        <v>44250</v>
       </c>
       <c r="B10" s="2">
         <f>서울!B10+경기!B10</f>
@@ -1328,8 +1382,8 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>200</v>
+      <c r="A11" s="5">
+        <v>44251</v>
       </c>
       <c r="B11" s="2">
         <f>서울!B11+경기!B11</f>
@@ -1341,8 +1395,8 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>196</v>
+      <c r="A12" s="5">
+        <v>44252</v>
       </c>
       <c r="B12" s="2">
         <f>서울!B12+경기!B12</f>
@@ -1354,8 +1408,8 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>11</v>
+      <c r="A13" s="5">
+        <v>44253</v>
       </c>
       <c r="B13" s="2">
         <f>서울!B13+경기!B13</f>
@@ -1367,8 +1421,8 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>3</v>
+      <c r="A14" s="5">
+        <v>44254</v>
       </c>
       <c r="B14" s="2">
         <f>서울!B14+경기!B14</f>
@@ -1380,8 +1434,8 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>4</v>
+      <c r="A15" s="5">
+        <v>44255</v>
       </c>
       <c r="B15" s="2">
         <f>서울!B15+경기!B15</f>
@@ -1393,8 +1447,8 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>2</v>
+      <c r="A16" s="5">
+        <v>44256</v>
       </c>
       <c r="B16" s="2">
         <f>서울!B16+경기!B16</f>
@@ -1406,8 +1460,8 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>1</v>
+      <c r="A17" s="5">
+        <v>44257</v>
       </c>
       <c r="B17" s="2">
         <f>서울!B17+경기!B17</f>
@@ -1419,8 +1473,8 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>7</v>
+      <c r="A18" s="5">
+        <v>44258</v>
       </c>
       <c r="B18" s="2">
         <f>서울!B18+경기!B18</f>
@@ -1432,8 +1486,8 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>6</v>
+      <c r="A19" s="5">
+        <v>44259</v>
       </c>
       <c r="B19" s="2">
         <f>서울!B19+경기!B19</f>
@@ -1445,8 +1499,8 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>8</v>
+      <c r="A20" s="5">
+        <v>44260</v>
       </c>
       <c r="B20" s="2">
         <f>서울!B20+경기!B20</f>
@@ -1458,8 +1512,8 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>9</v>
+      <c r="A21" s="5">
+        <v>44261</v>
       </c>
       <c r="B21" s="2">
         <f>서울!B21+경기!B21</f>
@@ -1471,8 +1525,8 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>0</v>
+      <c r="A22" s="5">
+        <v>44262</v>
       </c>
       <c r="B22" s="2">
         <f>서울!B22+경기!B22</f>
@@ -1484,8 +1538,8 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>5</v>
+      <c r="A23" s="5">
+        <v>44263</v>
       </c>
       <c r="B23" s="2">
         <f>서울!B23+경기!B23</f>
@@ -1497,8 +1551,8 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>43</v>
+      <c r="A24" s="5">
+        <v>44264</v>
       </c>
       <c r="B24" s="2">
         <f>서울!B24+경기!B24</f>
@@ -1510,8 +1564,8 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>42</v>
+      <c r="A25" s="5">
+        <v>44265</v>
       </c>
       <c r="B25" s="2">
         <f>서울!B25+경기!B25</f>
@@ -1523,8 +1577,8 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>41</v>
+      <c r="A26" s="5">
+        <v>44266</v>
       </c>
       <c r="B26" s="2">
         <f>서울!B26+경기!B26</f>
@@ -1536,8 +1590,8 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>44</v>
+      <c r="A27" s="5">
+        <v>44267</v>
       </c>
       <c r="B27" s="2">
         <f>서울!B27+경기!B27</f>
@@ -1549,8 +1603,8 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>46</v>
+      <c r="A28" s="5">
+        <v>44268</v>
       </c>
       <c r="B28" s="2">
         <f>서울!B28+경기!B28</f>
@@ -1562,8 +1616,8 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>47</v>
+      <c r="A29" s="5">
+        <v>44269</v>
       </c>
       <c r="B29" s="2">
         <f>서울!B29+경기!B29</f>
@@ -1575,8 +1629,8 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>45</v>
+      <c r="A30" s="5">
+        <v>44270</v>
       </c>
       <c r="B30" s="2">
         <f>서울!B30+경기!B30</f>
@@ -1588,8 +1642,8 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>49</v>
+      <c r="A31" s="5">
+        <v>44271</v>
       </c>
       <c r="B31" s="2">
         <f>서울!B31+경기!B31</f>
@@ -1601,8 +1655,8 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>48</v>
+      <c r="A32" s="5">
+        <v>44272</v>
       </c>
       <c r="B32" s="2">
         <f>서울!B32+경기!B32</f>
@@ -1614,8 +1668,8 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>50</v>
+      <c r="A33" s="5">
+        <v>44273</v>
       </c>
       <c r="B33" s="2">
         <f>서울!B33+경기!B33</f>
@@ -1627,8 +1681,8 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>53</v>
+      <c r="A34" s="5">
+        <v>44274</v>
       </c>
       <c r="B34" s="2">
         <f>서울!B34+경기!B34</f>
@@ -1640,8 +1694,8 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>52</v>
+      <c r="A35" s="5">
+        <v>44275</v>
       </c>
       <c r="B35" s="2">
         <f>서울!B35+경기!B35</f>
@@ -1653,8 +1707,8 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>54</v>
+      <c r="A36" s="5">
+        <v>44276</v>
       </c>
       <c r="B36" s="2">
         <f>서울!B36+경기!B36</f>
@@ -1666,8 +1720,8 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>51</v>
+      <c r="A37" s="5">
+        <v>44277</v>
       </c>
       <c r="B37" s="2">
         <f>서울!B37+경기!B37</f>
@@ -1679,8 +1733,8 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>56</v>
+      <c r="A38" s="5">
+        <v>44278</v>
       </c>
       <c r="B38" s="2">
         <f>서울!B38+경기!B38</f>
@@ -1692,8 +1746,8 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>55</v>
+      <c r="A39" s="5">
+        <v>44279</v>
       </c>
       <c r="B39" s="2">
         <f>서울!B39+경기!B39</f>
@@ -1705,8 +1759,8 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>57</v>
+      <c r="A40" s="5">
+        <v>44280</v>
       </c>
       <c r="B40" s="2">
         <f>서울!B40+경기!B40</f>
@@ -1718,8 +1772,8 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>60</v>
+      <c r="A41" s="5">
+        <v>44281</v>
       </c>
       <c r="B41" s="2">
         <f>서울!B41+경기!B41</f>
@@ -1731,8 +1785,8 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>59</v>
+      <c r="A42" s="5">
+        <v>44282</v>
       </c>
       <c r="B42" s="2">
         <f>서울!B42+경기!B42</f>
@@ -1744,8 +1798,8 @@
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>58</v>
+      <c r="A43" s="5">
+        <v>44283</v>
       </c>
       <c r="B43" s="2">
         <f>서울!B43+경기!B43</f>
@@ -1757,8 +1811,8 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>63</v>
+      <c r="A44" s="5">
+        <v>44284</v>
       </c>
       <c r="B44" s="2">
         <f>서울!B44+경기!B44</f>
@@ -1770,8 +1824,8 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>61</v>
+      <c r="A45" s="5">
+        <v>44285</v>
       </c>
       <c r="B45" s="2">
         <f>서울!B45+경기!B45</f>
@@ -1783,8 +1837,8 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>62</v>
+      <c r="A46" s="5">
+        <v>44286</v>
       </c>
       <c r="B46" s="2">
         <f>서울!B46+경기!B46</f>
@@ -1796,8 +1850,8 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>65</v>
+      <c r="A47" s="5">
+        <v>44287</v>
       </c>
       <c r="B47" s="2">
         <f>서울!B47+경기!B47</f>
@@ -1809,8 +1863,8 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>66</v>
+      <c r="A48" s="5">
+        <v>44288</v>
       </c>
       <c r="B48" s="2">
         <f>서울!B48+경기!B48</f>
@@ -1822,8 +1876,8 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>64</v>
+      <c r="A49" s="5">
+        <v>44289</v>
       </c>
       <c r="B49" s="2">
         <f>서울!B49+경기!B49</f>
@@ -1835,8 +1889,8 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>67</v>
+      <c r="A50" s="5">
+        <v>44290</v>
       </c>
       <c r="B50" s="2">
         <f>서울!B50+경기!B50</f>
@@ -1848,8 +1902,8 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>69</v>
+      <c r="A51" s="5">
+        <v>44291</v>
       </c>
       <c r="B51" s="2">
         <f>서울!B51+경기!B51</f>
@@ -1861,8 +1915,8 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>68</v>
+      <c r="A52" s="5">
+        <v>44292</v>
       </c>
       <c r="B52" s="2">
         <f>서울!B52+경기!B52</f>
@@ -1874,8 +1928,8 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>70</v>
+      <c r="A53" s="5">
+        <v>44293</v>
       </c>
       <c r="B53" s="2">
         <f>서울!B53+경기!B53</f>
@@ -1887,8 +1941,8 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>71</v>
+      <c r="A54" s="5">
+        <v>44294</v>
       </c>
       <c r="B54" s="2">
         <f>서울!B54+경기!B54</f>
@@ -1900,8 +1954,8 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>72</v>
+      <c r="A55" s="5">
+        <v>44295</v>
       </c>
       <c r="B55" s="2">
         <f>서울!B55+경기!B55</f>
@@ -1913,8 +1967,8 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>76</v>
+      <c r="A56" s="5">
+        <v>44296</v>
       </c>
       <c r="B56" s="2">
         <f>서울!B56+경기!B56</f>
@@ -1926,8 +1980,8 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>74</v>
+      <c r="A57" s="5">
+        <v>44297</v>
       </c>
       <c r="B57" s="2">
         <f>서울!B57+경기!B57</f>
@@ -1939,8 +1993,8 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>73</v>
+      <c r="A58" s="5">
+        <v>44298</v>
       </c>
       <c r="B58" s="2">
         <f>서울!B58+경기!B58</f>
@@ -1952,8 +2006,8 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>75</v>
+      <c r="A59" s="5">
+        <v>44299</v>
       </c>
       <c r="B59" s="2">
         <f>서울!B59+경기!B59</f>
@@ -1965,8 +2019,8 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>78</v>
+      <c r="A60" s="5">
+        <v>44300</v>
       </c>
       <c r="B60" s="2">
         <f>서울!B60+경기!B60</f>
@@ -1978,8 +2032,8 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>79</v>
+      <c r="A61" s="5">
+        <v>44301</v>
       </c>
       <c r="B61" s="2">
         <f>서울!B61+경기!B61</f>
@@ -1991,8 +2045,8 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>77</v>
+      <c r="A62" s="5">
+        <v>44302</v>
       </c>
       <c r="B62" s="2">
         <f>서울!B62+경기!B62</f>
@@ -2004,8 +2058,8 @@
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>81</v>
+      <c r="A63" s="5">
+        <v>44303</v>
       </c>
       <c r="B63" s="2">
         <f>서울!B63+경기!B63</f>
@@ -2017,8 +2071,8 @@
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>80</v>
+      <c r="A64" s="5">
+        <v>44304</v>
       </c>
       <c r="B64" s="2">
         <f>서울!B64+경기!B64</f>
@@ -2030,8 +2084,8 @@
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>82</v>
+      <c r="A65" s="5">
+        <v>44305</v>
       </c>
       <c r="B65" s="2">
         <f>서울!B65+경기!B65</f>
@@ -2043,8 +2097,8 @@
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>35</v>
+      <c r="A66" s="5">
+        <v>44306</v>
       </c>
       <c r="B66" s="2">
         <f>서울!B66+경기!B66</f>
@@ -2056,8 +2110,8 @@
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>33</v>
+      <c r="A67" s="5">
+        <v>44307</v>
       </c>
       <c r="B67" s="2">
         <f>서울!B67+경기!B67</f>
@@ -2069,8 +2123,8 @@
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>34</v>
+      <c r="A68" s="5">
+        <v>44308</v>
       </c>
       <c r="B68" s="2">
         <f>서울!B68+경기!B68</f>
@@ -2082,8 +2136,8 @@
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>37</v>
+      <c r="A69" s="5">
+        <v>44309</v>
       </c>
       <c r="B69" s="2">
         <f>서울!B69+경기!B69</f>
@@ -2095,8 +2149,8 @@
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>38</v>
+      <c r="A70" s="5">
+        <v>44310</v>
       </c>
       <c r="B70" s="2">
         <f>서울!B70+경기!B70</f>
@@ -2108,8 +2162,8 @@
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>36</v>
+      <c r="A71" s="5">
+        <v>44311</v>
       </c>
       <c r="B71" s="2">
         <f>서울!B71+경기!B71</f>
@@ -2121,8 +2175,8 @@
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>40</v>
+      <c r="A72" s="5">
+        <v>44312</v>
       </c>
       <c r="B72" s="2">
         <f>서울!B72+경기!B72</f>
@@ -2134,8 +2188,8 @@
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>39</v>
+      <c r="A73" s="5">
+        <v>44313</v>
       </c>
       <c r="B73" s="2">
         <f>서울!B73+경기!B73</f>
@@ -2147,8 +2201,8 @@
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>92</v>
+      <c r="A74" s="5">
+        <v>44314</v>
       </c>
       <c r="B74" s="2">
         <f>서울!B74+경기!B74</f>
@@ -2160,8 +2214,8 @@
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>93</v>
+      <c r="A75" s="5">
+        <v>44315</v>
       </c>
       <c r="B75" s="2">
         <f>서울!B75+경기!B75</f>
@@ -2173,8 +2227,8 @@
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>91</v>
+      <c r="A76" s="5">
+        <v>44316</v>
       </c>
       <c r="B76" s="2">
         <f>서울!B76+경기!B76</f>
@@ -2186,8 +2240,8 @@
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>95</v>
+      <c r="A77" s="5">
+        <v>44317</v>
       </c>
       <c r="B77" s="2">
         <f>서울!B77+경기!B77</f>
@@ -2199,8 +2253,8 @@
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>96</v>
+      <c r="A78" s="5">
+        <v>44318</v>
       </c>
       <c r="B78" s="2">
         <f>서울!B78+경기!B78</f>
@@ -2212,8 +2266,8 @@
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>94</v>
+      <c r="A79" s="5">
+        <v>44319</v>
       </c>
       <c r="B79" s="2">
         <f>서울!B79+경기!B79</f>
@@ -2225,8 +2279,8 @@
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>98</v>
+      <c r="A80" s="5">
+        <v>44320</v>
       </c>
       <c r="B80" s="2">
         <f>서울!B80+경기!B80</f>
@@ -2238,8 +2292,8 @@
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>97</v>
+      <c r="A81" s="5">
+        <v>44321</v>
       </c>
       <c r="B81" s="2">
         <f>서울!B81+경기!B81</f>
@@ -2251,8 +2305,8 @@
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>101</v>
+      <c r="A82" s="5">
+        <v>44322</v>
       </c>
       <c r="B82" s="2">
         <f>서울!B82+경기!B82</f>
@@ -2264,8 +2318,8 @@
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>100</v>
+      <c r="A83" s="5">
+        <v>44323</v>
       </c>
       <c r="B83" s="2">
         <f>서울!B83+경기!B83</f>
@@ -2277,8 +2331,8 @@
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>99</v>
+      <c r="A84" s="5">
+        <v>44324</v>
       </c>
       <c r="B84" s="2">
         <f>서울!B84+경기!B84</f>
@@ -2290,8 +2344,8 @@
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>103</v>
+      <c r="A85" s="5">
+        <v>44325</v>
       </c>
       <c r="B85" s="2">
         <f>서울!B85+경기!B85</f>
@@ -2303,8 +2357,8 @@
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>102</v>
+      <c r="A86" s="5">
+        <v>44326</v>
       </c>
       <c r="B86" s="2">
         <f>서울!B86+경기!B86</f>
@@ -2316,8 +2370,8 @@
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>106</v>
+      <c r="A87" s="5">
+        <v>44327</v>
       </c>
       <c r="B87" s="2">
         <f>서울!B87+경기!B87</f>
@@ -2329,8 +2383,8 @@
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>105</v>
+      <c r="A88" s="5">
+        <v>44328</v>
       </c>
       <c r="B88" s="2">
         <f>서울!B88+경기!B88</f>
@@ -2342,8 +2396,8 @@
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>104</v>
+      <c r="A89" s="5">
+        <v>44329</v>
       </c>
       <c r="B89" s="2">
         <f>서울!B89+경기!B89</f>
@@ -2355,8 +2409,8 @@
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>107</v>
+      <c r="A90" s="5">
+        <v>44330</v>
       </c>
       <c r="B90" s="2">
         <f>서울!B90+경기!B90</f>
@@ -2368,8 +2422,8 @@
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>108</v>
+      <c r="A91" s="5">
+        <v>44331</v>
       </c>
       <c r="B91" s="2">
         <f>서울!B91+경기!B91</f>
@@ -2381,8 +2435,8 @@
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>111</v>
+      <c r="A92" s="5">
+        <v>44332</v>
       </c>
       <c r="B92" s="2">
         <f>서울!B92+경기!B92</f>
@@ -2394,8 +2448,8 @@
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>110</v>
+      <c r="A93" s="5">
+        <v>44333</v>
       </c>
       <c r="B93" s="2">
         <f>서울!B93+경기!B93</f>
@@ -2407,8 +2461,8 @@
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>109</v>
+      <c r="A94" s="5">
+        <v>44334</v>
       </c>
       <c r="B94" s="2">
         <f>서울!B94+경기!B94</f>
@@ -2420,8 +2474,8 @@
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>114</v>
+      <c r="A95" s="5">
+        <v>44335</v>
       </c>
       <c r="B95" s="2">
         <f>서울!B95+경기!B95</f>
@@ -2433,8 +2487,8 @@
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>113</v>
+      <c r="A96" s="5">
+        <v>44336</v>
       </c>
       <c r="B96" s="2">
         <f>서울!B96+경기!B96</f>
@@ -2446,8 +2500,8 @@
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>112</v>
+      <c r="A97" s="5">
+        <v>44337</v>
       </c>
       <c r="B97" s="2">
         <f>서울!B97+경기!B97</f>
@@ -2459,8 +2513,8 @@
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>115</v>
+      <c r="A98" s="5">
+        <v>44338</v>
       </c>
       <c r="B98" s="2">
         <f>서울!B98+경기!B98</f>
@@ -2472,8 +2526,8 @@
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>117</v>
+      <c r="A99" s="5">
+        <v>44339</v>
       </c>
       <c r="B99" s="2">
         <f>서울!B99+경기!B99</f>
@@ -2485,8 +2539,8 @@
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>116</v>
+      <c r="A100" s="5">
+        <v>44340</v>
       </c>
       <c r="B100" s="2">
         <f>서울!B100+경기!B100</f>
@@ -2498,8 +2552,8 @@
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" t="s">
-        <v>118</v>
+      <c r="A101" s="5">
+        <v>44341</v>
       </c>
       <c r="B101" s="2">
         <f>서울!B101+경기!B101</f>
@@ -2511,8 +2565,8 @@
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" t="s">
-        <v>119</v>
+      <c r="A102" s="5">
+        <v>44342</v>
       </c>
       <c r="B102" s="2">
         <f>서울!B102+경기!B102</f>
@@ -2524,8 +2578,8 @@
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" t="s">
-        <v>121</v>
+      <c r="A103" s="5">
+        <v>44343</v>
       </c>
       <c r="B103" s="2">
         <f>서울!B103+경기!B103</f>
@@ -2537,8 +2591,8 @@
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" t="s">
-        <v>120</v>
+      <c r="A104" s="5">
+        <v>44344</v>
       </c>
       <c r="B104" s="2">
         <f>서울!B104+경기!B104</f>
@@ -2550,8 +2604,8 @@
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" t="s">
-        <v>123</v>
+      <c r="A105" s="5">
+        <v>44345</v>
       </c>
       <c r="B105" s="2">
         <f>서울!B105+경기!B105</f>
@@ -2563,8 +2617,8 @@
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" t="s">
-        <v>124</v>
+      <c r="A106" s="5">
+        <v>44346</v>
       </c>
       <c r="B106" s="2">
         <f>서울!B106+경기!B106</f>
@@ -2576,8 +2630,8 @@
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" t="s">
-        <v>122</v>
+      <c r="A107" s="5">
+        <v>44347</v>
       </c>
       <c r="B107" s="2">
         <f>서울!B107+경기!B107</f>
@@ -2589,8 +2643,8 @@
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" t="s">
-        <v>85</v>
+      <c r="A108" s="5">
+        <v>44348</v>
       </c>
       <c r="B108" s="2">
         <f>서울!B108+경기!B108</f>
@@ -2602,8 +2656,8 @@
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" t="s">
-        <v>83</v>
+      <c r="A109" s="5">
+        <v>44349</v>
       </c>
       <c r="B109" s="2">
         <f>서울!B109+경기!B109</f>
@@ -2615,8 +2669,8 @@
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" t="s">
-        <v>84</v>
+      <c r="A110" s="5">
+        <v>44350</v>
       </c>
       <c r="B110" s="2">
         <f>서울!B110+경기!B110</f>
@@ -2628,8 +2682,8 @@
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" t="s">
-        <v>86</v>
+      <c r="A111" s="5">
+        <v>44351</v>
       </c>
       <c r="B111" s="2">
         <f>서울!B111+경기!B111</f>
@@ -2641,8 +2695,8 @@
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" t="s">
-        <v>87</v>
+      <c r="A112" s="5">
+        <v>44352</v>
       </c>
       <c r="B112" s="2">
         <f>서울!B112+경기!B112</f>
@@ -2654,8 +2708,8 @@
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" t="s">
-        <v>89</v>
+      <c r="A113" s="5">
+        <v>44353</v>
       </c>
       <c r="B113" s="2">
         <f>서울!B113+경기!B113</f>
@@ -2667,8 +2721,8 @@
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" t="s">
-        <v>90</v>
+      <c r="A114" s="5">
+        <v>44354</v>
       </c>
       <c r="B114" s="2">
         <f>서울!B114+경기!B114</f>
@@ -2680,8 +2734,8 @@
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" t="s">
-        <v>88</v>
+      <c r="A115" s="5">
+        <v>44355</v>
       </c>
       <c r="B115" s="2">
         <f>서울!B115+경기!B115</f>
@@ -2693,8 +2747,8 @@
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" t="s">
-        <v>22</v>
+      <c r="A116" s="5">
+        <v>44356</v>
       </c>
       <c r="B116" s="2">
         <f>서울!B116+경기!B116</f>
@@ -2706,8 +2760,8 @@
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" t="s">
-        <v>20</v>
+      <c r="A117" s="5">
+        <v>44357</v>
       </c>
       <c r="B117" s="2">
         <f>서울!B117+경기!B117</f>
@@ -2719,8 +2773,8 @@
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" t="s">
-        <v>21</v>
+      <c r="A118" s="5">
+        <v>44358</v>
       </c>
       <c r="B118" s="2">
         <f>서울!B118+경기!B118</f>
@@ -2732,8 +2786,8 @@
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" t="s">
-        <v>24</v>
+      <c r="A119" s="5">
+        <v>44359</v>
       </c>
       <c r="B119" s="2">
         <f>서울!B119+경기!B119</f>
@@ -2745,8 +2799,8 @@
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" t="s">
-        <v>23</v>
+      <c r="A120" s="5">
+        <v>44360</v>
       </c>
       <c r="B120" s="2">
         <f>서울!B120+경기!B120</f>
@@ -2758,8 +2812,8 @@
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" t="s">
-        <v>26</v>
+      <c r="A121" s="5">
+        <v>44361</v>
       </c>
       <c r="B121" s="2">
         <f>서울!B121+경기!B121</f>
@@ -2771,8 +2825,8 @@
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" t="s">
-        <v>27</v>
+      <c r="A122" s="5">
+        <v>44362</v>
       </c>
       <c r="B122" s="2">
         <f>서울!B122+경기!B122</f>
@@ -2784,8 +2838,8 @@
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" t="s">
-        <v>25</v>
+      <c r="A123" s="5">
+        <v>44363</v>
       </c>
       <c r="B123" s="2">
         <f>서울!B123+경기!B123</f>
@@ -2797,8 +2851,8 @@
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" t="s">
-        <v>28</v>
+      <c r="A124" s="5">
+        <v>44364</v>
       </c>
       <c r="B124" s="2">
         <f>서울!B124+경기!B124</f>
@@ -2810,8 +2864,8 @@
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" t="s">
-        <v>29</v>
+      <c r="A125" s="5">
+        <v>44365</v>
       </c>
       <c r="B125" s="2">
         <f>서울!B125+경기!B125</f>
@@ -2823,8 +2877,8 @@
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" t="s">
-        <v>31</v>
+      <c r="A126" s="5">
+        <v>44366</v>
       </c>
       <c r="B126" s="2">
         <f>서울!B126+경기!B126</f>
@@ -2836,8 +2890,8 @@
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" t="s">
-        <v>32</v>
+      <c r="A127" s="5">
+        <v>44367</v>
       </c>
       <c r="B127" s="2">
         <f>서울!B127+경기!B127</f>
@@ -2849,8 +2903,8 @@
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" t="s">
-        <v>30</v>
+      <c r="A128" s="5">
+        <v>44368</v>
       </c>
       <c r="B128" s="2">
         <f>서울!B128+경기!B128</f>
@@ -2862,8 +2916,8 @@
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" t="s">
-        <v>12</v>
+      <c r="A129" s="5">
+        <v>44369</v>
       </c>
       <c r="B129" s="2">
         <f>서울!B129+경기!B129</f>
@@ -2875,8 +2929,8 @@
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" t="s">
-        <v>13</v>
+      <c r="A130" s="5">
+        <v>44370</v>
       </c>
       <c r="B130" s="2">
         <f>서울!B130+경기!B130</f>
@@ -2888,8 +2942,8 @@
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" t="s">
-        <v>16</v>
+      <c r="A131" s="5">
+        <v>44371</v>
       </c>
       <c r="B131" s="2">
         <f>서울!B131+경기!B131</f>
@@ -2901,8 +2955,8 @@
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" t="s">
-        <v>14</v>
+      <c r="A132" s="5">
+        <v>44372</v>
       </c>
       <c r="B132" s="2">
         <f>서울!B132+경기!B132</f>
@@ -2914,8 +2968,8 @@
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" t="s">
-        <v>15</v>
+      <c r="A133" s="5">
+        <v>44373</v>
       </c>
       <c r="B133" s="2">
         <f>서울!B133+경기!B133</f>
@@ -2927,8 +2981,8 @@
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" t="s">
-        <v>18</v>
+      <c r="A134" s="5">
+        <v>44374</v>
       </c>
       <c r="B134" s="2">
         <f>서울!B134+경기!B134</f>
@@ -2940,8 +2994,8 @@
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" t="s">
-        <v>19</v>
+      <c r="A135" s="5">
+        <v>44375</v>
       </c>
       <c r="B135" s="2">
         <f>서울!B135+경기!B135</f>
@@ -2953,8 +3007,8 @@
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" t="s">
-        <v>17</v>
+      <c r="A136" s="5">
+        <v>44376</v>
       </c>
       <c r="B136" s="2">
         <f>서울!B136+경기!B136</f>
@@ -2966,8 +3020,8 @@
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" t="s">
-        <v>128</v>
+      <c r="A137" s="5">
+        <v>44377</v>
       </c>
       <c r="B137" s="2">
         <f>서울!B137+경기!B137</f>
@@ -2979,8 +3033,8 @@
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" t="s">
-        <v>129</v>
+      <c r="A138" s="5">
+        <v>44378</v>
       </c>
       <c r="B138" s="2">
         <f>서울!B138+경기!B138</f>
@@ -2992,8 +3046,8 @@
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" t="s">
-        <v>131</v>
+      <c r="A139" s="5">
+        <v>44379</v>
       </c>
       <c r="B139" s="2">
         <f>서울!B139+경기!B139</f>
@@ -3005,8 +3059,8 @@
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" t="s">
-        <v>132</v>
+      <c r="A140" s="5">
+        <v>44380</v>
       </c>
       <c r="B140" s="2">
         <f>서울!B140+경기!B140</f>
@@ -3018,8 +3072,8 @@
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" t="s">
-        <v>130</v>
+      <c r="A141" s="5">
+        <v>44381</v>
       </c>
       <c r="B141" s="2">
         <f>서울!B141+경기!B141</f>
@@ -3031,8 +3085,8 @@
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" t="s">
-        <v>134</v>
+      <c r="A142" s="5">
+        <v>44382</v>
       </c>
       <c r="B142" s="2">
         <f>서울!B142+경기!B142</f>
@@ -3044,8 +3098,8 @@
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" t="s">
-        <v>135</v>
+      <c r="A143" s="5">
+        <v>44383</v>
       </c>
       <c r="B143" s="2">
         <f>서울!B143+경기!B143</f>
@@ -3057,8 +3111,8 @@
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" t="s">
-        <v>133</v>
+      <c r="A144" s="5">
+        <v>44384</v>
       </c>
       <c r="B144" s="2">
         <f>서울!B144+경기!B144</f>
@@ -3070,8 +3124,8 @@
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" t="s">
-        <v>137</v>
+      <c r="A145" s="5">
+        <v>44385</v>
       </c>
       <c r="B145" s="2">
         <f>서울!B145+경기!B145</f>
@@ -3083,8 +3137,8 @@
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" t="s">
-        <v>136</v>
+      <c r="A146" s="5">
+        <v>44386</v>
       </c>
       <c r="B146" s="2">
         <f>서울!B146+경기!B146</f>
@@ -3096,8 +3150,8 @@
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" t="s">
-        <v>140</v>
+      <c r="A147" s="5">
+        <v>44387</v>
       </c>
       <c r="B147" s="2">
         <f>서울!B147+경기!B147</f>
@@ -3109,8 +3163,8 @@
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" t="s">
-        <v>139</v>
+      <c r="A148" s="5">
+        <v>44388</v>
       </c>
       <c r="B148" s="2">
         <f>서울!B148+경기!B148</f>
@@ -3122,8 +3176,8 @@
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" t="s">
-        <v>138</v>
+      <c r="A149" s="5">
+        <v>44389</v>
       </c>
       <c r="B149" s="2">
         <f>서울!B149+경기!B149</f>
@@ -3135,8 +3189,8 @@
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" t="s">
-        <v>142</v>
+      <c r="A150" s="5">
+        <v>44390</v>
       </c>
       <c r="B150" s="2">
         <f>서울!B150+경기!B150</f>
@@ -3148,8 +3202,8 @@
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" t="s">
-        <v>143</v>
+      <c r="A151" s="5">
+        <v>44391</v>
       </c>
       <c r="B151" s="2">
         <f>서울!B151+경기!B151</f>
@@ -3161,8 +3215,8 @@
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" t="s">
-        <v>141</v>
+      <c r="A152" s="5">
+        <v>44392</v>
       </c>
       <c r="B152" s="2">
         <f>서울!B152+경기!B152</f>
@@ -3174,8 +3228,8 @@
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" t="s">
-        <v>144</v>
+      <c r="A153" s="5">
+        <v>44393</v>
       </c>
       <c r="B153" s="2">
         <f>서울!B153+경기!B153</f>
@@ -3187,8 +3241,8 @@
       </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" t="s">
-        <v>145</v>
+      <c r="A154" s="5">
+        <v>44394</v>
       </c>
       <c r="B154" s="2">
         <f>서울!B154+경기!B154</f>
@@ -3200,8 +3254,8 @@
       </c>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" t="s">
-        <v>147</v>
+      <c r="A155" s="5">
+        <v>44395</v>
       </c>
       <c r="B155" s="2">
         <f>서울!B155+경기!B155</f>
@@ -3213,8 +3267,8 @@
       </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" t="s">
-        <v>146</v>
+      <c r="A156" s="5">
+        <v>44396</v>
       </c>
       <c r="B156" s="2">
         <f>서울!B156+경기!B156</f>
@@ -3226,8 +3280,8 @@
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" t="s">
-        <v>148</v>
+      <c r="A157" s="5">
+        <v>44397</v>
       </c>
       <c r="B157" s="2">
         <f>서울!B157+경기!B157</f>
@@ -3239,8 +3293,8 @@
       </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" t="s">
-        <v>151</v>
+      <c r="A158" s="5">
+        <v>44398</v>
       </c>
       <c r="B158" s="2">
         <f>서울!B158+경기!B158</f>
@@ -3252,8 +3306,8 @@
       </c>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" t="s">
-        <v>150</v>
+      <c r="A159" s="5">
+        <v>44399</v>
       </c>
       <c r="B159" s="2">
         <f>서울!B159+경기!B159</f>
@@ -3265,8 +3319,8 @@
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" t="s">
-        <v>149</v>
+      <c r="A160" s="5">
+        <v>44400</v>
       </c>
       <c r="B160" s="2">
         <f>서울!B160+경기!B160</f>
@@ -3278,8 +3332,8 @@
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" t="s">
-        <v>153</v>
+      <c r="A161" s="5">
+        <v>44401</v>
       </c>
       <c r="B161" s="2">
         <f>서울!B161+경기!B161</f>
@@ -3291,8 +3345,8 @@
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" t="s">
-        <v>152</v>
+      <c r="A162" s="5">
+        <v>44402</v>
       </c>
       <c r="B162" s="2">
         <f>서울!B162+경기!B162</f>
@@ -3304,8 +3358,8 @@
       </c>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" t="s">
-        <v>155</v>
+      <c r="A163" s="5">
+        <v>44403</v>
       </c>
       <c r="B163" s="2">
         <f>서울!B163+경기!B163</f>
@@ -3317,8 +3371,8 @@
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" t="s">
-        <v>156</v>
+      <c r="A164" s="5">
+        <v>44404</v>
       </c>
       <c r="B164" s="2">
         <f>서울!B164+경기!B164</f>
@@ -3330,8 +3384,8 @@
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" t="s">
-        <v>154</v>
+      <c r="A165" s="5">
+        <v>44405</v>
       </c>
       <c r="B165" s="2">
         <f>서울!B165+경기!B165</f>
@@ -3343,8 +3397,8 @@
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" t="s">
-        <v>157</v>
+      <c r="A166" s="5">
+        <v>44406</v>
       </c>
       <c r="B166" s="2">
         <f>서울!B166+경기!B166</f>
@@ -3356,8 +3410,8 @@
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" t="s">
-        <v>159</v>
+      <c r="A167" s="5">
+        <v>44407</v>
       </c>
       <c r="B167" s="2">
         <f>서울!B167+경기!B167</f>
@@ -3369,8 +3423,8 @@
       </c>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" t="s">
-        <v>158</v>
+      <c r="A168" s="5">
+        <v>44408</v>
       </c>
       <c r="B168" s="2">
         <f>서울!B168+경기!B168</f>
@@ -3382,8 +3436,8 @@
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" t="s">
-        <v>160</v>
+      <c r="A169" s="5">
+        <v>44409</v>
       </c>
       <c r="B169" s="2">
         <f>서울!B169+경기!B169</f>
@@ -3395,8 +3449,8 @@
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" t="s">
-        <v>161</v>
+      <c r="A170" s="5">
+        <v>44410</v>
       </c>
       <c r="B170" s="2">
         <f>서울!B170+경기!B170</f>
@@ -3408,8 +3462,8 @@
       </c>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" t="s">
-        <v>163</v>
+      <c r="A171" s="5">
+        <v>44411</v>
       </c>
       <c r="B171" s="2">
         <f>서울!B171+경기!B171</f>
@@ -3421,8 +3475,8 @@
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" t="s">
-        <v>162</v>
+      <c r="A172" s="5">
+        <v>44412</v>
       </c>
       <c r="B172" s="2">
         <f>서울!B172+경기!B172</f>
@@ -3434,8 +3488,8 @@
       </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" t="s">
-        <v>164</v>
+      <c r="A173" s="5">
+        <v>44413</v>
       </c>
       <c r="B173" s="2">
         <f>서울!B173+경기!B173</f>
@@ -3447,8 +3501,8 @@
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" t="s">
-        <v>165</v>
+      <c r="A174" s="5">
+        <v>44414</v>
       </c>
       <c r="B174" s="2">
         <f>서울!B174+경기!B174</f>
@@ -3460,8 +3514,8 @@
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" t="s">
-        <v>166</v>
+      <c r="A175" s="5">
+        <v>44415</v>
       </c>
       <c r="B175" s="2">
         <f>서울!B175+경기!B175</f>
@@ -3473,8 +3527,8 @@
       </c>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" t="s">
-        <v>127</v>
+      <c r="A176" s="5">
+        <v>44416</v>
       </c>
       <c r="B176" s="2">
         <f>서울!B176+경기!B176</f>
@@ -3486,8 +3540,8 @@
       </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" t="s">
-        <v>126</v>
+      <c r="A177" s="5">
+        <v>44417</v>
       </c>
       <c r="B177" s="2">
         <f>서울!B177+경기!B177</f>
@@ -3499,8 +3553,8 @@
       </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" t="s">
-        <v>125</v>
+      <c r="A178" s="5">
+        <v>44418</v>
       </c>
       <c r="B178" s="2">
         <f>서울!B178+경기!B178</f>
@@ -3512,8 +3566,8 @@
       </c>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" t="s">
-        <v>167</v>
+      <c r="A179" s="5">
+        <v>44419</v>
       </c>
       <c r="B179" s="2">
         <f>서울!B179+경기!B179</f>
@@ -3525,8 +3579,8 @@
       </c>
     </row>
     <row r="180" spans="1:3">
-      <c r="A180" t="s">
-        <v>168</v>
+      <c r="A180" s="5">
+        <v>44420</v>
       </c>
       <c r="B180" s="2">
         <f>서울!B180+경기!B180</f>
@@ -3538,8 +3592,8 @@
       </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" t="s">
-        <v>169</v>
+      <c r="A181" s="5">
+        <v>44421</v>
       </c>
       <c r="B181" s="2">
         <f>서울!B181+경기!B181</f>
@@ -3551,8 +3605,8 @@
       </c>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182" t="s">
-        <v>170</v>
+      <c r="A182" s="5">
+        <v>44422</v>
       </c>
       <c r="B182" s="2">
         <f>서울!B182+경기!B182</f>
@@ -3564,8 +3618,8 @@
       </c>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183" t="s">
-        <v>171</v>
+      <c r="A183" s="5">
+        <v>44423</v>
       </c>
       <c r="B183" s="2">
         <f>서울!B183+경기!B183</f>
@@ -3577,8 +3631,8 @@
       </c>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184" t="s">
-        <v>173</v>
+      <c r="A184" s="5">
+        <v>44424</v>
       </c>
       <c r="B184" s="2">
         <f>서울!B184+경기!B184</f>
@@ -3590,8 +3644,8 @@
       </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" t="s">
-        <v>174</v>
+      <c r="A185" s="5">
+        <v>44425</v>
       </c>
       <c r="B185" s="2">
         <f>서울!B185+경기!B185</f>
@@ -3603,8 +3657,8 @@
       </c>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186" t="s">
-        <v>172</v>
+      <c r="A186" s="5">
+        <v>44426</v>
       </c>
       <c r="B186" s="2">
         <f>서울!B186+경기!B186</f>
@@ -3616,8 +3670,8 @@
       </c>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187" t="s">
-        <v>175</v>
+      <c r="A187" s="5">
+        <v>44427</v>
       </c>
       <c r="B187" s="2">
         <f>서울!B187+경기!B187</f>
@@ -3629,8 +3683,8 @@
       </c>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188" t="s">
-        <v>176</v>
+      <c r="A188" s="5">
+        <v>44428</v>
       </c>
       <c r="B188" s="2">
         <f>서울!B188+경기!B188</f>
@@ -3642,8 +3696,8 @@
       </c>
     </row>
     <row r="189" spans="1:3">
-      <c r="A189" t="s">
-        <v>179</v>
+      <c r="A189" s="5">
+        <v>44429</v>
       </c>
       <c r="B189" s="2">
         <f>서울!B189+경기!B189</f>
@@ -3655,8 +3709,8 @@
       </c>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190" t="s">
-        <v>177</v>
+      <c r="A190" s="5">
+        <v>44430</v>
       </c>
       <c r="B190" s="2">
         <f>서울!B190+경기!B190</f>
@@ -3668,8 +3722,8 @@
       </c>
     </row>
     <row r="191" spans="1:3">
-      <c r="A191" t="s">
-        <v>178</v>
+      <c r="A191" s="5">
+        <v>44431</v>
       </c>
       <c r="B191" s="2">
         <f>서울!B191+경기!B191</f>
@@ -3681,8 +3735,8 @@
       </c>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" t="s">
-        <v>180</v>
+      <c r="A192" s="5">
+        <v>44432</v>
       </c>
       <c r="B192" s="2">
         <f>서울!B192+경기!B192</f>
@@ -3694,8 +3748,8 @@
       </c>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" t="s">
-        <v>181</v>
+      <c r="A193" s="5">
+        <v>44433</v>
       </c>
       <c r="B193" s="2">
         <f>서울!B193+경기!B193</f>
@@ -3707,8 +3761,8 @@
       </c>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194" t="s">
-        <v>182</v>
+      <c r="A194" s="5">
+        <v>44434</v>
       </c>
       <c r="B194" s="2">
         <f>서울!B194+경기!B194</f>
@@ -3720,8 +3774,8 @@
       </c>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195" t="s">
-        <v>183</v>
+      <c r="A195" s="5">
+        <v>44435</v>
       </c>
       <c r="B195" s="2">
         <f>서울!B195+경기!B195</f>
@@ -3733,8 +3787,8 @@
       </c>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196" t="s">
-        <v>185</v>
+      <c r="A196" s="5">
+        <v>44436</v>
       </c>
       <c r="B196" s="2">
         <f>서울!B196+경기!B196</f>
@@ -3746,8 +3800,8 @@
       </c>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197" t="s">
-        <v>184</v>
+      <c r="A197" s="5">
+        <v>44437</v>
       </c>
       <c r="B197" s="2">
         <f>서울!B197+경기!B197</f>
@@ -3759,8 +3813,8 @@
       </c>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198" t="s">
-        <v>187</v>
+      <c r="A198" s="5">
+        <v>44438</v>
       </c>
       <c r="B198" s="2">
         <f>서울!B198+경기!B198</f>
@@ -3772,8 +3826,8 @@
       </c>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199" t="s">
-        <v>186</v>
+      <c r="A199" s="5">
+        <v>44439</v>
       </c>
       <c r="B199" s="2">
         <f>서울!B199+경기!B199</f>
@@ -3784,7 +3838,1370 @@
         <v>223331</v>
       </c>
     </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="5">
+        <v>44440</v>
+      </c>
+      <c r="B200" s="2">
+        <f>서울!B200+경기!B200</f>
+        <v>81061</v>
+      </c>
+      <c r="C200" s="2">
+        <f>서울!C200+경기!C200</f>
+        <v>225004</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="5">
+        <v>44441</v>
+      </c>
+      <c r="B201" s="2">
+        <f>서울!B201+경기!B201</f>
+        <v>88842</v>
+      </c>
+      <c r="C201" s="2">
+        <f>서울!C201+경기!C201</f>
+        <v>208641</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="5">
+        <v>44442</v>
+      </c>
+      <c r="B202" s="2">
+        <f>서울!B202+경기!B202</f>
+        <v>107409</v>
+      </c>
+      <c r="C202" s="2">
+        <f>서울!C202+경기!C202</f>
+        <v>295588</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="5">
+        <v>44443</v>
+      </c>
+      <c r="B203" s="2">
+        <f>서울!B203+경기!B203</f>
+        <v>60569</v>
+      </c>
+      <c r="C203" s="2">
+        <f>서울!C203+경기!C203</f>
+        <v>113820</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="5">
+        <v>44444</v>
+      </c>
+      <c r="B204" s="2">
+        <f>서울!B204+경기!B204</f>
+        <v>4942</v>
+      </c>
+      <c r="C204" s="2">
+        <f>서울!C204+경기!C204</f>
+        <v>4663</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="5">
+        <v>44445</v>
+      </c>
+      <c r="B205" s="2">
+        <f>서울!B205+경기!B205</f>
+        <v>332515</v>
+      </c>
+      <c r="C205" s="2">
+        <f>서울!C205+경기!C205</f>
+        <v>279852</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="5">
+        <v>44446</v>
+      </c>
+      <c r="B206" s="2">
+        <f>서울!B206+경기!B206</f>
+        <v>265425</v>
+      </c>
+      <c r="C206" s="2">
+        <f>서울!C206+경기!C206</f>
+        <v>190401</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="5">
+        <v>44447</v>
+      </c>
+      <c r="B207" s="2">
+        <f>서울!B207+경기!B207</f>
+        <v>176549</v>
+      </c>
+      <c r="C207" s="2">
+        <f>서울!C207+경기!C207</f>
+        <v>132000</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="5">
+        <v>44448</v>
+      </c>
+      <c r="B208" s="2">
+        <f>서울!B208+경기!B208</f>
+        <v>211641</v>
+      </c>
+      <c r="C208" s="2">
+        <f>서울!C208+경기!C208</f>
+        <v>121955</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="6">
+        <v>44449</v>
+      </c>
+      <c r="B209" s="2">
+        <f>서울!B209+경기!B209</f>
+        <v>155986.5</v>
+      </c>
+      <c r="C209" s="2">
+        <f>서울!C209+경기!C209</f>
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="6">
+        <v>44450</v>
+      </c>
+      <c r="B210">
+        <v>155986.5</v>
+      </c>
+      <c r="C210">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="6">
+        <v>44451</v>
+      </c>
+      <c r="B211" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C211" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="6">
+        <v>44452</v>
+      </c>
+      <c r="B212" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C212" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="6">
+        <v>44453</v>
+      </c>
+      <c r="B213" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C213" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="6">
+        <v>44454</v>
+      </c>
+      <c r="B214" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C214" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="6">
+        <v>44455</v>
+      </c>
+      <c r="B215" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C215" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="6">
+        <v>44456</v>
+      </c>
+      <c r="B216" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C216" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="6">
+        <v>44457</v>
+      </c>
+      <c r="B217" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C217" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="6">
+        <v>44458</v>
+      </c>
+      <c r="B218" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C218" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="6">
+        <v>44459</v>
+      </c>
+      <c r="B219" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C219" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="6">
+        <v>44460</v>
+      </c>
+      <c r="B220" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C220" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="6">
+        <v>44461</v>
+      </c>
+      <c r="B221" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C221" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="6">
+        <v>44462</v>
+      </c>
+      <c r="B222" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C222" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="6">
+        <v>44463</v>
+      </c>
+      <c r="B223" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C223" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="6">
+        <v>44464</v>
+      </c>
+      <c r="B224" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C224" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="6">
+        <v>44465</v>
+      </c>
+      <c r="B225" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C225" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="6">
+        <v>44466</v>
+      </c>
+      <c r="B226" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C226" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="6">
+        <v>44467</v>
+      </c>
+      <c r="B227" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C227" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="6">
+        <v>44468</v>
+      </c>
+      <c r="B228" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C228" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="6">
+        <v>44469</v>
+      </c>
+      <c r="B229" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C229" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="6">
+        <v>44470</v>
+      </c>
+      <c r="B230" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C230" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="6">
+        <v>44471</v>
+      </c>
+      <c r="B231" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C231" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="6">
+        <v>44472</v>
+      </c>
+      <c r="B232" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C232" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="6">
+        <v>44473</v>
+      </c>
+      <c r="B233" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C233" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="6">
+        <v>44474</v>
+      </c>
+      <c r="B234" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C234" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="6">
+        <v>44475</v>
+      </c>
+      <c r="B235" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C235" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="6">
+        <v>44476</v>
+      </c>
+      <c r="B236" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C236" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="6">
+        <v>44477</v>
+      </c>
+      <c r="B237" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C237" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="6">
+        <v>44478</v>
+      </c>
+      <c r="B238" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C238" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="6">
+        <v>44479</v>
+      </c>
+      <c r="B239" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C239" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="6">
+        <v>44480</v>
+      </c>
+      <c r="B240" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C240" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="6">
+        <v>44481</v>
+      </c>
+      <c r="B241" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C241" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="6">
+        <v>44482</v>
+      </c>
+      <c r="B242" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C242" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="6">
+        <v>44483</v>
+      </c>
+      <c r="B243" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C243" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="6">
+        <v>44484</v>
+      </c>
+      <c r="B244" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C244" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="6">
+        <v>44485</v>
+      </c>
+      <c r="B245" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C245" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="6">
+        <v>44486</v>
+      </c>
+      <c r="B246" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C246" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="6">
+        <v>44487</v>
+      </c>
+      <c r="B247" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C247" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="6">
+        <v>44488</v>
+      </c>
+      <c r="B248" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C248" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="6">
+        <v>44489</v>
+      </c>
+      <c r="B249" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C249" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="6">
+        <v>44490</v>
+      </c>
+      <c r="B250" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C250" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="6">
+        <v>44491</v>
+      </c>
+      <c r="B251" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C251" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="6">
+        <v>44492</v>
+      </c>
+      <c r="B252" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C252" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="6">
+        <v>44493</v>
+      </c>
+      <c r="B253" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C253" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="6">
+        <v>44494</v>
+      </c>
+      <c r="B254" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C254" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="6">
+        <v>44495</v>
+      </c>
+      <c r="B255" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C255" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="6">
+        <v>44496</v>
+      </c>
+      <c r="B256" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C256" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="6">
+        <v>44497</v>
+      </c>
+      <c r="B257" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C257" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="6">
+        <v>44498</v>
+      </c>
+      <c r="B258" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C258" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="6">
+        <v>44499</v>
+      </c>
+      <c r="B259" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C259" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="6">
+        <v>44500</v>
+      </c>
+      <c r="B260" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C260" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="6">
+        <v>44501</v>
+      </c>
+      <c r="B261" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C261" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="6">
+        <v>44502</v>
+      </c>
+      <c r="B262" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C262" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="6">
+        <v>44503</v>
+      </c>
+      <c r="B263" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C263" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="6">
+        <v>44504</v>
+      </c>
+      <c r="B264" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C264" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="6">
+        <v>44505</v>
+      </c>
+      <c r="B265" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C265" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="6">
+        <v>44506</v>
+      </c>
+      <c r="B266" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C266" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="6">
+        <v>44507</v>
+      </c>
+      <c r="B267" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C267" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="6">
+        <v>44508</v>
+      </c>
+      <c r="B268" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C268" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="6">
+        <v>44509</v>
+      </c>
+      <c r="B269" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C269" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="6">
+        <v>44510</v>
+      </c>
+      <c r="B270" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C270" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="6">
+        <v>44511</v>
+      </c>
+      <c r="B271" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C271" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="6">
+        <v>44512</v>
+      </c>
+      <c r="B272" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C272" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="6">
+        <v>44513</v>
+      </c>
+      <c r="B273" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C273" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="6">
+        <v>44514</v>
+      </c>
+      <c r="B274" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C274" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="6">
+        <v>44515</v>
+      </c>
+      <c r="B275" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C275" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="6">
+        <v>44516</v>
+      </c>
+      <c r="B276" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C276" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="6">
+        <v>44517</v>
+      </c>
+      <c r="B277" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C277" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="6">
+        <v>44518</v>
+      </c>
+      <c r="B278" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C278" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="6">
+        <v>44519</v>
+      </c>
+      <c r="B279" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C279" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="6">
+        <v>44520</v>
+      </c>
+      <c r="B280" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C280" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="6">
+        <v>44521</v>
+      </c>
+      <c r="B281" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C281" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="6">
+        <v>44522</v>
+      </c>
+      <c r="B282" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C282" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="6">
+        <v>44523</v>
+      </c>
+      <c r="B283" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C283" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="6">
+        <v>44524</v>
+      </c>
+      <c r="B284" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C284" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="6">
+        <v>44525</v>
+      </c>
+      <c r="B285" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C285" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="6">
+        <v>44526</v>
+      </c>
+      <c r="B286" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C286" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="6">
+        <v>44527</v>
+      </c>
+      <c r="B287" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C287" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="6">
+        <v>44528</v>
+      </c>
+      <c r="B288" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C288" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="6">
+        <v>44529</v>
+      </c>
+      <c r="B289" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C289" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="6">
+        <v>44530</v>
+      </c>
+      <c r="B290" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C290" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="6">
+        <v>44531</v>
+      </c>
+      <c r="B291" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C291" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="6">
+        <v>44532</v>
+      </c>
+      <c r="B292" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C292" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="6">
+        <v>44533</v>
+      </c>
+      <c r="B293" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C293" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="6">
+        <v>44534</v>
+      </c>
+      <c r="B294" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C294" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="6">
+        <v>44535</v>
+      </c>
+      <c r="B295" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C295" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="6">
+        <v>44536</v>
+      </c>
+      <c r="B296" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C296" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="6">
+        <v>44537</v>
+      </c>
+      <c r="B297" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C297" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="6">
+        <v>44538</v>
+      </c>
+      <c r="B298" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C298" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="6">
+        <v>44539</v>
+      </c>
+      <c r="B299" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C299" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="6">
+        <v>44540</v>
+      </c>
+      <c r="B300" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C300" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="6">
+        <v>44541</v>
+      </c>
+      <c r="B301" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C301" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="6">
+        <v>44542</v>
+      </c>
+      <c r="B302" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C302" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="6">
+        <v>44543</v>
+      </c>
+      <c r="B303" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C303" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="6">
+        <v>44544</v>
+      </c>
+      <c r="B304" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C304" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="6">
+        <v>44545</v>
+      </c>
+      <c r="B305" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C305" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="6">
+        <v>44546</v>
+      </c>
+      <c r="B306" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C306" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="6">
+        <v>44547</v>
+      </c>
+      <c r="B307" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C307" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="6">
+        <v>44548</v>
+      </c>
+      <c r="B308" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C308" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="6">
+        <v>44549</v>
+      </c>
+      <c r="B309" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C309" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="6">
+        <v>44550</v>
+      </c>
+      <c r="B310" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C310" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="6">
+        <v>44551</v>
+      </c>
+      <c r="B311" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C311" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" s="6">
+        <v>44552</v>
+      </c>
+      <c r="B312" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C312" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="6">
+        <v>44553</v>
+      </c>
+      <c r="B313" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C313" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="6">
+        <v>44554</v>
+      </c>
+      <c r="B314" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C314" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="6">
+        <v>44555</v>
+      </c>
+      <c r="B315" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C315" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="6">
+        <v>44556</v>
+      </c>
+      <c r="B316" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C316" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="6">
+        <v>44557</v>
+      </c>
+      <c r="B317" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C317" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="6">
+        <v>44558</v>
+      </c>
+      <c r="B318" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C318" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="6">
+        <v>44559</v>
+      </c>
+      <c r="B319" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C319" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="6">
+        <v>44560</v>
+      </c>
+      <c r="B320" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C320" s="1">
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="6">
+        <v>44561</v>
+      </c>
+      <c r="B321" s="1">
+        <v>155986.5</v>
+      </c>
+      <c r="C321" s="1">
+        <v>168365</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
 </worksheet>
@@ -3793,10 +5210,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C199"/>
+  <dimension ref="A1:C209"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A195" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B209" sqref="B209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="18"/>
@@ -5993,7 +7410,120 @@
         <v>95981</v>
       </c>
     </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B200" s="2">
+        <v>34235</v>
+      </c>
+      <c r="C200" s="2">
+        <v>94420</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B201" s="2">
+        <v>39320</v>
+      </c>
+      <c r="C201" s="2">
+        <v>88297</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B202" s="2">
+        <v>45045</v>
+      </c>
+      <c r="C202" s="2">
+        <v>113133</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B203" s="2">
+        <v>22326</v>
+      </c>
+      <c r="C203" s="2">
+        <v>42787</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B204" s="2">
+        <v>1388</v>
+      </c>
+      <c r="C204" s="2">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B205" s="2">
+        <v>145248</v>
+      </c>
+      <c r="C205" s="2">
+        <v>116054</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B206" s="2">
+        <v>111410</v>
+      </c>
+      <c r="C206" s="2">
+        <v>80167</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B207" s="2">
+        <v>73677</v>
+      </c>
+      <c r="C207" s="2">
+        <v>54596</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B208" s="2">
+        <v>91416</v>
+      </c>
+      <c r="C208" s="2">
+        <v>50641</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B209" s="2">
+        <f>AVERAGE(B201:B208)</f>
+        <v>66228.75</v>
+      </c>
+      <c r="C209" s="2">
+        <f>AVERAGE(C201:C208)</f>
+        <v>68406.875</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
 </worksheet>
@@ -6002,10 +7532,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:C199"/>
+  <dimension ref="A1:C209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A192" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D213" sqref="D213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="18"/>
@@ -8202,8 +9732,121 @@
         <v>127350</v>
       </c>
     </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B200" s="1">
+        <v>46826</v>
+      </c>
+      <c r="C200" s="1">
+        <v>130584</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B201" s="1">
+        <v>49522</v>
+      </c>
+      <c r="C201" s="1">
+        <v>120344</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B202" s="1">
+        <v>62364</v>
+      </c>
+      <c r="C202" s="1">
+        <v>182455</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B203" s="1">
+        <v>38243</v>
+      </c>
+      <c r="C203" s="1">
+        <v>71033</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B204" s="1">
+        <v>3554</v>
+      </c>
+      <c r="C204" s="1">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B205" s="1">
+        <v>187267</v>
+      </c>
+      <c r="C205" s="1">
+        <v>163798</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B206" s="1">
+        <v>154015</v>
+      </c>
+      <c r="C206" s="1">
+        <v>110234</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B207" s="1">
+        <v>102872</v>
+      </c>
+      <c r="C207" s="1">
+        <v>77404</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B208" s="1">
+        <v>120225</v>
+      </c>
+      <c r="C208" s="1">
+        <v>71314</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B209" s="2">
+        <f>AVERAGE(B201:B208)</f>
+        <v>89757.75</v>
+      </c>
+      <c r="C209" s="2">
+        <f>AVERAGE(C201:C208)</f>
+        <v>99958.125</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/vaccine/vaccination_number.xlsx
+++ b/data/vaccine/vaccination_number.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iyunjeong/repos/COVID19_SeoulGyeonggi/data/vaccine/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yjlee/repos/COVID19_SeoulGyeonggi/data/vaccine/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A70C423-ED63-324F-8E03-8DF9EE8E2633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F3846B-FD11-6B48-A7C6-95DE3DE6E3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13120" yWindow="1380" windowWidth="13180" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1247,8 +1247,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A300" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D312" sqref="D312"/>
+    <sheetView tabSelected="1" topLeftCell="A304" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B210" sqref="B210:B321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="18"/>
@@ -3973,10 +3973,12 @@
         <v>44450</v>
       </c>
       <c r="B210">
-        <v>155986.5</v>
+        <f>$B$209/3</f>
+        <v>51995.5</v>
       </c>
       <c r="C210">
-        <v>168365</v>
+        <f>$C$209/2</f>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -3984,10 +3986,12 @@
         <v>44451</v>
       </c>
       <c r="B211" s="1">
-        <v>155986.5</v>
+        <f t="shared" ref="B211:B274" si="0">$B$209/3</f>
+        <v>51995.5</v>
       </c>
       <c r="C211" s="1">
-        <v>168365</v>
+        <f t="shared" ref="C211:C274" si="1">$C$209/2</f>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -3995,10 +3999,12 @@
         <v>44452</v>
       </c>
       <c r="B212" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C212" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4006,10 +4012,12 @@
         <v>44453</v>
       </c>
       <c r="B213" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C213" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4017,10 +4025,12 @@
         <v>44454</v>
       </c>
       <c r="B214" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C214" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4028,10 +4038,12 @@
         <v>44455</v>
       </c>
       <c r="B215" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C215" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4039,10 +4051,12 @@
         <v>44456</v>
       </c>
       <c r="B216" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C216" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4050,10 +4064,12 @@
         <v>44457</v>
       </c>
       <c r="B217" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C217" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4061,10 +4077,12 @@
         <v>44458</v>
       </c>
       <c r="B218" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C218" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -4072,10 +4090,12 @@
         <v>44459</v>
       </c>
       <c r="B219" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C219" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -4083,10 +4103,12 @@
         <v>44460</v>
       </c>
       <c r="B220" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C220" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -4094,10 +4116,12 @@
         <v>44461</v>
       </c>
       <c r="B221" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C221" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -4105,10 +4129,12 @@
         <v>44462</v>
       </c>
       <c r="B222" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C222" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -4116,10 +4142,12 @@
         <v>44463</v>
       </c>
       <c r="B223" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C223" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4127,10 +4155,12 @@
         <v>44464</v>
       </c>
       <c r="B224" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C224" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -4138,10 +4168,12 @@
         <v>44465</v>
       </c>
       <c r="B225" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C225" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -4149,10 +4181,12 @@
         <v>44466</v>
       </c>
       <c r="B226" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C226" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -4160,10 +4194,12 @@
         <v>44467</v>
       </c>
       <c r="B227" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C227" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -4171,10 +4207,12 @@
         <v>44468</v>
       </c>
       <c r="B228" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C228" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -4182,10 +4220,12 @@
         <v>44469</v>
       </c>
       <c r="B229" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C229" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -4193,10 +4233,12 @@
         <v>44470</v>
       </c>
       <c r="B230" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C230" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -4204,10 +4246,12 @@
         <v>44471</v>
       </c>
       <c r="B231" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C231" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -4215,10 +4259,12 @@
         <v>44472</v>
       </c>
       <c r="B232" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C232" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4226,10 +4272,12 @@
         <v>44473</v>
       </c>
       <c r="B233" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C233" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -4237,10 +4285,12 @@
         <v>44474</v>
       </c>
       <c r="B234" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C234" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -4248,10 +4298,12 @@
         <v>44475</v>
       </c>
       <c r="B235" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C235" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -4259,10 +4311,12 @@
         <v>44476</v>
       </c>
       <c r="B236" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C236" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -4270,10 +4324,12 @@
         <v>44477</v>
       </c>
       <c r="B237" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C237" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -4281,10 +4337,12 @@
         <v>44478</v>
       </c>
       <c r="B238" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C238" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -4292,10 +4350,12 @@
         <v>44479</v>
       </c>
       <c r="B239" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C239" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -4303,10 +4363,12 @@
         <v>44480</v>
       </c>
       <c r="B240" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C240" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -4314,10 +4376,12 @@
         <v>44481</v>
       </c>
       <c r="B241" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C241" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -4325,10 +4389,12 @@
         <v>44482</v>
       </c>
       <c r="B242" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C242" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -4336,10 +4402,12 @@
         <v>44483</v>
       </c>
       <c r="B243" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C243" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -4347,10 +4415,12 @@
         <v>44484</v>
       </c>
       <c r="B244" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C244" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -4358,10 +4428,12 @@
         <v>44485</v>
       </c>
       <c r="B245" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C245" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -4369,10 +4441,12 @@
         <v>44486</v>
       </c>
       <c r="B246" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C246" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -4380,10 +4454,12 @@
         <v>44487</v>
       </c>
       <c r="B247" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C247" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -4391,10 +4467,12 @@
         <v>44488</v>
       </c>
       <c r="B248" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C248" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -4402,10 +4480,12 @@
         <v>44489</v>
       </c>
       <c r="B249" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C249" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -4413,10 +4493,12 @@
         <v>44490</v>
       </c>
       <c r="B250" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C250" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -4424,10 +4506,12 @@
         <v>44491</v>
       </c>
       <c r="B251" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C251" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -4435,10 +4519,12 @@
         <v>44492</v>
       </c>
       <c r="B252" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C252" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -4446,10 +4532,12 @@
         <v>44493</v>
       </c>
       <c r="B253" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C253" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -4457,10 +4545,12 @@
         <v>44494</v>
       </c>
       <c r="B254" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C254" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -4468,10 +4558,12 @@
         <v>44495</v>
       </c>
       <c r="B255" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C255" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -4479,10 +4571,12 @@
         <v>44496</v>
       </c>
       <c r="B256" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C256" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -4490,10 +4584,12 @@
         <v>44497</v>
       </c>
       <c r="B257" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C257" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -4501,10 +4597,12 @@
         <v>44498</v>
       </c>
       <c r="B258" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C258" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -4512,10 +4610,12 @@
         <v>44499</v>
       </c>
       <c r="B259" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C259" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -4523,10 +4623,12 @@
         <v>44500</v>
       </c>
       <c r="B260" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C260" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -4534,10 +4636,12 @@
         <v>44501</v>
       </c>
       <c r="B261" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C261" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -4545,10 +4649,12 @@
         <v>44502</v>
       </c>
       <c r="B262" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C262" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -4556,10 +4662,12 @@
         <v>44503</v>
       </c>
       <c r="B263" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C263" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -4567,10 +4675,12 @@
         <v>44504</v>
       </c>
       <c r="B264" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C264" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -4578,10 +4688,12 @@
         <v>44505</v>
       </c>
       <c r="B265" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C265" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -4589,10 +4701,12 @@
         <v>44506</v>
       </c>
       <c r="B266" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C266" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -4600,10 +4714,12 @@
         <v>44507</v>
       </c>
       <c r="B267" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C267" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -4611,10 +4727,12 @@
         <v>44508</v>
       </c>
       <c r="B268" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C268" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -4622,10 +4740,12 @@
         <v>44509</v>
       </c>
       <c r="B269" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C269" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -4633,10 +4753,12 @@
         <v>44510</v>
       </c>
       <c r="B270" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C270" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -4644,10 +4766,12 @@
         <v>44511</v>
       </c>
       <c r="B271" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C271" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -4655,10 +4779,12 @@
         <v>44512</v>
       </c>
       <c r="B272" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C272" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -4666,10 +4792,12 @@
         <v>44513</v>
       </c>
       <c r="B273" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C273" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -4677,10 +4805,12 @@
         <v>44514</v>
       </c>
       <c r="B274" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="0"/>
+        <v>51995.5</v>
       </c>
       <c r="C274" s="1">
-        <v>168365</v>
+        <f t="shared" si="1"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -4688,10 +4818,12 @@
         <v>44515</v>
       </c>
       <c r="B275" s="1">
-        <v>155986.5</v>
+        <f t="shared" ref="B275:B321" si="2">$B$209/3</f>
+        <v>51995.5</v>
       </c>
       <c r="C275" s="1">
-        <v>168365</v>
+        <f t="shared" ref="C275:C321" si="3">$C$209/2</f>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -4699,10 +4831,12 @@
         <v>44516</v>
       </c>
       <c r="B276" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="2"/>
+        <v>51995.5</v>
       </c>
       <c r="C276" s="1">
-        <v>168365</v>
+        <f t="shared" si="3"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -4710,10 +4844,12 @@
         <v>44517</v>
       </c>
       <c r="B277" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="2"/>
+        <v>51995.5</v>
       </c>
       <c r="C277" s="1">
-        <v>168365</v>
+        <f t="shared" si="3"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -4721,10 +4857,12 @@
         <v>44518</v>
       </c>
       <c r="B278" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="2"/>
+        <v>51995.5</v>
       </c>
       <c r="C278" s="1">
-        <v>168365</v>
+        <f t="shared" si="3"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -4732,10 +4870,12 @@
         <v>44519</v>
       </c>
       <c r="B279" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="2"/>
+        <v>51995.5</v>
       </c>
       <c r="C279" s="1">
-        <v>168365</v>
+        <f t="shared" si="3"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -4743,10 +4883,12 @@
         <v>44520</v>
       </c>
       <c r="B280" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="2"/>
+        <v>51995.5</v>
       </c>
       <c r="C280" s="1">
-        <v>168365</v>
+        <f t="shared" si="3"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -4754,10 +4896,12 @@
         <v>44521</v>
       </c>
       <c r="B281" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="2"/>
+        <v>51995.5</v>
       </c>
       <c r="C281" s="1">
-        <v>168365</v>
+        <f t="shared" si="3"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -4765,10 +4909,12 @@
         <v>44522</v>
       </c>
       <c r="B282" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="2"/>
+        <v>51995.5</v>
       </c>
       <c r="C282" s="1">
-        <v>168365</v>
+        <f t="shared" si="3"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -4776,10 +4922,12 @@
         <v>44523</v>
       </c>
       <c r="B283" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="2"/>
+        <v>51995.5</v>
       </c>
       <c r="C283" s="1">
-        <v>168365</v>
+        <f t="shared" si="3"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -4787,10 +4935,12 @@
         <v>44524</v>
       </c>
       <c r="B284" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="2"/>
+        <v>51995.5</v>
       </c>
       <c r="C284" s="1">
-        <v>168365</v>
+        <f t="shared" si="3"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -4798,10 +4948,12 @@
         <v>44525</v>
       </c>
       <c r="B285" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="2"/>
+        <v>51995.5</v>
       </c>
       <c r="C285" s="1">
-        <v>168365</v>
+        <f t="shared" si="3"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -4809,10 +4961,12 @@
         <v>44526</v>
       </c>
       <c r="B286" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="2"/>
+        <v>51995.5</v>
       </c>
       <c r="C286" s="1">
-        <v>168365</v>
+        <f t="shared" si="3"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -4820,10 +4974,12 @@
         <v>44527</v>
       </c>
       <c r="B287" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="2"/>
+        <v>51995.5</v>
       </c>
       <c r="C287" s="1">
-        <v>168365</v>
+        <f t="shared" si="3"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -4831,10 +4987,12 @@
         <v>44528</v>
       </c>
       <c r="B288" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="2"/>
+        <v>51995.5</v>
       </c>
       <c r="C288" s="1">
-        <v>168365</v>
+        <f t="shared" si="3"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -4842,10 +5000,12 @@
         <v>44529</v>
       </c>
       <c r="B289" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="2"/>
+        <v>51995.5</v>
       </c>
       <c r="C289" s="1">
-        <v>168365</v>
+        <f t="shared" si="3"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -4853,10 +5013,12 @@
         <v>44530</v>
       </c>
       <c r="B290" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="2"/>
+        <v>51995.5</v>
       </c>
       <c r="C290" s="1">
-        <v>168365</v>
+        <f t="shared" si="3"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -4864,10 +5026,12 @@
         <v>44531</v>
       </c>
       <c r="B291" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="2"/>
+        <v>51995.5</v>
       </c>
       <c r="C291" s="1">
-        <v>168365</v>
+        <f t="shared" si="3"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -4875,10 +5039,12 @@
         <v>44532</v>
       </c>
       <c r="B292" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="2"/>
+        <v>51995.5</v>
       </c>
       <c r="C292" s="1">
-        <v>168365</v>
+        <f t="shared" si="3"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -4886,10 +5052,12 @@
         <v>44533</v>
       </c>
       <c r="B293" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="2"/>
+        <v>51995.5</v>
       </c>
       <c r="C293" s="1">
-        <v>168365</v>
+        <f t="shared" si="3"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -4897,10 +5065,12 @@
         <v>44534</v>
       </c>
       <c r="B294" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="2"/>
+        <v>51995.5</v>
       </c>
       <c r="C294" s="1">
-        <v>168365</v>
+        <f t="shared" si="3"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -4908,10 +5078,12 @@
         <v>44535</v>
       </c>
       <c r="B295" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="2"/>
+        <v>51995.5</v>
       </c>
       <c r="C295" s="1">
-        <v>168365</v>
+        <f t="shared" si="3"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -4919,10 +5091,12 @@
         <v>44536</v>
       </c>
       <c r="B296" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="2"/>
+        <v>51995.5</v>
       </c>
       <c r="C296" s="1">
-        <v>168365</v>
+        <f t="shared" si="3"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -4930,10 +5104,12 @@
         <v>44537</v>
       </c>
       <c r="B297" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="2"/>
+        <v>51995.5</v>
       </c>
       <c r="C297" s="1">
-        <v>168365</v>
+        <f t="shared" si="3"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -4941,10 +5117,12 @@
         <v>44538</v>
       </c>
       <c r="B298" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="2"/>
+        <v>51995.5</v>
       </c>
       <c r="C298" s="1">
-        <v>168365</v>
+        <f t="shared" si="3"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -4952,10 +5130,12 @@
         <v>44539</v>
       </c>
       <c r="B299" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="2"/>
+        <v>51995.5</v>
       </c>
       <c r="C299" s="1">
-        <v>168365</v>
+        <f t="shared" si="3"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -4963,10 +5143,12 @@
         <v>44540</v>
       </c>
       <c r="B300" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="2"/>
+        <v>51995.5</v>
       </c>
       <c r="C300" s="1">
-        <v>168365</v>
+        <f t="shared" si="3"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -4974,10 +5156,12 @@
         <v>44541</v>
       </c>
       <c r="B301" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="2"/>
+        <v>51995.5</v>
       </c>
       <c r="C301" s="1">
-        <v>168365</v>
+        <f t="shared" si="3"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -4985,10 +5169,12 @@
         <v>44542</v>
       </c>
       <c r="B302" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="2"/>
+        <v>51995.5</v>
       </c>
       <c r="C302" s="1">
-        <v>168365</v>
+        <f t="shared" si="3"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -4996,10 +5182,12 @@
         <v>44543</v>
       </c>
       <c r="B303" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="2"/>
+        <v>51995.5</v>
       </c>
       <c r="C303" s="1">
-        <v>168365</v>
+        <f t="shared" si="3"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -5007,10 +5195,12 @@
         <v>44544</v>
       </c>
       <c r="B304" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="2"/>
+        <v>51995.5</v>
       </c>
       <c r="C304" s="1">
-        <v>168365</v>
+        <f t="shared" si="3"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -5018,10 +5208,12 @@
         <v>44545</v>
       </c>
       <c r="B305" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="2"/>
+        <v>51995.5</v>
       </c>
       <c r="C305" s="1">
-        <v>168365</v>
+        <f t="shared" si="3"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -5029,10 +5221,12 @@
         <v>44546</v>
       </c>
       <c r="B306" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="2"/>
+        <v>51995.5</v>
       </c>
       <c r="C306" s="1">
-        <v>168365</v>
+        <f t="shared" si="3"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -5040,10 +5234,12 @@
         <v>44547</v>
       </c>
       <c r="B307" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="2"/>
+        <v>51995.5</v>
       </c>
       <c r="C307" s="1">
-        <v>168365</v>
+        <f t="shared" si="3"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -5051,10 +5247,12 @@
         <v>44548</v>
       </c>
       <c r="B308" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="2"/>
+        <v>51995.5</v>
       </c>
       <c r="C308" s="1">
-        <v>168365</v>
+        <f t="shared" si="3"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -5062,10 +5260,12 @@
         <v>44549</v>
       </c>
       <c r="B309" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="2"/>
+        <v>51995.5</v>
       </c>
       <c r="C309" s="1">
-        <v>168365</v>
+        <f t="shared" si="3"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5073,10 +5273,12 @@
         <v>44550</v>
       </c>
       <c r="B310" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="2"/>
+        <v>51995.5</v>
       </c>
       <c r="C310" s="1">
-        <v>168365</v>
+        <f t="shared" si="3"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -5084,10 +5286,12 @@
         <v>44551</v>
       </c>
       <c r="B311" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="2"/>
+        <v>51995.5</v>
       </c>
       <c r="C311" s="1">
-        <v>168365</v>
+        <f t="shared" si="3"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5095,10 +5299,12 @@
         <v>44552</v>
       </c>
       <c r="B312" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="2"/>
+        <v>51995.5</v>
       </c>
       <c r="C312" s="1">
-        <v>168365</v>
+        <f t="shared" si="3"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -5106,10 +5312,12 @@
         <v>44553</v>
       </c>
       <c r="B313" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="2"/>
+        <v>51995.5</v>
       </c>
       <c r="C313" s="1">
-        <v>168365</v>
+        <f t="shared" si="3"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -5117,10 +5325,12 @@
         <v>44554</v>
       </c>
       <c r="B314" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="2"/>
+        <v>51995.5</v>
       </c>
       <c r="C314" s="1">
-        <v>168365</v>
+        <f t="shared" si="3"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -5128,10 +5338,12 @@
         <v>44555</v>
       </c>
       <c r="B315" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="2"/>
+        <v>51995.5</v>
       </c>
       <c r="C315" s="1">
-        <v>168365</v>
+        <f t="shared" si="3"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -5139,10 +5351,12 @@
         <v>44556</v>
       </c>
       <c r="B316" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="2"/>
+        <v>51995.5</v>
       </c>
       <c r="C316" s="1">
-        <v>168365</v>
+        <f t="shared" si="3"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -5150,10 +5364,12 @@
         <v>44557</v>
       </c>
       <c r="B317" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="2"/>
+        <v>51995.5</v>
       </c>
       <c r="C317" s="1">
-        <v>168365</v>
+        <f t="shared" si="3"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -5161,10 +5377,12 @@
         <v>44558</v>
       </c>
       <c r="B318" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="2"/>
+        <v>51995.5</v>
       </c>
       <c r="C318" s="1">
-        <v>168365</v>
+        <f t="shared" si="3"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -5172,10 +5390,12 @@
         <v>44559</v>
       </c>
       <c r="B319" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="2"/>
+        <v>51995.5</v>
       </c>
       <c r="C319" s="1">
-        <v>168365</v>
+        <f t="shared" si="3"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5183,10 +5403,12 @@
         <v>44560</v>
       </c>
       <c r="B320" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="2"/>
+        <v>51995.5</v>
       </c>
       <c r="C320" s="1">
-        <v>168365</v>
+        <f t="shared" si="3"/>
+        <v>84182.5</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -5194,10 +5416,12 @@
         <v>44561</v>
       </c>
       <c r="B321" s="1">
-        <v>155986.5</v>
+        <f t="shared" si="2"/>
+        <v>51995.5</v>
       </c>
       <c r="C321" s="1">
-        <v>168365</v>
+        <f t="shared" si="3"/>
+        <v>84182.5</v>
       </c>
     </row>
   </sheetData>
@@ -5212,7 +5436,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C209"/>
   <sheetViews>
-    <sheetView topLeftCell="A195" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="A196" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="B209" sqref="B209"/>
     </sheetView>
   </sheetViews>

--- a/data/vaccine/vaccination_number.xlsx
+++ b/data/vaccine/vaccination_number.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yjlee/repos/COVID19_SeoulGyeonggi/data/vaccine/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iyunjeong/repos/COVID19_SeoulGyeonggi/data/vaccine/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F3846B-FD11-6B48-A7C6-95DE3DE6E3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE330C6-2F28-1245-870C-2322D6028C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13120" yWindow="1380" windowWidth="13180" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23260" yWindow="1680" windowWidth="13180" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="total" sheetId="1" r:id="rId1"/>
@@ -1247,8 +1247,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B210" sqref="B210:B321"/>
+    <sheetView tabSelected="1" topLeftCell="A301" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D320" sqref="D320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="18"/>

--- a/data/vaccine/vaccination_number.xlsx
+++ b/data/vaccine/vaccination_number.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iyunjeong/repos/COVID19_SeoulGyeonggi/data/vaccine/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE330C6-2F28-1245-870C-2322D6028C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1745AC08-8966-354C-B858-FCED3157C399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23260" yWindow="1680" windowWidth="13180" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="20920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="total" sheetId="1" r:id="rId1"/>
@@ -1247,8 +1247,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D320" sqref="D320"/>
+    <sheetView tabSelected="1" topLeftCell="A298" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C210" sqref="C210:C321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="18"/>
@@ -3960,7 +3960,6 @@
         <v>44449</v>
       </c>
       <c r="B209" s="2">
-        <f>서울!B209+경기!B209</f>
         <v>155986.5</v>
       </c>
       <c r="C209" s="2">
@@ -3972,1456 +3971,1232 @@
       <c r="A210" s="6">
         <v>44450</v>
       </c>
-      <c r="B210">
-        <f>$B$209/3</f>
-        <v>51995.5</v>
+      <c r="B210" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C210">
-        <f>$C$209/2</f>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="6">
         <v>44451</v>
       </c>
-      <c r="B211" s="1">
-        <f t="shared" ref="B211:B274" si="0">$B$209/3</f>
-        <v>51995.5</v>
+      <c r="B211" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C211" s="1">
-        <f t="shared" ref="C211:C274" si="1">$C$209/2</f>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="6">
         <v>44452</v>
       </c>
-      <c r="B212" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B212" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C212" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="6">
         <v>44453</v>
       </c>
-      <c r="B213" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B213" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C213" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="6">
         <v>44454</v>
       </c>
-      <c r="B214" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B214" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C214" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="6">
         <v>44455</v>
       </c>
-      <c r="B215" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B215" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C215" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="6">
         <v>44456</v>
       </c>
-      <c r="B216" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B216" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C216" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="6">
         <v>44457</v>
       </c>
-      <c r="B217" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B217" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C217" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="6">
         <v>44458</v>
       </c>
-      <c r="B218" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B218" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C218" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="6">
         <v>44459</v>
       </c>
-      <c r="B219" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B219" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C219" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="6">
         <v>44460</v>
       </c>
-      <c r="B220" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B220" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C220" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="6">
         <v>44461</v>
       </c>
-      <c r="B221" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B221" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C221" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="6">
         <v>44462</v>
       </c>
-      <c r="B222" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B222" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C222" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="6">
         <v>44463</v>
       </c>
-      <c r="B223" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B223" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C223" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="6">
         <v>44464</v>
       </c>
-      <c r="B224" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B224" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C224" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="6">
         <v>44465</v>
       </c>
-      <c r="B225" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B225" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C225" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="6">
         <v>44466</v>
       </c>
-      <c r="B226" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B226" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C226" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="6">
         <v>44467</v>
       </c>
-      <c r="B227" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B227" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C227" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="6">
         <v>44468</v>
       </c>
-      <c r="B228" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B228" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C228" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="6">
         <v>44469</v>
       </c>
-      <c r="B229" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B229" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C229" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="6">
         <v>44470</v>
       </c>
-      <c r="B230" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B230" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C230" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="6">
         <v>44471</v>
       </c>
-      <c r="B231" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B231" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C231" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="6">
         <v>44472</v>
       </c>
-      <c r="B232" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B232" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C232" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="6">
         <v>44473</v>
       </c>
-      <c r="B233" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B233" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C233" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="6">
         <v>44474</v>
       </c>
-      <c r="B234" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B234" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C234" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="6">
         <v>44475</v>
       </c>
-      <c r="B235" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B235" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C235" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="6">
         <v>44476</v>
       </c>
-      <c r="B236" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B236" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C236" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="6">
         <v>44477</v>
       </c>
-      <c r="B237" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B237" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C237" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="6">
         <v>44478</v>
       </c>
-      <c r="B238" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B238" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C238" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="6">
         <v>44479</v>
       </c>
-      <c r="B239" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B239" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C239" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="6">
         <v>44480</v>
       </c>
-      <c r="B240" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B240" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C240" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="6">
         <v>44481</v>
       </c>
-      <c r="B241" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B241" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C241" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="6">
         <v>44482</v>
       </c>
-      <c r="B242" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B242" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C242" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="6">
         <v>44483</v>
       </c>
-      <c r="B243" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B243" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C243" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="6">
         <v>44484</v>
       </c>
-      <c r="B244" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B244" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C244" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="6">
         <v>44485</v>
       </c>
-      <c r="B245" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B245" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C245" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="6">
         <v>44486</v>
       </c>
-      <c r="B246" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B246" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C246" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="6">
         <v>44487</v>
       </c>
-      <c r="B247" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B247" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C247" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="6">
         <v>44488</v>
       </c>
-      <c r="B248" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B248" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C248" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="6">
         <v>44489</v>
       </c>
-      <c r="B249" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B249" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C249" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="6">
         <v>44490</v>
       </c>
-      <c r="B250" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B250" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C250" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="6">
         <v>44491</v>
       </c>
-      <c r="B251" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B251" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C251" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="6">
         <v>44492</v>
       </c>
-      <c r="B252" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B252" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C252" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="6">
         <v>44493</v>
       </c>
-      <c r="B253" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B253" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C253" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="6">
         <v>44494</v>
       </c>
-      <c r="B254" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B254" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C254" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="6">
         <v>44495</v>
       </c>
-      <c r="B255" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B255" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C255" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="6">
         <v>44496</v>
       </c>
-      <c r="B256" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B256" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C256" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="6">
         <v>44497</v>
       </c>
-      <c r="B257" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B257" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C257" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="6">
         <v>44498</v>
       </c>
-      <c r="B258" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B258" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C258" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="6">
         <v>44499</v>
       </c>
-      <c r="B259" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B259" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C259" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="6">
         <v>44500</v>
       </c>
-      <c r="B260" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B260" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C260" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="6">
         <v>44501</v>
       </c>
-      <c r="B261" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B261" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C261" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="6">
         <v>44502</v>
       </c>
-      <c r="B262" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B262" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C262" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="6">
         <v>44503</v>
       </c>
-      <c r="B263" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B263" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C263" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="6">
         <v>44504</v>
       </c>
-      <c r="B264" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B264" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C264" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="6">
         <v>44505</v>
       </c>
-      <c r="B265" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B265" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C265" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="6">
         <v>44506</v>
       </c>
-      <c r="B266" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B266" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C266" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="6">
         <v>44507</v>
       </c>
-      <c r="B267" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B267" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C267" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="6">
         <v>44508</v>
       </c>
-      <c r="B268" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B268" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C268" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="6">
         <v>44509</v>
       </c>
-      <c r="B269" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B269" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C269" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="6">
         <v>44510</v>
       </c>
-      <c r="B270" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B270" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C270" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="6">
         <v>44511</v>
       </c>
-      <c r="B271" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B271" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C271" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="6">
         <v>44512</v>
       </c>
-      <c r="B272" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B272" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C272" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="6">
         <v>44513</v>
       </c>
-      <c r="B273" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B273" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C273" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="6">
         <v>44514</v>
       </c>
-      <c r="B274" s="1">
-        <f t="shared" si="0"/>
-        <v>51995.5</v>
+      <c r="B274" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C274" s="1">
-        <f t="shared" si="1"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="6">
         <v>44515</v>
       </c>
-      <c r="B275" s="1">
-        <f t="shared" ref="B275:B321" si="2">$B$209/3</f>
-        <v>51995.5</v>
+      <c r="B275" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C275" s="1">
-        <f t="shared" ref="C275:C321" si="3">$C$209/2</f>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="6">
         <v>44516</v>
       </c>
-      <c r="B276" s="1">
-        <f t="shared" si="2"/>
-        <v>51995.5</v>
+      <c r="B276" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C276" s="1">
-        <f t="shared" si="3"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="6">
         <v>44517</v>
       </c>
-      <c r="B277" s="1">
-        <f t="shared" si="2"/>
-        <v>51995.5</v>
+      <c r="B277" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C277" s="1">
-        <f t="shared" si="3"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="6">
         <v>44518</v>
       </c>
-      <c r="B278" s="1">
-        <f t="shared" si="2"/>
-        <v>51995.5</v>
+      <c r="B278" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C278" s="1">
-        <f t="shared" si="3"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="6">
         <v>44519</v>
       </c>
-      <c r="B279" s="1">
-        <f t="shared" si="2"/>
-        <v>51995.5</v>
+      <c r="B279" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C279" s="1">
-        <f t="shared" si="3"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="6">
         <v>44520</v>
       </c>
-      <c r="B280" s="1">
-        <f t="shared" si="2"/>
-        <v>51995.5</v>
+      <c r="B280" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C280" s="1">
-        <f t="shared" si="3"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="6">
         <v>44521</v>
       </c>
-      <c r="B281" s="1">
-        <f t="shared" si="2"/>
-        <v>51995.5</v>
+      <c r="B281" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C281" s="1">
-        <f t="shared" si="3"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="6">
         <v>44522</v>
       </c>
-      <c r="B282" s="1">
-        <f t="shared" si="2"/>
-        <v>51995.5</v>
+      <c r="B282" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C282" s="1">
-        <f t="shared" si="3"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="6">
         <v>44523</v>
       </c>
-      <c r="B283" s="1">
-        <f t="shared" si="2"/>
-        <v>51995.5</v>
+      <c r="B283" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C283" s="1">
-        <f t="shared" si="3"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="6">
         <v>44524</v>
       </c>
-      <c r="B284" s="1">
-        <f t="shared" si="2"/>
-        <v>51995.5</v>
+      <c r="B284" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C284" s="1">
-        <f t="shared" si="3"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="6">
         <v>44525</v>
       </c>
-      <c r="B285" s="1">
-        <f t="shared" si="2"/>
-        <v>51995.5</v>
+      <c r="B285" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C285" s="1">
-        <f t="shared" si="3"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="6">
         <v>44526</v>
       </c>
-      <c r="B286" s="1">
-        <f t="shared" si="2"/>
-        <v>51995.5</v>
+      <c r="B286" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C286" s="1">
-        <f t="shared" si="3"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="6">
         <v>44527</v>
       </c>
-      <c r="B287" s="1">
-        <f t="shared" si="2"/>
-        <v>51995.5</v>
+      <c r="B287" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C287" s="1">
-        <f t="shared" si="3"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="6">
         <v>44528</v>
       </c>
-      <c r="B288" s="1">
-        <f t="shared" si="2"/>
-        <v>51995.5</v>
+      <c r="B288" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C288" s="1">
-        <f t="shared" si="3"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="6">
         <v>44529</v>
       </c>
-      <c r="B289" s="1">
-        <f t="shared" si="2"/>
-        <v>51995.5</v>
+      <c r="B289" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C289" s="1">
-        <f t="shared" si="3"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="6">
         <v>44530</v>
       </c>
-      <c r="B290" s="1">
-        <f t="shared" si="2"/>
-        <v>51995.5</v>
+      <c r="B290" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C290" s="1">
-        <f t="shared" si="3"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="6">
         <v>44531</v>
       </c>
-      <c r="B291" s="1">
-        <f t="shared" si="2"/>
-        <v>51995.5</v>
+      <c r="B291" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C291" s="1">
-        <f t="shared" si="3"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="6">
         <v>44532</v>
       </c>
-      <c r="B292" s="1">
-        <f t="shared" si="2"/>
-        <v>51995.5</v>
+      <c r="B292" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C292" s="1">
-        <f t="shared" si="3"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="6">
         <v>44533</v>
       </c>
-      <c r="B293" s="1">
-        <f t="shared" si="2"/>
-        <v>51995.5</v>
+      <c r="B293" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C293" s="1">
-        <f t="shared" si="3"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="6">
         <v>44534</v>
       </c>
-      <c r="B294" s="1">
-        <f t="shared" si="2"/>
-        <v>51995.5</v>
+      <c r="B294" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C294" s="1">
-        <f t="shared" si="3"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="6">
         <v>44535</v>
       </c>
-      <c r="B295" s="1">
-        <f t="shared" si="2"/>
-        <v>51995.5</v>
+      <c r="B295" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C295" s="1">
-        <f t="shared" si="3"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="6">
         <v>44536</v>
       </c>
-      <c r="B296" s="1">
-        <f t="shared" si="2"/>
-        <v>51995.5</v>
+      <c r="B296" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C296" s="1">
-        <f t="shared" si="3"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="6">
         <v>44537</v>
       </c>
-      <c r="B297" s="1">
-        <f t="shared" si="2"/>
-        <v>51995.5</v>
+      <c r="B297" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C297" s="1">
-        <f t="shared" si="3"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="6">
         <v>44538</v>
       </c>
-      <c r="B298" s="1">
-        <f t="shared" si="2"/>
-        <v>51995.5</v>
+      <c r="B298" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C298" s="1">
-        <f t="shared" si="3"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="6">
         <v>44539</v>
       </c>
-      <c r="B299" s="1">
-        <f t="shared" si="2"/>
-        <v>51995.5</v>
+      <c r="B299" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C299" s="1">
-        <f t="shared" si="3"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="6">
         <v>44540</v>
       </c>
-      <c r="B300" s="1">
-        <f t="shared" si="2"/>
-        <v>51995.5</v>
+      <c r="B300" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C300" s="1">
-        <f t="shared" si="3"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="6">
         <v>44541</v>
       </c>
-      <c r="B301" s="1">
-        <f t="shared" si="2"/>
-        <v>51995.5</v>
+      <c r="B301" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C301" s="1">
-        <f t="shared" si="3"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="6">
         <v>44542</v>
       </c>
-      <c r="B302" s="1">
-        <f t="shared" si="2"/>
-        <v>51995.5</v>
+      <c r="B302" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C302" s="1">
-        <f t="shared" si="3"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="6">
         <v>44543</v>
       </c>
-      <c r="B303" s="1">
-        <f t="shared" si="2"/>
-        <v>51995.5</v>
+      <c r="B303" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C303" s="1">
-        <f t="shared" si="3"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="6">
         <v>44544</v>
       </c>
-      <c r="B304" s="1">
-        <f t="shared" si="2"/>
-        <v>51995.5</v>
+      <c r="B304" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C304" s="1">
-        <f t="shared" si="3"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="6">
         <v>44545</v>
       </c>
-      <c r="B305" s="1">
-        <f t="shared" si="2"/>
-        <v>51995.5</v>
+      <c r="B305" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C305" s="1">
-        <f t="shared" si="3"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="6">
         <v>44546</v>
       </c>
-      <c r="B306" s="1">
-        <f t="shared" si="2"/>
-        <v>51995.5</v>
+      <c r="B306" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C306" s="1">
-        <f t="shared" si="3"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="6">
         <v>44547</v>
       </c>
-      <c r="B307" s="1">
-        <f t="shared" si="2"/>
-        <v>51995.5</v>
+      <c r="B307" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C307" s="1">
-        <f t="shared" si="3"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="6">
         <v>44548</v>
       </c>
-      <c r="B308" s="1">
-        <f t="shared" si="2"/>
-        <v>51995.5</v>
+      <c r="B308" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C308" s="1">
-        <f t="shared" si="3"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="6">
         <v>44549</v>
       </c>
-      <c r="B309" s="1">
-        <f t="shared" si="2"/>
-        <v>51995.5</v>
+      <c r="B309" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C309" s="1">
-        <f t="shared" si="3"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="6">
         <v>44550</v>
       </c>
-      <c r="B310" s="1">
-        <f t="shared" si="2"/>
-        <v>51995.5</v>
+      <c r="B310" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C310" s="1">
-        <f t="shared" si="3"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="6">
         <v>44551</v>
       </c>
-      <c r="B311" s="1">
-        <f t="shared" si="2"/>
-        <v>51995.5</v>
+      <c r="B311" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C311" s="1">
-        <f t="shared" si="3"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="6">
         <v>44552</v>
       </c>
-      <c r="B312" s="1">
-        <f t="shared" si="2"/>
-        <v>51995.5</v>
+      <c r="B312" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C312" s="1">
-        <f t="shared" si="3"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="6">
         <v>44553</v>
       </c>
-      <c r="B313" s="1">
-        <f t="shared" si="2"/>
-        <v>51995.5</v>
+      <c r="B313" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C313" s="1">
-        <f t="shared" si="3"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="6">
         <v>44554</v>
       </c>
-      <c r="B314" s="1">
-        <f t="shared" si="2"/>
-        <v>51995.5</v>
+      <c r="B314" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C314" s="1">
-        <f t="shared" si="3"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="6">
         <v>44555</v>
       </c>
-      <c r="B315" s="1">
-        <f t="shared" si="2"/>
-        <v>51995.5</v>
+      <c r="B315" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C315" s="1">
-        <f t="shared" si="3"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="6">
         <v>44556</v>
       </c>
-      <c r="B316" s="1">
-        <f t="shared" si="2"/>
-        <v>51995.5</v>
+      <c r="B316" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C316" s="1">
-        <f t="shared" si="3"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="6">
         <v>44557</v>
       </c>
-      <c r="B317" s="1">
-        <f t="shared" si="2"/>
-        <v>51995.5</v>
+      <c r="B317" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C317" s="1">
-        <f t="shared" si="3"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="6">
         <v>44558</v>
       </c>
-      <c r="B318" s="1">
-        <f t="shared" si="2"/>
-        <v>51995.5</v>
+      <c r="B318" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C318" s="1">
-        <f t="shared" si="3"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="6">
         <v>44559</v>
       </c>
-      <c r="B319" s="1">
-        <f t="shared" si="2"/>
-        <v>51995.5</v>
+      <c r="B319" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C319" s="1">
-        <f t="shared" si="3"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="6">
         <v>44560</v>
       </c>
-      <c r="B320" s="1">
-        <f t="shared" si="2"/>
-        <v>51995.5</v>
+      <c r="B320" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C320" s="1">
-        <f t="shared" si="3"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="6">
         <v>44561</v>
       </c>
-      <c r="B321" s="1">
-        <f t="shared" si="2"/>
-        <v>51995.5</v>
+      <c r="B321" s="2">
+        <v>155986.5</v>
       </c>
       <c r="C321" s="1">
-        <f t="shared" si="3"/>
-        <v>84182.5</v>
+        <v>168365</v>
       </c>
     </row>
   </sheetData>

--- a/data/vaccine/vaccination_number.xlsx
+++ b/data/vaccine/vaccination_number.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dropbox (Jeongjoo)\estimation_matlab\Covid19_seoul_gyeonggi\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yjlee/repos/COVID19_SeoulGyeonggi/data/vaccine/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3694E4-1296-41DB-90AA-D121B4A48556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675D4B94-0DFD-2646-8EF2-F5094675C3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16053" yWindow="1528" windowWidth="13949" windowHeight="12772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14860" yWindow="1520" windowWidth="13940" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="total" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="357">
   <si>
     <t>2021.03.07</t>
   </si>
@@ -1015,13 +1017,106 @@
   <si>
     <t>2021.10.01</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.01.01</t>
+  </si>
+  <si>
+    <t>2022.01.02</t>
+  </si>
+  <si>
+    <t>2022.01.03</t>
+  </si>
+  <si>
+    <t>2022.01.04</t>
+  </si>
+  <si>
+    <t>2022.01.05</t>
+  </si>
+  <si>
+    <t>2022.01.06</t>
+  </si>
+  <si>
+    <t>2022.01.07</t>
+  </si>
+  <si>
+    <t>2022.01.08</t>
+  </si>
+  <si>
+    <t>2022.01.09</t>
+  </si>
+  <si>
+    <t>2022.01.10</t>
+  </si>
+  <si>
+    <t>2022.01.11</t>
+  </si>
+  <si>
+    <t>2022.01.12</t>
+  </si>
+  <si>
+    <t>2022.01.13</t>
+  </si>
+  <si>
+    <t>2022.01.14</t>
+  </si>
+  <si>
+    <t>2022.01.15</t>
+  </si>
+  <si>
+    <t>2022.01.16</t>
+  </si>
+  <si>
+    <t>2022.01.17</t>
+  </si>
+  <si>
+    <t>2022.01.18</t>
+  </si>
+  <si>
+    <t>2022.01.19</t>
+  </si>
+  <si>
+    <t>2022.01.20</t>
+  </si>
+  <si>
+    <t>2022.01.21</t>
+  </si>
+  <si>
+    <t>2022.01.22</t>
+  </si>
+  <si>
+    <t>2022.01.23</t>
+  </si>
+  <si>
+    <t>2022.01.24</t>
+  </si>
+  <si>
+    <t>2022.01.25</t>
+  </si>
+  <si>
+    <t>2022.01.26</t>
+  </si>
+  <si>
+    <t>2022.01.27</t>
+  </si>
+  <si>
+    <t>2022.01.28</t>
+  </si>
+  <si>
+    <t>2022.01.29</t>
+  </si>
+  <si>
+    <t>2022.01.30</t>
+  </si>
+  <si>
+    <t>2022.01.31</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1079,7 +1174,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -1583,15 +1678,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G321"/>
+  <dimension ref="A1:G352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A248" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E256" sqref="E256"/>
+    <sheetView tabSelected="1" topLeftCell="A334" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B321" sqref="B321:C352"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>197</v>
       </c>
@@ -1602,7 +1697,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>199</v>
       </c>
@@ -1615,7 +1710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>198</v>
       </c>
@@ -1628,7 +1723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>191</v>
       </c>
@@ -1641,7 +1736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>190</v>
       </c>
@@ -1654,7 +1749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>189</v>
       </c>
@@ -1667,7 +1762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>193</v>
       </c>
@@ -1680,7 +1775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>192</v>
       </c>
@@ -1693,7 +1788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>188</v>
       </c>
@@ -1706,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>201</v>
       </c>
@@ -1719,7 +1814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>200</v>
       </c>
@@ -1732,7 +1827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>196</v>
       </c>
@@ -1745,7 +1840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1758,7 +1853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1771,7 +1866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1784,7 +1879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1797,7 +1892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1810,7 +1905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1823,7 +1918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1836,7 +1931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1849,7 +1944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1862,7 +1957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1875,7 +1970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1888,7 +1983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -1901,7 +1996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -1914,7 +2009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -1927,7 +2022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -1940,7 +2035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -1953,7 +2048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -1966,7 +2061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -1979,7 +2074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -1992,7 +2087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -2005,7 +2100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -2018,7 +2113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -2031,7 +2126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -2044,7 +2139,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -2057,7 +2152,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -2070,7 +2165,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -2083,7 +2178,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -2096,7 +2191,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -2109,7 +2204,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -2122,7 +2217,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -2135,7 +2230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -2148,7 +2243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -2161,7 +2256,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>61</v>
       </c>
@@ -2174,7 +2269,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>62</v>
       </c>
@@ -2187,7 +2282,7 @@
         <v>3519</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -2200,7 +2295,7 @@
         <v>4526</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -2213,7 +2308,7 @@
         <v>4130</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -2226,7 +2321,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -2239,7 +2334,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>69</v>
       </c>
@@ -2252,7 +2347,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>68</v>
       </c>
@@ -2265,7 +2360,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>70</v>
       </c>
@@ -2278,7 +2373,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>71</v>
       </c>
@@ -2291,7 +2386,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>72</v>
       </c>
@@ -2304,7 +2399,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -2317,7 +2412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>74</v>
       </c>
@@ -2330,7 +2425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -2343,7 +2438,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>75</v>
       </c>
@@ -2356,7 +2451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>78</v>
       </c>
@@ -2369,7 +2464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>79</v>
       </c>
@@ -2382,7 +2477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -2395,7 +2490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>81</v>
       </c>
@@ -2408,7 +2503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>80</v>
       </c>
@@ -2421,7 +2516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>82</v>
       </c>
@@ -2434,7 +2529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>35</v>
       </c>
@@ -2447,7 +2542,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>33</v>
       </c>
@@ -2460,7 +2555,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>34</v>
       </c>
@@ -2473,7 +2568,7 @@
         <v>4708</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>37</v>
       </c>
@@ -2486,7 +2581,7 @@
         <v>4897</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>38</v>
       </c>
@@ -2499,7 +2594,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>36</v>
       </c>
@@ -2512,7 +2607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>40</v>
       </c>
@@ -2525,7 +2620,7 @@
         <v>6126</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>39</v>
       </c>
@@ -2538,7 +2633,7 @@
         <v>6540</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>92</v>
       </c>
@@ -2551,7 +2646,7 @@
         <v>5008</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>93</v>
       </c>
@@ -2564,7 +2659,7 @@
         <v>8745</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>91</v>
       </c>
@@ -2577,7 +2672,7 @@
         <v>9306</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>95</v>
       </c>
@@ -2590,7 +2685,7 @@
         <v>3858</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>96</v>
       </c>
@@ -2603,7 +2698,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>94</v>
       </c>
@@ -2616,7 +2711,7 @@
         <v>10020</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>98</v>
       </c>
@@ -2629,7 +2724,7 @@
         <v>10004</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>97</v>
       </c>
@@ -2642,7 +2737,7 @@
         <v>7332</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>101</v>
       </c>
@@ -2655,7 +2750,7 @@
         <v>24034</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>100</v>
       </c>
@@ -2668,7 +2763,7 @@
         <v>26518</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>99</v>
       </c>
@@ -2681,7 +2776,7 @@
         <v>13312</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>103</v>
       </c>
@@ -2694,7 +2789,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>102</v>
       </c>
@@ -2707,7 +2802,7 @@
         <v>27638</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>106</v>
       </c>
@@ -2720,7 +2815,7 @@
         <v>29299</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>105</v>
       </c>
@@ -2733,7 +2828,7 @@
         <v>30226</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>104</v>
       </c>
@@ -2746,7 +2841,7 @@
         <v>28982</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>107</v>
       </c>
@@ -2759,7 +2854,7 @@
         <v>30654</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>108</v>
       </c>
@@ -2772,7 +2867,7 @@
         <v>16095</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>111</v>
       </c>
@@ -2785,7 +2880,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>110</v>
       </c>
@@ -2798,7 +2893,7 @@
         <v>35588</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>109</v>
       </c>
@@ -2811,7 +2906,7 @@
         <v>47172</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>114</v>
       </c>
@@ -2824,7 +2919,7 @@
         <v>31856</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>113</v>
       </c>
@@ -2837,7 +2932,7 @@
         <v>71062</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>112</v>
       </c>
@@ -2850,7 +2945,7 @@
         <v>82045</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>115</v>
       </c>
@@ -2863,7 +2958,7 @@
         <v>14779</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>117</v>
       </c>
@@ -2876,7 +2971,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -2889,7 +2984,7 @@
         <v>37659</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>118</v>
       </c>
@@ -2902,7 +2997,7 @@
         <v>36586</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>119</v>
       </c>
@@ -2915,7 +3010,7 @@
         <v>29005</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>121</v>
       </c>
@@ -2928,7 +3023,7 @@
         <v>23394</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>120</v>
       </c>
@@ -2941,7 +3036,7 @@
         <v>29472</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>123</v>
       </c>
@@ -2954,7 +3049,7 @@
         <v>4602</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>124</v>
       </c>
@@ -2967,7 +3062,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>122</v>
       </c>
@@ -2980,7 +3075,7 @@
         <v>13023</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>85</v>
       </c>
@@ -2993,7 +3088,7 @@
         <v>12134</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>83</v>
       </c>
@@ -3006,7 +3101,7 @@
         <v>11049</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>84</v>
       </c>
@@ -3019,7 +3114,7 @@
         <v>13694</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>86</v>
       </c>
@@ -3032,7 +3127,7 @@
         <v>16047</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>87</v>
       </c>
@@ -3045,7 +3140,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>89</v>
       </c>
@@ -3058,7 +3153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>90</v>
       </c>
@@ -3071,7 +3166,7 @@
         <v>7940</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
         <v>88</v>
       </c>
@@ -3084,7 +3179,7 @@
         <v>8102</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
         <v>22</v>
       </c>
@@ -3097,7 +3192,7 @@
         <v>6784</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
         <v>20</v>
       </c>
@@ -3110,7 +3205,7 @@
         <v>140701</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>21</v>
       </c>
@@ -3123,7 +3218,7 @@
         <v>115672</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
         <v>24</v>
       </c>
@@ -3136,7 +3231,7 @@
         <v>60854</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
         <v>23</v>
       </c>
@@ -3149,7 +3244,7 @@
         <v>6480</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
         <v>26</v>
       </c>
@@ -3162,7 +3257,7 @@
         <v>120479</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
         <v>27</v>
       </c>
@@ -3175,7 +3270,7 @@
         <v>90469</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
         <v>25</v>
       </c>
@@ -3188,7 +3283,7 @@
         <v>129672</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
         <v>28</v>
       </c>
@@ -3201,7 +3296,7 @@
         <v>54835</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
         <v>29</v>
       </c>
@@ -3214,7 +3309,7 @@
         <v>56699</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
         <v>31</v>
       </c>
@@ -3227,7 +3322,7 @@
         <v>19247</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
         <v>32</v>
       </c>
@@ -3240,7 +3335,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
         <v>30</v>
       </c>
@@ -3253,7 +3348,7 @@
         <v>44648</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>12</v>
       </c>
@@ -3266,7 +3361,7 @@
         <v>44661</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
         <v>13</v>
       </c>
@@ -3279,7 +3374,7 @@
         <v>44551</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
         <v>16</v>
       </c>
@@ -3292,7 +3387,7 @@
         <v>44247</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
         <v>14</v>
       </c>
@@ -3305,7 +3400,7 @@
         <v>41663</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
         <v>15</v>
       </c>
@@ -3318,7 +3413,7 @@
         <v>17529</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
         <v>18</v>
       </c>
@@ -3331,7 +3426,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
         <v>19</v>
       </c>
@@ -3344,7 +3439,7 @@
         <v>42386</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
         <v>17</v>
       </c>
@@ -3357,7 +3452,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
         <v>128</v>
       </c>
@@ -3370,7 +3465,7 @@
         <v>43351</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
         <v>129</v>
       </c>
@@ -3383,7 +3478,7 @@
         <v>36534</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
         <v>131</v>
       </c>
@@ -3396,7 +3491,7 @@
         <v>38779</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
         <v>132</v>
       </c>
@@ -3409,7 +3504,7 @@
         <v>11915</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
         <v>130</v>
       </c>
@@ -3422,7 +3517,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
         <v>134</v>
       </c>
@@ -3435,7 +3530,7 @@
         <v>17727</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
         <v>135</v>
       </c>
@@ -3448,7 +3543,7 @@
         <v>25354</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
         <v>133</v>
       </c>
@@ -3461,7 +3556,7 @@
         <v>25284</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
         <v>137</v>
       </c>
@@ -3474,7 +3569,7 @@
         <v>29658</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
         <v>136</v>
       </c>
@@ -3487,7 +3582,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
         <v>140</v>
       </c>
@@ -3500,7 +3595,7 @@
         <v>18705</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
         <v>139</v>
       </c>
@@ -3513,7 +3608,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3">
       <c r="A149" t="s">
         <v>138</v>
       </c>
@@ -3526,7 +3621,7 @@
         <v>32642</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3">
       <c r="A150" t="s">
         <v>142</v>
       </c>
@@ -3539,7 +3634,7 @@
         <v>37804</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3">
       <c r="A151" t="s">
         <v>143</v>
       </c>
@@ -3552,7 +3647,7 @@
         <v>43943</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3">
       <c r="A152" t="s">
         <v>141</v>
       </c>
@@ -3565,7 +3660,7 @@
         <v>55651</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3">
       <c r="A153" t="s">
         <v>144</v>
       </c>
@@ -3578,7 +3673,7 @@
         <v>37641</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3">
       <c r="A154" t="s">
         <v>145</v>
       </c>
@@ -3591,7 +3686,7 @@
         <v>7575</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3">
       <c r="A155" t="s">
         <v>147</v>
       </c>
@@ -3604,7 +3699,7 @@
         <v>9420</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3">
       <c r="A156" t="s">
         <v>146</v>
       </c>
@@ -3617,7 +3712,7 @@
         <v>23911</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3">
       <c r="A157" t="s">
         <v>148</v>
       </c>
@@ -3630,7 +3725,7 @@
         <v>18163</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3">
       <c r="A158" t="s">
         <v>151</v>
       </c>
@@ -3643,7 +3738,7 @@
         <v>10395</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3">
       <c r="A159" t="s">
         <v>150</v>
       </c>
@@ -3656,7 +3751,7 @@
         <v>17582</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3">
       <c r="A160" t="s">
         <v>149</v>
       </c>
@@ -3669,7 +3764,7 @@
         <v>20161</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3">
       <c r="A161" t="s">
         <v>153</v>
       </c>
@@ -3682,7 +3777,7 @@
         <v>5489</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
         <v>152</v>
       </c>
@@ -3695,7 +3790,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3">
       <c r="A163" t="s">
         <v>155</v>
       </c>
@@ -3708,7 +3803,7 @@
         <v>28552</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3">
       <c r="A164" t="s">
         <v>156</v>
       </c>
@@ -3721,7 +3816,7 @@
         <v>18302</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3">
       <c r="A165" t="s">
         <v>154</v>
       </c>
@@ -3734,7 +3829,7 @@
         <v>16915</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
         <v>157</v>
       </c>
@@ -3747,7 +3842,7 @@
         <v>16790</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
         <v>159</v>
       </c>
@@ -3760,7 +3855,7 @@
         <v>28303</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
         <v>158</v>
       </c>
@@ -3773,7 +3868,7 @@
         <v>9932</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3">
       <c r="A169" t="s">
         <v>160</v>
       </c>
@@ -3786,7 +3881,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3">
       <c r="A170" t="s">
         <v>161</v>
       </c>
@@ -3799,7 +3894,7 @@
         <v>15018</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3">
       <c r="A171" t="s">
         <v>163</v>
       </c>
@@ -3812,7 +3907,7 @@
         <v>50307</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3">
       <c r="A172" t="s">
         <v>162</v>
       </c>
@@ -3825,7 +3920,7 @@
         <v>55950</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3">
       <c r="A173" t="s">
         <v>164</v>
       </c>
@@ -3838,7 +3933,7 @@
         <v>62335</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3">
       <c r="A174" t="s">
         <v>165</v>
       </c>
@@ -3851,7 +3946,7 @@
         <v>70740</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3">
       <c r="A175" t="s">
         <v>166</v>
       </c>
@@ -3864,7 +3959,7 @@
         <v>28330</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3">
       <c r="A176" t="s">
         <v>127</v>
       </c>
@@ -3877,7 +3972,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3">
       <c r="A177" t="s">
         <v>126</v>
       </c>
@@ -3890,7 +3985,7 @@
         <v>82237</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3">
       <c r="A178" t="s">
         <v>125</v>
       </c>
@@ -3903,7 +3998,7 @@
         <v>82407</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3">
       <c r="A179" t="s">
         <v>167</v>
       </c>
@@ -3916,7 +4011,7 @@
         <v>79948</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3">
       <c r="A180" t="s">
         <v>168</v>
       </c>
@@ -3929,7 +4024,7 @@
         <v>301196</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3">
       <c r="A181" t="s">
         <v>169</v>
       </c>
@@ -3942,7 +4037,7 @@
         <v>267874</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3">
       <c r="A182" t="s">
         <v>170</v>
       </c>
@@ -3955,7 +4050,7 @@
         <v>95875</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3">
       <c r="A183" t="s">
         <v>171</v>
       </c>
@@ -3968,7 +4063,7 @@
         <v>3924</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3">
       <c r="A184" t="s">
         <v>173</v>
       </c>
@@ -3981,7 +4076,7 @@
         <v>111783</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3">
       <c r="A185" t="s">
         <v>174</v>
       </c>
@@ -3994,7 +4089,7 @@
         <v>202806</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3">
       <c r="A186" t="s">
         <v>172</v>
       </c>
@@ -4007,7 +4102,7 @@
         <v>132352</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3">
       <c r="A187" t="s">
         <v>175</v>
       </c>
@@ -4020,7 +4115,7 @@
         <v>120031</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3">
       <c r="A188" t="s">
         <v>176</v>
       </c>
@@ -4033,7 +4128,7 @@
         <v>140805</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3">
       <c r="A189" t="s">
         <v>179</v>
       </c>
@@ -4046,7 +4141,7 @@
         <v>57995</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3">
       <c r="A190" t="s">
         <v>177</v>
       </c>
@@ -4059,7 +4154,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3">
       <c r="A191" t="s">
         <v>178</v>
       </c>
@@ -4072,7 +4167,7 @@
         <v>297686</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3">
       <c r="A192" t="s">
         <v>180</v>
       </c>
@@ -4085,7 +4180,7 @@
         <v>242934</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3">
       <c r="A193" t="s">
         <v>181</v>
       </c>
@@ -4098,7 +4193,7 @@
         <v>189002</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3">
       <c r="A194" t="s">
         <v>182</v>
       </c>
@@ -4111,7 +4206,7 @@
         <v>165093</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3">
       <c r="A195" t="s">
         <v>183</v>
       </c>
@@ -4124,7 +4219,7 @@
         <v>237622</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3">
       <c r="A196" t="s">
         <v>185</v>
       </c>
@@ -4137,7 +4232,7 @@
         <v>121775</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3">
       <c r="A197" t="s">
         <v>184</v>
       </c>
@@ -4150,7 +4245,7 @@
         <v>9448</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3">
       <c r="A198" t="s">
         <v>187</v>
       </c>
@@ -4163,7 +4258,7 @@
         <v>248139</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3">
       <c r="A199" t="s">
         <v>186</v>
       </c>
@@ -4176,7 +4271,7 @@
         <v>223331</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3">
       <c r="A200" s="4" t="s">
         <v>202</v>
       </c>
@@ -4189,7 +4284,7 @@
         <v>225004</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3">
       <c r="A201" s="4" t="s">
         <v>203</v>
       </c>
@@ -4202,7 +4297,7 @@
         <v>208641</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:3">
       <c r="A202" s="4" t="s">
         <v>204</v>
       </c>
@@ -4215,7 +4310,7 @@
         <v>295588</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:3">
       <c r="A203" s="4" t="s">
         <v>205</v>
       </c>
@@ -4228,7 +4323,7 @@
         <v>113820</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:3">
       <c r="A204" s="4" t="s">
         <v>206</v>
       </c>
@@ -4241,7 +4336,7 @@
         <v>4663</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:3">
       <c r="A205" s="4" t="s">
         <v>207</v>
       </c>
@@ -4254,7 +4349,7 @@
         <v>279852</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:3">
       <c r="A206" s="4" t="s">
         <v>208</v>
       </c>
@@ -4267,7 +4362,7 @@
         <v>190401</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:3">
       <c r="A207" s="4" t="s">
         <v>209</v>
       </c>
@@ -4280,7 +4375,7 @@
         <v>132000</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:3">
       <c r="A208" s="4" t="s">
         <v>210</v>
       </c>
@@ -4293,7 +4388,7 @@
         <v>121955</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3">
       <c r="A209" s="4" t="s">
         <v>211</v>
       </c>
@@ -4306,7 +4401,7 @@
         <v>177042</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3">
       <c r="A210" s="4" t="s">
         <v>212</v>
       </c>
@@ -4319,7 +4414,7 @@
         <v>101863</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3">
       <c r="A211" s="4" t="s">
         <v>213</v>
       </c>
@@ -4332,7 +4427,7 @@
         <v>14292</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3">
       <c r="A212" s="4" t="s">
         <v>214</v>
       </c>
@@ -4345,7 +4440,7 @@
         <v>174809</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3">
       <c r="A213" s="4" t="s">
         <v>215</v>
       </c>
@@ -4358,7 +4453,7 @@
         <v>92529</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3">
       <c r="A214" s="4" t="s">
         <v>216</v>
       </c>
@@ -4371,7 +4466,7 @@
         <v>173934</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3">
       <c r="A215" s="4" t="s">
         <v>217</v>
       </c>
@@ -4384,7 +4479,7 @@
         <v>128669</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3">
       <c r="A216" s="4" t="s">
         <v>218</v>
       </c>
@@ -4397,7 +4492,7 @@
         <v>196914</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:3">
       <c r="A217" s="4" t="s">
         <v>219</v>
       </c>
@@ -4410,7 +4505,7 @@
         <v>94070</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:3">
       <c r="A218" s="4" t="s">
         <v>220</v>
       </c>
@@ -4423,7 +4518,7 @@
         <v>15104</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:3">
       <c r="A219" s="4" t="s">
         <v>221</v>
       </c>
@@ -4436,7 +4531,7 @@
         <v>5152</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:3">
       <c r="A220" s="4" t="s">
         <v>222</v>
       </c>
@@ -4449,7 +4544,7 @@
         <v>2823</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:3">
       <c r="A221" s="4" t="s">
         <v>223</v>
       </c>
@@ -4462,7 +4557,7 @@
         <v>9899</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:3">
       <c r="A222" s="4" t="s">
         <v>224</v>
       </c>
@@ -4475,7 +4570,7 @@
         <v>185097</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:3">
       <c r="A223" s="4" t="s">
         <v>225</v>
       </c>
@@ -4488,7 +4583,7 @@
         <v>201419</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:3">
       <c r="A224" s="4" t="s">
         <v>226</v>
       </c>
@@ -4501,7 +4596,7 @@
         <v>115074</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:3">
       <c r="A225" s="4" t="s">
         <v>227</v>
       </c>
@@ -4514,7 +4609,7 @@
         <v>15009</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:3">
       <c r="A226" s="4" t="s">
         <v>228</v>
       </c>
@@ -4527,7 +4622,7 @@
         <v>330706</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:3">
       <c r="A227" s="4" t="s">
         <v>229</v>
       </c>
@@ -4540,7 +4635,7 @@
         <v>317562</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:3">
       <c r="A228" s="4" t="s">
         <v>230</v>
       </c>
@@ -4553,7 +4648,7 @@
         <v>246013</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:3">
       <c r="A229" s="4" t="s">
         <v>231</v>
       </c>
@@ -4566,7 +4661,7 @@
         <v>246483</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:3">
       <c r="A230" s="4" t="s">
         <v>232</v>
       </c>
@@ -4579,7 +4674,7 @@
         <v>388264</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:3">
       <c r="A231" s="4" t="s">
         <v>233</v>
       </c>
@@ -4592,7 +4687,7 @@
         <v>205901</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:3">
       <c r="A232" s="4" t="s">
         <v>234</v>
       </c>
@@ -4605,7 +4700,7 @@
         <v>20713</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:3">
       <c r="A233" s="4" t="s">
         <v>235</v>
       </c>
@@ -4618,7 +4713,7 @@
         <v>103879</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:3">
       <c r="A234" s="4" t="s">
         <v>236</v>
       </c>
@@ -4631,7 +4726,7 @@
         <v>340659</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:3">
       <c r="A235" s="4" t="s">
         <v>237</v>
       </c>
@@ -4644,7 +4739,7 @@
         <v>224435</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:3">
       <c r="A236" s="4" t="s">
         <v>238</v>
       </c>
@@ -4657,7 +4752,7 @@
         <v>319767</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:3">
       <c r="A237" s="4" t="s">
         <v>239</v>
       </c>
@@ -4670,7 +4765,7 @@
         <v>487803</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:3">
       <c r="A238" s="4" t="s">
         <v>240</v>
       </c>
@@ -4683,7 +4778,7 @@
         <v>52426</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:3">
       <c r="A239" s="4" t="s">
         <v>241</v>
       </c>
@@ -4696,7 +4791,7 @@
         <v>11561</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:3">
       <c r="A240" s="4" t="s">
         <v>242</v>
       </c>
@@ -4709,7 +4804,7 @@
         <v>68156</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:7">
       <c r="A241" s="4" t="s">
         <v>243</v>
       </c>
@@ -4722,7 +4817,7 @@
         <v>258804</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:7">
       <c r="A242" s="4" t="s">
         <v>244</v>
       </c>
@@ -4735,7 +4830,7 @@
         <v>182580</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:7">
       <c r="A243" s="4" t="s">
         <v>245</v>
       </c>
@@ -4748,7 +4843,7 @@
         <v>218699</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:7">
       <c r="A244" s="4" t="s">
         <v>246</v>
       </c>
@@ -4761,7 +4856,7 @@
         <v>333895</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:7">
       <c r="A245" s="4" t="s">
         <v>247</v>
       </c>
@@ -4774,7 +4869,7 @@
         <v>175727</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:7">
       <c r="A246" s="4" t="s">
         <v>248</v>
       </c>
@@ -4787,7 +4882,7 @@
         <v>12168</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:7">
       <c r="A247" s="4" t="s">
         <v>249</v>
       </c>
@@ -4801,7 +4896,7 @@
       </c>
       <c r="E247" s="1"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:7">
       <c r="A248" s="4" t="s">
         <v>250</v>
       </c>
@@ -4815,7 +4910,7 @@
       <c r="E248" s="1"/>
       <c r="G248" s="1"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:7">
       <c r="A249" s="4" t="s">
         <v>251</v>
       </c>
@@ -4826,7 +4921,7 @@
         <v>10989</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:7">
       <c r="A250" s="4" t="s">
         <v>252</v>
       </c>
@@ -4837,7 +4932,7 @@
         <v>3882</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:7">
       <c r="A251" s="4" t="s">
         <v>253</v>
       </c>
@@ -4848,7 +4943,7 @@
         <v>15159</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:7">
       <c r="A252" s="4" t="s">
         <v>254</v>
       </c>
@@ -4859,7 +4954,7 @@
         <v>261935</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:7">
       <c r="A253" s="4" t="s">
         <v>255</v>
       </c>
@@ -4870,7 +4965,7 @@
         <v>287958</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:7">
       <c r="A254" s="4" t="s">
         <v>256</v>
       </c>
@@ -4881,7 +4976,7 @@
         <v>154425</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:7">
       <c r="A255" s="4" t="s">
         <v>257</v>
       </c>
@@ -4892,7 +4987,7 @@
         <v>15816</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:7">
       <c r="A256" s="4" t="s">
         <v>258</v>
       </c>
@@ -4903,7 +4998,7 @@
         <v>193841</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:5">
       <c r="A257" s="4" t="s">
         <v>259</v>
       </c>
@@ -4914,7 +5009,7 @@
         <v>122307</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:5">
       <c r="A258" s="4" t="s">
         <v>260</v>
       </c>
@@ -4925,7 +5020,7 @@
         <v>110062</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:5">
       <c r="A259" s="4" t="s">
         <v>261</v>
       </c>
@@ -4936,7 +5031,7 @@
         <v>171627</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:5">
       <c r="A260" s="4" t="s">
         <v>262</v>
       </c>
@@ -4948,7 +5043,7 @@
       </c>
       <c r="E260" s="1"/>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:5">
       <c r="A261" s="4" t="s">
         <v>263</v>
       </c>
@@ -4961,7 +5056,7 @@
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:5">
       <c r="A262" s="4" t="s">
         <v>264</v>
       </c>
@@ -4974,7 +5069,7 @@
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:5">
       <c r="A263" s="4" t="s">
         <v>265</v>
       </c>
@@ -4987,7 +5082,7 @@
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:5">
       <c r="A264" s="4" t="s">
         <v>266</v>
       </c>
@@ -5000,7 +5095,7 @@
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:5">
       <c r="A265" s="4" t="s">
         <v>267</v>
       </c>
@@ -5013,7 +5108,7 @@
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:5">
       <c r="A266" s="4" t="s">
         <v>268</v>
       </c>
@@ -5026,7 +5121,7 @@
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:5">
       <c r="A267" s="4" t="s">
         <v>269</v>
       </c>
@@ -5039,7 +5134,7 @@
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:5">
       <c r="A268" s="4" t="s">
         <v>270</v>
       </c>
@@ -5052,7 +5147,7 @@
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:5">
       <c r="A269" s="4" t="s">
         <v>271</v>
       </c>
@@ -5065,7 +5160,7 @@
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:5">
       <c r="A270" s="4" t="s">
         <v>272</v>
       </c>
@@ -5078,7 +5173,7 @@
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:5">
       <c r="A271" s="4" t="s">
         <v>273</v>
       </c>
@@ -5091,7 +5186,7 @@
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:5">
       <c r="A272" s="4" t="s">
         <v>274</v>
       </c>
@@ -5104,7 +5199,7 @@
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:5">
       <c r="A273" s="4" t="s">
         <v>275</v>
       </c>
@@ -5117,7 +5212,7 @@
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:5">
       <c r="A274" s="4" t="s">
         <v>276</v>
       </c>
@@ -5130,7 +5225,7 @@
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:5">
       <c r="A275" s="4" t="s">
         <v>277</v>
       </c>
@@ -5143,7 +5238,7 @@
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:5">
       <c r="A276" s="4" t="s">
         <v>278</v>
       </c>
@@ -5156,7 +5251,7 @@
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:5">
       <c r="A277" s="4" t="s">
         <v>279</v>
       </c>
@@ -5169,7 +5264,7 @@
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:5">
       <c r="A278" s="4" t="s">
         <v>280</v>
       </c>
@@ -5182,7 +5277,7 @@
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:5">
       <c r="A279" s="4" t="s">
         <v>281</v>
       </c>
@@ -5195,7 +5290,7 @@
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:5">
       <c r="A280" s="4" t="s">
         <v>282</v>
       </c>
@@ -5208,7 +5303,7 @@
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:5">
       <c r="A281" s="4" t="s">
         <v>283</v>
       </c>
@@ -5221,7 +5316,7 @@
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:5">
       <c r="A282" s="4" t="s">
         <v>284</v>
       </c>
@@ -5234,7 +5329,7 @@
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:5">
       <c r="A283" s="4" t="s">
         <v>285</v>
       </c>
@@ -5247,7 +5342,7 @@
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:5">
       <c r="A284" s="4" t="s">
         <v>286</v>
       </c>
@@ -5260,7 +5355,7 @@
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:5">
       <c r="A285" s="4" t="s">
         <v>287</v>
       </c>
@@ -5273,7 +5368,7 @@
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:5">
       <c r="A286" s="4" t="s">
         <v>288</v>
       </c>
@@ -5286,7 +5381,7 @@
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:5">
       <c r="A287" s="4" t="s">
         <v>289</v>
       </c>
@@ -5299,7 +5394,7 @@
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:5">
       <c r="A288" s="4" t="s">
         <v>290</v>
       </c>
@@ -5312,7 +5407,7 @@
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:5">
       <c r="A289" s="4" t="s">
         <v>291</v>
       </c>
@@ -5325,7 +5420,7 @@
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:5">
       <c r="A290" s="4" t="s">
         <v>292</v>
       </c>
@@ -5338,7 +5433,7 @@
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:5">
       <c r="A291" s="4" t="s">
         <v>293</v>
       </c>
@@ -5351,7 +5446,7 @@
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:5">
       <c r="A292" s="4" t="s">
         <v>294</v>
       </c>
@@ -5364,7 +5459,7 @@
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:5">
       <c r="A293" s="4" t="s">
         <v>295</v>
       </c>
@@ -5377,7 +5472,7 @@
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:5">
       <c r="A294" s="4" t="s">
         <v>296</v>
       </c>
@@ -5390,7 +5485,7 @@
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:5">
       <c r="A295" s="4" t="s">
         <v>297</v>
       </c>
@@ -5403,7 +5498,7 @@
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:5">
       <c r="A296" s="4" t="s">
         <v>298</v>
       </c>
@@ -5416,7 +5511,7 @@
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:5">
       <c r="A297" s="4" t="s">
         <v>299</v>
       </c>
@@ -5429,7 +5524,7 @@
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:5">
       <c r="A298" s="4" t="s">
         <v>300</v>
       </c>
@@ -5442,7 +5537,7 @@
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:5">
       <c r="A299" s="4" t="s">
         <v>301</v>
       </c>
@@ -5455,7 +5550,7 @@
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:5">
       <c r="A300" s="4" t="s">
         <v>302</v>
       </c>
@@ -5468,7 +5563,7 @@
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:5">
       <c r="A301" s="4" t="s">
         <v>303</v>
       </c>
@@ -5481,7 +5576,7 @@
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:5">
       <c r="A302" s="4" t="s">
         <v>304</v>
       </c>
@@ -5494,7 +5589,7 @@
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:5">
       <c r="A303" s="4" t="s">
         <v>305</v>
       </c>
@@ -5507,7 +5602,7 @@
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:5">
       <c r="A304" s="4" t="s">
         <v>306</v>
       </c>
@@ -5520,7 +5615,7 @@
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:5">
       <c r="A305" s="4" t="s">
         <v>307</v>
       </c>
@@ -5533,7 +5628,7 @@
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:5">
       <c r="A306" s="4" t="s">
         <v>308</v>
       </c>
@@ -5546,7 +5641,7 @@
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:5">
       <c r="A307" s="4" t="s">
         <v>309</v>
       </c>
@@ -5559,7 +5654,7 @@
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:5">
       <c r="A308" s="4" t="s">
         <v>310</v>
       </c>
@@ -5572,7 +5667,7 @@
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:5">
       <c r="A309" s="4" t="s">
         <v>311</v>
       </c>
@@ -5585,7 +5680,7 @@
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:5">
       <c r="A310" s="4" t="s">
         <v>312</v>
       </c>
@@ -5598,7 +5693,7 @@
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:5">
       <c r="A311" s="4" t="s">
         <v>313</v>
       </c>
@@ -5611,7 +5706,7 @@
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:5">
       <c r="A312" s="4" t="s">
         <v>314</v>
       </c>
@@ -5624,7 +5719,7 @@
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:5">
       <c r="A313" s="4" t="s">
         <v>315</v>
       </c>
@@ -5637,7 +5732,7 @@
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:5">
       <c r="A314" s="4" t="s">
         <v>316</v>
       </c>
@@ -5650,7 +5745,7 @@
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:5">
       <c r="A315" s="4" t="s">
         <v>317</v>
       </c>
@@ -5663,7 +5758,7 @@
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:5">
       <c r="A316" s="4" t="s">
         <v>318</v>
       </c>
@@ -5676,7 +5771,7 @@
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:5">
       <c r="A317" s="4" t="s">
         <v>319</v>
       </c>
@@ -5689,7 +5784,7 @@
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:5">
       <c r="A318" s="4" t="s">
         <v>320</v>
       </c>
@@ -5702,7 +5797,7 @@
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:5">
       <c r="A319" s="4" t="s">
         <v>321</v>
       </c>
@@ -5715,7 +5810,7 @@
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:5">
       <c r="A320" s="4" t="s">
         <v>322</v>
       </c>
@@ -5728,7 +5823,7 @@
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:5">
       <c r="A321" s="4" t="s">
         <v>323</v>
       </c>
@@ -5740,6 +5835,347 @@
       </c>
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B322" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C322" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B323" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C323" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B324" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C324" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B325" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C325" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B326" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C326" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B327" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C327" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B328" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C328" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B329" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C329" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B330" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C330" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B331" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C331" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B332" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C332" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B333" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C333" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B334" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C334" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B335" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C335" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B336" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C336" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B337" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C337" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B338" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C338" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B339" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C339" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B340" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C340" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B341" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C341" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B342" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C342" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B343" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C343" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B344" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C344" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B345" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C345" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B346" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C346" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B347" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C347" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B348" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C348" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B349" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C349" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B350" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C350" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B351" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C351" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B352" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C352" s="1">
+        <v>62113</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5757,12 +6193,12 @@
       <selection activeCell="B248" sqref="B248"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="3" width="13.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -5773,7 +6209,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>199</v>
       </c>
@@ -5784,7 +6220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>198</v>
       </c>
@@ -5795,7 +6231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>191</v>
       </c>
@@ -5806,7 +6242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>190</v>
       </c>
@@ -5817,7 +6253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>189</v>
       </c>
@@ -5828,7 +6264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>193</v>
       </c>
@@ -5839,7 +6275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>192</v>
       </c>
@@ -5850,7 +6286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>188</v>
       </c>
@@ -5861,7 +6297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>201</v>
       </c>
@@ -5872,7 +6308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>200</v>
       </c>
@@ -5883,7 +6319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>196</v>
       </c>
@@ -5894,7 +6330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -5905,7 +6341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -5916,7 +6352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -5927,7 +6363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -5938,7 +6374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -5949,7 +6385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -5960,7 +6396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -5971,7 +6407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -5982,7 +6418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -5993,7 +6429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -6004,7 +6440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -6015,7 +6451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -6026,7 +6462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -6037,7 +6473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -6048,7 +6484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -6059,7 +6495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -6070,7 +6506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -6081,7 +6517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -6092,7 +6528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -6103,7 +6539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -6114,7 +6550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -6125,7 +6561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -6136,7 +6572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -6147,7 +6583,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -6158,7 +6594,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -6169,7 +6605,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -6180,7 +6616,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -6191,7 +6627,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -6202,7 +6638,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -6213,7 +6649,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -6224,7 +6660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -6235,7 +6671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -6246,7 +6682,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>61</v>
       </c>
@@ -6257,7 +6693,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>62</v>
       </c>
@@ -6268,7 +6704,7 @@
         <v>2828</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -6279,7 +6715,7 @@
         <v>2955</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -6290,7 +6726,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -6301,7 +6737,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -6312,7 +6748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>69</v>
       </c>
@@ -6323,7 +6759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>68</v>
       </c>
@@ -6334,7 +6770,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>70</v>
       </c>
@@ -6345,7 +6781,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>71</v>
       </c>
@@ -6356,7 +6792,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>72</v>
       </c>
@@ -6367,7 +6803,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -6378,7 +6814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>74</v>
       </c>
@@ -6389,7 +6825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -6400,7 +6836,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>75</v>
       </c>
@@ -6411,7 +6847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>78</v>
       </c>
@@ -6422,7 +6858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>79</v>
       </c>
@@ -6433,7 +6869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -6444,7 +6880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>81</v>
       </c>
@@ -6455,7 +6891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>80</v>
       </c>
@@ -6466,7 +6902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>82</v>
       </c>
@@ -6477,7 +6913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>35</v>
       </c>
@@ -6488,7 +6924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>33</v>
       </c>
@@ -6499,7 +6935,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>34</v>
       </c>
@@ -6510,7 +6946,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>37</v>
       </c>
@@ -6521,7 +6957,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>38</v>
       </c>
@@ -6532,7 +6968,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>36</v>
       </c>
@@ -6543,7 +6979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>40</v>
       </c>
@@ -6554,7 +6990,7 @@
         <v>3411</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>39</v>
       </c>
@@ -6565,7 +7001,7 @@
         <v>3725</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>92</v>
       </c>
@@ -6576,7 +7012,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>93</v>
       </c>
@@ -6587,7 +7023,7 @@
         <v>3921</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>91</v>
       </c>
@@ -6598,7 +7034,7 @@
         <v>4280</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>95</v>
       </c>
@@ -6609,7 +7045,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>96</v>
       </c>
@@ -6620,7 +7056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>94</v>
       </c>
@@ -6631,7 +7067,7 @@
         <v>5033</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>98</v>
       </c>
@@ -6642,7 +7078,7 @@
         <v>4665</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>97</v>
       </c>
@@ -6653,7 +7089,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>101</v>
       </c>
@@ -6664,7 +7100,7 @@
         <v>11715</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>100</v>
       </c>
@@ -6675,7 +7111,7 @@
         <v>11486</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>99</v>
       </c>
@@ -6686,7 +7122,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>103</v>
       </c>
@@ -6697,7 +7133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>102</v>
       </c>
@@ -6708,7 +7144,7 @@
         <v>12457</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>106</v>
       </c>
@@ -6719,7 +7155,7 @@
         <v>13030</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>105</v>
       </c>
@@ -6730,7 +7166,7 @@
         <v>13970</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>104</v>
       </c>
@@ -6741,7 +7177,7 @@
         <v>12435</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>107</v>
       </c>
@@ -6752,7 +7188,7 @@
         <v>12751</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>108</v>
       </c>
@@ -6763,7 +7199,7 @@
         <v>3796</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>111</v>
       </c>
@@ -6774,7 +7210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>110</v>
       </c>
@@ -6785,7 +7221,7 @@
         <v>13074</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>109</v>
       </c>
@@ -6796,7 +7232,7 @@
         <v>16649</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>114</v>
       </c>
@@ -6807,7 +7243,7 @@
         <v>3724</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>113</v>
       </c>
@@ -6818,7 +7254,7 @@
         <v>22755</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>112</v>
       </c>
@@ -6829,7 +7265,7 @@
         <v>28449</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>115</v>
       </c>
@@ -6840,7 +7276,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>117</v>
       </c>
@@ -6851,7 +7287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -6862,7 +7298,7 @@
         <v>21524</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>118</v>
       </c>
@@ -6873,7 +7309,7 @@
         <v>21010</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>119</v>
       </c>
@@ -6884,7 +7320,7 @@
         <v>16175</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>121</v>
       </c>
@@ -6895,7 +7331,7 @@
         <v>13061</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>120</v>
       </c>
@@ -6906,7 +7342,7 @@
         <v>17084</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>123</v>
       </c>
@@ -6917,7 +7353,7 @@
         <v>3843</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>124</v>
       </c>
@@ -6928,7 +7364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>122</v>
       </c>
@@ -6939,7 +7375,7 @@
         <v>8127</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>85</v>
       </c>
@@ -6950,7 +7386,7 @@
         <v>7109</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>83</v>
       </c>
@@ -6961,7 +7397,7 @@
         <v>6277</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>84</v>
       </c>
@@ -6972,7 +7408,7 @@
         <v>8383</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>86</v>
       </c>
@@ -6983,7 +7419,7 @@
         <v>10339</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>87</v>
       </c>
@@ -6994,7 +7430,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>89</v>
       </c>
@@ -7005,7 +7441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>90</v>
       </c>
@@ -7016,7 +7452,7 @@
         <v>5412</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
         <v>88</v>
       </c>
@@ -7027,7 +7463,7 @@
         <v>4672</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
         <v>22</v>
       </c>
@@ -7038,7 +7474,7 @@
         <v>3076</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
         <v>20</v>
       </c>
@@ -7049,7 +7485,7 @@
         <v>68440</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>21</v>
       </c>
@@ -7060,7 +7496,7 @@
         <v>55544</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
         <v>24</v>
       </c>
@@ -7071,7 +7507,7 @@
         <v>28724</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
         <v>23</v>
       </c>
@@ -7082,7 +7518,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
         <v>26</v>
       </c>
@@ -7093,7 +7529,7 @@
         <v>52848</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
         <v>27</v>
       </c>
@@ -7104,7 +7540,7 @@
         <v>37687</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
         <v>25</v>
       </c>
@@ -7115,7 +7551,7 @@
         <v>57409</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
         <v>28</v>
       </c>
@@ -7126,7 +7562,7 @@
         <v>25631</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
         <v>29</v>
       </c>
@@ -7137,7 +7573,7 @@
         <v>27755</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
         <v>31</v>
       </c>
@@ -7148,7 +7584,7 @@
         <v>7884</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
         <v>32</v>
       </c>
@@ -7159,7 +7595,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
         <v>30</v>
       </c>
@@ -7170,7 +7606,7 @@
         <v>21087</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>12</v>
       </c>
@@ -7181,7 +7617,7 @@
         <v>21120</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
         <v>13</v>
       </c>
@@ -7192,7 +7628,7 @@
         <v>21120</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
         <v>16</v>
       </c>
@@ -7203,7 +7639,7 @@
         <v>22040</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
         <v>14</v>
       </c>
@@ -7214,7 +7650,7 @@
         <v>22720</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
         <v>15</v>
       </c>
@@ -7225,7 +7661,7 @@
         <v>6655</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
         <v>18</v>
       </c>
@@ -7236,7 +7672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
         <v>19</v>
       </c>
@@ -7247,7 +7683,7 @@
         <v>21853</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
         <v>17</v>
       </c>
@@ -7258,7 +7694,7 @@
         <v>22407</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
         <v>128</v>
       </c>
@@ -7269,7 +7705,7 @@
         <v>22749</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
         <v>129</v>
       </c>
@@ -7280,7 +7716,7 @@
         <v>18865</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
         <v>131</v>
       </c>
@@ -7291,7 +7727,7 @@
         <v>20529</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
         <v>132</v>
       </c>
@@ -7302,7 +7738,7 @@
         <v>4139</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
         <v>130</v>
       </c>
@@ -7313,7 +7749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
         <v>134</v>
       </c>
@@ -7324,7 +7760,7 @@
         <v>9389</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
         <v>135</v>
       </c>
@@ -7335,7 +7771,7 @@
         <v>12346</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
         <v>133</v>
       </c>
@@ -7346,7 +7782,7 @@
         <v>11909</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
         <v>137</v>
       </c>
@@ -7357,7 +7793,7 @@
         <v>13483</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
         <v>136</v>
       </c>
@@ -7368,7 +7804,7 @@
         <v>20660</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
         <v>140</v>
       </c>
@@ -7379,7 +7815,7 @@
         <v>8264</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
         <v>139</v>
       </c>
@@ -7390,7 +7826,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3">
       <c r="A149" t="s">
         <v>138</v>
       </c>
@@ -7401,7 +7837,7 @@
         <v>13483</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3">
       <c r="A150" t="s">
         <v>142</v>
       </c>
@@ -7412,7 +7848,7 @@
         <v>16581</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3">
       <c r="A151" t="s">
         <v>143</v>
       </c>
@@ -7423,7 +7859,7 @@
         <v>18514</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3">
       <c r="A152" t="s">
         <v>141</v>
       </c>
@@ -7434,7 +7870,7 @@
         <v>20650</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3">
       <c r="A153" t="s">
         <v>144</v>
       </c>
@@ -7445,7 +7881,7 @@
         <v>27192</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3">
       <c r="A154" t="s">
         <v>145</v>
       </c>
@@ -7456,7 +7892,7 @@
         <v>7397</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3">
       <c r="A155" t="s">
         <v>147</v>
       </c>
@@ -7467,7 +7903,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3">
       <c r="A156" t="s">
         <v>146</v>
       </c>
@@ -7478,7 +7914,7 @@
         <v>9668</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3">
       <c r="A157" t="s">
         <v>148</v>
       </c>
@@ -7489,7 +7925,7 @@
         <v>8800</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3">
       <c r="A158" t="s">
         <v>151</v>
       </c>
@@ -7500,7 +7936,7 @@
         <v>6008</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3">
       <c r="A159" t="s">
         <v>150</v>
       </c>
@@ -7511,7 +7947,7 @@
         <v>8022</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3">
       <c r="A160" t="s">
         <v>149</v>
       </c>
@@ -7522,7 +7958,7 @@
         <v>10128</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3">
       <c r="A161" t="s">
         <v>153</v>
       </c>
@@ -7533,7 +7969,7 @@
         <v>2639</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
         <v>152</v>
       </c>
@@ -7544,7 +7980,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3">
       <c r="A163" t="s">
         <v>155</v>
       </c>
@@ -7555,7 +7991,7 @@
         <v>14631</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3">
       <c r="A164" t="s">
         <v>156</v>
       </c>
@@ -7566,7 +8002,7 @@
         <v>9381</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3">
       <c r="A165" t="s">
         <v>154</v>
       </c>
@@ -7577,7 +8013,7 @@
         <v>8120</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
         <v>157</v>
       </c>
@@ -7588,7 +8024,7 @@
         <v>7742</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
         <v>159</v>
       </c>
@@ -7599,7 +8035,7 @@
         <v>13659</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
         <v>158</v>
       </c>
@@ -7610,7 +8046,7 @@
         <v>4188</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3">
       <c r="A169" t="s">
         <v>160</v>
       </c>
@@ -7621,7 +8057,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3">
       <c r="A170" t="s">
         <v>161</v>
       </c>
@@ -7632,7 +8068,7 @@
         <v>7123</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3">
       <c r="A171" t="s">
         <v>163</v>
       </c>
@@ -7643,7 +8079,7 @@
         <v>20557</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3">
       <c r="A172" t="s">
         <v>162</v>
       </c>
@@ -7654,7 +8090,7 @@
         <v>23102</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3">
       <c r="A173" t="s">
         <v>164</v>
       </c>
@@ -7665,7 +8101,7 @@
         <v>25819</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3">
       <c r="A174" t="s">
         <v>165</v>
       </c>
@@ -7676,7 +8112,7 @@
         <v>30152</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3">
       <c r="A175" t="s">
         <v>166</v>
       </c>
@@ -7687,7 +8123,7 @@
         <v>8911</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3">
       <c r="A176" t="s">
         <v>127</v>
       </c>
@@ -7698,7 +8134,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3">
       <c r="A177" t="s">
         <v>126</v>
       </c>
@@ -7709,7 +8145,7 @@
         <v>35253</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3">
       <c r="A178" t="s">
         <v>125</v>
       </c>
@@ -7720,7 +8156,7 @@
         <v>34387</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3">
       <c r="A179" t="s">
         <v>167</v>
       </c>
@@ -7731,7 +8167,7 @@
         <v>35492</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3">
       <c r="A180" t="s">
         <v>168</v>
       </c>
@@ -7742,7 +8178,7 @@
         <v>135399</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3">
       <c r="A181" t="s">
         <v>169</v>
       </c>
@@ -7753,7 +8189,7 @@
         <v>121688</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3">
       <c r="A182" t="s">
         <v>170</v>
       </c>
@@ -7764,7 +8200,7 @@
         <v>39280</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3">
       <c r="A183" t="s">
         <v>171</v>
       </c>
@@ -7775,7 +8211,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3">
       <c r="A184" t="s">
         <v>173</v>
       </c>
@@ -7786,7 +8222,7 @@
         <v>51259</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3">
       <c r="A185" t="s">
         <v>174</v>
       </c>
@@ -7797,7 +8233,7 @@
         <v>94563</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3">
       <c r="A186" t="s">
         <v>172</v>
       </c>
@@ -7808,7 +8244,7 @@
         <v>62833</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3">
       <c r="A187" t="s">
         <v>175</v>
       </c>
@@ -7819,7 +8255,7 @@
         <v>57683</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3">
       <c r="A188" t="s">
         <v>176</v>
       </c>
@@ -7830,7 +8266,7 @@
         <v>66759</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3">
       <c r="A189" t="s">
         <v>179</v>
       </c>
@@ -7841,7 +8277,7 @@
         <v>26500</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3">
       <c r="A190" t="s">
         <v>177</v>
       </c>
@@ -7852,7 +8288,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3">
       <c r="A191" t="s">
         <v>178</v>
       </c>
@@ -7863,7 +8299,7 @@
         <v>130725</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3">
       <c r="A192" t="s">
         <v>180</v>
       </c>
@@ -7874,7 +8310,7 @@
         <v>107587</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3">
       <c r="A193" t="s">
         <v>181</v>
       </c>
@@ -7885,7 +8321,7 @@
         <v>82944</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3">
       <c r="A194" t="s">
         <v>182</v>
       </c>
@@ -7896,7 +8332,7 @@
         <v>71032</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3">
       <c r="A195" t="s">
         <v>183</v>
       </c>
@@ -7907,7 +8343,7 @@
         <v>101098</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3">
       <c r="A196" t="s">
         <v>185</v>
       </c>
@@ -7918,7 +8354,7 @@
         <v>50134</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3">
       <c r="A197" t="s">
         <v>184</v>
       </c>
@@ -7929,7 +8365,7 @@
         <v>2921</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3">
       <c r="A198" t="s">
         <v>187</v>
       </c>
@@ -7940,7 +8376,7 @@
         <v>101098</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3">
       <c r="A199" t="s">
         <v>186</v>
       </c>
@@ -7951,7 +8387,7 @@
         <v>95981</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3">
       <c r="A200" s="4" t="s">
         <v>202</v>
       </c>
@@ -7962,7 +8398,7 @@
         <v>94420</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3">
       <c r="A201" s="4" t="s">
         <v>203</v>
       </c>
@@ -7973,7 +8409,7 @@
         <v>88297</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:3">
       <c r="A202" s="4" t="s">
         <v>204</v>
       </c>
@@ -7984,7 +8420,7 @@
         <v>113133</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:3">
       <c r="A203" s="4" t="s">
         <v>205</v>
       </c>
@@ -7995,7 +8431,7 @@
         <v>42787</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:3">
       <c r="A204" s="4" t="s">
         <v>206</v>
       </c>
@@ -8006,7 +8442,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:3">
       <c r="A205" s="4" t="s">
         <v>207</v>
       </c>
@@ -8017,7 +8453,7 @@
         <v>116054</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:3">
       <c r="A206" s="4" t="s">
         <v>208</v>
       </c>
@@ -8028,7 +8464,7 @@
         <v>80167</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:3">
       <c r="A207" s="4" t="s">
         <v>209</v>
       </c>
@@ -8039,7 +8475,7 @@
         <v>54596</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:3">
       <c r="A208" s="4" t="s">
         <v>210</v>
       </c>
@@ -8050,7 +8486,7 @@
         <v>50641</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3">
       <c r="A209" s="4" t="s">
         <v>324</v>
       </c>
@@ -8061,7 +8497,7 @@
         <v>72243</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3">
       <c r="A210" s="4" t="s">
         <v>212</v>
       </c>
@@ -8072,7 +8508,7 @@
         <v>40766</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3">
       <c r="A211" s="4" t="s">
         <v>213</v>
       </c>
@@ -8083,7 +8519,7 @@
         <v>4971</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3">
       <c r="A212" s="4" t="s">
         <v>214</v>
       </c>
@@ -8094,7 +8530,7 @@
         <v>68468</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3">
       <c r="A213" s="4" t="s">
         <v>215</v>
       </c>
@@ -8105,7 +8541,7 @@
         <v>35198</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3">
       <c r="A214" s="4" t="s">
         <v>216</v>
       </c>
@@ -8116,7 +8552,7 @@
         <v>68849</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3">
       <c r="A215" s="4" t="s">
         <v>217</v>
       </c>
@@ -8127,7 +8563,7 @@
         <v>51260</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3">
       <c r="A216" s="4" t="s">
         <v>218</v>
       </c>
@@ -8138,7 +8574,7 @@
         <v>81868</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:3">
       <c r="A217" s="4" t="s">
         <v>219</v>
       </c>
@@ -8149,7 +8585,7 @@
         <v>39944</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:3">
       <c r="A218" s="4" t="s">
         <v>220</v>
       </c>
@@ -8160,7 +8596,7 @@
         <v>5585</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:3">
       <c r="A219" s="4" t="s">
         <v>221</v>
       </c>
@@ -8171,7 +8607,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:3">
       <c r="A220" s="4" t="s">
         <v>222</v>
       </c>
@@ -8182,7 +8618,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:3">
       <c r="A221" s="4" t="s">
         <v>223</v>
       </c>
@@ -8193,7 +8629,7 @@
         <v>4188</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:3">
       <c r="A222" s="4" t="s">
         <v>224</v>
       </c>
@@ -8204,7 +8640,7 @@
         <v>80540</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:3">
       <c r="A223" s="4" t="s">
         <v>225</v>
       </c>
@@ -8215,7 +8651,7 @@
         <v>84966</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:3">
       <c r="A224" s="4" t="s">
         <v>226</v>
       </c>
@@ -8226,7 +8662,7 @@
         <v>46721</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:3">
       <c r="A225" s="4" t="s">
         <v>227</v>
       </c>
@@ -8237,7 +8673,7 @@
         <v>5363</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:3">
       <c r="A226" s="4" t="s">
         <v>228</v>
       </c>
@@ -8248,7 +8684,7 @@
         <v>139274</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:3">
       <c r="A227" s="4" t="s">
         <v>229</v>
       </c>
@@ -8259,7 +8695,7 @@
         <v>132787</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:3">
       <c r="A228" s="4" t="s">
         <v>230</v>
       </c>
@@ -8270,7 +8706,7 @@
         <v>105746</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:3">
       <c r="A229" s="4" t="s">
         <v>231</v>
       </c>
@@ -8281,7 +8717,7 @@
         <v>104742</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:3">
       <c r="A230" s="4" t="s">
         <v>325</v>
       </c>
@@ -8292,7 +8728,7 @@
         <v>156636</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:3">
       <c r="A231" s="4" t="s">
         <v>233</v>
       </c>
@@ -8303,7 +8739,7 @@
         <v>80525</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:3">
       <c r="A232" s="4" t="s">
         <v>234</v>
       </c>
@@ -8314,7 +8750,7 @@
         <v>6422</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:3">
       <c r="A233" s="4" t="s">
         <v>235</v>
       </c>
@@ -8325,7 +8761,7 @@
         <v>41561</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:3">
       <c r="A234" s="4" t="s">
         <v>236</v>
       </c>
@@ -8336,7 +8772,7 @@
         <v>146444</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:3">
       <c r="A235" s="4" t="s">
         <v>237</v>
       </c>
@@ -8347,7 +8783,7 @@
         <v>95261</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:3">
       <c r="A236" s="4" t="s">
         <v>238</v>
       </c>
@@ -8358,7 +8794,7 @@
         <v>138375</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:3">
       <c r="A237" s="4" t="s">
         <v>239</v>
       </c>
@@ -8369,7 +8805,7 @@
         <v>200186</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:3">
       <c r="A238" s="4" t="s">
         <v>240</v>
       </c>
@@ -8380,7 +8816,7 @@
         <v>15337</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:3">
       <c r="A239" s="4" t="s">
         <v>241</v>
       </c>
@@ -8391,7 +8827,7 @@
         <v>3236</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:3">
       <c r="A240" s="4" t="s">
         <v>242</v>
       </c>
@@ -8402,7 +8838,7 @@
         <v>28099</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:3">
       <c r="A241" s="4" t="s">
         <v>243</v>
       </c>
@@ -8413,7 +8849,7 @@
         <v>110204</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:3">
       <c r="A242" s="4" t="s">
         <v>244</v>
       </c>
@@ -8424,7 +8860,7 @@
         <v>77503</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:3">
       <c r="A243" s="4" t="s">
         <v>245</v>
       </c>
@@ -8435,7 +8871,7 @@
         <v>94569</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:3">
       <c r="A244" s="4" t="s">
         <v>246</v>
       </c>
@@ -8446,7 +8882,7 @@
         <v>133580</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:3">
       <c r="A245" s="4" t="s">
         <v>247</v>
       </c>
@@ -8457,7 +8893,7 @@
         <v>66910</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:3">
       <c r="A246" s="4" t="s">
         <v>248</v>
       </c>
@@ -8468,7 +8904,7 @@
         <v>3619</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:3">
       <c r="A247" s="4" t="s">
         <v>249</v>
       </c>
@@ -8495,12 +8931,12 @@
       <selection activeCell="C209" sqref="C209"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="3" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -8511,7 +8947,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>199</v>
       </c>
@@ -8522,7 +8958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>198</v>
       </c>
@@ -8533,7 +8969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>191</v>
       </c>
@@ -8544,7 +8980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>190</v>
       </c>
@@ -8555,7 +8991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>189</v>
       </c>
@@ -8566,7 +9002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>193</v>
       </c>
@@ -8577,7 +9013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>192</v>
       </c>
@@ -8588,7 +9024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>188</v>
       </c>
@@ -8599,7 +9035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>201</v>
       </c>
@@ -8610,7 +9046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>200</v>
       </c>
@@ -8621,7 +9057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>196</v>
       </c>
@@ -8632,7 +9068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -8643,7 +9079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -8654,7 +9090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -8665,7 +9101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -8676,7 +9112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -8687,7 +9123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -8698,7 +9134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -8709,7 +9145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -8720,7 +9156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -8731,7 +9167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -8742,7 +9178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -8753,7 +9189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -8764,7 +9200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -8775,7 +9211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -8786,7 +9222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -8797,7 +9233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -8808,7 +9244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -8819,7 +9255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -8830,7 +9266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -8841,7 +9277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -8852,7 +9288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -8863,7 +9299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -8874,7 +9310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -8885,7 +9321,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -8896,7 +9332,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -8907,7 +9343,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -8918,7 +9354,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -8929,7 +9365,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -8940,7 +9376,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -8951,7 +9387,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -8962,7 +9398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -8973,7 +9409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -8984,7 +9420,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>61</v>
       </c>
@@ -8995,7 +9431,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>62</v>
       </c>
@@ -9006,7 +9442,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -9017,7 +9453,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -9028,7 +9464,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -9039,7 +9475,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -9050,7 +9486,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>69</v>
       </c>
@@ -9061,7 +9497,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>68</v>
       </c>
@@ -9072,7 +9508,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>70</v>
       </c>
@@ -9083,7 +9519,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>71</v>
       </c>
@@ -9094,7 +9530,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>72</v>
       </c>
@@ -9105,7 +9541,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -9116,7 +9552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>74</v>
       </c>
@@ -9127,7 +9563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -9138,7 +9574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>75</v>
       </c>
@@ -9149,7 +9585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>78</v>
       </c>
@@ -9160,7 +9596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>79</v>
       </c>
@@ -9171,7 +9607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -9182,7 +9618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>81</v>
       </c>
@@ -9193,7 +9629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>80</v>
       </c>
@@ -9204,7 +9640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>82</v>
       </c>
@@ -9215,7 +9651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>35</v>
       </c>
@@ -9226,7 +9662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>33</v>
       </c>
@@ -9237,7 +9673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>34</v>
       </c>
@@ -9248,7 +9684,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>37</v>
       </c>
@@ -9259,7 +9695,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>38</v>
       </c>
@@ -9270,7 +9706,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>36</v>
       </c>
@@ -9281,7 +9717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>40</v>
       </c>
@@ -9292,7 +9728,7 @@
         <v>2715</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>39</v>
       </c>
@@ -9303,7 +9739,7 @@
         <v>2815</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>92</v>
       </c>
@@ -9314,7 +9750,7 @@
         <v>2946</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>93</v>
       </c>
@@ -9325,7 +9761,7 @@
         <v>4824</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>91</v>
       </c>
@@ -9336,7 +9772,7 @@
         <v>5026</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>95</v>
       </c>
@@ -9347,7 +9783,7 @@
         <v>3167</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>96</v>
       </c>
@@ -9358,7 +9794,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>94</v>
       </c>
@@ -9369,7 +9805,7 @@
         <v>4987</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>98</v>
       </c>
@@ -9380,7 +9816,7 @@
         <v>5339</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>97</v>
       </c>
@@ -9391,7 +9827,7 @@
         <v>5682</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>101</v>
       </c>
@@ -9402,7 +9838,7 @@
         <v>12319</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>100</v>
       </c>
@@ -9413,7 +9849,7 @@
         <v>15032</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>99</v>
       </c>
@@ -9424,7 +9860,7 @@
         <v>11230</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>103</v>
       </c>
@@ -9435,7 +9871,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>102</v>
       </c>
@@ -9446,7 +9882,7 @@
         <v>15181</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>106</v>
       </c>
@@ -9457,7 +9893,7 @@
         <v>16269</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>105</v>
       </c>
@@ -9468,7 +9904,7 @@
         <v>16256</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>104</v>
       </c>
@@ -9479,7 +9915,7 @@
         <v>16547</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>107</v>
       </c>
@@ -9490,7 +9926,7 @@
         <v>17903</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>108</v>
       </c>
@@ -9501,7 +9937,7 @@
         <v>12299</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>111</v>
       </c>
@@ -9512,7 +9948,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>110</v>
       </c>
@@ -9523,7 +9959,7 @@
         <v>22514</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>109</v>
       </c>
@@ -9534,7 +9970,7 @@
         <v>30523</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>114</v>
       </c>
@@ -9545,7 +9981,7 @@
         <v>28132</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>113</v>
       </c>
@@ -9556,7 +9992,7 @@
         <v>48307</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>112</v>
       </c>
@@ -9567,7 +10003,7 @@
         <v>53596</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>115</v>
       </c>
@@ -9578,7 +10014,7 @@
         <v>10679</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>117</v>
       </c>
@@ -9589,7 +10025,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -9600,7 +10036,7 @@
         <v>16135</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>118</v>
       </c>
@@ -9611,7 +10047,7 @@
         <v>15576</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>119</v>
       </c>
@@ -9622,7 +10058,7 @@
         <v>12830</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>121</v>
       </c>
@@ -9633,7 +10069,7 @@
         <v>10333</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>120</v>
       </c>
@@ -9644,7 +10080,7 @@
         <v>12388</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>123</v>
       </c>
@@ -9655,7 +10091,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>124</v>
       </c>
@@ -9666,7 +10102,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>122</v>
       </c>
@@ -9677,7 +10113,7 @@
         <v>4896</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>85</v>
       </c>
@@ -9688,7 +10124,7 @@
         <v>5025</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>83</v>
       </c>
@@ -9699,7 +10135,7 @@
         <v>4772</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>84</v>
       </c>
@@ -9710,7 +10146,7 @@
         <v>5311</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>86</v>
       </c>
@@ -9721,7 +10157,7 @@
         <v>5708</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>87</v>
       </c>
@@ -9732,7 +10168,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>89</v>
       </c>
@@ -9743,7 +10179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>90</v>
       </c>
@@ -9754,7 +10190,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
         <v>88</v>
       </c>
@@ -9765,7 +10201,7 @@
         <v>3430</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
         <v>22</v>
       </c>
@@ -9776,7 +10212,7 @@
         <v>3708</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
         <v>20</v>
       </c>
@@ -9787,7 +10223,7 @@
         <v>72261</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>21</v>
       </c>
@@ -9798,7 +10234,7 @@
         <v>60128</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
         <v>24</v>
       </c>
@@ -9809,7 +10245,7 @@
         <v>32130</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
         <v>23</v>
       </c>
@@ -9820,7 +10256,7 @@
         <v>3958</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
         <v>26</v>
       </c>
@@ -9831,7 +10267,7 @@
         <v>67631</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
         <v>27</v>
       </c>
@@ -9842,7 +10278,7 @@
         <v>52782</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
         <v>25</v>
       </c>
@@ -9853,7 +10289,7 @@
         <v>72263</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
         <v>28</v>
       </c>
@@ -9864,7 +10300,7 @@
         <v>29204</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
         <v>29</v>
       </c>
@@ -9875,7 +10311,7 @@
         <v>28944</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
         <v>31</v>
       </c>
@@ -9886,7 +10322,7 @@
         <v>11363</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
         <v>32</v>
       </c>
@@ -9897,7 +10333,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
         <v>30</v>
       </c>
@@ -9908,7 +10344,7 @@
         <v>23561</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>12</v>
       </c>
@@ -9919,7 +10355,7 @@
         <v>23541</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
         <v>13</v>
       </c>
@@ -9930,7 +10366,7 @@
         <v>23431</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
         <v>16</v>
       </c>
@@ -9941,7 +10377,7 @@
         <v>22207</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
         <v>14</v>
       </c>
@@ -9952,7 +10388,7 @@
         <v>18943</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
         <v>15</v>
       </c>
@@ -9963,7 +10399,7 @@
         <v>10874</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
         <v>18</v>
       </c>
@@ -9974,7 +10410,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
         <v>19</v>
       </c>
@@ -9985,7 +10421,7 @@
         <v>20533</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
         <v>17</v>
       </c>
@@ -9996,7 +10432,7 @@
         <v>21221</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
         <v>128</v>
       </c>
@@ -10007,7 +10443,7 @@
         <v>20602</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
         <v>129</v>
       </c>
@@ -10018,7 +10454,7 @@
         <v>17669</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
         <v>131</v>
       </c>
@@ -10029,7 +10465,7 @@
         <v>18250</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
         <v>132</v>
       </c>
@@ -10040,7 +10476,7 @@
         <v>7776</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
         <v>130</v>
       </c>
@@ -10051,7 +10487,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
         <v>134</v>
       </c>
@@ -10062,7 +10498,7 @@
         <v>8338</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
         <v>135</v>
       </c>
@@ -10073,7 +10509,7 @@
         <v>13008</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
         <v>133</v>
       </c>
@@ -10084,7 +10520,7 @@
         <v>13375</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
         <v>137</v>
       </c>
@@ -10095,7 +10531,7 @@
         <v>16175</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
         <v>136</v>
       </c>
@@ -10106,7 +10542,7 @@
         <v>24711</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
         <v>140</v>
       </c>
@@ -10117,7 +10553,7 @@
         <v>10441</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
         <v>139</v>
       </c>
@@ -10128,7 +10564,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3">
       <c r="A149" t="s">
         <v>138</v>
       </c>
@@ -10139,7 +10575,7 @@
         <v>19159</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3">
       <c r="A150" t="s">
         <v>142</v>
       </c>
@@ -10150,7 +10586,7 @@
         <v>21223</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3">
       <c r="A151" t="s">
         <v>143</v>
       </c>
@@ -10161,7 +10597,7 @@
         <v>25429</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3">
       <c r="A152" t="s">
         <v>141</v>
       </c>
@@ -10172,7 +10608,7 @@
         <v>35001</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3">
       <c r="A153" t="s">
         <v>144</v>
       </c>
@@ -10183,7 +10619,7 @@
         <v>10449</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3">
       <c r="A154" t="s">
         <v>145</v>
       </c>
@@ -10194,7 +10630,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3">
       <c r="A155" t="s">
         <v>147</v>
       </c>
@@ -10205,7 +10641,7 @@
         <v>9269</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3">
       <c r="A156" t="s">
         <v>146</v>
       </c>
@@ -10216,7 +10652,7 @@
         <v>14243</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3">
       <c r="A157" t="s">
         <v>148</v>
       </c>
@@ -10227,7 +10663,7 @@
         <v>9363</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3">
       <c r="A158" t="s">
         <v>151</v>
       </c>
@@ -10238,7 +10674,7 @@
         <v>4387</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3">
       <c r="A159" t="s">
         <v>150</v>
       </c>
@@ -10249,7 +10685,7 @@
         <v>9560</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3">
       <c r="A160" t="s">
         <v>149</v>
       </c>
@@ -10260,7 +10696,7 @@
         <v>10033</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3">
       <c r="A161" t="s">
         <v>153</v>
       </c>
@@ -10271,7 +10707,7 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
         <v>152</v>
       </c>
@@ -10282,7 +10718,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3">
       <c r="A163" t="s">
         <v>155</v>
       </c>
@@ -10293,7 +10729,7 @@
         <v>13921</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3">
       <c r="A164" t="s">
         <v>156</v>
       </c>
@@ -10304,7 +10740,7 @@
         <v>8921</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3">
       <c r="A165" t="s">
         <v>154</v>
       </c>
@@ -10315,7 +10751,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
         <v>157</v>
       </c>
@@ -10326,7 +10762,7 @@
         <v>9048</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
         <v>159</v>
       </c>
@@ -10337,7 +10773,7 @@
         <v>14644</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
         <v>158</v>
       </c>
@@ -10348,7 +10784,7 @@
         <v>5744</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3">
       <c r="A169" t="s">
         <v>160</v>
       </c>
@@ -10359,7 +10795,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3">
       <c r="A170" t="s">
         <v>161</v>
       </c>
@@ -10370,7 +10806,7 @@
         <v>7895</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3">
       <c r="A171" t="s">
         <v>163</v>
       </c>
@@ -10381,7 +10817,7 @@
         <v>29750</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3">
       <c r="A172" t="s">
         <v>162</v>
       </c>
@@ -10392,7 +10828,7 @@
         <v>32848</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3">
       <c r="A173" t="s">
         <v>164</v>
       </c>
@@ -10403,7 +10839,7 @@
         <v>36516</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3">
       <c r="A174" t="s">
         <v>165</v>
       </c>
@@ -10414,7 +10850,7 @@
         <v>40588</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3">
       <c r="A175" t="s">
         <v>166</v>
       </c>
@@ -10425,7 +10861,7 @@
         <v>19419</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3">
       <c r="A176" t="s">
         <v>127</v>
       </c>
@@ -10436,7 +10872,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3">
       <c r="A177" t="s">
         <v>126</v>
       </c>
@@ -10447,7 +10883,7 @@
         <v>46984</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3">
       <c r="A178" t="s">
         <v>125</v>
       </c>
@@ -10458,7 +10894,7 @@
         <v>48020</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3">
       <c r="A179" t="s">
         <v>167</v>
       </c>
@@ -10469,7 +10905,7 @@
         <v>44456</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3">
       <c r="A180" t="s">
         <v>168</v>
       </c>
@@ -10480,7 +10916,7 @@
         <v>165797</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3">
       <c r="A181" t="s">
         <v>169</v>
       </c>
@@ -10491,7 +10927,7 @@
         <v>146186</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3">
       <c r="A182" t="s">
         <v>170</v>
       </c>
@@ -10502,7 +10938,7 @@
         <v>56595</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3">
       <c r="A183" t="s">
         <v>171</v>
       </c>
@@ -10513,7 +10949,7 @@
         <v>2762</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3">
       <c r="A184" t="s">
         <v>173</v>
       </c>
@@ -10524,7 +10960,7 @@
         <v>60524</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3">
       <c r="A185" t="s">
         <v>174</v>
       </c>
@@ -10535,7 +10971,7 @@
         <v>108243</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3">
       <c r="A186" t="s">
         <v>172</v>
       </c>
@@ -10546,7 +10982,7 @@
         <v>69519</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3">
       <c r="A187" t="s">
         <v>175</v>
       </c>
@@ -10557,7 +10993,7 @@
         <v>62348</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3">
       <c r="A188" t="s">
         <v>176</v>
       </c>
@@ -10568,7 +11004,7 @@
         <v>74046</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3">
       <c r="A189" t="s">
         <v>179</v>
       </c>
@@ -10579,7 +11015,7 @@
         <v>31495</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3">
       <c r="A190" t="s">
         <v>177</v>
       </c>
@@ -10590,7 +11026,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3">
       <c r="A191" t="s">
         <v>178</v>
       </c>
@@ -10601,7 +11037,7 @@
         <v>166961</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3">
       <c r="A192" t="s">
         <v>180</v>
       </c>
@@ -10612,7 +11048,7 @@
         <v>135347</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3">
       <c r="A193" t="s">
         <v>181</v>
       </c>
@@ -10623,7 +11059,7 @@
         <v>106058</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3">
       <c r="A194" t="s">
         <v>182</v>
       </c>
@@ -10634,7 +11070,7 @@
         <v>94061</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3">
       <c r="A195" t="s">
         <v>183</v>
       </c>
@@ -10645,7 +11081,7 @@
         <v>136524</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3">
       <c r="A196" t="s">
         <v>185</v>
       </c>
@@ -10656,7 +11092,7 @@
         <v>71641</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3">
       <c r="A197" t="s">
         <v>184</v>
       </c>
@@ -10667,7 +11103,7 @@
         <v>6527</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3">
       <c r="A198" t="s">
         <v>187</v>
       </c>
@@ -10678,7 +11114,7 @@
         <v>147041</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3">
       <c r="A199" t="s">
         <v>186</v>
       </c>
@@ -10689,7 +11125,7 @@
         <v>127350</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3">
       <c r="A200" s="4" t="s">
         <v>202</v>
       </c>
@@ -10700,7 +11136,7 @@
         <v>130584</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3">
       <c r="A201" s="4" t="s">
         <v>203</v>
       </c>
@@ -10711,7 +11147,7 @@
         <v>120344</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:3">
       <c r="A202" s="4" t="s">
         <v>204</v>
       </c>
@@ -10722,7 +11158,7 @@
         <v>182455</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:3">
       <c r="A203" s="4" t="s">
         <v>205</v>
       </c>
@@ -10733,7 +11169,7 @@
         <v>71033</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:3">
       <c r="A204" s="4" t="s">
         <v>206</v>
       </c>
@@ -10744,7 +11180,7 @@
         <v>3083</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:3">
       <c r="A205" s="4" t="s">
         <v>207</v>
       </c>
@@ -10755,7 +11191,7 @@
         <v>163798</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:3">
       <c r="A206" s="4" t="s">
         <v>208</v>
       </c>
@@ -10766,7 +11202,7 @@
         <v>110234</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:3">
       <c r="A207" s="4" t="s">
         <v>209</v>
       </c>
@@ -10777,7 +11213,7 @@
         <v>77404</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:3">
       <c r="A208" s="4" t="s">
         <v>210</v>
       </c>
@@ -10788,7 +11224,7 @@
         <v>71314</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3">
       <c r="A209" s="4" t="s">
         <v>324</v>
       </c>
@@ -10799,7 +11235,7 @@
         <v>104799</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3">
       <c r="A210" s="4" t="s">
         <v>212</v>
       </c>
@@ -10810,7 +11246,7 @@
         <v>61097</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3">
       <c r="A211" s="4" t="s">
         <v>213</v>
       </c>
@@ -10821,7 +11257,7 @@
         <v>9321</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3">
       <c r="A212" s="4" t="s">
         <v>214</v>
       </c>
@@ -10832,7 +11268,7 @@
         <v>106341</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3">
       <c r="A213" s="4" t="s">
         <v>215</v>
       </c>
@@ -10843,7 +11279,7 @@
         <v>57331</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3">
       <c r="A214" s="4" t="s">
         <v>216</v>
       </c>
@@ -10854,7 +11290,7 @@
         <v>105085</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3">
       <c r="A215" s="4" t="s">
         <v>217</v>
       </c>
@@ -10865,7 +11301,7 @@
         <v>77409</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3">
       <c r="A216" s="4" t="s">
         <v>218</v>
       </c>
@@ -10876,7 +11312,7 @@
         <v>115046</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:3">
       <c r="A217" s="4" t="s">
         <v>219</v>
       </c>
@@ -10887,7 +11323,7 @@
         <v>54126</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:3">
       <c r="A218" s="4" t="s">
         <v>220</v>
       </c>
@@ -10898,7 +11334,7 @@
         <v>9519</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:3">
       <c r="A219" s="4" t="s">
         <v>221</v>
       </c>
@@ -10909,7 +11345,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:3">
       <c r="A220" s="4" t="s">
         <v>222</v>
       </c>
@@ -10920,7 +11356,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:3">
       <c r="A221" s="4" t="s">
         <v>223</v>
       </c>
@@ -10931,7 +11367,7 @@
         <v>5711</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:3">
       <c r="A222" s="4" t="s">
         <v>224</v>
       </c>
@@ -10942,7 +11378,7 @@
         <v>104557</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:3">
       <c r="A223" s="4" t="s">
         <v>225</v>
       </c>
@@ -10953,7 +11389,7 @@
         <v>116453</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:3">
       <c r="A224" s="4" t="s">
         <v>226</v>
       </c>
@@ -10964,7 +11400,7 @@
         <v>68353</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:3">
       <c r="A225" s="4" t="s">
         <v>227</v>
       </c>
@@ -10975,7 +11411,7 @@
         <v>9646</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:3">
       <c r="A226" s="4" t="s">
         <v>228</v>
       </c>
@@ -10986,7 +11422,7 @@
         <v>191432</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:3">
       <c r="A227" s="4" t="s">
         <v>229</v>
       </c>
@@ -10997,7 +11433,7 @@
         <v>184775</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:3">
       <c r="A228" s="4" t="s">
         <v>230</v>
       </c>
@@ -11008,7 +11444,7 @@
         <v>140267</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:3">
       <c r="A229" s="4" t="s">
         <v>231</v>
       </c>
@@ -11019,7 +11455,7 @@
         <v>141741</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:3">
       <c r="A230" s="4" t="s">
         <v>325</v>
       </c>
@@ -11030,7 +11466,7 @@
         <v>231628</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:3">
       <c r="A231" s="4" t="s">
         <v>233</v>
       </c>
@@ -11041,7 +11477,7 @@
         <v>125376</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:3">
       <c r="A232" s="4" t="s">
         <v>234</v>
       </c>
@@ -11052,7 +11488,7 @@
         <v>14291</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:3">
       <c r="A233" s="4" t="s">
         <v>235</v>
       </c>
@@ -11063,7 +11499,7 @@
         <v>62318</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:3">
       <c r="A234" s="4" t="s">
         <v>236</v>
       </c>
@@ -11074,7 +11510,7 @@
         <v>194215</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:3">
       <c r="A235" s="4" t="s">
         <v>237</v>
       </c>
@@ -11085,7 +11521,7 @@
         <v>129174</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:3">
       <c r="A236" s="4" t="s">
         <v>238</v>
       </c>
@@ -11096,7 +11532,7 @@
         <v>181392</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:3">
       <c r="A237" s="4" t="s">
         <v>239</v>
       </c>
@@ -11107,7 +11543,7 @@
         <v>287617</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:3">
       <c r="A238" s="4" t="s">
         <v>240</v>
       </c>
@@ -11118,7 +11554,7 @@
         <v>37089</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:3">
       <c r="A239" s="4" t="s">
         <v>241</v>
       </c>
@@ -11129,7 +11565,7 @@
         <v>8325</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:3">
       <c r="A240" s="4" t="s">
         <v>242</v>
       </c>
@@ -11140,7 +11576,7 @@
         <v>40057</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:3">
       <c r="A241" s="4" t="s">
         <v>243</v>
       </c>
@@ -11151,7 +11587,7 @@
         <v>148600</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:3">
       <c r="A242" s="4" t="s">
         <v>244</v>
       </c>
@@ -11162,7 +11598,7 @@
         <v>105077</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:3">
       <c r="A243" s="4" t="s">
         <v>245</v>
       </c>
@@ -11173,7 +11609,7 @@
         <v>124130</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:3">
       <c r="A244" s="4" t="s">
         <v>246</v>
       </c>
@@ -11184,7 +11620,7 @@
         <v>200315</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:3">
       <c r="A245" s="4" t="s">
         <v>247</v>
       </c>
@@ -11195,7 +11631,7 @@
         <v>108817</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:3">
       <c r="A246" s="4" t="s">
         <v>248</v>
       </c>
@@ -11206,7 +11642,7 @@
         <v>8549</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:3">
       <c r="A247" s="4" t="s">
         <v>249</v>
       </c>

--- a/data/vaccine/vaccination_number.xlsx
+++ b/data/vaccine/vaccination_number.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yjlee/repos/COVID19_SeoulGyeonggi/data/vaccine/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dropbox (Jeongjoo)\estimation_matlab\Covid19_seoul_gyeonggi\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675D4B94-0DFD-2646-8EF2-F5094675C3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3694E4-1296-41DB-90AA-D121B4A48556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14860" yWindow="1520" windowWidth="13940" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16053" yWindow="1528" windowWidth="13949" windowHeight="12772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="total" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="326">
   <si>
     <t>2021.03.07</t>
   </si>
@@ -1017,106 +1015,13 @@
   <si>
     <t>2021.10.01</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.01.01</t>
-  </si>
-  <si>
-    <t>2022.01.02</t>
-  </si>
-  <si>
-    <t>2022.01.03</t>
-  </si>
-  <si>
-    <t>2022.01.04</t>
-  </si>
-  <si>
-    <t>2022.01.05</t>
-  </si>
-  <si>
-    <t>2022.01.06</t>
-  </si>
-  <si>
-    <t>2022.01.07</t>
-  </si>
-  <si>
-    <t>2022.01.08</t>
-  </si>
-  <si>
-    <t>2022.01.09</t>
-  </si>
-  <si>
-    <t>2022.01.10</t>
-  </si>
-  <si>
-    <t>2022.01.11</t>
-  </si>
-  <si>
-    <t>2022.01.12</t>
-  </si>
-  <si>
-    <t>2022.01.13</t>
-  </si>
-  <si>
-    <t>2022.01.14</t>
-  </si>
-  <si>
-    <t>2022.01.15</t>
-  </si>
-  <si>
-    <t>2022.01.16</t>
-  </si>
-  <si>
-    <t>2022.01.17</t>
-  </si>
-  <si>
-    <t>2022.01.18</t>
-  </si>
-  <si>
-    <t>2022.01.19</t>
-  </si>
-  <si>
-    <t>2022.01.20</t>
-  </si>
-  <si>
-    <t>2022.01.21</t>
-  </si>
-  <si>
-    <t>2022.01.22</t>
-  </si>
-  <si>
-    <t>2022.01.23</t>
-  </si>
-  <si>
-    <t>2022.01.24</t>
-  </si>
-  <si>
-    <t>2022.01.25</t>
-  </si>
-  <si>
-    <t>2022.01.26</t>
-  </si>
-  <si>
-    <t>2022.01.27</t>
-  </si>
-  <si>
-    <t>2022.01.28</t>
-  </si>
-  <si>
-    <t>2022.01.29</t>
-  </si>
-  <si>
-    <t>2022.01.30</t>
-  </si>
-  <si>
-    <t>2022.01.31</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1174,7 +1079,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -1678,15 +1583,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G352"/>
+  <dimension ref="A1:G321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A334" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B321" sqref="B321:C352"/>
+    <sheetView tabSelected="1" topLeftCell="A248" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E256" sqref="E256"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>197</v>
       </c>
@@ -1697,7 +1602,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>199</v>
       </c>
@@ -1710,7 +1615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>198</v>
       </c>
@@ -1723,7 +1628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>191</v>
       </c>
@@ -1736,7 +1641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>190</v>
       </c>
@@ -1749,7 +1654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>189</v>
       </c>
@@ -1762,7 +1667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>193</v>
       </c>
@@ -1775,7 +1680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>192</v>
       </c>
@@ -1788,7 +1693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>188</v>
       </c>
@@ -1801,7 +1706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>201</v>
       </c>
@@ -1814,7 +1719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>200</v>
       </c>
@@ -1827,7 +1732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>196</v>
       </c>
@@ -1840,7 +1745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1853,7 +1758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1866,7 +1771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1879,7 +1784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1892,7 +1797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1905,7 +1810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1918,7 +1823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1931,7 +1836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1944,7 +1849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1957,7 +1862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1970,7 +1875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1983,7 +1888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -1996,7 +1901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -2009,7 +1914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -2022,7 +1927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -2035,7 +1940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -2048,7 +1953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -2061,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -2074,7 +1979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -2087,7 +1992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -2100,7 +2005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -2113,7 +2018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -2126,7 +2031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -2139,7 +2044,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -2152,7 +2057,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -2165,7 +2070,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -2178,7 +2083,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -2191,7 +2096,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -2204,7 +2109,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -2217,7 +2122,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -2230,7 +2135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -2243,7 +2148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -2256,7 +2161,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>61</v>
       </c>
@@ -2269,7 +2174,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>62</v>
       </c>
@@ -2282,7 +2187,7 @@
         <v>3519</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -2295,7 +2200,7 @@
         <v>4526</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -2308,7 +2213,7 @@
         <v>4130</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -2321,7 +2226,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -2334,7 +2239,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>69</v>
       </c>
@@ -2347,7 +2252,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>68</v>
       </c>
@@ -2360,7 +2265,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>70</v>
       </c>
@@ -2373,7 +2278,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>71</v>
       </c>
@@ -2386,7 +2291,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>72</v>
       </c>
@@ -2399,7 +2304,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -2412,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>74</v>
       </c>
@@ -2425,7 +2330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -2438,7 +2343,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>75</v>
       </c>
@@ -2451,7 +2356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>78</v>
       </c>
@@ -2464,7 +2369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>79</v>
       </c>
@@ -2477,7 +2382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -2490,7 +2395,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>81</v>
       </c>
@@ -2503,7 +2408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>80</v>
       </c>
@@ -2516,7 +2421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>82</v>
       </c>
@@ -2529,7 +2434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>35</v>
       </c>
@@ -2542,7 +2447,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>33</v>
       </c>
@@ -2555,7 +2460,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>34</v>
       </c>
@@ -2568,7 +2473,7 @@
         <v>4708</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>37</v>
       </c>
@@ -2581,7 +2486,7 @@
         <v>4897</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>38</v>
       </c>
@@ -2594,7 +2499,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>36</v>
       </c>
@@ -2607,7 +2512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>40</v>
       </c>
@@ -2620,7 +2525,7 @@
         <v>6126</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>39</v>
       </c>
@@ -2633,7 +2538,7 @@
         <v>6540</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>92</v>
       </c>
@@ -2646,7 +2551,7 @@
         <v>5008</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>93</v>
       </c>
@@ -2659,7 +2564,7 @@
         <v>8745</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>91</v>
       </c>
@@ -2672,7 +2577,7 @@
         <v>9306</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>95</v>
       </c>
@@ -2685,7 +2590,7 @@
         <v>3858</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>96</v>
       </c>
@@ -2698,7 +2603,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>94</v>
       </c>
@@ -2711,7 +2616,7 @@
         <v>10020</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>98</v>
       </c>
@@ -2724,7 +2629,7 @@
         <v>10004</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>97</v>
       </c>
@@ -2737,7 +2642,7 @@
         <v>7332</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>101</v>
       </c>
@@ -2750,7 +2655,7 @@
         <v>24034</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>100</v>
       </c>
@@ -2763,7 +2668,7 @@
         <v>26518</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>99</v>
       </c>
@@ -2776,7 +2681,7 @@
         <v>13312</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>103</v>
       </c>
@@ -2789,7 +2694,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>102</v>
       </c>
@@ -2802,7 +2707,7 @@
         <v>27638</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>106</v>
       </c>
@@ -2815,7 +2720,7 @@
         <v>29299</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>105</v>
       </c>
@@ -2828,7 +2733,7 @@
         <v>30226</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>104</v>
       </c>
@@ -2841,7 +2746,7 @@
         <v>28982</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>107</v>
       </c>
@@ -2854,7 +2759,7 @@
         <v>30654</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>108</v>
       </c>
@@ -2867,7 +2772,7 @@
         <v>16095</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>111</v>
       </c>
@@ -2880,7 +2785,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>110</v>
       </c>
@@ -2893,7 +2798,7 @@
         <v>35588</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>109</v>
       </c>
@@ -2906,7 +2811,7 @@
         <v>47172</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>114</v>
       </c>
@@ -2919,7 +2824,7 @@
         <v>31856</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>113</v>
       </c>
@@ -2932,7 +2837,7 @@
         <v>71062</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>112</v>
       </c>
@@ -2945,7 +2850,7 @@
         <v>82045</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>115</v>
       </c>
@@ -2958,7 +2863,7 @@
         <v>14779</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>117</v>
       </c>
@@ -2971,7 +2876,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -2984,7 +2889,7 @@
         <v>37659</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>118</v>
       </c>
@@ -2997,7 +2902,7 @@
         <v>36586</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>119</v>
       </c>
@@ -3010,7 +2915,7 @@
         <v>29005</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>121</v>
       </c>
@@ -3023,7 +2928,7 @@
         <v>23394</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>120</v>
       </c>
@@ -3036,7 +2941,7 @@
         <v>29472</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>123</v>
       </c>
@@ -3049,7 +2954,7 @@
         <v>4602</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>124</v>
       </c>
@@ -3062,7 +2967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>122</v>
       </c>
@@ -3075,7 +2980,7 @@
         <v>13023</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>85</v>
       </c>
@@ -3088,7 +2993,7 @@
         <v>12134</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>83</v>
       </c>
@@ -3101,7 +3006,7 @@
         <v>11049</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>84</v>
       </c>
@@ -3114,7 +3019,7 @@
         <v>13694</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>86</v>
       </c>
@@ -3127,7 +3032,7 @@
         <v>16047</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>87</v>
       </c>
@@ -3140,7 +3045,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>89</v>
       </c>
@@ -3153,7 +3058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>90</v>
       </c>
@@ -3166,7 +3071,7 @@
         <v>7940</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>88</v>
       </c>
@@ -3179,7 +3084,7 @@
         <v>8102</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>22</v>
       </c>
@@ -3192,7 +3097,7 @@
         <v>6784</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>20</v>
       </c>
@@ -3205,7 +3110,7 @@
         <v>140701</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>21</v>
       </c>
@@ -3218,7 +3123,7 @@
         <v>115672</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>24</v>
       </c>
@@ -3231,7 +3136,7 @@
         <v>60854</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>23</v>
       </c>
@@ -3244,7 +3149,7 @@
         <v>6480</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>26</v>
       </c>
@@ -3257,7 +3162,7 @@
         <v>120479</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>27</v>
       </c>
@@ -3270,7 +3175,7 @@
         <v>90469</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>25</v>
       </c>
@@ -3283,7 +3188,7 @@
         <v>129672</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>28</v>
       </c>
@@ -3296,7 +3201,7 @@
         <v>54835</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>29</v>
       </c>
@@ -3309,7 +3214,7 @@
         <v>56699</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>31</v>
       </c>
@@ -3322,7 +3227,7 @@
         <v>19247</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>32</v>
       </c>
@@ -3335,7 +3240,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>30</v>
       </c>
@@ -3348,7 +3253,7 @@
         <v>44648</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>12</v>
       </c>
@@ -3361,7 +3266,7 @@
         <v>44661</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>13</v>
       </c>
@@ -3374,7 +3279,7 @@
         <v>44551</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>16</v>
       </c>
@@ -3387,7 +3292,7 @@
         <v>44247</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>14</v>
       </c>
@@ -3400,7 +3305,7 @@
         <v>41663</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>15</v>
       </c>
@@ -3413,7 +3318,7 @@
         <v>17529</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>18</v>
       </c>
@@ -3426,7 +3331,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>19</v>
       </c>
@@ -3439,7 +3344,7 @@
         <v>42386</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>17</v>
       </c>
@@ -3452,7 +3357,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>128</v>
       </c>
@@ -3465,7 +3370,7 @@
         <v>43351</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>129</v>
       </c>
@@ -3478,7 +3383,7 @@
         <v>36534</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>131</v>
       </c>
@@ -3491,7 +3396,7 @@
         <v>38779</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>132</v>
       </c>
@@ -3504,7 +3409,7 @@
         <v>11915</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>130</v>
       </c>
@@ -3517,7 +3422,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>134</v>
       </c>
@@ -3530,7 +3435,7 @@
         <v>17727</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>135</v>
       </c>
@@ -3543,7 +3448,7 @@
         <v>25354</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>133</v>
       </c>
@@ -3556,7 +3461,7 @@
         <v>25284</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>137</v>
       </c>
@@ -3569,7 +3474,7 @@
         <v>29658</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>136</v>
       </c>
@@ -3582,7 +3487,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>140</v>
       </c>
@@ -3595,7 +3500,7 @@
         <v>18705</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>139</v>
       </c>
@@ -3608,7 +3513,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>138</v>
       </c>
@@ -3621,7 +3526,7 @@
         <v>32642</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>142</v>
       </c>
@@ -3634,7 +3539,7 @@
         <v>37804</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>143</v>
       </c>
@@ -3647,7 +3552,7 @@
         <v>43943</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>141</v>
       </c>
@@ -3660,7 +3565,7 @@
         <v>55651</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>144</v>
       </c>
@@ -3673,7 +3578,7 @@
         <v>37641</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>145</v>
       </c>
@@ -3686,7 +3591,7 @@
         <v>7575</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>147</v>
       </c>
@@ -3699,7 +3604,7 @@
         <v>9420</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>146</v>
       </c>
@@ -3712,7 +3617,7 @@
         <v>23911</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>148</v>
       </c>
@@ -3725,7 +3630,7 @@
         <v>18163</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>151</v>
       </c>
@@ -3738,7 +3643,7 @@
         <v>10395</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>150</v>
       </c>
@@ -3751,7 +3656,7 @@
         <v>17582</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>149</v>
       </c>
@@ -3764,7 +3669,7 @@
         <v>20161</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>153</v>
       </c>
@@ -3777,7 +3682,7 @@
         <v>5489</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>152</v>
       </c>
@@ -3790,7 +3695,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>155</v>
       </c>
@@ -3803,7 +3708,7 @@
         <v>28552</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>156</v>
       </c>
@@ -3816,7 +3721,7 @@
         <v>18302</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>154</v>
       </c>
@@ -3829,7 +3734,7 @@
         <v>16915</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>157</v>
       </c>
@@ -3842,7 +3747,7 @@
         <v>16790</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>159</v>
       </c>
@@ -3855,7 +3760,7 @@
         <v>28303</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>158</v>
       </c>
@@ -3868,7 +3773,7 @@
         <v>9932</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>160</v>
       </c>
@@ -3881,7 +3786,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>161</v>
       </c>
@@ -3894,7 +3799,7 @@
         <v>15018</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>163</v>
       </c>
@@ -3907,7 +3812,7 @@
         <v>50307</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>162</v>
       </c>
@@ -3920,7 +3825,7 @@
         <v>55950</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>164</v>
       </c>
@@ -3933,7 +3838,7 @@
         <v>62335</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>165</v>
       </c>
@@ -3946,7 +3851,7 @@
         <v>70740</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>166</v>
       </c>
@@ -3959,7 +3864,7 @@
         <v>28330</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>127</v>
       </c>
@@ -3972,7 +3877,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>126</v>
       </c>
@@ -3985,7 +3890,7 @@
         <v>82237</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>125</v>
       </c>
@@ -3998,7 +3903,7 @@
         <v>82407</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>167</v>
       </c>
@@ -4011,7 +3916,7 @@
         <v>79948</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>168</v>
       </c>
@@ -4024,7 +3929,7 @@
         <v>301196</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>169</v>
       </c>
@@ -4037,7 +3942,7 @@
         <v>267874</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>170</v>
       </c>
@@ -4050,7 +3955,7 @@
         <v>95875</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>171</v>
       </c>
@@ -4063,7 +3968,7 @@
         <v>3924</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>173</v>
       </c>
@@ -4076,7 +3981,7 @@
         <v>111783</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>174</v>
       </c>
@@ -4089,7 +3994,7 @@
         <v>202806</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>172</v>
       </c>
@@ -4102,7 +4007,7 @@
         <v>132352</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>175</v>
       </c>
@@ -4115,7 +4020,7 @@
         <v>120031</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>176</v>
       </c>
@@ -4128,7 +4033,7 @@
         <v>140805</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>179</v>
       </c>
@@ -4141,7 +4046,7 @@
         <v>57995</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>177</v>
       </c>
@@ -4154,7 +4059,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>178</v>
       </c>
@@ -4167,7 +4072,7 @@
         <v>297686</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>180</v>
       </c>
@@ -4180,7 +4085,7 @@
         <v>242934</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>181</v>
       </c>
@@ -4193,7 +4098,7 @@
         <v>189002</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>182</v>
       </c>
@@ -4206,7 +4111,7 @@
         <v>165093</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>183</v>
       </c>
@@ -4219,7 +4124,7 @@
         <v>237622</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>185</v>
       </c>
@@ -4232,7 +4137,7 @@
         <v>121775</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>184</v>
       </c>
@@ -4245,7 +4150,7 @@
         <v>9448</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>187</v>
       </c>
@@ -4258,7 +4163,7 @@
         <v>248139</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>186</v>
       </c>
@@ -4271,7 +4176,7 @@
         <v>223331</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" s="4" t="s">
         <v>202</v>
       </c>
@@ -4284,7 +4189,7 @@
         <v>225004</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" s="4" t="s">
         <v>203</v>
       </c>
@@ -4297,7 +4202,7 @@
         <v>208641</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" s="4" t="s">
         <v>204</v>
       </c>
@@ -4310,7 +4215,7 @@
         <v>295588</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" s="4" t="s">
         <v>205</v>
       </c>
@@ -4323,7 +4228,7 @@
         <v>113820</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" s="4" t="s">
         <v>206</v>
       </c>
@@ -4336,7 +4241,7 @@
         <v>4663</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" s="4" t="s">
         <v>207</v>
       </c>
@@ -4349,7 +4254,7 @@
         <v>279852</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" s="4" t="s">
         <v>208</v>
       </c>
@@ -4362,7 +4267,7 @@
         <v>190401</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" s="4" t="s">
         <v>209</v>
       </c>
@@ -4375,7 +4280,7 @@
         <v>132000</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" s="4" t="s">
         <v>210</v>
       </c>
@@ -4388,7 +4293,7 @@
         <v>121955</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" s="4" t="s">
         <v>211</v>
       </c>
@@ -4401,7 +4306,7 @@
         <v>177042</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" s="4" t="s">
         <v>212</v>
       </c>
@@ -4414,7 +4319,7 @@
         <v>101863</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" s="4" t="s">
         <v>213</v>
       </c>
@@ -4427,7 +4332,7 @@
         <v>14292</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" s="4" t="s">
         <v>214</v>
       </c>
@@ -4440,7 +4345,7 @@
         <v>174809</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" s="4" t="s">
         <v>215</v>
       </c>
@@ -4453,7 +4358,7 @@
         <v>92529</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" s="4" t="s">
         <v>216</v>
       </c>
@@ -4466,7 +4371,7 @@
         <v>173934</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" s="4" t="s">
         <v>217</v>
       </c>
@@ -4479,7 +4384,7 @@
         <v>128669</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" s="4" t="s">
         <v>218</v>
       </c>
@@ -4492,7 +4397,7 @@
         <v>196914</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" s="4" t="s">
         <v>219</v>
       </c>
@@ -4505,7 +4410,7 @@
         <v>94070</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" s="4" t="s">
         <v>220</v>
       </c>
@@ -4518,7 +4423,7 @@
         <v>15104</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" s="4" t="s">
         <v>221</v>
       </c>
@@ -4531,7 +4436,7 @@
         <v>5152</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" s="4" t="s">
         <v>222</v>
       </c>
@@ -4544,7 +4449,7 @@
         <v>2823</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" s="4" t="s">
         <v>223</v>
       </c>
@@ -4557,7 +4462,7 @@
         <v>9899</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" s="4" t="s">
         <v>224</v>
       </c>
@@ -4570,7 +4475,7 @@
         <v>185097</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" s="4" t="s">
         <v>225</v>
       </c>
@@ -4583,7 +4488,7 @@
         <v>201419</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" s="4" t="s">
         <v>226</v>
       </c>
@@ -4596,7 +4501,7 @@
         <v>115074</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" s="4" t="s">
         <v>227</v>
       </c>
@@ -4609,7 +4514,7 @@
         <v>15009</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" s="4" t="s">
         <v>228</v>
       </c>
@@ -4622,7 +4527,7 @@
         <v>330706</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" s="4" t="s">
         <v>229</v>
       </c>
@@ -4635,7 +4540,7 @@
         <v>317562</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" s="4" t="s">
         <v>230</v>
       </c>
@@ -4648,7 +4553,7 @@
         <v>246013</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" s="4" t="s">
         <v>231</v>
       </c>
@@ -4661,7 +4566,7 @@
         <v>246483</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" s="4" t="s">
         <v>232</v>
       </c>
@@ -4674,7 +4579,7 @@
         <v>388264</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" s="4" t="s">
         <v>233</v>
       </c>
@@ -4687,7 +4592,7 @@
         <v>205901</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" s="4" t="s">
         <v>234</v>
       </c>
@@ -4700,7 +4605,7 @@
         <v>20713</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" s="4" t="s">
         <v>235</v>
       </c>
@@ -4713,7 +4618,7 @@
         <v>103879</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" s="4" t="s">
         <v>236</v>
       </c>
@@ -4726,7 +4631,7 @@
         <v>340659</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" s="4" t="s">
         <v>237</v>
       </c>
@@ -4739,7 +4644,7 @@
         <v>224435</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" s="4" t="s">
         <v>238</v>
       </c>
@@ -4752,7 +4657,7 @@
         <v>319767</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" s="4" t="s">
         <v>239</v>
       </c>
@@ -4765,7 +4670,7 @@
         <v>487803</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" s="4" t="s">
         <v>240</v>
       </c>
@@ -4778,7 +4683,7 @@
         <v>52426</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" s="4" t="s">
         <v>241</v>
       </c>
@@ -4791,7 +4696,7 @@
         <v>11561</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" s="4" t="s">
         <v>242</v>
       </c>
@@ -4804,7 +4709,7 @@
         <v>68156</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241" s="4" t="s">
         <v>243</v>
       </c>
@@ -4817,7 +4722,7 @@
         <v>258804</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" s="4" t="s">
         <v>244</v>
       </c>
@@ -4830,7 +4735,7 @@
         <v>182580</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" s="4" t="s">
         <v>245</v>
       </c>
@@ -4843,7 +4748,7 @@
         <v>218699</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" s="4" t="s">
         <v>246</v>
       </c>
@@ -4856,7 +4761,7 @@
         <v>333895</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" s="4" t="s">
         <v>247</v>
       </c>
@@ -4869,7 +4774,7 @@
         <v>175727</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" s="4" t="s">
         <v>248</v>
       </c>
@@ -4882,7 +4787,7 @@
         <v>12168</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" s="4" t="s">
         <v>249</v>
       </c>
@@ -4896,7 +4801,7 @@
       </c>
       <c r="E247" s="1"/>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" s="4" t="s">
         <v>250</v>
       </c>
@@ -4910,7 +4815,7 @@
       <c r="E248" s="1"/>
       <c r="G248" s="1"/>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" s="4" t="s">
         <v>251</v>
       </c>
@@ -4921,7 +4826,7 @@
         <v>10989</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" s="4" t="s">
         <v>252</v>
       </c>
@@ -4932,7 +4837,7 @@
         <v>3882</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" s="4" t="s">
         <v>253</v>
       </c>
@@ -4943,7 +4848,7 @@
         <v>15159</v>
       </c>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" s="4" t="s">
         <v>254</v>
       </c>
@@ -4954,7 +4859,7 @@
         <v>261935</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" s="4" t="s">
         <v>255</v>
       </c>
@@ -4965,7 +4870,7 @@
         <v>287958</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" s="4" t="s">
         <v>256</v>
       </c>
@@ -4976,7 +4881,7 @@
         <v>154425</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" s="4" t="s">
         <v>257</v>
       </c>
@@ -4987,7 +4892,7 @@
         <v>15816</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" s="4" t="s">
         <v>258</v>
       </c>
@@ -4998,7 +4903,7 @@
         <v>193841</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257" s="4" t="s">
         <v>259</v>
       </c>
@@ -5009,7 +4914,7 @@
         <v>122307</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258" s="4" t="s">
         <v>260</v>
       </c>
@@ -5020,7 +4925,7 @@
         <v>110062</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259" s="4" t="s">
         <v>261</v>
       </c>
@@ -5031,7 +4936,7 @@
         <v>171627</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260" s="4" t="s">
         <v>262</v>
       </c>
@@ -5043,7 +4948,7 @@
       </c>
       <c r="E260" s="1"/>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261" s="4" t="s">
         <v>263</v>
       </c>
@@ -5056,7 +4961,7 @@
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262" s="4" t="s">
         <v>264</v>
       </c>
@@ -5069,7 +4974,7 @@
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" s="4" t="s">
         <v>265</v>
       </c>
@@ -5082,7 +4987,7 @@
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" s="4" t="s">
         <v>266</v>
       </c>
@@ -5095,7 +5000,7 @@
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265" s="4" t="s">
         <v>267</v>
       </c>
@@ -5108,7 +5013,7 @@
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" s="4" t="s">
         <v>268</v>
       </c>
@@ -5121,7 +5026,7 @@
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" s="4" t="s">
         <v>269</v>
       </c>
@@ -5134,7 +5039,7 @@
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268" s="4" t="s">
         <v>270</v>
       </c>
@@ -5147,7 +5052,7 @@
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" s="4" t="s">
         <v>271</v>
       </c>
@@ -5160,7 +5065,7 @@
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" s="4" t="s">
         <v>272</v>
       </c>
@@ -5173,7 +5078,7 @@
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271" s="4" t="s">
         <v>273</v>
       </c>
@@ -5186,7 +5091,7 @@
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" s="4" t="s">
         <v>274</v>
       </c>
@@ -5199,7 +5104,7 @@
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273" s="4" t="s">
         <v>275</v>
       </c>
@@ -5212,7 +5117,7 @@
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274" s="4" t="s">
         <v>276</v>
       </c>
@@ -5225,7 +5130,7 @@
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" s="4" t="s">
         <v>277</v>
       </c>
@@ -5238,7 +5143,7 @@
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" s="4" t="s">
         <v>278</v>
       </c>
@@ -5251,7 +5156,7 @@
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" s="4" t="s">
         <v>279</v>
       </c>
@@ -5264,7 +5169,7 @@
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278" s="4" t="s">
         <v>280</v>
       </c>
@@ -5277,7 +5182,7 @@
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279" s="4" t="s">
         <v>281</v>
       </c>
@@ -5290,7 +5195,7 @@
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280" s="4" t="s">
         <v>282</v>
       </c>
@@ -5303,7 +5208,7 @@
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" s="4" t="s">
         <v>283</v>
       </c>
@@ -5316,7 +5221,7 @@
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" s="4" t="s">
         <v>284</v>
       </c>
@@ -5329,7 +5234,7 @@
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" s="4" t="s">
         <v>285</v>
       </c>
@@ -5342,7 +5247,7 @@
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A284" s="4" t="s">
         <v>286</v>
       </c>
@@ -5355,7 +5260,7 @@
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285" s="4" t="s">
         <v>287</v>
       </c>
@@ -5368,7 +5273,7 @@
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A286" s="4" t="s">
         <v>288</v>
       </c>
@@ -5381,7 +5286,7 @@
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A287" s="4" t="s">
         <v>289</v>
       </c>
@@ -5394,7 +5299,7 @@
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A288" s="4" t="s">
         <v>290</v>
       </c>
@@ -5407,7 +5312,7 @@
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" s="4" t="s">
         <v>291</v>
       </c>
@@ -5420,7 +5325,7 @@
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290" s="4" t="s">
         <v>292</v>
       </c>
@@ -5433,7 +5338,7 @@
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291" s="4" t="s">
         <v>293</v>
       </c>
@@ -5446,7 +5351,7 @@
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292" s="4" t="s">
         <v>294</v>
       </c>
@@ -5459,7 +5364,7 @@
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" s="4" t="s">
         <v>295</v>
       </c>
@@ -5472,7 +5377,7 @@
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" s="4" t="s">
         <v>296</v>
       </c>
@@ -5485,7 +5390,7 @@
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" s="4" t="s">
         <v>297</v>
       </c>
@@ -5498,7 +5403,7 @@
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296" s="4" t="s">
         <v>298</v>
       </c>
@@ -5511,7 +5416,7 @@
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" s="4" t="s">
         <v>299</v>
       </c>
@@ -5524,7 +5429,7 @@
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298" s="4" t="s">
         <v>300</v>
       </c>
@@ -5537,7 +5442,7 @@
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299" s="4" t="s">
         <v>301</v>
       </c>
@@ -5550,7 +5455,7 @@
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300" s="4" t="s">
         <v>302</v>
       </c>
@@ -5563,7 +5468,7 @@
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A301" s="4" t="s">
         <v>303</v>
       </c>
@@ -5576,7 +5481,7 @@
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A302" s="4" t="s">
         <v>304</v>
       </c>
@@ -5589,7 +5494,7 @@
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303" s="4" t="s">
         <v>305</v>
       </c>
@@ -5602,7 +5507,7 @@
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304" s="4" t="s">
         <v>306</v>
       </c>
@@ -5615,7 +5520,7 @@
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" s="4" t="s">
         <v>307</v>
       </c>
@@ -5628,7 +5533,7 @@
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" s="4" t="s">
         <v>308</v>
       </c>
@@ -5641,7 +5546,7 @@
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" s="4" t="s">
         <v>309</v>
       </c>
@@ -5654,7 +5559,7 @@
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" s="4" t="s">
         <v>310</v>
       </c>
@@ -5667,7 +5572,7 @@
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" s="4" t="s">
         <v>311</v>
       </c>
@@ -5680,7 +5585,7 @@
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" s="4" t="s">
         <v>312</v>
       </c>
@@ -5693,7 +5598,7 @@
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" s="4" t="s">
         <v>313</v>
       </c>
@@ -5706,7 +5611,7 @@
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" s="4" t="s">
         <v>314</v>
       </c>
@@ -5719,7 +5624,7 @@
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" s="4" t="s">
         <v>315</v>
       </c>
@@ -5732,7 +5637,7 @@
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" s="4" t="s">
         <v>316</v>
       </c>
@@ -5745,7 +5650,7 @@
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315" s="4" t="s">
         <v>317</v>
       </c>
@@ -5758,7 +5663,7 @@
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316" s="4" t="s">
         <v>318</v>
       </c>
@@ -5771,7 +5676,7 @@
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317" s="4" t="s">
         <v>319</v>
       </c>
@@ -5784,7 +5689,7 @@
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A318" s="4" t="s">
         <v>320</v>
       </c>
@@ -5797,7 +5702,7 @@
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A319" s="4" t="s">
         <v>321</v>
       </c>
@@ -5810,7 +5715,7 @@
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A320" s="4" t="s">
         <v>322</v>
       </c>
@@ -5823,7 +5728,7 @@
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" s="4" t="s">
         <v>323</v>
       </c>
@@ -5835,347 +5740,6 @@
       </c>
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
-    </row>
-    <row r="322" spans="1:5">
-      <c r="A322" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="B322" s="1">
-        <v>62113</v>
-      </c>
-      <c r="C322" s="1">
-        <v>62113</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5">
-      <c r="A323" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="B323" s="1">
-        <v>62113</v>
-      </c>
-      <c r="C323" s="1">
-        <v>62113</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5">
-      <c r="A324" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="B324" s="1">
-        <v>62113</v>
-      </c>
-      <c r="C324" s="1">
-        <v>62113</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5">
-      <c r="A325" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="B325" s="1">
-        <v>62113</v>
-      </c>
-      <c r="C325" s="1">
-        <v>62113</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5">
-      <c r="A326" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="B326" s="1">
-        <v>62113</v>
-      </c>
-      <c r="C326" s="1">
-        <v>62113</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5">
-      <c r="A327" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="B327" s="1">
-        <v>62113</v>
-      </c>
-      <c r="C327" s="1">
-        <v>62113</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5">
-      <c r="A328" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="B328" s="1">
-        <v>62113</v>
-      </c>
-      <c r="C328" s="1">
-        <v>62113</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5">
-      <c r="A329" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="B329" s="1">
-        <v>62113</v>
-      </c>
-      <c r="C329" s="1">
-        <v>62113</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5">
-      <c r="A330" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="B330" s="1">
-        <v>62113</v>
-      </c>
-      <c r="C330" s="1">
-        <v>62113</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5">
-      <c r="A331" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="B331" s="1">
-        <v>62113</v>
-      </c>
-      <c r="C331" s="1">
-        <v>62113</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5">
-      <c r="A332" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="B332" s="1">
-        <v>62113</v>
-      </c>
-      <c r="C332" s="1">
-        <v>62113</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5">
-      <c r="A333" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="B333" s="1">
-        <v>62113</v>
-      </c>
-      <c r="C333" s="1">
-        <v>62113</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5">
-      <c r="A334" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="B334" s="1">
-        <v>62113</v>
-      </c>
-      <c r="C334" s="1">
-        <v>62113</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5">
-      <c r="A335" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="B335" s="1">
-        <v>62113</v>
-      </c>
-      <c r="C335" s="1">
-        <v>62113</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5">
-      <c r="A336" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="B336" s="1">
-        <v>62113</v>
-      </c>
-      <c r="C336" s="1">
-        <v>62113</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3">
-      <c r="A337" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="B337" s="1">
-        <v>62113</v>
-      </c>
-      <c r="C337" s="1">
-        <v>62113</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3">
-      <c r="A338" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="B338" s="1">
-        <v>62113</v>
-      </c>
-      <c r="C338" s="1">
-        <v>62113</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3">
-      <c r="A339" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="B339" s="1">
-        <v>62113</v>
-      </c>
-      <c r="C339" s="1">
-        <v>62113</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3">
-      <c r="A340" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="B340" s="1">
-        <v>62113</v>
-      </c>
-      <c r="C340" s="1">
-        <v>62113</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3">
-      <c r="A341" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="B341" s="1">
-        <v>62113</v>
-      </c>
-      <c r="C341" s="1">
-        <v>62113</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3">
-      <c r="A342" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="B342" s="1">
-        <v>62113</v>
-      </c>
-      <c r="C342" s="1">
-        <v>62113</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3">
-      <c r="A343" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="B343" s="1">
-        <v>62113</v>
-      </c>
-      <c r="C343" s="1">
-        <v>62113</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3">
-      <c r="A344" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="B344" s="1">
-        <v>62113</v>
-      </c>
-      <c r="C344" s="1">
-        <v>62113</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3">
-      <c r="A345" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="B345" s="1">
-        <v>62113</v>
-      </c>
-      <c r="C345" s="1">
-        <v>62113</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3">
-      <c r="A346" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="B346" s="1">
-        <v>62113</v>
-      </c>
-      <c r="C346" s="1">
-        <v>62113</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3">
-      <c r="A347" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="B347" s="1">
-        <v>62113</v>
-      </c>
-      <c r="C347" s="1">
-        <v>62113</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3">
-      <c r="A348" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="B348" s="1">
-        <v>62113</v>
-      </c>
-      <c r="C348" s="1">
-        <v>62113</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3">
-      <c r="A349" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="B349" s="1">
-        <v>62113</v>
-      </c>
-      <c r="C349" s="1">
-        <v>62113</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3">
-      <c r="A350" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="B350" s="1">
-        <v>62113</v>
-      </c>
-      <c r="C350" s="1">
-        <v>62113</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3">
-      <c r="A351" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="B351" s="1">
-        <v>62113</v>
-      </c>
-      <c r="C351" s="1">
-        <v>62113</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3">
-      <c r="A352" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="B352" s="1">
-        <v>62113</v>
-      </c>
-      <c r="C352" s="1">
-        <v>62113</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6193,12 +5757,12 @@
       <selection activeCell="B248" sqref="B248"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.09765625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -6209,7 +5773,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>199</v>
       </c>
@@ -6220,7 +5784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>198</v>
       </c>
@@ -6231,7 +5795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>191</v>
       </c>
@@ -6242,7 +5806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>190</v>
       </c>
@@ -6253,7 +5817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>189</v>
       </c>
@@ -6264,7 +5828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>193</v>
       </c>
@@ -6275,7 +5839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>192</v>
       </c>
@@ -6286,7 +5850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>188</v>
       </c>
@@ -6297,7 +5861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>201</v>
       </c>
@@ -6308,7 +5872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>200</v>
       </c>
@@ -6319,7 +5883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>196</v>
       </c>
@@ -6330,7 +5894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -6341,7 +5905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -6352,7 +5916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -6363,7 +5927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -6374,7 +5938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -6385,7 +5949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -6396,7 +5960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -6407,7 +5971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -6418,7 +5982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -6429,7 +5993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -6440,7 +6004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -6451,7 +6015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -6462,7 +6026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -6473,7 +6037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -6484,7 +6048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -6495,7 +6059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -6506,7 +6070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -6517,7 +6081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -6528,7 +6092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -6539,7 +6103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -6550,7 +6114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -6561,7 +6125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -6572,7 +6136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -6583,7 +6147,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -6594,7 +6158,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -6605,7 +6169,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -6616,7 +6180,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -6627,7 +6191,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -6638,7 +6202,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -6649,7 +6213,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -6660,7 +6224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -6671,7 +6235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -6682,7 +6246,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>61</v>
       </c>
@@ -6693,7 +6257,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>62</v>
       </c>
@@ -6704,7 +6268,7 @@
         <v>2828</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -6715,7 +6279,7 @@
         <v>2955</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -6726,7 +6290,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -6737,7 +6301,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -6748,7 +6312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>69</v>
       </c>
@@ -6759,7 +6323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>68</v>
       </c>
@@ -6770,7 +6334,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>70</v>
       </c>
@@ -6781,7 +6345,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>71</v>
       </c>
@@ -6792,7 +6356,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>72</v>
       </c>
@@ -6803,7 +6367,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -6814,7 +6378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>74</v>
       </c>
@@ -6825,7 +6389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -6836,7 +6400,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>75</v>
       </c>
@@ -6847,7 +6411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>78</v>
       </c>
@@ -6858,7 +6422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>79</v>
       </c>
@@ -6869,7 +6433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -6880,7 +6444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>81</v>
       </c>
@@ -6891,7 +6455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>80</v>
       </c>
@@ -6902,7 +6466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>82</v>
       </c>
@@ -6913,7 +6477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>35</v>
       </c>
@@ -6924,7 +6488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>33</v>
       </c>
@@ -6935,7 +6499,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>34</v>
       </c>
@@ -6946,7 +6510,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>37</v>
       </c>
@@ -6957,7 +6521,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>38</v>
       </c>
@@ -6968,7 +6532,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>36</v>
       </c>
@@ -6979,7 +6543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>40</v>
       </c>
@@ -6990,7 +6554,7 @@
         <v>3411</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>39</v>
       </c>
@@ -7001,7 +6565,7 @@
         <v>3725</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>92</v>
       </c>
@@ -7012,7 +6576,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>93</v>
       </c>
@@ -7023,7 +6587,7 @@
         <v>3921</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>91</v>
       </c>
@@ -7034,7 +6598,7 @@
         <v>4280</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>95</v>
       </c>
@@ -7045,7 +6609,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>96</v>
       </c>
@@ -7056,7 +6620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>94</v>
       </c>
@@ -7067,7 +6631,7 @@
         <v>5033</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>98</v>
       </c>
@@ -7078,7 +6642,7 @@
         <v>4665</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>97</v>
       </c>
@@ -7089,7 +6653,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>101</v>
       </c>
@@ -7100,7 +6664,7 @@
         <v>11715</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>100</v>
       </c>
@@ -7111,7 +6675,7 @@
         <v>11486</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>99</v>
       </c>
@@ -7122,7 +6686,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>103</v>
       </c>
@@ -7133,7 +6697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>102</v>
       </c>
@@ -7144,7 +6708,7 @@
         <v>12457</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>106</v>
       </c>
@@ -7155,7 +6719,7 @@
         <v>13030</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>105</v>
       </c>
@@ -7166,7 +6730,7 @@
         <v>13970</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>104</v>
       </c>
@@ -7177,7 +6741,7 @@
         <v>12435</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>107</v>
       </c>
@@ -7188,7 +6752,7 @@
         <v>12751</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>108</v>
       </c>
@@ -7199,7 +6763,7 @@
         <v>3796</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>111</v>
       </c>
@@ -7210,7 +6774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>110</v>
       </c>
@@ -7221,7 +6785,7 @@
         <v>13074</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>109</v>
       </c>
@@ -7232,7 +6796,7 @@
         <v>16649</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>114</v>
       </c>
@@ -7243,7 +6807,7 @@
         <v>3724</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>113</v>
       </c>
@@ -7254,7 +6818,7 @@
         <v>22755</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>112</v>
       </c>
@@ -7265,7 +6829,7 @@
         <v>28449</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>115</v>
       </c>
@@ -7276,7 +6840,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>117</v>
       </c>
@@ -7287,7 +6851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -7298,7 +6862,7 @@
         <v>21524</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>118</v>
       </c>
@@ -7309,7 +6873,7 @@
         <v>21010</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>119</v>
       </c>
@@ -7320,7 +6884,7 @@
         <v>16175</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>121</v>
       </c>
@@ -7331,7 +6895,7 @@
         <v>13061</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>120</v>
       </c>
@@ -7342,7 +6906,7 @@
         <v>17084</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>123</v>
       </c>
@@ -7353,7 +6917,7 @@
         <v>3843</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>124</v>
       </c>
@@ -7364,7 +6928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>122</v>
       </c>
@@ -7375,7 +6939,7 @@
         <v>8127</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>85</v>
       </c>
@@ -7386,7 +6950,7 @@
         <v>7109</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>83</v>
       </c>
@@ -7397,7 +6961,7 @@
         <v>6277</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>84</v>
       </c>
@@ -7408,7 +6972,7 @@
         <v>8383</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>86</v>
       </c>
@@ -7419,7 +6983,7 @@
         <v>10339</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>87</v>
       </c>
@@ -7430,7 +6994,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>89</v>
       </c>
@@ -7441,7 +7005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>90</v>
       </c>
@@ -7452,7 +7016,7 @@
         <v>5412</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>88</v>
       </c>
@@ -7463,7 +7027,7 @@
         <v>4672</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>22</v>
       </c>
@@ -7474,7 +7038,7 @@
         <v>3076</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>20</v>
       </c>
@@ -7485,7 +7049,7 @@
         <v>68440</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>21</v>
       </c>
@@ -7496,7 +7060,7 @@
         <v>55544</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>24</v>
       </c>
@@ -7507,7 +7071,7 @@
         <v>28724</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>23</v>
       </c>
@@ -7518,7 +7082,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>26</v>
       </c>
@@ -7529,7 +7093,7 @@
         <v>52848</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>27</v>
       </c>
@@ -7540,7 +7104,7 @@
         <v>37687</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>25</v>
       </c>
@@ -7551,7 +7115,7 @@
         <v>57409</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>28</v>
       </c>
@@ -7562,7 +7126,7 @@
         <v>25631</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>29</v>
       </c>
@@ -7573,7 +7137,7 @@
         <v>27755</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>31</v>
       </c>
@@ -7584,7 +7148,7 @@
         <v>7884</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>32</v>
       </c>
@@ -7595,7 +7159,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>30</v>
       </c>
@@ -7606,7 +7170,7 @@
         <v>21087</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>12</v>
       </c>
@@ -7617,7 +7181,7 @@
         <v>21120</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>13</v>
       </c>
@@ -7628,7 +7192,7 @@
         <v>21120</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>16</v>
       </c>
@@ -7639,7 +7203,7 @@
         <v>22040</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>14</v>
       </c>
@@ -7650,7 +7214,7 @@
         <v>22720</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>15</v>
       </c>
@@ -7661,7 +7225,7 @@
         <v>6655</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>18</v>
       </c>
@@ -7672,7 +7236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>19</v>
       </c>
@@ -7683,7 +7247,7 @@
         <v>21853</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>17</v>
       </c>
@@ -7694,7 +7258,7 @@
         <v>22407</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>128</v>
       </c>
@@ -7705,7 +7269,7 @@
         <v>22749</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>129</v>
       </c>
@@ -7716,7 +7280,7 @@
         <v>18865</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>131</v>
       </c>
@@ -7727,7 +7291,7 @@
         <v>20529</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>132</v>
       </c>
@@ -7738,7 +7302,7 @@
         <v>4139</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>130</v>
       </c>
@@ -7749,7 +7313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>134</v>
       </c>
@@ -7760,7 +7324,7 @@
         <v>9389</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>135</v>
       </c>
@@ -7771,7 +7335,7 @@
         <v>12346</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>133</v>
       </c>
@@ -7782,7 +7346,7 @@
         <v>11909</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>137</v>
       </c>
@@ -7793,7 +7357,7 @@
         <v>13483</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>136</v>
       </c>
@@ -7804,7 +7368,7 @@
         <v>20660</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>140</v>
       </c>
@@ -7815,7 +7379,7 @@
         <v>8264</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>139</v>
       </c>
@@ -7826,7 +7390,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>138</v>
       </c>
@@ -7837,7 +7401,7 @@
         <v>13483</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>142</v>
       </c>
@@ -7848,7 +7412,7 @@
         <v>16581</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>143</v>
       </c>
@@ -7859,7 +7423,7 @@
         <v>18514</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>141</v>
       </c>
@@ -7870,7 +7434,7 @@
         <v>20650</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>144</v>
       </c>
@@ -7881,7 +7445,7 @@
         <v>27192</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>145</v>
       </c>
@@ -7892,7 +7456,7 @@
         <v>7397</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>147</v>
       </c>
@@ -7903,7 +7467,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>146</v>
       </c>
@@ -7914,7 +7478,7 @@
         <v>9668</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>148</v>
       </c>
@@ -7925,7 +7489,7 @@
         <v>8800</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>151</v>
       </c>
@@ -7936,7 +7500,7 @@
         <v>6008</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>150</v>
       </c>
@@ -7947,7 +7511,7 @@
         <v>8022</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>149</v>
       </c>
@@ -7958,7 +7522,7 @@
         <v>10128</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>153</v>
       </c>
@@ -7969,7 +7533,7 @@
         <v>2639</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>152</v>
       </c>
@@ -7980,7 +7544,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>155</v>
       </c>
@@ -7991,7 +7555,7 @@
         <v>14631</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>156</v>
       </c>
@@ -8002,7 +7566,7 @@
         <v>9381</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>154</v>
       </c>
@@ -8013,7 +7577,7 @@
         <v>8120</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>157</v>
       </c>
@@ -8024,7 +7588,7 @@
         <v>7742</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>159</v>
       </c>
@@ -8035,7 +7599,7 @@
         <v>13659</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>158</v>
       </c>
@@ -8046,7 +7610,7 @@
         <v>4188</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>160</v>
       </c>
@@ -8057,7 +7621,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>161</v>
       </c>
@@ -8068,7 +7632,7 @@
         <v>7123</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>163</v>
       </c>
@@ -8079,7 +7643,7 @@
         <v>20557</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>162</v>
       </c>
@@ -8090,7 +7654,7 @@
         <v>23102</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>164</v>
       </c>
@@ -8101,7 +7665,7 @@
         <v>25819</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>165</v>
       </c>
@@ -8112,7 +7676,7 @@
         <v>30152</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>166</v>
       </c>
@@ -8123,7 +7687,7 @@
         <v>8911</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>127</v>
       </c>
@@ -8134,7 +7698,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>126</v>
       </c>
@@ -8145,7 +7709,7 @@
         <v>35253</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>125</v>
       </c>
@@ -8156,7 +7720,7 @@
         <v>34387</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>167</v>
       </c>
@@ -8167,7 +7731,7 @@
         <v>35492</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>168</v>
       </c>
@@ -8178,7 +7742,7 @@
         <v>135399</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>169</v>
       </c>
@@ -8189,7 +7753,7 @@
         <v>121688</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>170</v>
       </c>
@@ -8200,7 +7764,7 @@
         <v>39280</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>171</v>
       </c>
@@ -8211,7 +7775,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>173</v>
       </c>
@@ -8222,7 +7786,7 @@
         <v>51259</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>174</v>
       </c>
@@ -8233,7 +7797,7 @@
         <v>94563</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>172</v>
       </c>
@@ -8244,7 +7808,7 @@
         <v>62833</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>175</v>
       </c>
@@ -8255,7 +7819,7 @@
         <v>57683</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>176</v>
       </c>
@@ -8266,7 +7830,7 @@
         <v>66759</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>179</v>
       </c>
@@ -8277,7 +7841,7 @@
         <v>26500</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>177</v>
       </c>
@@ -8288,7 +7852,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>178</v>
       </c>
@@ -8299,7 +7863,7 @@
         <v>130725</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>180</v>
       </c>
@@ -8310,7 +7874,7 @@
         <v>107587</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>181</v>
       </c>
@@ -8321,7 +7885,7 @@
         <v>82944</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>182</v>
       </c>
@@ -8332,7 +7896,7 @@
         <v>71032</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>183</v>
       </c>
@@ -8343,7 +7907,7 @@
         <v>101098</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>185</v>
       </c>
@@ -8354,7 +7918,7 @@
         <v>50134</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>184</v>
       </c>
@@ -8365,7 +7929,7 @@
         <v>2921</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>187</v>
       </c>
@@ -8376,7 +7940,7 @@
         <v>101098</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>186</v>
       </c>
@@ -8387,7 +7951,7 @@
         <v>95981</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" s="4" t="s">
         <v>202</v>
       </c>
@@ -8398,7 +7962,7 @@
         <v>94420</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" s="4" t="s">
         <v>203</v>
       </c>
@@ -8409,7 +7973,7 @@
         <v>88297</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" s="4" t="s">
         <v>204</v>
       </c>
@@ -8420,7 +7984,7 @@
         <v>113133</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" s="4" t="s">
         <v>205</v>
       </c>
@@ -8431,7 +7995,7 @@
         <v>42787</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" s="4" t="s">
         <v>206</v>
       </c>
@@ -8442,7 +8006,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" s="4" t="s">
         <v>207</v>
       </c>
@@ -8453,7 +8017,7 @@
         <v>116054</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" s="4" t="s">
         <v>208</v>
       </c>
@@ -8464,7 +8028,7 @@
         <v>80167</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" s="4" t="s">
         <v>209</v>
       </c>
@@ -8475,7 +8039,7 @@
         <v>54596</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" s="4" t="s">
         <v>210</v>
       </c>
@@ -8486,7 +8050,7 @@
         <v>50641</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" s="4" t="s">
         <v>324</v>
       </c>
@@ -8497,7 +8061,7 @@
         <v>72243</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" s="4" t="s">
         <v>212</v>
       </c>
@@ -8508,7 +8072,7 @@
         <v>40766</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" s="4" t="s">
         <v>213</v>
       </c>
@@ -8519,7 +8083,7 @@
         <v>4971</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" s="4" t="s">
         <v>214</v>
       </c>
@@ -8530,7 +8094,7 @@
         <v>68468</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" s="4" t="s">
         <v>215</v>
       </c>
@@ -8541,7 +8105,7 @@
         <v>35198</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" s="4" t="s">
         <v>216</v>
       </c>
@@ -8552,7 +8116,7 @@
         <v>68849</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" s="4" t="s">
         <v>217</v>
       </c>
@@ -8563,7 +8127,7 @@
         <v>51260</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" s="4" t="s">
         <v>218</v>
       </c>
@@ -8574,7 +8138,7 @@
         <v>81868</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" s="4" t="s">
         <v>219</v>
       </c>
@@ -8585,7 +8149,7 @@
         <v>39944</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" s="4" t="s">
         <v>220</v>
       </c>
@@ -8596,7 +8160,7 @@
         <v>5585</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" s="4" t="s">
         <v>221</v>
       </c>
@@ -8607,7 +8171,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" s="4" t="s">
         <v>222</v>
       </c>
@@ -8618,7 +8182,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" s="4" t="s">
         <v>223</v>
       </c>
@@ -8629,7 +8193,7 @@
         <v>4188</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" s="4" t="s">
         <v>224</v>
       </c>
@@ -8640,7 +8204,7 @@
         <v>80540</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" s="4" t="s">
         <v>225</v>
       </c>
@@ -8651,7 +8215,7 @@
         <v>84966</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" s="4" t="s">
         <v>226</v>
       </c>
@@ -8662,7 +8226,7 @@
         <v>46721</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" s="4" t="s">
         <v>227</v>
       </c>
@@ -8673,7 +8237,7 @@
         <v>5363</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" s="4" t="s">
         <v>228</v>
       </c>
@@ -8684,7 +8248,7 @@
         <v>139274</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" s="4" t="s">
         <v>229</v>
       </c>
@@ -8695,7 +8259,7 @@
         <v>132787</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" s="4" t="s">
         <v>230</v>
       </c>
@@ -8706,7 +8270,7 @@
         <v>105746</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" s="4" t="s">
         <v>231</v>
       </c>
@@ -8717,7 +8281,7 @@
         <v>104742</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" s="4" t="s">
         <v>325</v>
       </c>
@@ -8728,7 +8292,7 @@
         <v>156636</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" s="4" t="s">
         <v>233</v>
       </c>
@@ -8739,7 +8303,7 @@
         <v>80525</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" s="4" t="s">
         <v>234</v>
       </c>
@@ -8750,7 +8314,7 @@
         <v>6422</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" s="4" t="s">
         <v>235</v>
       </c>
@@ -8761,7 +8325,7 @@
         <v>41561</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" s="4" t="s">
         <v>236</v>
       </c>
@@ -8772,7 +8336,7 @@
         <v>146444</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" s="4" t="s">
         <v>237</v>
       </c>
@@ -8783,7 +8347,7 @@
         <v>95261</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" s="4" t="s">
         <v>238</v>
       </c>
@@ -8794,7 +8358,7 @@
         <v>138375</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" s="4" t="s">
         <v>239</v>
       </c>
@@ -8805,7 +8369,7 @@
         <v>200186</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" s="4" t="s">
         <v>240</v>
       </c>
@@ -8816,7 +8380,7 @@
         <v>15337</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" s="4" t="s">
         <v>241</v>
       </c>
@@ -8827,7 +8391,7 @@
         <v>3236</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" s="4" t="s">
         <v>242</v>
       </c>
@@ -8838,7 +8402,7 @@
         <v>28099</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" s="4" t="s">
         <v>243</v>
       </c>
@@ -8849,7 +8413,7 @@
         <v>110204</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" s="4" t="s">
         <v>244</v>
       </c>
@@ -8860,7 +8424,7 @@
         <v>77503</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" s="4" t="s">
         <v>245</v>
       </c>
@@ -8871,7 +8435,7 @@
         <v>94569</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" s="4" t="s">
         <v>246</v>
       </c>
@@ -8882,7 +8446,7 @@
         <v>133580</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" s="4" t="s">
         <v>247</v>
       </c>
@@ -8893,7 +8457,7 @@
         <v>66910</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" s="4" t="s">
         <v>248</v>
       </c>
@@ -8904,7 +8468,7 @@
         <v>3619</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" s="4" t="s">
         <v>249</v>
       </c>
@@ -8931,12 +8495,12 @@
       <selection activeCell="C209" sqref="C209"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -8947,7 +8511,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>199</v>
       </c>
@@ -8958,7 +8522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>198</v>
       </c>
@@ -8969,7 +8533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>191</v>
       </c>
@@ -8980,7 +8544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>190</v>
       </c>
@@ -8991,7 +8555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>189</v>
       </c>
@@ -9002,7 +8566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>193</v>
       </c>
@@ -9013,7 +8577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>192</v>
       </c>
@@ -9024,7 +8588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>188</v>
       </c>
@@ -9035,7 +8599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>201</v>
       </c>
@@ -9046,7 +8610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>200</v>
       </c>
@@ -9057,7 +8621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>196</v>
       </c>
@@ -9068,7 +8632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -9079,7 +8643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -9090,7 +8654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -9101,7 +8665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -9112,7 +8676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -9123,7 +8687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -9134,7 +8698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -9145,7 +8709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -9156,7 +8720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -9167,7 +8731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -9178,7 +8742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -9189,7 +8753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -9200,7 +8764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -9211,7 +8775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -9222,7 +8786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -9233,7 +8797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -9244,7 +8808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -9255,7 +8819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -9266,7 +8830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -9277,7 +8841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -9288,7 +8852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -9299,7 +8863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -9310,7 +8874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -9321,7 +8885,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -9332,7 +8896,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -9343,7 +8907,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -9354,7 +8918,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -9365,7 +8929,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -9376,7 +8940,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -9387,7 +8951,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -9398,7 +8962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -9409,7 +8973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -9420,7 +8984,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>61</v>
       </c>
@@ -9431,7 +8995,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>62</v>
       </c>
@@ -9442,7 +9006,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -9453,7 +9017,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -9464,7 +9028,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -9475,7 +9039,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -9486,7 +9050,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>69</v>
       </c>
@@ -9497,7 +9061,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>68</v>
       </c>
@@ -9508,7 +9072,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>70</v>
       </c>
@@ -9519,7 +9083,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>71</v>
       </c>
@@ -9530,7 +9094,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>72</v>
       </c>
@@ -9541,7 +9105,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -9552,7 +9116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>74</v>
       </c>
@@ -9563,7 +9127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -9574,7 +9138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>75</v>
       </c>
@@ -9585,7 +9149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>78</v>
       </c>
@@ -9596,7 +9160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>79</v>
       </c>
@@ -9607,7 +9171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -9618,7 +9182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>81</v>
       </c>
@@ -9629,7 +9193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>80</v>
       </c>
@@ -9640,7 +9204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>82</v>
       </c>
@@ -9651,7 +9215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>35</v>
       </c>
@@ -9662,7 +9226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>33</v>
       </c>
@@ -9673,7 +9237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>34</v>
       </c>
@@ -9684,7 +9248,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>37</v>
       </c>
@@ -9695,7 +9259,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>38</v>
       </c>
@@ -9706,7 +9270,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>36</v>
       </c>
@@ -9717,7 +9281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>40</v>
       </c>
@@ -9728,7 +9292,7 @@
         <v>2715</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>39</v>
       </c>
@@ -9739,7 +9303,7 @@
         <v>2815</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>92</v>
       </c>
@@ -9750,7 +9314,7 @@
         <v>2946</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>93</v>
       </c>
@@ -9761,7 +9325,7 @@
         <v>4824</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>91</v>
       </c>
@@ -9772,7 +9336,7 @@
         <v>5026</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>95</v>
       </c>
@@ -9783,7 +9347,7 @@
         <v>3167</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>96</v>
       </c>
@@ -9794,7 +9358,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>94</v>
       </c>
@@ -9805,7 +9369,7 @@
         <v>4987</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>98</v>
       </c>
@@ -9816,7 +9380,7 @@
         <v>5339</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>97</v>
       </c>
@@ -9827,7 +9391,7 @@
         <v>5682</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>101</v>
       </c>
@@ -9838,7 +9402,7 @@
         <v>12319</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>100</v>
       </c>
@@ -9849,7 +9413,7 @@
         <v>15032</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>99</v>
       </c>
@@ -9860,7 +9424,7 @@
         <v>11230</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>103</v>
       </c>
@@ -9871,7 +9435,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>102</v>
       </c>
@@ -9882,7 +9446,7 @@
         <v>15181</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>106</v>
       </c>
@@ -9893,7 +9457,7 @@
         <v>16269</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>105</v>
       </c>
@@ -9904,7 +9468,7 @@
         <v>16256</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>104</v>
       </c>
@@ -9915,7 +9479,7 @@
         <v>16547</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>107</v>
       </c>
@@ -9926,7 +9490,7 @@
         <v>17903</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>108</v>
       </c>
@@ -9937,7 +9501,7 @@
         <v>12299</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>111</v>
       </c>
@@ -9948,7 +9512,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>110</v>
       </c>
@@ -9959,7 +9523,7 @@
         <v>22514</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>109</v>
       </c>
@@ -9970,7 +9534,7 @@
         <v>30523</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>114</v>
       </c>
@@ -9981,7 +9545,7 @@
         <v>28132</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>113</v>
       </c>
@@ -9992,7 +9556,7 @@
         <v>48307</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>112</v>
       </c>
@@ -10003,7 +9567,7 @@
         <v>53596</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>115</v>
       </c>
@@ -10014,7 +9578,7 @@
         <v>10679</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>117</v>
       </c>
@@ -10025,7 +9589,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -10036,7 +9600,7 @@
         <v>16135</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>118</v>
       </c>
@@ -10047,7 +9611,7 @@
         <v>15576</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>119</v>
       </c>
@@ -10058,7 +9622,7 @@
         <v>12830</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>121</v>
       </c>
@@ -10069,7 +9633,7 @@
         <v>10333</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>120</v>
       </c>
@@ -10080,7 +9644,7 @@
         <v>12388</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>123</v>
       </c>
@@ -10091,7 +9655,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>124</v>
       </c>
@@ -10102,7 +9666,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>122</v>
       </c>
@@ -10113,7 +9677,7 @@
         <v>4896</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>85</v>
       </c>
@@ -10124,7 +9688,7 @@
         <v>5025</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>83</v>
       </c>
@@ -10135,7 +9699,7 @@
         <v>4772</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>84</v>
       </c>
@@ -10146,7 +9710,7 @@
         <v>5311</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>86</v>
       </c>
@@ -10157,7 +9721,7 @@
         <v>5708</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>87</v>
       </c>
@@ -10168,7 +9732,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>89</v>
       </c>
@@ -10179,7 +9743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>90</v>
       </c>
@@ -10190,7 +9754,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>88</v>
       </c>
@@ -10201,7 +9765,7 @@
         <v>3430</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>22</v>
       </c>
@@ -10212,7 +9776,7 @@
         <v>3708</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>20</v>
       </c>
@@ -10223,7 +9787,7 @@
         <v>72261</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>21</v>
       </c>
@@ -10234,7 +9798,7 @@
         <v>60128</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>24</v>
       </c>
@@ -10245,7 +9809,7 @@
         <v>32130</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>23</v>
       </c>
@@ -10256,7 +9820,7 @@
         <v>3958</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>26</v>
       </c>
@@ -10267,7 +9831,7 @@
         <v>67631</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>27</v>
       </c>
@@ -10278,7 +9842,7 @@
         <v>52782</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>25</v>
       </c>
@@ -10289,7 +9853,7 @@
         <v>72263</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>28</v>
       </c>
@@ -10300,7 +9864,7 @@
         <v>29204</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>29</v>
       </c>
@@ -10311,7 +9875,7 @@
         <v>28944</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>31</v>
       </c>
@@ -10322,7 +9886,7 @@
         <v>11363</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>32</v>
       </c>
@@ -10333,7 +9897,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>30</v>
       </c>
@@ -10344,7 +9908,7 @@
         <v>23561</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>12</v>
       </c>
@@ -10355,7 +9919,7 @@
         <v>23541</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>13</v>
       </c>
@@ -10366,7 +9930,7 @@
         <v>23431</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>16</v>
       </c>
@@ -10377,7 +9941,7 @@
         <v>22207</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>14</v>
       </c>
@@ -10388,7 +9952,7 @@
         <v>18943</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>15</v>
       </c>
@@ -10399,7 +9963,7 @@
         <v>10874</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>18</v>
       </c>
@@ -10410,7 +9974,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>19</v>
       </c>
@@ -10421,7 +9985,7 @@
         <v>20533</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>17</v>
       </c>
@@ -10432,7 +9996,7 @@
         <v>21221</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>128</v>
       </c>
@@ -10443,7 +10007,7 @@
         <v>20602</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>129</v>
       </c>
@@ -10454,7 +10018,7 @@
         <v>17669</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>131</v>
       </c>
@@ -10465,7 +10029,7 @@
         <v>18250</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>132</v>
       </c>
@@ -10476,7 +10040,7 @@
         <v>7776</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>130</v>
       </c>
@@ -10487,7 +10051,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>134</v>
       </c>
@@ -10498,7 +10062,7 @@
         <v>8338</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>135</v>
       </c>
@@ -10509,7 +10073,7 @@
         <v>13008</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>133</v>
       </c>
@@ -10520,7 +10084,7 @@
         <v>13375</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>137</v>
       </c>
@@ -10531,7 +10095,7 @@
         <v>16175</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>136</v>
       </c>
@@ -10542,7 +10106,7 @@
         <v>24711</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>140</v>
       </c>
@@ -10553,7 +10117,7 @@
         <v>10441</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>139</v>
       </c>
@@ -10564,7 +10128,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>138</v>
       </c>
@@ -10575,7 +10139,7 @@
         <v>19159</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>142</v>
       </c>
@@ -10586,7 +10150,7 @@
         <v>21223</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>143</v>
       </c>
@@ -10597,7 +10161,7 @@
         <v>25429</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>141</v>
       </c>
@@ -10608,7 +10172,7 @@
         <v>35001</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>144</v>
       </c>
@@ -10619,7 +10183,7 @@
         <v>10449</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>145</v>
       </c>
@@ -10630,7 +10194,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>147</v>
       </c>
@@ -10641,7 +10205,7 @@
         <v>9269</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>146</v>
       </c>
@@ -10652,7 +10216,7 @@
         <v>14243</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>148</v>
       </c>
@@ -10663,7 +10227,7 @@
         <v>9363</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>151</v>
       </c>
@@ -10674,7 +10238,7 @@
         <v>4387</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>150</v>
       </c>
@@ -10685,7 +10249,7 @@
         <v>9560</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>149</v>
       </c>
@@ -10696,7 +10260,7 @@
         <v>10033</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>153</v>
       </c>
@@ -10707,7 +10271,7 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>152</v>
       </c>
@@ -10718,7 +10282,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>155</v>
       </c>
@@ -10729,7 +10293,7 @@
         <v>13921</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>156</v>
       </c>
@@ -10740,7 +10304,7 @@
         <v>8921</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>154</v>
       </c>
@@ -10751,7 +10315,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>157</v>
       </c>
@@ -10762,7 +10326,7 @@
         <v>9048</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>159</v>
       </c>
@@ -10773,7 +10337,7 @@
         <v>14644</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>158</v>
       </c>
@@ -10784,7 +10348,7 @@
         <v>5744</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>160</v>
       </c>
@@ -10795,7 +10359,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>161</v>
       </c>
@@ -10806,7 +10370,7 @@
         <v>7895</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>163</v>
       </c>
@@ -10817,7 +10381,7 @@
         <v>29750</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>162</v>
       </c>
@@ -10828,7 +10392,7 @@
         <v>32848</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>164</v>
       </c>
@@ -10839,7 +10403,7 @@
         <v>36516</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>165</v>
       </c>
@@ -10850,7 +10414,7 @@
         <v>40588</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>166</v>
       </c>
@@ -10861,7 +10425,7 @@
         <v>19419</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>127</v>
       </c>
@@ -10872,7 +10436,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>126</v>
       </c>
@@ -10883,7 +10447,7 @@
         <v>46984</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>125</v>
       </c>
@@ -10894,7 +10458,7 @@
         <v>48020</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>167</v>
       </c>
@@ -10905,7 +10469,7 @@
         <v>44456</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>168</v>
       </c>
@@ -10916,7 +10480,7 @@
         <v>165797</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>169</v>
       </c>
@@ -10927,7 +10491,7 @@
         <v>146186</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>170</v>
       </c>
@@ -10938,7 +10502,7 @@
         <v>56595</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>171</v>
       </c>
@@ -10949,7 +10513,7 @@
         <v>2762</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>173</v>
       </c>
@@ -10960,7 +10524,7 @@
         <v>60524</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>174</v>
       </c>
@@ -10971,7 +10535,7 @@
         <v>108243</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>172</v>
       </c>
@@ -10982,7 +10546,7 @@
         <v>69519</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>175</v>
       </c>
@@ -10993,7 +10557,7 @@
         <v>62348</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>176</v>
       </c>
@@ -11004,7 +10568,7 @@
         <v>74046</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>179</v>
       </c>
@@ -11015,7 +10579,7 @@
         <v>31495</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>177</v>
       </c>
@@ -11026,7 +10590,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>178</v>
       </c>
@@ -11037,7 +10601,7 @@
         <v>166961</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>180</v>
       </c>
@@ -11048,7 +10612,7 @@
         <v>135347</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>181</v>
       </c>
@@ -11059,7 +10623,7 @@
         <v>106058</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>182</v>
       </c>
@@ -11070,7 +10634,7 @@
         <v>94061</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>183</v>
       </c>
@@ -11081,7 +10645,7 @@
         <v>136524</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>185</v>
       </c>
@@ -11092,7 +10656,7 @@
         <v>71641</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>184</v>
       </c>
@@ -11103,7 +10667,7 @@
         <v>6527</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>187</v>
       </c>
@@ -11114,7 +10678,7 @@
         <v>147041</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>186</v>
       </c>
@@ -11125,7 +10689,7 @@
         <v>127350</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" s="4" t="s">
         <v>202</v>
       </c>
@@ -11136,7 +10700,7 @@
         <v>130584</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" s="4" t="s">
         <v>203</v>
       </c>
@@ -11147,7 +10711,7 @@
         <v>120344</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" s="4" t="s">
         <v>204</v>
       </c>
@@ -11158,7 +10722,7 @@
         <v>182455</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" s="4" t="s">
         <v>205</v>
       </c>
@@ -11169,7 +10733,7 @@
         <v>71033</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" s="4" t="s">
         <v>206</v>
       </c>
@@ -11180,7 +10744,7 @@
         <v>3083</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" s="4" t="s">
         <v>207</v>
       </c>
@@ -11191,7 +10755,7 @@
         <v>163798</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" s="4" t="s">
         <v>208</v>
       </c>
@@ -11202,7 +10766,7 @@
         <v>110234</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" s="4" t="s">
         <v>209</v>
       </c>
@@ -11213,7 +10777,7 @@
         <v>77404</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" s="4" t="s">
         <v>210</v>
       </c>
@@ -11224,7 +10788,7 @@
         <v>71314</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" s="4" t="s">
         <v>324</v>
       </c>
@@ -11235,7 +10799,7 @@
         <v>104799</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" s="4" t="s">
         <v>212</v>
       </c>
@@ -11246,7 +10810,7 @@
         <v>61097</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" s="4" t="s">
         <v>213</v>
       </c>
@@ -11257,7 +10821,7 @@
         <v>9321</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" s="4" t="s">
         <v>214</v>
       </c>
@@ -11268,7 +10832,7 @@
         <v>106341</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" s="4" t="s">
         <v>215</v>
       </c>
@@ -11279,7 +10843,7 @@
         <v>57331</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" s="4" t="s">
         <v>216</v>
       </c>
@@ -11290,7 +10854,7 @@
         <v>105085</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" s="4" t="s">
         <v>217</v>
       </c>
@@ -11301,7 +10865,7 @@
         <v>77409</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" s="4" t="s">
         <v>218</v>
       </c>
@@ -11312,7 +10876,7 @@
         <v>115046</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" s="4" t="s">
         <v>219</v>
       </c>
@@ -11323,7 +10887,7 @@
         <v>54126</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" s="4" t="s">
         <v>220</v>
       </c>
@@ -11334,7 +10898,7 @@
         <v>9519</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" s="4" t="s">
         <v>221</v>
       </c>
@@ -11345,7 +10909,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" s="4" t="s">
         <v>222</v>
       </c>
@@ -11356,7 +10920,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" s="4" t="s">
         <v>223</v>
       </c>
@@ -11367,7 +10931,7 @@
         <v>5711</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" s="4" t="s">
         <v>224</v>
       </c>
@@ -11378,7 +10942,7 @@
         <v>104557</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" s="4" t="s">
         <v>225</v>
       </c>
@@ -11389,7 +10953,7 @@
         <v>116453</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" s="4" t="s">
         <v>226</v>
       </c>
@@ -11400,7 +10964,7 @@
         <v>68353</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" s="4" t="s">
         <v>227</v>
       </c>
@@ -11411,7 +10975,7 @@
         <v>9646</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" s="4" t="s">
         <v>228</v>
       </c>
@@ -11422,7 +10986,7 @@
         <v>191432</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" s="4" t="s">
         <v>229</v>
       </c>
@@ -11433,7 +10997,7 @@
         <v>184775</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" s="4" t="s">
         <v>230</v>
       </c>
@@ -11444,7 +11008,7 @@
         <v>140267</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" s="4" t="s">
         <v>231</v>
       </c>
@@ -11455,7 +11019,7 @@
         <v>141741</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" s="4" t="s">
         <v>325</v>
       </c>
@@ -11466,7 +11030,7 @@
         <v>231628</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" s="4" t="s">
         <v>233</v>
       </c>
@@ -11477,7 +11041,7 @@
         <v>125376</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" s="4" t="s">
         <v>234</v>
       </c>
@@ -11488,7 +11052,7 @@
         <v>14291</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" s="4" t="s">
         <v>235</v>
       </c>
@@ -11499,7 +11063,7 @@
         <v>62318</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" s="4" t="s">
         <v>236</v>
       </c>
@@ -11510,7 +11074,7 @@
         <v>194215</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" s="4" t="s">
         <v>237</v>
       </c>
@@ -11521,7 +11085,7 @@
         <v>129174</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" s="4" t="s">
         <v>238</v>
       </c>
@@ -11532,7 +11096,7 @@
         <v>181392</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" s="4" t="s">
         <v>239</v>
       </c>
@@ -11543,7 +11107,7 @@
         <v>287617</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" s="4" t="s">
         <v>240</v>
       </c>
@@ -11554,7 +11118,7 @@
         <v>37089</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" s="4" t="s">
         <v>241</v>
       </c>
@@ -11565,7 +11129,7 @@
         <v>8325</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" s="4" t="s">
         <v>242</v>
       </c>
@@ -11576,7 +11140,7 @@
         <v>40057</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" s="4" t="s">
         <v>243</v>
       </c>
@@ -11587,7 +11151,7 @@
         <v>148600</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" s="4" t="s">
         <v>244</v>
       </c>
@@ -11598,7 +11162,7 @@
         <v>105077</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" s="4" t="s">
         <v>245</v>
       </c>
@@ -11609,7 +11173,7 @@
         <v>124130</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" s="4" t="s">
         <v>246</v>
       </c>
@@ -11620,7 +11184,7 @@
         <v>200315</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" s="4" t="s">
         <v>247</v>
       </c>
@@ -11631,7 +11195,7 @@
         <v>108817</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" s="4" t="s">
         <v>248</v>
       </c>
@@ -11642,7 +11206,7 @@
         <v>8549</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" s="4" t="s">
         <v>249</v>
       </c>

--- a/data/vaccine/vaccination_number.xlsx
+++ b/data/vaccine/vaccination_number.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dropbox (Jeongjoo)\estimation_matlab\Covid19_seoul_gyeonggi\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iyunjeong/Dropbox/JJ_YJ shared folder/data/for code/vaccine/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3694E4-1296-41DB-90AA-D121B4A48556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29BB52F-D5DF-DC48-B636-4BC460824739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16053" yWindow="1528" windowWidth="13949" windowHeight="12772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16060" yWindow="1520" windowWidth="13940" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="total" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="357">
   <si>
     <t>2021.03.07</t>
   </si>
@@ -1015,13 +1017,106 @@
   <si>
     <t>2021.10.01</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.01.01</t>
+  </si>
+  <si>
+    <t>2022.01.02</t>
+  </si>
+  <si>
+    <t>2022.01.03</t>
+  </si>
+  <si>
+    <t>2022.01.04</t>
+  </si>
+  <si>
+    <t>2022.01.05</t>
+  </si>
+  <si>
+    <t>2022.01.06</t>
+  </si>
+  <si>
+    <t>2022.01.07</t>
+  </si>
+  <si>
+    <t>2022.01.08</t>
+  </si>
+  <si>
+    <t>2022.01.09</t>
+  </si>
+  <si>
+    <t>2022.01.10</t>
+  </si>
+  <si>
+    <t>2022.01.11</t>
+  </si>
+  <si>
+    <t>2022.01.12</t>
+  </si>
+  <si>
+    <t>2022.01.13</t>
+  </si>
+  <si>
+    <t>2022.01.14</t>
+  </si>
+  <si>
+    <t>2022.01.15</t>
+  </si>
+  <si>
+    <t>2022.01.16</t>
+  </si>
+  <si>
+    <t>2022.01.17</t>
+  </si>
+  <si>
+    <t>2022.01.18</t>
+  </si>
+  <si>
+    <t>2022.01.19</t>
+  </si>
+  <si>
+    <t>2022.01.20</t>
+  </si>
+  <si>
+    <t>2022.01.21</t>
+  </si>
+  <si>
+    <t>2022.01.22</t>
+  </si>
+  <si>
+    <t>2022.01.23</t>
+  </si>
+  <si>
+    <t>2022.01.24</t>
+  </si>
+  <si>
+    <t>2022.01.25</t>
+  </si>
+  <si>
+    <t>2022.01.26</t>
+  </si>
+  <si>
+    <t>2022.01.27</t>
+  </si>
+  <si>
+    <t>2022.01.28</t>
+  </si>
+  <si>
+    <t>2022.01.29</t>
+  </si>
+  <si>
+    <t>2022.01.30</t>
+  </si>
+  <si>
+    <t>2022.01.31</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1079,7 +1174,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -1583,15 +1678,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G321"/>
+  <dimension ref="A1:G352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A248" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E256" sqref="E256"/>
+    <sheetView tabSelected="1" topLeftCell="A332" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B321" sqref="B321:C352"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>197</v>
       </c>
@@ -1602,7 +1697,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>199</v>
       </c>
@@ -1615,7 +1710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>198</v>
       </c>
@@ -1628,7 +1723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>191</v>
       </c>
@@ -1641,7 +1736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>190</v>
       </c>
@@ -1654,7 +1749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>189</v>
       </c>
@@ -1667,7 +1762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>193</v>
       </c>
@@ -1680,7 +1775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>192</v>
       </c>
@@ -1693,7 +1788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>188</v>
       </c>
@@ -1706,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>201</v>
       </c>
@@ -1719,7 +1814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>200</v>
       </c>
@@ -1732,7 +1827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>196</v>
       </c>
@@ -1745,7 +1840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1758,7 +1853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1771,7 +1866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1784,7 +1879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1797,7 +1892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1810,7 +1905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1823,7 +1918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1836,7 +1931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1849,7 +1944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1862,7 +1957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1875,7 +1970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1888,7 +1983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -1901,7 +1996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -1914,7 +2009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -1927,7 +2022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -1940,7 +2035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -1953,7 +2048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -1966,7 +2061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -1979,7 +2074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -1992,7 +2087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -2005,7 +2100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -2018,7 +2113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -2031,7 +2126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -2044,7 +2139,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -2057,7 +2152,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -2070,7 +2165,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -2083,7 +2178,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -2096,7 +2191,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -2109,7 +2204,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -2122,7 +2217,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -2135,7 +2230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -2148,7 +2243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -2161,7 +2256,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>61</v>
       </c>
@@ -2174,7 +2269,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>62</v>
       </c>
@@ -2187,7 +2282,7 @@
         <v>3519</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -2200,7 +2295,7 @@
         <v>4526</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -2213,7 +2308,7 @@
         <v>4130</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -2226,7 +2321,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -2239,7 +2334,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>69</v>
       </c>
@@ -2252,7 +2347,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>68</v>
       </c>
@@ -2265,7 +2360,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>70</v>
       </c>
@@ -2278,7 +2373,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>71</v>
       </c>
@@ -2291,7 +2386,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>72</v>
       </c>
@@ -2304,7 +2399,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -2317,7 +2412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>74</v>
       </c>
@@ -2330,7 +2425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -2343,7 +2438,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>75</v>
       </c>
@@ -2356,7 +2451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>78</v>
       </c>
@@ -2369,7 +2464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>79</v>
       </c>
@@ -2382,7 +2477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -2395,7 +2490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>81</v>
       </c>
@@ -2408,7 +2503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>80</v>
       </c>
@@ -2421,7 +2516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>82</v>
       </c>
@@ -2434,7 +2529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>35</v>
       </c>
@@ -2447,7 +2542,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>33</v>
       </c>
@@ -2460,7 +2555,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>34</v>
       </c>
@@ -2473,7 +2568,7 @@
         <v>4708</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>37</v>
       </c>
@@ -2486,7 +2581,7 @@
         <v>4897</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>38</v>
       </c>
@@ -2499,7 +2594,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>36</v>
       </c>
@@ -2512,7 +2607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>40</v>
       </c>
@@ -2525,7 +2620,7 @@
         <v>6126</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>39</v>
       </c>
@@ -2538,7 +2633,7 @@
         <v>6540</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>92</v>
       </c>
@@ -2551,7 +2646,7 @@
         <v>5008</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>93</v>
       </c>
@@ -2564,7 +2659,7 @@
         <v>8745</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>91</v>
       </c>
@@ -2577,7 +2672,7 @@
         <v>9306</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>95</v>
       </c>
@@ -2590,7 +2685,7 @@
         <v>3858</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>96</v>
       </c>
@@ -2603,7 +2698,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>94</v>
       </c>
@@ -2616,7 +2711,7 @@
         <v>10020</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>98</v>
       </c>
@@ -2629,7 +2724,7 @@
         <v>10004</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>97</v>
       </c>
@@ -2642,7 +2737,7 @@
         <v>7332</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>101</v>
       </c>
@@ -2655,7 +2750,7 @@
         <v>24034</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>100</v>
       </c>
@@ -2668,7 +2763,7 @@
         <v>26518</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>99</v>
       </c>
@@ -2681,7 +2776,7 @@
         <v>13312</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>103</v>
       </c>
@@ -2694,7 +2789,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>102</v>
       </c>
@@ -2707,7 +2802,7 @@
         <v>27638</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>106</v>
       </c>
@@ -2720,7 +2815,7 @@
         <v>29299</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>105</v>
       </c>
@@ -2733,7 +2828,7 @@
         <v>30226</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>104</v>
       </c>
@@ -2746,7 +2841,7 @@
         <v>28982</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>107</v>
       </c>
@@ -2759,7 +2854,7 @@
         <v>30654</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>108</v>
       </c>
@@ -2772,7 +2867,7 @@
         <v>16095</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>111</v>
       </c>
@@ -2785,7 +2880,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>110</v>
       </c>
@@ -2798,7 +2893,7 @@
         <v>35588</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>109</v>
       </c>
@@ -2811,7 +2906,7 @@
         <v>47172</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>114</v>
       </c>
@@ -2824,7 +2919,7 @@
         <v>31856</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>113</v>
       </c>
@@ -2837,7 +2932,7 @@
         <v>71062</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>112</v>
       </c>
@@ -2850,7 +2945,7 @@
         <v>82045</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>115</v>
       </c>
@@ -2863,7 +2958,7 @@
         <v>14779</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>117</v>
       </c>
@@ -2876,7 +2971,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -2889,7 +2984,7 @@
         <v>37659</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>118</v>
       </c>
@@ -2902,7 +2997,7 @@
         <v>36586</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>119</v>
       </c>
@@ -2915,7 +3010,7 @@
         <v>29005</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>121</v>
       </c>
@@ -2928,7 +3023,7 @@
         <v>23394</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>120</v>
       </c>
@@ -2941,7 +3036,7 @@
         <v>29472</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>123</v>
       </c>
@@ -2954,7 +3049,7 @@
         <v>4602</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>124</v>
       </c>
@@ -2967,7 +3062,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>122</v>
       </c>
@@ -2980,7 +3075,7 @@
         <v>13023</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>85</v>
       </c>
@@ -2993,7 +3088,7 @@
         <v>12134</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>83</v>
       </c>
@@ -3006,7 +3101,7 @@
         <v>11049</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>84</v>
       </c>
@@ -3019,7 +3114,7 @@
         <v>13694</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>86</v>
       </c>
@@ -3032,7 +3127,7 @@
         <v>16047</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>87</v>
       </c>
@@ -3045,7 +3140,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>89</v>
       </c>
@@ -3058,7 +3153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>90</v>
       </c>
@@ -3071,7 +3166,7 @@
         <v>7940</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
         <v>88</v>
       </c>
@@ -3084,7 +3179,7 @@
         <v>8102</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
         <v>22</v>
       </c>
@@ -3097,7 +3192,7 @@
         <v>6784</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
         <v>20</v>
       </c>
@@ -3110,7 +3205,7 @@
         <v>140701</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>21</v>
       </c>
@@ -3123,7 +3218,7 @@
         <v>115672</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
         <v>24</v>
       </c>
@@ -3136,7 +3231,7 @@
         <v>60854</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
         <v>23</v>
       </c>
@@ -3149,7 +3244,7 @@
         <v>6480</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
         <v>26</v>
       </c>
@@ -3162,7 +3257,7 @@
         <v>120479</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
         <v>27</v>
       </c>
@@ -3175,7 +3270,7 @@
         <v>90469</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
         <v>25</v>
       </c>
@@ -3188,7 +3283,7 @@
         <v>129672</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
         <v>28</v>
       </c>
@@ -3201,7 +3296,7 @@
         <v>54835</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
         <v>29</v>
       </c>
@@ -3214,7 +3309,7 @@
         <v>56699</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
         <v>31</v>
       </c>
@@ -3227,7 +3322,7 @@
         <v>19247</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
         <v>32</v>
       </c>
@@ -3240,7 +3335,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
         <v>30</v>
       </c>
@@ -3253,7 +3348,7 @@
         <v>44648</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>12</v>
       </c>
@@ -3266,7 +3361,7 @@
         <v>44661</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
         <v>13</v>
       </c>
@@ -3279,7 +3374,7 @@
         <v>44551</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
         <v>16</v>
       </c>
@@ -3292,7 +3387,7 @@
         <v>44247</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
         <v>14</v>
       </c>
@@ -3305,7 +3400,7 @@
         <v>41663</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
         <v>15</v>
       </c>
@@ -3318,7 +3413,7 @@
         <v>17529</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
         <v>18</v>
       </c>
@@ -3331,7 +3426,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
         <v>19</v>
       </c>
@@ -3344,7 +3439,7 @@
         <v>42386</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
         <v>17</v>
       </c>
@@ -3357,7 +3452,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
         <v>128</v>
       </c>
@@ -3370,7 +3465,7 @@
         <v>43351</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
         <v>129</v>
       </c>
@@ -3383,7 +3478,7 @@
         <v>36534</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
         <v>131</v>
       </c>
@@ -3396,7 +3491,7 @@
         <v>38779</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
         <v>132</v>
       </c>
@@ -3409,7 +3504,7 @@
         <v>11915</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
         <v>130</v>
       </c>
@@ -3422,7 +3517,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
         <v>134</v>
       </c>
@@ -3435,7 +3530,7 @@
         <v>17727</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
         <v>135</v>
       </c>
@@ -3448,7 +3543,7 @@
         <v>25354</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
         <v>133</v>
       </c>
@@ -3461,7 +3556,7 @@
         <v>25284</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
         <v>137</v>
       </c>
@@ -3474,7 +3569,7 @@
         <v>29658</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
         <v>136</v>
       </c>
@@ -3487,7 +3582,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
         <v>140</v>
       </c>
@@ -3500,7 +3595,7 @@
         <v>18705</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
         <v>139</v>
       </c>
@@ -3513,7 +3608,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3">
       <c r="A149" t="s">
         <v>138</v>
       </c>
@@ -3526,7 +3621,7 @@
         <v>32642</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3">
       <c r="A150" t="s">
         <v>142</v>
       </c>
@@ -3539,7 +3634,7 @@
         <v>37804</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3">
       <c r="A151" t="s">
         <v>143</v>
       </c>
@@ -3552,7 +3647,7 @@
         <v>43943</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3">
       <c r="A152" t="s">
         <v>141</v>
       </c>
@@ -3565,7 +3660,7 @@
         <v>55651</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3">
       <c r="A153" t="s">
         <v>144</v>
       </c>
@@ -3578,7 +3673,7 @@
         <v>37641</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3">
       <c r="A154" t="s">
         <v>145</v>
       </c>
@@ -3591,7 +3686,7 @@
         <v>7575</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3">
       <c r="A155" t="s">
         <v>147</v>
       </c>
@@ -3604,7 +3699,7 @@
         <v>9420</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3">
       <c r="A156" t="s">
         <v>146</v>
       </c>
@@ -3617,7 +3712,7 @@
         <v>23911</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3">
       <c r="A157" t="s">
         <v>148</v>
       </c>
@@ -3630,7 +3725,7 @@
         <v>18163</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3">
       <c r="A158" t="s">
         <v>151</v>
       </c>
@@ -3643,7 +3738,7 @@
         <v>10395</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3">
       <c r="A159" t="s">
         <v>150</v>
       </c>
@@ -3656,7 +3751,7 @@
         <v>17582</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3">
       <c r="A160" t="s">
         <v>149</v>
       </c>
@@ -3669,7 +3764,7 @@
         <v>20161</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3">
       <c r="A161" t="s">
         <v>153</v>
       </c>
@@ -3682,7 +3777,7 @@
         <v>5489</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
         <v>152</v>
       </c>
@@ -3695,7 +3790,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3">
       <c r="A163" t="s">
         <v>155</v>
       </c>
@@ -3708,7 +3803,7 @@
         <v>28552</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3">
       <c r="A164" t="s">
         <v>156</v>
       </c>
@@ -3721,7 +3816,7 @@
         <v>18302</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3">
       <c r="A165" t="s">
         <v>154</v>
       </c>
@@ -3734,7 +3829,7 @@
         <v>16915</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
         <v>157</v>
       </c>
@@ -3747,7 +3842,7 @@
         <v>16790</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
         <v>159</v>
       </c>
@@ -3760,7 +3855,7 @@
         <v>28303</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
         <v>158</v>
       </c>
@@ -3773,7 +3868,7 @@
         <v>9932</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3">
       <c r="A169" t="s">
         <v>160</v>
       </c>
@@ -3786,7 +3881,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3">
       <c r="A170" t="s">
         <v>161</v>
       </c>
@@ -3799,7 +3894,7 @@
         <v>15018</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3">
       <c r="A171" t="s">
         <v>163</v>
       </c>
@@ -3812,7 +3907,7 @@
         <v>50307</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3">
       <c r="A172" t="s">
         <v>162</v>
       </c>
@@ -3825,7 +3920,7 @@
         <v>55950</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3">
       <c r="A173" t="s">
         <v>164</v>
       </c>
@@ -3838,7 +3933,7 @@
         <v>62335</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3">
       <c r="A174" t="s">
         <v>165</v>
       </c>
@@ -3851,7 +3946,7 @@
         <v>70740</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3">
       <c r="A175" t="s">
         <v>166</v>
       </c>
@@ -3864,7 +3959,7 @@
         <v>28330</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3">
       <c r="A176" t="s">
         <v>127</v>
       </c>
@@ -3877,7 +3972,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3">
       <c r="A177" t="s">
         <v>126</v>
       </c>
@@ -3890,7 +3985,7 @@
         <v>82237</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3">
       <c r="A178" t="s">
         <v>125</v>
       </c>
@@ -3903,7 +3998,7 @@
         <v>82407</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3">
       <c r="A179" t="s">
         <v>167</v>
       </c>
@@ -3916,7 +4011,7 @@
         <v>79948</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3">
       <c r="A180" t="s">
         <v>168</v>
       </c>
@@ -3929,7 +4024,7 @@
         <v>301196</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3">
       <c r="A181" t="s">
         <v>169</v>
       </c>
@@ -3942,7 +4037,7 @@
         <v>267874</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3">
       <c r="A182" t="s">
         <v>170</v>
       </c>
@@ -3955,7 +4050,7 @@
         <v>95875</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3">
       <c r="A183" t="s">
         <v>171</v>
       </c>
@@ -3968,7 +4063,7 @@
         <v>3924</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3">
       <c r="A184" t="s">
         <v>173</v>
       </c>
@@ -3981,7 +4076,7 @@
         <v>111783</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3">
       <c r="A185" t="s">
         <v>174</v>
       </c>
@@ -3994,7 +4089,7 @@
         <v>202806</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3">
       <c r="A186" t="s">
         <v>172</v>
       </c>
@@ -4007,7 +4102,7 @@
         <v>132352</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3">
       <c r="A187" t="s">
         <v>175</v>
       </c>
@@ -4020,7 +4115,7 @@
         <v>120031</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3">
       <c r="A188" t="s">
         <v>176</v>
       </c>
@@ -4033,7 +4128,7 @@
         <v>140805</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3">
       <c r="A189" t="s">
         <v>179</v>
       </c>
@@ -4046,7 +4141,7 @@
         <v>57995</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3">
       <c r="A190" t="s">
         <v>177</v>
       </c>
@@ -4059,7 +4154,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3">
       <c r="A191" t="s">
         <v>178</v>
       </c>
@@ -4072,7 +4167,7 @@
         <v>297686</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3">
       <c r="A192" t="s">
         <v>180</v>
       </c>
@@ -4085,7 +4180,7 @@
         <v>242934</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3">
       <c r="A193" t="s">
         <v>181</v>
       </c>
@@ -4098,7 +4193,7 @@
         <v>189002</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3">
       <c r="A194" t="s">
         <v>182</v>
       </c>
@@ -4111,7 +4206,7 @@
         <v>165093</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3">
       <c r="A195" t="s">
         <v>183</v>
       </c>
@@ -4124,7 +4219,7 @@
         <v>237622</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3">
       <c r="A196" t="s">
         <v>185</v>
       </c>
@@ -4137,7 +4232,7 @@
         <v>121775</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3">
       <c r="A197" t="s">
         <v>184</v>
       </c>
@@ -4150,7 +4245,7 @@
         <v>9448</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3">
       <c r="A198" t="s">
         <v>187</v>
       </c>
@@ -4163,7 +4258,7 @@
         <v>248139</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3">
       <c r="A199" t="s">
         <v>186</v>
       </c>
@@ -4176,7 +4271,7 @@
         <v>223331</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3">
       <c r="A200" s="4" t="s">
         <v>202</v>
       </c>
@@ -4189,7 +4284,7 @@
         <v>225004</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3">
       <c r="A201" s="4" t="s">
         <v>203</v>
       </c>
@@ -4202,7 +4297,7 @@
         <v>208641</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:3">
       <c r="A202" s="4" t="s">
         <v>204</v>
       </c>
@@ -4215,7 +4310,7 @@
         <v>295588</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:3">
       <c r="A203" s="4" t="s">
         <v>205</v>
       </c>
@@ -4228,7 +4323,7 @@
         <v>113820</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:3">
       <c r="A204" s="4" t="s">
         <v>206</v>
       </c>
@@ -4241,7 +4336,7 @@
         <v>4663</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:3">
       <c r="A205" s="4" t="s">
         <v>207</v>
       </c>
@@ -4254,7 +4349,7 @@
         <v>279852</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:3">
       <c r="A206" s="4" t="s">
         <v>208</v>
       </c>
@@ -4267,7 +4362,7 @@
         <v>190401</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:3">
       <c r="A207" s="4" t="s">
         <v>209</v>
       </c>
@@ -4280,7 +4375,7 @@
         <v>132000</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:3">
       <c r="A208" s="4" t="s">
         <v>210</v>
       </c>
@@ -4293,7 +4388,7 @@
         <v>121955</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3">
       <c r="A209" s="4" t="s">
         <v>211</v>
       </c>
@@ -4306,7 +4401,7 @@
         <v>177042</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3">
       <c r="A210" s="4" t="s">
         <v>212</v>
       </c>
@@ -4319,7 +4414,7 @@
         <v>101863</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3">
       <c r="A211" s="4" t="s">
         <v>213</v>
       </c>
@@ -4332,7 +4427,7 @@
         <v>14292</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3">
       <c r="A212" s="4" t="s">
         <v>214</v>
       </c>
@@ -4345,7 +4440,7 @@
         <v>174809</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3">
       <c r="A213" s="4" t="s">
         <v>215</v>
       </c>
@@ -4358,7 +4453,7 @@
         <v>92529</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3">
       <c r="A214" s="4" t="s">
         <v>216</v>
       </c>
@@ -4371,7 +4466,7 @@
         <v>173934</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3">
       <c r="A215" s="4" t="s">
         <v>217</v>
       </c>
@@ -4384,7 +4479,7 @@
         <v>128669</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3">
       <c r="A216" s="4" t="s">
         <v>218</v>
       </c>
@@ -4397,7 +4492,7 @@
         <v>196914</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:3">
       <c r="A217" s="4" t="s">
         <v>219</v>
       </c>
@@ -4410,7 +4505,7 @@
         <v>94070</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:3">
       <c r="A218" s="4" t="s">
         <v>220</v>
       </c>
@@ -4423,7 +4518,7 @@
         <v>15104</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:3">
       <c r="A219" s="4" t="s">
         <v>221</v>
       </c>
@@ -4436,7 +4531,7 @@
         <v>5152</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:3">
       <c r="A220" s="4" t="s">
         <v>222</v>
       </c>
@@ -4449,7 +4544,7 @@
         <v>2823</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:3">
       <c r="A221" s="4" t="s">
         <v>223</v>
       </c>
@@ -4462,7 +4557,7 @@
         <v>9899</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:3">
       <c r="A222" s="4" t="s">
         <v>224</v>
       </c>
@@ -4475,7 +4570,7 @@
         <v>185097</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:3">
       <c r="A223" s="4" t="s">
         <v>225</v>
       </c>
@@ -4488,7 +4583,7 @@
         <v>201419</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:3">
       <c r="A224" s="4" t="s">
         <v>226</v>
       </c>
@@ -4501,7 +4596,7 @@
         <v>115074</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:3">
       <c r="A225" s="4" t="s">
         <v>227</v>
       </c>
@@ -4514,7 +4609,7 @@
         <v>15009</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:3">
       <c r="A226" s="4" t="s">
         <v>228</v>
       </c>
@@ -4527,7 +4622,7 @@
         <v>330706</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:3">
       <c r="A227" s="4" t="s">
         <v>229</v>
       </c>
@@ -4540,7 +4635,7 @@
         <v>317562</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:3">
       <c r="A228" s="4" t="s">
         <v>230</v>
       </c>
@@ -4553,7 +4648,7 @@
         <v>246013</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:3">
       <c r="A229" s="4" t="s">
         <v>231</v>
       </c>
@@ -4566,7 +4661,7 @@
         <v>246483</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:3">
       <c r="A230" s="4" t="s">
         <v>232</v>
       </c>
@@ -4579,7 +4674,7 @@
         <v>388264</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:3">
       <c r="A231" s="4" t="s">
         <v>233</v>
       </c>
@@ -4592,7 +4687,7 @@
         <v>205901</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:3">
       <c r="A232" s="4" t="s">
         <v>234</v>
       </c>
@@ -4605,7 +4700,7 @@
         <v>20713</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:3">
       <c r="A233" s="4" t="s">
         <v>235</v>
       </c>
@@ -4618,7 +4713,7 @@
         <v>103879</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:3">
       <c r="A234" s="4" t="s">
         <v>236</v>
       </c>
@@ -4631,7 +4726,7 @@
         <v>340659</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:3">
       <c r="A235" s="4" t="s">
         <v>237</v>
       </c>
@@ -4644,7 +4739,7 @@
         <v>224435</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:3">
       <c r="A236" s="4" t="s">
         <v>238</v>
       </c>
@@ -4657,7 +4752,7 @@
         <v>319767</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:3">
       <c r="A237" s="4" t="s">
         <v>239</v>
       </c>
@@ -4670,7 +4765,7 @@
         <v>487803</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:3">
       <c r="A238" s="4" t="s">
         <v>240</v>
       </c>
@@ -4683,7 +4778,7 @@
         <v>52426</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:3">
       <c r="A239" s="4" t="s">
         <v>241</v>
       </c>
@@ -4696,7 +4791,7 @@
         <v>11561</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:3">
       <c r="A240" s="4" t="s">
         <v>242</v>
       </c>
@@ -4709,7 +4804,7 @@
         <v>68156</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:7">
       <c r="A241" s="4" t="s">
         <v>243</v>
       </c>
@@ -4722,7 +4817,7 @@
         <v>258804</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:7">
       <c r="A242" s="4" t="s">
         <v>244</v>
       </c>
@@ -4735,7 +4830,7 @@
         <v>182580</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:7">
       <c r="A243" s="4" t="s">
         <v>245</v>
       </c>
@@ -4748,7 +4843,7 @@
         <v>218699</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:7">
       <c r="A244" s="4" t="s">
         <v>246</v>
       </c>
@@ -4761,7 +4856,7 @@
         <v>333895</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:7">
       <c r="A245" s="4" t="s">
         <v>247</v>
       </c>
@@ -4774,7 +4869,7 @@
         <v>175727</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:7">
       <c r="A246" s="4" t="s">
         <v>248</v>
       </c>
@@ -4787,7 +4882,7 @@
         <v>12168</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:7">
       <c r="A247" s="4" t="s">
         <v>249</v>
       </c>
@@ -4801,7 +4896,7 @@
       </c>
       <c r="E247" s="1"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:7">
       <c r="A248" s="4" t="s">
         <v>250</v>
       </c>
@@ -4815,7 +4910,7 @@
       <c r="E248" s="1"/>
       <c r="G248" s="1"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:7">
       <c r="A249" s="4" t="s">
         <v>251</v>
       </c>
@@ -4826,7 +4921,7 @@
         <v>10989</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:7">
       <c r="A250" s="4" t="s">
         <v>252</v>
       </c>
@@ -4837,7 +4932,7 @@
         <v>3882</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:7">
       <c r="A251" s="4" t="s">
         <v>253</v>
       </c>
@@ -4848,7 +4943,7 @@
         <v>15159</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:7">
       <c r="A252" s="4" t="s">
         <v>254</v>
       </c>
@@ -4859,7 +4954,7 @@
         <v>261935</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:7">
       <c r="A253" s="4" t="s">
         <v>255</v>
       </c>
@@ -4870,7 +4965,7 @@
         <v>287958</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:7">
       <c r="A254" s="4" t="s">
         <v>256</v>
       </c>
@@ -4881,7 +4976,7 @@
         <v>154425</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:7">
       <c r="A255" s="4" t="s">
         <v>257</v>
       </c>
@@ -4892,7 +4987,7 @@
         <v>15816</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:7">
       <c r="A256" s="4" t="s">
         <v>258</v>
       </c>
@@ -4903,7 +4998,7 @@
         <v>193841</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:5">
       <c r="A257" s="4" t="s">
         <v>259</v>
       </c>
@@ -4914,7 +5009,7 @@
         <v>122307</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:5">
       <c r="A258" s="4" t="s">
         <v>260</v>
       </c>
@@ -4925,7 +5020,7 @@
         <v>110062</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:5">
       <c r="A259" s="4" t="s">
         <v>261</v>
       </c>
@@ -4936,7 +5031,7 @@
         <v>171627</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:5">
       <c r="A260" s="4" t="s">
         <v>262</v>
       </c>
@@ -4948,7 +5043,7 @@
       </c>
       <c r="E260" s="1"/>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:5">
       <c r="A261" s="4" t="s">
         <v>263</v>
       </c>
@@ -4961,7 +5056,7 @@
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:5">
       <c r="A262" s="4" t="s">
         <v>264</v>
       </c>
@@ -4974,7 +5069,7 @@
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:5">
       <c r="A263" s="4" t="s">
         <v>265</v>
       </c>
@@ -4987,7 +5082,7 @@
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:5">
       <c r="A264" s="4" t="s">
         <v>266</v>
       </c>
@@ -5000,7 +5095,7 @@
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:5">
       <c r="A265" s="4" t="s">
         <v>267</v>
       </c>
@@ -5013,7 +5108,7 @@
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:5">
       <c r="A266" s="4" t="s">
         <v>268</v>
       </c>
@@ -5026,7 +5121,7 @@
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:5">
       <c r="A267" s="4" t="s">
         <v>269</v>
       </c>
@@ -5039,7 +5134,7 @@
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:5">
       <c r="A268" s="4" t="s">
         <v>270</v>
       </c>
@@ -5052,7 +5147,7 @@
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:5">
       <c r="A269" s="4" t="s">
         <v>271</v>
       </c>
@@ -5065,7 +5160,7 @@
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:5">
       <c r="A270" s="4" t="s">
         <v>272</v>
       </c>
@@ -5078,7 +5173,7 @@
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:5">
       <c r="A271" s="4" t="s">
         <v>273</v>
       </c>
@@ -5091,7 +5186,7 @@
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:5">
       <c r="A272" s="4" t="s">
         <v>274</v>
       </c>
@@ -5104,7 +5199,7 @@
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:5">
       <c r="A273" s="4" t="s">
         <v>275</v>
       </c>
@@ -5117,7 +5212,7 @@
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:5">
       <c r="A274" s="4" t="s">
         <v>276</v>
       </c>
@@ -5130,7 +5225,7 @@
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:5">
       <c r="A275" s="4" t="s">
         <v>277</v>
       </c>
@@ -5143,7 +5238,7 @@
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:5">
       <c r="A276" s="4" t="s">
         <v>278</v>
       </c>
@@ -5156,7 +5251,7 @@
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:5">
       <c r="A277" s="4" t="s">
         <v>279</v>
       </c>
@@ -5169,7 +5264,7 @@
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:5">
       <c r="A278" s="4" t="s">
         <v>280</v>
       </c>
@@ -5182,7 +5277,7 @@
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:5">
       <c r="A279" s="4" t="s">
         <v>281</v>
       </c>
@@ -5195,7 +5290,7 @@
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:5">
       <c r="A280" s="4" t="s">
         <v>282</v>
       </c>
@@ -5208,7 +5303,7 @@
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:5">
       <c r="A281" s="4" t="s">
         <v>283</v>
       </c>
@@ -5221,7 +5316,7 @@
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:5">
       <c r="A282" s="4" t="s">
         <v>284</v>
       </c>
@@ -5234,7 +5329,7 @@
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:5">
       <c r="A283" s="4" t="s">
         <v>285</v>
       </c>
@@ -5247,7 +5342,7 @@
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:5">
       <c r="A284" s="4" t="s">
         <v>286</v>
       </c>
@@ -5260,7 +5355,7 @@
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:5">
       <c r="A285" s="4" t="s">
         <v>287</v>
       </c>
@@ -5273,7 +5368,7 @@
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:5">
       <c r="A286" s="4" t="s">
         <v>288</v>
       </c>
@@ -5286,7 +5381,7 @@
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:5">
       <c r="A287" s="4" t="s">
         <v>289</v>
       </c>
@@ -5299,7 +5394,7 @@
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:5">
       <c r="A288" s="4" t="s">
         <v>290</v>
       </c>
@@ -5312,7 +5407,7 @@
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:5">
       <c r="A289" s="4" t="s">
         <v>291</v>
       </c>
@@ -5325,7 +5420,7 @@
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:5">
       <c r="A290" s="4" t="s">
         <v>292</v>
       </c>
@@ -5338,7 +5433,7 @@
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:5">
       <c r="A291" s="4" t="s">
         <v>293</v>
       </c>
@@ -5351,7 +5446,7 @@
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:5">
       <c r="A292" s="4" t="s">
         <v>294</v>
       </c>
@@ -5364,7 +5459,7 @@
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:5">
       <c r="A293" s="4" t="s">
         <v>295</v>
       </c>
@@ -5377,7 +5472,7 @@
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:5">
       <c r="A294" s="4" t="s">
         <v>296</v>
       </c>
@@ -5390,7 +5485,7 @@
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:5">
       <c r="A295" s="4" t="s">
         <v>297</v>
       </c>
@@ -5403,7 +5498,7 @@
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:5">
       <c r="A296" s="4" t="s">
         <v>298</v>
       </c>
@@ -5416,7 +5511,7 @@
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:5">
       <c r="A297" s="4" t="s">
         <v>299</v>
       </c>
@@ -5429,7 +5524,7 @@
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:5">
       <c r="A298" s="4" t="s">
         <v>300</v>
       </c>
@@ -5442,7 +5537,7 @@
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:5">
       <c r="A299" s="4" t="s">
         <v>301</v>
       </c>
@@ -5455,7 +5550,7 @@
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:5">
       <c r="A300" s="4" t="s">
         <v>302</v>
       </c>
@@ -5468,7 +5563,7 @@
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:5">
       <c r="A301" s="4" t="s">
         <v>303</v>
       </c>
@@ -5481,7 +5576,7 @@
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:5">
       <c r="A302" s="4" t="s">
         <v>304</v>
       </c>
@@ -5494,7 +5589,7 @@
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:5">
       <c r="A303" s="4" t="s">
         <v>305</v>
       </c>
@@ -5507,7 +5602,7 @@
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:5">
       <c r="A304" s="4" t="s">
         <v>306</v>
       </c>
@@ -5520,7 +5615,7 @@
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:5">
       <c r="A305" s="4" t="s">
         <v>307</v>
       </c>
@@ -5533,7 +5628,7 @@
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:5">
       <c r="A306" s="4" t="s">
         <v>308</v>
       </c>
@@ -5546,7 +5641,7 @@
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:5">
       <c r="A307" s="4" t="s">
         <v>309</v>
       </c>
@@ -5559,7 +5654,7 @@
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:5">
       <c r="A308" s="4" t="s">
         <v>310</v>
       </c>
@@ -5572,7 +5667,7 @@
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:5">
       <c r="A309" s="4" t="s">
         <v>311</v>
       </c>
@@ -5585,7 +5680,7 @@
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:5">
       <c r="A310" s="4" t="s">
         <v>312</v>
       </c>
@@ -5598,7 +5693,7 @@
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:5">
       <c r="A311" s="4" t="s">
         <v>313</v>
       </c>
@@ -5611,7 +5706,7 @@
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:5">
       <c r="A312" s="4" t="s">
         <v>314</v>
       </c>
@@ -5624,7 +5719,7 @@
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:5">
       <c r="A313" s="4" t="s">
         <v>315</v>
       </c>
@@ -5637,7 +5732,7 @@
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:5">
       <c r="A314" s="4" t="s">
         <v>316</v>
       </c>
@@ -5650,7 +5745,7 @@
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:5">
       <c r="A315" s="4" t="s">
         <v>317</v>
       </c>
@@ -5663,7 +5758,7 @@
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:5">
       <c r="A316" s="4" t="s">
         <v>318</v>
       </c>
@@ -5676,7 +5771,7 @@
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:5">
       <c r="A317" s="4" t="s">
         <v>319</v>
       </c>
@@ -5689,7 +5784,7 @@
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:5">
       <c r="A318" s="4" t="s">
         <v>320</v>
       </c>
@@ -5702,7 +5797,7 @@
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:5">
       <c r="A319" s="4" t="s">
         <v>321</v>
       </c>
@@ -5715,7 +5810,7 @@
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:5">
       <c r="A320" s="4" t="s">
         <v>322</v>
       </c>
@@ -5728,7 +5823,7 @@
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:5">
       <c r="A321" s="4" t="s">
         <v>323</v>
       </c>
@@ -5740,6 +5835,347 @@
       </c>
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B322" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C322" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B323" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C323" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B324" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C324" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B325" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C325" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B326" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C326" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B327" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C327" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B328" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C328" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B329" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C329" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B330" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C330" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B331" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C331" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B332" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C332" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B333" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C333" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B334" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C334" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B335" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C335" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B336" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C336" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B337" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C337" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B338" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C338" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B339" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C339" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B340" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C340" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B341" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C341" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B342" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C342" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B343" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C343" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B344" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C344" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B345" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C345" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B346" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C346" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B347" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C347" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B348" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C348" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B349" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C349" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B350" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C350" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B351" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C351" s="1">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B352" s="1">
+        <v>62113</v>
+      </c>
+      <c r="C352" s="1">
+        <v>62113</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5757,12 +6193,12 @@
       <selection activeCell="B248" sqref="B248"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="3" width="13.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -5773,7 +6209,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>199</v>
       </c>
@@ -5784,7 +6220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>198</v>
       </c>
@@ -5795,7 +6231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>191</v>
       </c>
@@ -5806,7 +6242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>190</v>
       </c>
@@ -5817,7 +6253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>189</v>
       </c>
@@ -5828,7 +6264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>193</v>
       </c>
@@ -5839,7 +6275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>192</v>
       </c>
@@ -5850,7 +6286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>188</v>
       </c>
@@ -5861,7 +6297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>201</v>
       </c>
@@ -5872,7 +6308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>200</v>
       </c>
@@ -5883,7 +6319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>196</v>
       </c>
@@ -5894,7 +6330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -5905,7 +6341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -5916,7 +6352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -5927,7 +6363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -5938,7 +6374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -5949,7 +6385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -5960,7 +6396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -5971,7 +6407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -5982,7 +6418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -5993,7 +6429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -6004,7 +6440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -6015,7 +6451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -6026,7 +6462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -6037,7 +6473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -6048,7 +6484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -6059,7 +6495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -6070,7 +6506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -6081,7 +6517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -6092,7 +6528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -6103,7 +6539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -6114,7 +6550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -6125,7 +6561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -6136,7 +6572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -6147,7 +6583,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -6158,7 +6594,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -6169,7 +6605,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -6180,7 +6616,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -6191,7 +6627,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -6202,7 +6638,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -6213,7 +6649,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -6224,7 +6660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -6235,7 +6671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -6246,7 +6682,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>61</v>
       </c>
@@ -6257,7 +6693,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>62</v>
       </c>
@@ -6268,7 +6704,7 @@
         <v>2828</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -6279,7 +6715,7 @@
         <v>2955</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -6290,7 +6726,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -6301,7 +6737,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -6312,7 +6748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>69</v>
       </c>
@@ -6323,7 +6759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>68</v>
       </c>
@@ -6334,7 +6770,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>70</v>
       </c>
@@ -6345,7 +6781,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>71</v>
       </c>
@@ -6356,7 +6792,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>72</v>
       </c>
@@ -6367,7 +6803,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -6378,7 +6814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>74</v>
       </c>
@@ -6389,7 +6825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -6400,7 +6836,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>75</v>
       </c>
@@ -6411,7 +6847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>78</v>
       </c>
@@ -6422,7 +6858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>79</v>
       </c>
@@ -6433,7 +6869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -6444,7 +6880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>81</v>
       </c>
@@ -6455,7 +6891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>80</v>
       </c>
@@ -6466,7 +6902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>82</v>
       </c>
@@ -6477,7 +6913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>35</v>
       </c>
@@ -6488,7 +6924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>33</v>
       </c>
@@ -6499,7 +6935,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>34</v>
       </c>
@@ -6510,7 +6946,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>37</v>
       </c>
@@ -6521,7 +6957,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>38</v>
       </c>
@@ -6532,7 +6968,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>36</v>
       </c>
@@ -6543,7 +6979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>40</v>
       </c>
@@ -6554,7 +6990,7 @@
         <v>3411</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>39</v>
       </c>
@@ -6565,7 +7001,7 @@
         <v>3725</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>92</v>
       </c>
@@ -6576,7 +7012,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>93</v>
       </c>
@@ -6587,7 +7023,7 @@
         <v>3921</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>91</v>
       </c>
@@ -6598,7 +7034,7 @@
         <v>4280</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>95</v>
       </c>
@@ -6609,7 +7045,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>96</v>
       </c>
@@ -6620,7 +7056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>94</v>
       </c>
@@ -6631,7 +7067,7 @@
         <v>5033</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>98</v>
       </c>
@@ -6642,7 +7078,7 @@
         <v>4665</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>97</v>
       </c>
@@ -6653,7 +7089,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>101</v>
       </c>
@@ -6664,7 +7100,7 @@
         <v>11715</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>100</v>
       </c>
@@ -6675,7 +7111,7 @@
         <v>11486</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>99</v>
       </c>
@@ -6686,7 +7122,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>103</v>
       </c>
@@ -6697,7 +7133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>102</v>
       </c>
@@ -6708,7 +7144,7 @@
         <v>12457</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>106</v>
       </c>
@@ -6719,7 +7155,7 @@
         <v>13030</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>105</v>
       </c>
@@ -6730,7 +7166,7 @@
         <v>13970</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>104</v>
       </c>
@@ -6741,7 +7177,7 @@
         <v>12435</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>107</v>
       </c>
@@ -6752,7 +7188,7 @@
         <v>12751</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>108</v>
       </c>
@@ -6763,7 +7199,7 @@
         <v>3796</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>111</v>
       </c>
@@ -6774,7 +7210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>110</v>
       </c>
@@ -6785,7 +7221,7 @@
         <v>13074</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>109</v>
       </c>
@@ -6796,7 +7232,7 @@
         <v>16649</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>114</v>
       </c>
@@ -6807,7 +7243,7 @@
         <v>3724</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>113</v>
       </c>
@@ -6818,7 +7254,7 @@
         <v>22755</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>112</v>
       </c>
@@ -6829,7 +7265,7 @@
         <v>28449</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>115</v>
       </c>
@@ -6840,7 +7276,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>117</v>
       </c>
@@ -6851,7 +7287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -6862,7 +7298,7 @@
         <v>21524</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>118</v>
       </c>
@@ -6873,7 +7309,7 @@
         <v>21010</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>119</v>
       </c>
@@ -6884,7 +7320,7 @@
         <v>16175</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>121</v>
       </c>
@@ -6895,7 +7331,7 @@
         <v>13061</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>120</v>
       </c>
@@ -6906,7 +7342,7 @@
         <v>17084</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>123</v>
       </c>
@@ -6917,7 +7353,7 @@
         <v>3843</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>124</v>
       </c>
@@ -6928,7 +7364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>122</v>
       </c>
@@ -6939,7 +7375,7 @@
         <v>8127</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>85</v>
       </c>
@@ -6950,7 +7386,7 @@
         <v>7109</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>83</v>
       </c>
@@ -6961,7 +7397,7 @@
         <v>6277</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>84</v>
       </c>
@@ -6972,7 +7408,7 @@
         <v>8383</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>86</v>
       </c>
@@ -6983,7 +7419,7 @@
         <v>10339</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>87</v>
       </c>
@@ -6994,7 +7430,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>89</v>
       </c>
@@ -7005,7 +7441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>90</v>
       </c>
@@ -7016,7 +7452,7 @@
         <v>5412</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
         <v>88</v>
       </c>
@@ -7027,7 +7463,7 @@
         <v>4672</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
         <v>22</v>
       </c>
@@ -7038,7 +7474,7 @@
         <v>3076</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
         <v>20</v>
       </c>
@@ -7049,7 +7485,7 @@
         <v>68440</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>21</v>
       </c>
@@ -7060,7 +7496,7 @@
         <v>55544</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
         <v>24</v>
       </c>
@@ -7071,7 +7507,7 @@
         <v>28724</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
         <v>23</v>
       </c>
@@ -7082,7 +7518,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
         <v>26</v>
       </c>
@@ -7093,7 +7529,7 @@
         <v>52848</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
         <v>27</v>
       </c>
@@ -7104,7 +7540,7 @@
         <v>37687</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
         <v>25</v>
       </c>
@@ -7115,7 +7551,7 @@
         <v>57409</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
         <v>28</v>
       </c>
@@ -7126,7 +7562,7 @@
         <v>25631</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
         <v>29</v>
       </c>
@@ -7137,7 +7573,7 @@
         <v>27755</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
         <v>31</v>
       </c>
@@ -7148,7 +7584,7 @@
         <v>7884</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
         <v>32</v>
       </c>
@@ -7159,7 +7595,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
         <v>30</v>
       </c>
@@ -7170,7 +7606,7 @@
         <v>21087</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>12</v>
       </c>
@@ -7181,7 +7617,7 @@
         <v>21120</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
         <v>13</v>
       </c>
@@ -7192,7 +7628,7 @@
         <v>21120</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
         <v>16</v>
       </c>
@@ -7203,7 +7639,7 @@
         <v>22040</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
         <v>14</v>
       </c>
@@ -7214,7 +7650,7 @@
         <v>22720</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
         <v>15</v>
       </c>
@@ -7225,7 +7661,7 @@
         <v>6655</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
         <v>18</v>
       </c>
@@ -7236,7 +7672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
         <v>19</v>
       </c>
@@ -7247,7 +7683,7 @@
         <v>21853</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
         <v>17</v>
       </c>
@@ -7258,7 +7694,7 @@
         <v>22407</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
         <v>128</v>
       </c>
@@ -7269,7 +7705,7 @@
         <v>22749</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
         <v>129</v>
       </c>
@@ -7280,7 +7716,7 @@
         <v>18865</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
         <v>131</v>
       </c>
@@ -7291,7 +7727,7 @@
         <v>20529</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
         <v>132</v>
       </c>
@@ -7302,7 +7738,7 @@
         <v>4139</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
         <v>130</v>
       </c>
@@ -7313,7 +7749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
         <v>134</v>
       </c>
@@ -7324,7 +7760,7 @@
         <v>9389</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
         <v>135</v>
       </c>
@@ -7335,7 +7771,7 @@
         <v>12346</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
         <v>133</v>
       </c>
@@ -7346,7 +7782,7 @@
         <v>11909</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
         <v>137</v>
       </c>
@@ -7357,7 +7793,7 @@
         <v>13483</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
         <v>136</v>
       </c>
@@ -7368,7 +7804,7 @@
         <v>20660</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
         <v>140</v>
       </c>
@@ -7379,7 +7815,7 @@
         <v>8264</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
         <v>139</v>
       </c>
@@ -7390,7 +7826,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3">
       <c r="A149" t="s">
         <v>138</v>
       </c>
@@ -7401,7 +7837,7 @@
         <v>13483</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3">
       <c r="A150" t="s">
         <v>142</v>
       </c>
@@ -7412,7 +7848,7 @@
         <v>16581</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3">
       <c r="A151" t="s">
         <v>143</v>
       </c>
@@ -7423,7 +7859,7 @@
         <v>18514</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3">
       <c r="A152" t="s">
         <v>141</v>
       </c>
@@ -7434,7 +7870,7 @@
         <v>20650</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3">
       <c r="A153" t="s">
         <v>144</v>
       </c>
@@ -7445,7 +7881,7 @@
         <v>27192</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3">
       <c r="A154" t="s">
         <v>145</v>
       </c>
@@ -7456,7 +7892,7 @@
         <v>7397</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3">
       <c r="A155" t="s">
         <v>147</v>
       </c>
@@ -7467,7 +7903,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3">
       <c r="A156" t="s">
         <v>146</v>
       </c>
@@ -7478,7 +7914,7 @@
         <v>9668</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3">
       <c r="A157" t="s">
         <v>148</v>
       </c>
@@ -7489,7 +7925,7 @@
         <v>8800</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3">
       <c r="A158" t="s">
         <v>151</v>
       </c>
@@ -7500,7 +7936,7 @@
         <v>6008</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3">
       <c r="A159" t="s">
         <v>150</v>
       </c>
@@ -7511,7 +7947,7 @@
         <v>8022</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3">
       <c r="A160" t="s">
         <v>149</v>
       </c>
@@ -7522,7 +7958,7 @@
         <v>10128</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3">
       <c r="A161" t="s">
         <v>153</v>
       </c>
@@ -7533,7 +7969,7 @@
         <v>2639</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
         <v>152</v>
       </c>
@@ -7544,7 +7980,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3">
       <c r="A163" t="s">
         <v>155</v>
       </c>
@@ -7555,7 +7991,7 @@
         <v>14631</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3">
       <c r="A164" t="s">
         <v>156</v>
       </c>
@@ -7566,7 +8002,7 @@
         <v>9381</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3">
       <c r="A165" t="s">
         <v>154</v>
       </c>
@@ -7577,7 +8013,7 @@
         <v>8120</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
         <v>157</v>
       </c>
@@ -7588,7 +8024,7 @@
         <v>7742</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
         <v>159</v>
       </c>
@@ -7599,7 +8035,7 @@
         <v>13659</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
         <v>158</v>
       </c>
@@ -7610,7 +8046,7 @@
         <v>4188</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3">
       <c r="A169" t="s">
         <v>160</v>
       </c>
@@ -7621,7 +8057,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3">
       <c r="A170" t="s">
         <v>161</v>
       </c>
@@ -7632,7 +8068,7 @@
         <v>7123</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3">
       <c r="A171" t="s">
         <v>163</v>
       </c>
@@ -7643,7 +8079,7 @@
         <v>20557</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3">
       <c r="A172" t="s">
         <v>162</v>
       </c>
@@ -7654,7 +8090,7 @@
         <v>23102</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3">
       <c r="A173" t="s">
         <v>164</v>
       </c>
@@ -7665,7 +8101,7 @@
         <v>25819</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3">
       <c r="A174" t="s">
         <v>165</v>
       </c>
@@ -7676,7 +8112,7 @@
         <v>30152</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3">
       <c r="A175" t="s">
         <v>166</v>
       </c>
@@ -7687,7 +8123,7 @@
         <v>8911</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3">
       <c r="A176" t="s">
         <v>127</v>
       </c>
@@ -7698,7 +8134,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3">
       <c r="A177" t="s">
         <v>126</v>
       </c>
@@ -7709,7 +8145,7 @@
         <v>35253</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3">
       <c r="A178" t="s">
         <v>125</v>
       </c>
@@ -7720,7 +8156,7 @@
         <v>34387</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3">
       <c r="A179" t="s">
         <v>167</v>
       </c>
@@ -7731,7 +8167,7 @@
         <v>35492</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3">
       <c r="A180" t="s">
         <v>168</v>
       </c>
@@ -7742,7 +8178,7 @@
         <v>135399</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3">
       <c r="A181" t="s">
         <v>169</v>
       </c>
@@ -7753,7 +8189,7 @@
         <v>121688</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3">
       <c r="A182" t="s">
         <v>170</v>
       </c>
@@ -7764,7 +8200,7 @@
         <v>39280</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3">
       <c r="A183" t="s">
         <v>171</v>
       </c>
@@ -7775,7 +8211,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3">
       <c r="A184" t="s">
         <v>173</v>
       </c>
@@ -7786,7 +8222,7 @@
         <v>51259</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3">
       <c r="A185" t="s">
         <v>174</v>
       </c>
@@ -7797,7 +8233,7 @@
         <v>94563</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3">
       <c r="A186" t="s">
         <v>172</v>
       </c>
@@ -7808,7 +8244,7 @@
         <v>62833</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3">
       <c r="A187" t="s">
         <v>175</v>
       </c>
@@ -7819,7 +8255,7 @@
         <v>57683</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3">
       <c r="A188" t="s">
         <v>176</v>
       </c>
@@ -7830,7 +8266,7 @@
         <v>66759</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3">
       <c r="A189" t="s">
         <v>179</v>
       </c>
@@ -7841,7 +8277,7 @@
         <v>26500</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3">
       <c r="A190" t="s">
         <v>177</v>
       </c>
@@ -7852,7 +8288,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3">
       <c r="A191" t="s">
         <v>178</v>
       </c>
@@ -7863,7 +8299,7 @@
         <v>130725</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3">
       <c r="A192" t="s">
         <v>180</v>
       </c>
@@ -7874,7 +8310,7 @@
         <v>107587</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3">
       <c r="A193" t="s">
         <v>181</v>
       </c>
@@ -7885,7 +8321,7 @@
         <v>82944</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3">
       <c r="A194" t="s">
         <v>182</v>
       </c>
@@ -7896,7 +8332,7 @@
         <v>71032</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3">
       <c r="A195" t="s">
         <v>183</v>
       </c>
@@ -7907,7 +8343,7 @@
         <v>101098</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3">
       <c r="A196" t="s">
         <v>185</v>
       </c>
@@ -7918,7 +8354,7 @@
         <v>50134</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3">
       <c r="A197" t="s">
         <v>184</v>
       </c>
@@ -7929,7 +8365,7 @@
         <v>2921</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3">
       <c r="A198" t="s">
         <v>187</v>
       </c>
@@ -7940,7 +8376,7 @@
         <v>101098</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3">
       <c r="A199" t="s">
         <v>186</v>
       </c>
@@ -7951,7 +8387,7 @@
         <v>95981</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3">
       <c r="A200" s="4" t="s">
         <v>202</v>
       </c>
@@ -7962,7 +8398,7 @@
         <v>94420</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3">
       <c r="A201" s="4" t="s">
         <v>203</v>
       </c>
@@ -7973,7 +8409,7 @@
         <v>88297</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:3">
       <c r="A202" s="4" t="s">
         <v>204</v>
       </c>
@@ -7984,7 +8420,7 @@
         <v>113133</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:3">
       <c r="A203" s="4" t="s">
         <v>205</v>
       </c>
@@ -7995,7 +8431,7 @@
         <v>42787</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:3">
       <c r="A204" s="4" t="s">
         <v>206</v>
       </c>
@@ -8006,7 +8442,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:3">
       <c r="A205" s="4" t="s">
         <v>207</v>
       </c>
@@ -8017,7 +8453,7 @@
         <v>116054</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:3">
       <c r="A206" s="4" t="s">
         <v>208</v>
       </c>
@@ -8028,7 +8464,7 @@
         <v>80167</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:3">
       <c r="A207" s="4" t="s">
         <v>209</v>
       </c>
@@ -8039,7 +8475,7 @@
         <v>54596</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:3">
       <c r="A208" s="4" t="s">
         <v>210</v>
       </c>
@@ -8050,7 +8486,7 @@
         <v>50641</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3">
       <c r="A209" s="4" t="s">
         <v>324</v>
       </c>
@@ -8061,7 +8497,7 @@
         <v>72243</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3">
       <c r="A210" s="4" t="s">
         <v>212</v>
       </c>
@@ -8072,7 +8508,7 @@
         <v>40766</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3">
       <c r="A211" s="4" t="s">
         <v>213</v>
       </c>
@@ -8083,7 +8519,7 @@
         <v>4971</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3">
       <c r="A212" s="4" t="s">
         <v>214</v>
       </c>
@@ -8094,7 +8530,7 @@
         <v>68468</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3">
       <c r="A213" s="4" t="s">
         <v>215</v>
       </c>
@@ -8105,7 +8541,7 @@
         <v>35198</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3">
       <c r="A214" s="4" t="s">
         <v>216</v>
       </c>
@@ -8116,7 +8552,7 @@
         <v>68849</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3">
       <c r="A215" s="4" t="s">
         <v>217</v>
       </c>
@@ -8127,7 +8563,7 @@
         <v>51260</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3">
       <c r="A216" s="4" t="s">
         <v>218</v>
       </c>
@@ -8138,7 +8574,7 @@
         <v>81868</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:3">
       <c r="A217" s="4" t="s">
         <v>219</v>
       </c>
@@ -8149,7 +8585,7 @@
         <v>39944</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:3">
       <c r="A218" s="4" t="s">
         <v>220</v>
       </c>
@@ -8160,7 +8596,7 @@
         <v>5585</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:3">
       <c r="A219" s="4" t="s">
         <v>221</v>
       </c>
@@ -8171,7 +8607,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:3">
       <c r="A220" s="4" t="s">
         <v>222</v>
       </c>
@@ -8182,7 +8618,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:3">
       <c r="A221" s="4" t="s">
         <v>223</v>
       </c>
@@ -8193,7 +8629,7 @@
         <v>4188</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:3">
       <c r="A222" s="4" t="s">
         <v>224</v>
       </c>
@@ -8204,7 +8640,7 @@
         <v>80540</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:3">
       <c r="A223" s="4" t="s">
         <v>225</v>
       </c>
@@ -8215,7 +8651,7 @@
         <v>84966</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:3">
       <c r="A224" s="4" t="s">
         <v>226</v>
       </c>
@@ -8226,7 +8662,7 @@
         <v>46721</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:3">
       <c r="A225" s="4" t="s">
         <v>227</v>
       </c>
@@ -8237,7 +8673,7 @@
         <v>5363</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:3">
       <c r="A226" s="4" t="s">
         <v>228</v>
       </c>
@@ -8248,7 +8684,7 @@
         <v>139274</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:3">
       <c r="A227" s="4" t="s">
         <v>229</v>
       </c>
@@ -8259,7 +8695,7 @@
         <v>132787</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:3">
       <c r="A228" s="4" t="s">
         <v>230</v>
       </c>
@@ -8270,7 +8706,7 @@
         <v>105746</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:3">
       <c r="A229" s="4" t="s">
         <v>231</v>
       </c>
@@ -8281,7 +8717,7 @@
         <v>104742</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:3">
       <c r="A230" s="4" t="s">
         <v>325</v>
       </c>
@@ -8292,7 +8728,7 @@
         <v>156636</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:3">
       <c r="A231" s="4" t="s">
         <v>233</v>
       </c>
@@ -8303,7 +8739,7 @@
         <v>80525</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:3">
       <c r="A232" s="4" t="s">
         <v>234</v>
       </c>
@@ -8314,7 +8750,7 @@
         <v>6422</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:3">
       <c r="A233" s="4" t="s">
         <v>235</v>
       </c>
@@ -8325,7 +8761,7 @@
         <v>41561</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:3">
       <c r="A234" s="4" t="s">
         <v>236</v>
       </c>
@@ -8336,7 +8772,7 @@
         <v>146444</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:3">
       <c r="A235" s="4" t="s">
         <v>237</v>
       </c>
@@ -8347,7 +8783,7 @@
         <v>95261</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:3">
       <c r="A236" s="4" t="s">
         <v>238</v>
       </c>
@@ -8358,7 +8794,7 @@
         <v>138375</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:3">
       <c r="A237" s="4" t="s">
         <v>239</v>
       </c>
@@ -8369,7 +8805,7 @@
         <v>200186</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:3">
       <c r="A238" s="4" t="s">
         <v>240</v>
       </c>
@@ -8380,7 +8816,7 @@
         <v>15337</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:3">
       <c r="A239" s="4" t="s">
         <v>241</v>
       </c>
@@ -8391,7 +8827,7 @@
         <v>3236</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:3">
       <c r="A240" s="4" t="s">
         <v>242</v>
       </c>
@@ -8402,7 +8838,7 @@
         <v>28099</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:3">
       <c r="A241" s="4" t="s">
         <v>243</v>
       </c>
@@ -8413,7 +8849,7 @@
         <v>110204</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:3">
       <c r="A242" s="4" t="s">
         <v>244</v>
       </c>
@@ -8424,7 +8860,7 @@
         <v>77503</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:3">
       <c r="A243" s="4" t="s">
         <v>245</v>
       </c>
@@ -8435,7 +8871,7 @@
         <v>94569</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:3">
       <c r="A244" s="4" t="s">
         <v>246</v>
       </c>
@@ -8446,7 +8882,7 @@
         <v>133580</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:3">
       <c r="A245" s="4" t="s">
         <v>247</v>
       </c>
@@ -8457,7 +8893,7 @@
         <v>66910</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:3">
       <c r="A246" s="4" t="s">
         <v>248</v>
       </c>
@@ -8468,7 +8904,7 @@
         <v>3619</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:3">
       <c r="A247" s="4" t="s">
         <v>249</v>
       </c>
@@ -8495,12 +8931,12 @@
       <selection activeCell="C209" sqref="C209"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="3" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -8511,7 +8947,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>199</v>
       </c>
@@ -8522,7 +8958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>198</v>
       </c>
@@ -8533,7 +8969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>191</v>
       </c>
@@ -8544,7 +8980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>190</v>
       </c>
@@ -8555,7 +8991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>189</v>
       </c>
@@ -8566,7 +9002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>193</v>
       </c>
@@ -8577,7 +9013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>192</v>
       </c>
@@ -8588,7 +9024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>188</v>
       </c>
@@ -8599,7 +9035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>201</v>
       </c>
@@ -8610,7 +9046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>200</v>
       </c>
@@ -8621,7 +9057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>196</v>
       </c>
@@ -8632,7 +9068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -8643,7 +9079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -8654,7 +9090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -8665,7 +9101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -8676,7 +9112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -8687,7 +9123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -8698,7 +9134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -8709,7 +9145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -8720,7 +9156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -8731,7 +9167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -8742,7 +9178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -8753,7 +9189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -8764,7 +9200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -8775,7 +9211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -8786,7 +9222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -8797,7 +9233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -8808,7 +9244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -8819,7 +9255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -8830,7 +9266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -8841,7 +9277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -8852,7 +9288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -8863,7 +9299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -8874,7 +9310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -8885,7 +9321,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -8896,7 +9332,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -8907,7 +9343,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -8918,7 +9354,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -8929,7 +9365,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -8940,7 +9376,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -8951,7 +9387,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -8962,7 +9398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -8973,7 +9409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -8984,7 +9420,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>61</v>
       </c>
@@ -8995,7 +9431,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>62</v>
       </c>
@@ -9006,7 +9442,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -9017,7 +9453,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -9028,7 +9464,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -9039,7 +9475,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -9050,7 +9486,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>69</v>
       </c>
@@ -9061,7 +9497,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>68</v>
       </c>
@@ -9072,7 +9508,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>70</v>
       </c>
@@ -9083,7 +9519,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>71</v>
       </c>
@@ -9094,7 +9530,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>72</v>
       </c>
@@ -9105,7 +9541,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -9116,7 +9552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>74</v>
       </c>
@@ -9127,7 +9563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -9138,7 +9574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>75</v>
       </c>
@@ -9149,7 +9585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>78</v>
       </c>
@@ -9160,7 +9596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>79</v>
       </c>
@@ -9171,7 +9607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -9182,7 +9618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>81</v>
       </c>
@@ -9193,7 +9629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>80</v>
       </c>
@@ -9204,7 +9640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>82</v>
       </c>
@@ -9215,7 +9651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>35</v>
       </c>
@@ -9226,7 +9662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>33</v>
       </c>
@@ -9237,7 +9673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>34</v>
       </c>
@@ -9248,7 +9684,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>37</v>
       </c>
@@ -9259,7 +9695,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>38</v>
       </c>
@@ -9270,7 +9706,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>36</v>
       </c>
@@ -9281,7 +9717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>40</v>
       </c>
@@ -9292,7 +9728,7 @@
         <v>2715</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>39</v>
       </c>
@@ -9303,7 +9739,7 @@
         <v>2815</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>92</v>
       </c>
@@ -9314,7 +9750,7 @@
         <v>2946</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>93</v>
       </c>
@@ -9325,7 +9761,7 @@
         <v>4824</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>91</v>
       </c>
@@ -9336,7 +9772,7 @@
         <v>5026</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>95</v>
       </c>
@@ -9347,7 +9783,7 @@
         <v>3167</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>96</v>
       </c>
@@ -9358,7 +9794,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>94</v>
       </c>
@@ -9369,7 +9805,7 @@
         <v>4987</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>98</v>
       </c>
@@ -9380,7 +9816,7 @@
         <v>5339</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>97</v>
       </c>
@@ -9391,7 +9827,7 @@
         <v>5682</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>101</v>
       </c>
@@ -9402,7 +9838,7 @@
         <v>12319</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>100</v>
       </c>
@@ -9413,7 +9849,7 @@
         <v>15032</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>99</v>
       </c>
@@ -9424,7 +9860,7 @@
         <v>11230</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>103</v>
       </c>
@@ -9435,7 +9871,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>102</v>
       </c>
@@ -9446,7 +9882,7 @@
         <v>15181</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>106</v>
       </c>
@@ -9457,7 +9893,7 @@
         <v>16269</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>105</v>
       </c>
@@ -9468,7 +9904,7 @@
         <v>16256</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>104</v>
       </c>
@@ -9479,7 +9915,7 @@
         <v>16547</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>107</v>
       </c>
@@ -9490,7 +9926,7 @@
         <v>17903</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>108</v>
       </c>
@@ -9501,7 +9937,7 @@
         <v>12299</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>111</v>
       </c>
@@ -9512,7 +9948,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>110</v>
       </c>
@@ -9523,7 +9959,7 @@
         <v>22514</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>109</v>
       </c>
@@ -9534,7 +9970,7 @@
         <v>30523</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>114</v>
       </c>
@@ -9545,7 +9981,7 @@
         <v>28132</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>113</v>
       </c>
@@ -9556,7 +9992,7 @@
         <v>48307</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>112</v>
       </c>
@@ -9567,7 +10003,7 @@
         <v>53596</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>115</v>
       </c>
@@ -9578,7 +10014,7 @@
         <v>10679</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>117</v>
       </c>
@@ -9589,7 +10025,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -9600,7 +10036,7 @@
         <v>16135</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>118</v>
       </c>
@@ -9611,7 +10047,7 @@
         <v>15576</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>119</v>
       </c>
@@ -9622,7 +10058,7 @@
         <v>12830</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>121</v>
       </c>
@@ -9633,7 +10069,7 @@
         <v>10333</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>120</v>
       </c>
@@ -9644,7 +10080,7 @@
         <v>12388</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>123</v>
       </c>
@@ -9655,7 +10091,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>124</v>
       </c>
@@ -9666,7 +10102,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>122</v>
       </c>
@@ -9677,7 +10113,7 @@
         <v>4896</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>85</v>
       </c>
@@ -9688,7 +10124,7 @@
         <v>5025</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>83</v>
       </c>
@@ -9699,7 +10135,7 @@
         <v>4772</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>84</v>
       </c>
@@ -9710,7 +10146,7 @@
         <v>5311</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>86</v>
       </c>
@@ -9721,7 +10157,7 @@
         <v>5708</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>87</v>
       </c>
@@ -9732,7 +10168,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>89</v>
       </c>
@@ -9743,7 +10179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>90</v>
       </c>
@@ -9754,7 +10190,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
         <v>88</v>
       </c>
@@ -9765,7 +10201,7 @@
         <v>3430</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
         <v>22</v>
       </c>
@@ -9776,7 +10212,7 @@
         <v>3708</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
         <v>20</v>
       </c>
@@ -9787,7 +10223,7 @@
         <v>72261</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>21</v>
       </c>
@@ -9798,7 +10234,7 @@
         <v>60128</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
         <v>24</v>
       </c>
@@ -9809,7 +10245,7 @@
         <v>32130</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
         <v>23</v>
       </c>
@@ -9820,7 +10256,7 @@
         <v>3958</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
         <v>26</v>
       </c>
@@ -9831,7 +10267,7 @@
         <v>67631</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
         <v>27</v>
       </c>
@@ -9842,7 +10278,7 @@
         <v>52782</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
         <v>25</v>
       </c>
@@ -9853,7 +10289,7 @@
         <v>72263</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
         <v>28</v>
       </c>
@@ -9864,7 +10300,7 @@
         <v>29204</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
         <v>29</v>
       </c>
@@ -9875,7 +10311,7 @@
         <v>28944</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
         <v>31</v>
       </c>
@@ -9886,7 +10322,7 @@
         <v>11363</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
         <v>32</v>
       </c>
@@ -9897,7 +10333,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
         <v>30</v>
       </c>
@@ -9908,7 +10344,7 @@
         <v>23561</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>12</v>
       </c>
@@ -9919,7 +10355,7 @@
         <v>23541</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
         <v>13</v>
       </c>
@@ -9930,7 +10366,7 @@
         <v>23431</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
         <v>16</v>
       </c>
@@ -9941,7 +10377,7 @@
         <v>22207</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
         <v>14</v>
       </c>
@@ -9952,7 +10388,7 @@
         <v>18943</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
         <v>15</v>
       </c>
@@ -9963,7 +10399,7 @@
         <v>10874</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
         <v>18</v>
       </c>
@@ -9974,7 +10410,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
         <v>19</v>
       </c>
@@ -9985,7 +10421,7 @@
         <v>20533</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
         <v>17</v>
       </c>
@@ -9996,7 +10432,7 @@
         <v>21221</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
         <v>128</v>
       </c>
@@ -10007,7 +10443,7 @@
         <v>20602</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
         <v>129</v>
       </c>
@@ -10018,7 +10454,7 @@
         <v>17669</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
         <v>131</v>
       </c>
@@ -10029,7 +10465,7 @@
         <v>18250</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
         <v>132</v>
       </c>
@@ -10040,7 +10476,7 @@
         <v>7776</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
         <v>130</v>
       </c>
@@ -10051,7 +10487,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
         <v>134</v>
       </c>
@@ -10062,7 +10498,7 @@
         <v>8338</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
         <v>135</v>
       </c>
@@ -10073,7 +10509,7 @@
         <v>13008</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
         <v>133</v>
       </c>
@@ -10084,7 +10520,7 @@
         <v>13375</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
         <v>137</v>
       </c>
@@ -10095,7 +10531,7 @@
         <v>16175</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
         <v>136</v>
       </c>
@@ -10106,7 +10542,7 @@
         <v>24711</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
         <v>140</v>
       </c>
@@ -10117,7 +10553,7 @@
         <v>10441</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
         <v>139</v>
       </c>
@@ -10128,7 +10564,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3">
       <c r="A149" t="s">
         <v>138</v>
       </c>
@@ -10139,7 +10575,7 @@
         <v>19159</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3">
       <c r="A150" t="s">
         <v>142</v>
       </c>
@@ -10150,7 +10586,7 @@
         <v>21223</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3">
       <c r="A151" t="s">
         <v>143</v>
       </c>
@@ -10161,7 +10597,7 @@
         <v>25429</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3">
       <c r="A152" t="s">
         <v>141</v>
       </c>
@@ -10172,7 +10608,7 @@
         <v>35001</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3">
       <c r="A153" t="s">
         <v>144</v>
       </c>
@@ -10183,7 +10619,7 @@
         <v>10449</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3">
       <c r="A154" t="s">
         <v>145</v>
       </c>
@@ -10194,7 +10630,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3">
       <c r="A155" t="s">
         <v>147</v>
       </c>
@@ -10205,7 +10641,7 @@
         <v>9269</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3">
       <c r="A156" t="s">
         <v>146</v>
       </c>
@@ -10216,7 +10652,7 @@
         <v>14243</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3">
       <c r="A157" t="s">
         <v>148</v>
       </c>
@@ -10227,7 +10663,7 @@
         <v>9363</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3">
       <c r="A158" t="s">
         <v>151</v>
       </c>
@@ -10238,7 +10674,7 @@
         <v>4387</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3">
       <c r="A159" t="s">
         <v>150</v>
       </c>
@@ -10249,7 +10685,7 @@
         <v>9560</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3">
       <c r="A160" t="s">
         <v>149</v>
       </c>
@@ -10260,7 +10696,7 @@
         <v>10033</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3">
       <c r="A161" t="s">
         <v>153</v>
       </c>
@@ -10271,7 +10707,7 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
         <v>152</v>
       </c>
@@ -10282,7 +10718,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3">
       <c r="A163" t="s">
         <v>155</v>
       </c>
@@ -10293,7 +10729,7 @@
         <v>13921</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3">
       <c r="A164" t="s">
         <v>156</v>
       </c>
@@ -10304,7 +10740,7 @@
         <v>8921</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3">
       <c r="A165" t="s">
         <v>154</v>
       </c>
@@ -10315,7 +10751,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
         <v>157</v>
       </c>
@@ -10326,7 +10762,7 @@
         <v>9048</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
         <v>159</v>
       </c>
@@ -10337,7 +10773,7 @@
         <v>14644</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
         <v>158</v>
       </c>
@@ -10348,7 +10784,7 @@
         <v>5744</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3">
       <c r="A169" t="s">
         <v>160</v>
       </c>
@@ -10359,7 +10795,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3">
       <c r="A170" t="s">
         <v>161</v>
       </c>
@@ -10370,7 +10806,7 @@
         <v>7895</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3">
       <c r="A171" t="s">
         <v>163</v>
       </c>
@@ -10381,7 +10817,7 @@
         <v>29750</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3">
       <c r="A172" t="s">
         <v>162</v>
       </c>
@@ -10392,7 +10828,7 @@
         <v>32848</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3">
       <c r="A173" t="s">
         <v>164</v>
       </c>
@@ -10403,7 +10839,7 @@
         <v>36516</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3">
       <c r="A174" t="s">
         <v>165</v>
       </c>
@@ -10414,7 +10850,7 @@
         <v>40588</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3">
       <c r="A175" t="s">
         <v>166</v>
       </c>
@@ -10425,7 +10861,7 @@
         <v>19419</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3">
       <c r="A176" t="s">
         <v>127</v>
       </c>
@@ -10436,7 +10872,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3">
       <c r="A177" t="s">
         <v>126</v>
       </c>
@@ -10447,7 +10883,7 @@
         <v>46984</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3">
       <c r="A178" t="s">
         <v>125</v>
       </c>
@@ -10458,7 +10894,7 @@
         <v>48020</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3">
       <c r="A179" t="s">
         <v>167</v>
       </c>
@@ -10469,7 +10905,7 @@
         <v>44456</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3">
       <c r="A180" t="s">
         <v>168</v>
       </c>
@@ -10480,7 +10916,7 @@
         <v>165797</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3">
       <c r="A181" t="s">
         <v>169</v>
       </c>
@@ -10491,7 +10927,7 @@
         <v>146186</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3">
       <c r="A182" t="s">
         <v>170</v>
       </c>
@@ -10502,7 +10938,7 @@
         <v>56595</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3">
       <c r="A183" t="s">
         <v>171</v>
       </c>
@@ -10513,7 +10949,7 @@
         <v>2762</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3">
       <c r="A184" t="s">
         <v>173</v>
       </c>
@@ -10524,7 +10960,7 @@
         <v>60524</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3">
       <c r="A185" t="s">
         <v>174</v>
       </c>
@@ -10535,7 +10971,7 @@
         <v>108243</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3">
       <c r="A186" t="s">
         <v>172</v>
       </c>
@@ -10546,7 +10982,7 @@
         <v>69519</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3">
       <c r="A187" t="s">
         <v>175</v>
       </c>
@@ -10557,7 +10993,7 @@
         <v>62348</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3">
       <c r="A188" t="s">
         <v>176</v>
       </c>
@@ -10568,7 +11004,7 @@
         <v>74046</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3">
       <c r="A189" t="s">
         <v>179</v>
       </c>
@@ -10579,7 +11015,7 @@
         <v>31495</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3">
       <c r="A190" t="s">
         <v>177</v>
       </c>
@@ -10590,7 +11026,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3">
       <c r="A191" t="s">
         <v>178</v>
       </c>
@@ -10601,7 +11037,7 @@
         <v>166961</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3">
       <c r="A192" t="s">
         <v>180</v>
       </c>
@@ -10612,7 +11048,7 @@
         <v>135347</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3">
       <c r="A193" t="s">
         <v>181</v>
       </c>
@@ -10623,7 +11059,7 @@
         <v>106058</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3">
       <c r="A194" t="s">
         <v>182</v>
       </c>
@@ -10634,7 +11070,7 @@
         <v>94061</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3">
       <c r="A195" t="s">
         <v>183</v>
       </c>
@@ -10645,7 +11081,7 @@
         <v>136524</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3">
       <c r="A196" t="s">
         <v>185</v>
       </c>
@@ -10656,7 +11092,7 @@
         <v>71641</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3">
       <c r="A197" t="s">
         <v>184</v>
       </c>
@@ -10667,7 +11103,7 @@
         <v>6527</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3">
       <c r="A198" t="s">
         <v>187</v>
       </c>
@@ -10678,7 +11114,7 @@
         <v>147041</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3">
       <c r="A199" t="s">
         <v>186</v>
       </c>
@@ -10689,7 +11125,7 @@
         <v>127350</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3">
       <c r="A200" s="4" t="s">
         <v>202</v>
       </c>
@@ -10700,7 +11136,7 @@
         <v>130584</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3">
       <c r="A201" s="4" t="s">
         <v>203</v>
       </c>
@@ -10711,7 +11147,7 @@
         <v>120344</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:3">
       <c r="A202" s="4" t="s">
         <v>204</v>
       </c>
@@ -10722,7 +11158,7 @@
         <v>182455</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:3">
       <c r="A203" s="4" t="s">
         <v>205</v>
       </c>
@@ -10733,7 +11169,7 @@
         <v>71033</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:3">
       <c r="A204" s="4" t="s">
         <v>206</v>
       </c>
@@ -10744,7 +11180,7 @@
         <v>3083</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:3">
       <c r="A205" s="4" t="s">
         <v>207</v>
       </c>
@@ -10755,7 +11191,7 @@
         <v>163798</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:3">
       <c r="A206" s="4" t="s">
         <v>208</v>
       </c>
@@ -10766,7 +11202,7 @@
         <v>110234</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:3">
       <c r="A207" s="4" t="s">
         <v>209</v>
       </c>
@@ -10777,7 +11213,7 @@
         <v>77404</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:3">
       <c r="A208" s="4" t="s">
         <v>210</v>
       </c>
@@ -10788,7 +11224,7 @@
         <v>71314</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3">
       <c r="A209" s="4" t="s">
         <v>324</v>
       </c>
@@ -10799,7 +11235,7 @@
         <v>104799</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3">
       <c r="A210" s="4" t="s">
         <v>212</v>
       </c>
@@ -10810,7 +11246,7 @@
         <v>61097</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3">
       <c r="A211" s="4" t="s">
         <v>213</v>
       </c>
@@ -10821,7 +11257,7 @@
         <v>9321</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3">
       <c r="A212" s="4" t="s">
         <v>214</v>
       </c>
@@ -10832,7 +11268,7 @@
         <v>106341</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3">
       <c r="A213" s="4" t="s">
         <v>215</v>
       </c>
@@ -10843,7 +11279,7 @@
         <v>57331</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3">
       <c r="A214" s="4" t="s">
         <v>216</v>
       </c>
@@ -10854,7 +11290,7 @@
         <v>105085</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3">
       <c r="A215" s="4" t="s">
         <v>217</v>
       </c>
@@ -10865,7 +11301,7 @@
         <v>77409</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3">
       <c r="A216" s="4" t="s">
         <v>218</v>
       </c>
@@ -10876,7 +11312,7 @@
         <v>115046</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:3">
       <c r="A217" s="4" t="s">
         <v>219</v>
       </c>
@@ -10887,7 +11323,7 @@
         <v>54126</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:3">
       <c r="A218" s="4" t="s">
         <v>220</v>
       </c>
@@ -10898,7 +11334,7 @@
         <v>9519</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:3">
       <c r="A219" s="4" t="s">
         <v>221</v>
       </c>
@@ -10909,7 +11345,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:3">
       <c r="A220" s="4" t="s">
         <v>222</v>
       </c>
@@ -10920,7 +11356,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:3">
       <c r="A221" s="4" t="s">
         <v>223</v>
       </c>
@@ -10931,7 +11367,7 @@
         <v>5711</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:3">
       <c r="A222" s="4" t="s">
         <v>224</v>
       </c>
@@ -10942,7 +11378,7 @@
         <v>104557</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:3">
       <c r="A223" s="4" t="s">
         <v>225</v>
       </c>
@@ -10953,7 +11389,7 @@
         <v>116453</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:3">
       <c r="A224" s="4" t="s">
         <v>226</v>
       </c>
@@ -10964,7 +11400,7 @@
         <v>68353</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:3">
       <c r="A225" s="4" t="s">
         <v>227</v>
       </c>
@@ -10975,7 +11411,7 @@
         <v>9646</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:3">
       <c r="A226" s="4" t="s">
         <v>228</v>
       </c>
@@ -10986,7 +11422,7 @@
         <v>191432</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:3">
       <c r="A227" s="4" t="s">
         <v>229</v>
       </c>
@@ -10997,7 +11433,7 @@
         <v>184775</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:3">
       <c r="A228" s="4" t="s">
         <v>230</v>
       </c>
@@ -11008,7 +11444,7 @@
         <v>140267</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:3">
       <c r="A229" s="4" t="s">
         <v>231</v>
       </c>
@@ -11019,7 +11455,7 @@
         <v>141741</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:3">
       <c r="A230" s="4" t="s">
         <v>325</v>
       </c>
@@ -11030,7 +11466,7 @@
         <v>231628</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:3">
       <c r="A231" s="4" t="s">
         <v>233</v>
       </c>
@@ -11041,7 +11477,7 @@
         <v>125376</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:3">
       <c r="A232" s="4" t="s">
         <v>234</v>
       </c>
@@ -11052,7 +11488,7 @@
         <v>14291</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:3">
       <c r="A233" s="4" t="s">
         <v>235</v>
       </c>
@@ -11063,7 +11499,7 @@
         <v>62318</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:3">
       <c r="A234" s="4" t="s">
         <v>236</v>
       </c>
@@ -11074,7 +11510,7 @@
         <v>194215</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:3">
       <c r="A235" s="4" t="s">
         <v>237</v>
       </c>
@@ -11085,7 +11521,7 @@
         <v>129174</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:3">
       <c r="A236" s="4" t="s">
         <v>238</v>
       </c>
@@ -11096,7 +11532,7 @@
         <v>181392</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:3">
       <c r="A237" s="4" t="s">
         <v>239</v>
       </c>
@@ -11107,7 +11543,7 @@
         <v>287617</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:3">
       <c r="A238" s="4" t="s">
         <v>240</v>
       </c>
@@ -11118,7 +11554,7 @@
         <v>37089</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:3">
       <c r="A239" s="4" t="s">
         <v>241</v>
       </c>
@@ -11129,7 +11565,7 @@
         <v>8325</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:3">
       <c r="A240" s="4" t="s">
         <v>242</v>
       </c>
@@ -11140,7 +11576,7 @@
         <v>40057</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:3">
       <c r="A241" s="4" t="s">
         <v>243</v>
       </c>
@@ -11151,7 +11587,7 @@
         <v>148600</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:3">
       <c r="A242" s="4" t="s">
         <v>244</v>
       </c>
@@ -11162,7 +11598,7 @@
         <v>105077</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:3">
       <c r="A243" s="4" t="s">
         <v>245</v>
       </c>
@@ -11173,7 +11609,7 @@
         <v>124130</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:3">
       <c r="A244" s="4" t="s">
         <v>246</v>
       </c>
@@ -11184,7 +11620,7 @@
         <v>200315</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:3">
       <c r="A245" s="4" t="s">
         <v>247</v>
       </c>
@@ -11195,7 +11631,7 @@
         <v>108817</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:3">
       <c r="A246" s="4" t="s">
         <v>248</v>
       </c>
@@ -11206,7 +11642,7 @@
         <v>8549</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:3">
       <c r="A247" s="4" t="s">
         <v>249</v>
       </c>

--- a/data/vaccine/vaccination_number.xlsx
+++ b/data/vaccine/vaccination_number.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iyunjeong/Dropbox/JJ_YJ shared folder/data/for code/vaccine/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dropbox (Jeongjoo)\JJ_YJ shared folder\data\for code\vaccine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29BB52F-D5DF-DC48-B636-4BC460824739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67028C0A-4566-4E5C-B0B0-AA3897CB5218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16060" yWindow="1520" windowWidth="13940" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11633" yWindow="1052" windowWidth="21011" windowHeight="12772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="total" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -1116,7 +1114,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1132,6 +1130,13 @@
     <font>
       <sz val="8"/>
       <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -1158,7 +1163,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1172,9 +1177,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -1678,15 +1686,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G352"/>
+  <dimension ref="A1:G353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A332" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B321" sqref="B321:C352"/>
+    <sheetView tabSelected="1" topLeftCell="A335" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="G355" sqref="G355"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>197</v>
       </c>
@@ -1697,7 +1705,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>199</v>
       </c>
@@ -1710,7 +1718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>198</v>
       </c>
@@ -1723,7 +1731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>191</v>
       </c>
@@ -1736,7 +1744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>190</v>
       </c>
@@ -1749,7 +1757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>189</v>
       </c>
@@ -1762,7 +1770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>193</v>
       </c>
@@ -1775,7 +1783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>192</v>
       </c>
@@ -1788,7 +1796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>188</v>
       </c>
@@ -1801,7 +1809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>201</v>
       </c>
@@ -1814,7 +1822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>200</v>
       </c>
@@ -1827,7 +1835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>196</v>
       </c>
@@ -1840,7 +1848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1853,7 +1861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1866,7 +1874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1879,7 +1887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1892,7 +1900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1905,7 +1913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1918,7 +1926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1931,7 +1939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1944,7 +1952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1957,7 +1965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1970,7 +1978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1983,7 +1991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -1996,7 +2004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -2009,7 +2017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -2022,7 +2030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -2035,7 +2043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -2048,7 +2056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -2061,7 +2069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -2074,7 +2082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -2087,7 +2095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -2100,7 +2108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -2113,7 +2121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -2126,7 +2134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -2139,7 +2147,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -2152,7 +2160,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -2165,7 +2173,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -2178,7 +2186,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -2191,7 +2199,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -2204,7 +2212,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -2217,7 +2225,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -2230,7 +2238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -2243,7 +2251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -2256,7 +2264,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>61</v>
       </c>
@@ -2269,7 +2277,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>62</v>
       </c>
@@ -2282,7 +2290,7 @@
         <v>3519</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -2295,7 +2303,7 @@
         <v>4526</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -2308,7 +2316,7 @@
         <v>4130</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -2321,7 +2329,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -2334,7 +2342,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>69</v>
       </c>
@@ -2347,7 +2355,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>68</v>
       </c>
@@ -2360,7 +2368,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>70</v>
       </c>
@@ -2373,7 +2381,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>71</v>
       </c>
@@ -2386,7 +2394,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>72</v>
       </c>
@@ -2399,7 +2407,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -2412,7 +2420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>74</v>
       </c>
@@ -2425,7 +2433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -2438,7 +2446,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>75</v>
       </c>
@@ -2451,7 +2459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>78</v>
       </c>
@@ -2464,7 +2472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>79</v>
       </c>
@@ -2477,7 +2485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -2490,7 +2498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>81</v>
       </c>
@@ -2503,7 +2511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>80</v>
       </c>
@@ -2516,7 +2524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>82</v>
       </c>
@@ -2529,7 +2537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>35</v>
       </c>
@@ -2542,7 +2550,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>33</v>
       </c>
@@ -2555,7 +2563,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>34</v>
       </c>
@@ -2568,7 +2576,7 @@
         <v>4708</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>37</v>
       </c>
@@ -2581,7 +2589,7 @@
         <v>4897</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>38</v>
       </c>
@@ -2594,7 +2602,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>36</v>
       </c>
@@ -2607,7 +2615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>40</v>
       </c>
@@ -2620,7 +2628,7 @@
         <v>6126</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>39</v>
       </c>
@@ -2633,7 +2641,7 @@
         <v>6540</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>92</v>
       </c>
@@ -2646,7 +2654,7 @@
         <v>5008</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>93</v>
       </c>
@@ -2659,7 +2667,7 @@
         <v>8745</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>91</v>
       </c>
@@ -2672,7 +2680,7 @@
         <v>9306</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>95</v>
       </c>
@@ -2685,7 +2693,7 @@
         <v>3858</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>96</v>
       </c>
@@ -2698,7 +2706,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>94</v>
       </c>
@@ -2711,7 +2719,7 @@
         <v>10020</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>98</v>
       </c>
@@ -2724,7 +2732,7 @@
         <v>10004</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>97</v>
       </c>
@@ -2737,7 +2745,7 @@
         <v>7332</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>101</v>
       </c>
@@ -2750,7 +2758,7 @@
         <v>24034</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>100</v>
       </c>
@@ -2763,7 +2771,7 @@
         <v>26518</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>99</v>
       </c>
@@ -2776,7 +2784,7 @@
         <v>13312</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>103</v>
       </c>
@@ -2789,7 +2797,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>102</v>
       </c>
@@ -2802,7 +2810,7 @@
         <v>27638</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>106</v>
       </c>
@@ -2815,7 +2823,7 @@
         <v>29299</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>105</v>
       </c>
@@ -2828,7 +2836,7 @@
         <v>30226</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>104</v>
       </c>
@@ -2841,7 +2849,7 @@
         <v>28982</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>107</v>
       </c>
@@ -2854,7 +2862,7 @@
         <v>30654</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>108</v>
       </c>
@@ -2867,7 +2875,7 @@
         <v>16095</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>111</v>
       </c>
@@ -2880,7 +2888,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>110</v>
       </c>
@@ -2893,7 +2901,7 @@
         <v>35588</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>109</v>
       </c>
@@ -2906,7 +2914,7 @@
         <v>47172</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>114</v>
       </c>
@@ -2919,7 +2927,7 @@
         <v>31856</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>113</v>
       </c>
@@ -2932,7 +2940,7 @@
         <v>71062</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>112</v>
       </c>
@@ -2945,7 +2953,7 @@
         <v>82045</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>115</v>
       </c>
@@ -2958,7 +2966,7 @@
         <v>14779</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>117</v>
       </c>
@@ -2971,7 +2979,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -2984,7 +2992,7 @@
         <v>37659</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>118</v>
       </c>
@@ -2997,7 +3005,7 @@
         <v>36586</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>119</v>
       </c>
@@ -3010,7 +3018,7 @@
         <v>29005</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>121</v>
       </c>
@@ -3023,7 +3031,7 @@
         <v>23394</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>120</v>
       </c>
@@ -3036,7 +3044,7 @@
         <v>29472</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>123</v>
       </c>
@@ -3049,7 +3057,7 @@
         <v>4602</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>124</v>
       </c>
@@ -3062,7 +3070,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>122</v>
       </c>
@@ -3075,7 +3083,7 @@
         <v>13023</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>85</v>
       </c>
@@ -3088,7 +3096,7 @@
         <v>12134</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>83</v>
       </c>
@@ -3101,7 +3109,7 @@
         <v>11049</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>84</v>
       </c>
@@ -3114,7 +3122,7 @@
         <v>13694</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>86</v>
       </c>
@@ -3127,7 +3135,7 @@
         <v>16047</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>87</v>
       </c>
@@ -3140,7 +3148,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>89</v>
       </c>
@@ -3153,7 +3161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>90</v>
       </c>
@@ -3166,7 +3174,7 @@
         <v>7940</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>88</v>
       </c>
@@ -3179,7 +3187,7 @@
         <v>8102</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>22</v>
       </c>
@@ -3192,7 +3200,7 @@
         <v>6784</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>20</v>
       </c>
@@ -3205,7 +3213,7 @@
         <v>140701</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>21</v>
       </c>
@@ -3218,7 +3226,7 @@
         <v>115672</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>24</v>
       </c>
@@ -3231,7 +3239,7 @@
         <v>60854</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>23</v>
       </c>
@@ -3244,7 +3252,7 @@
         <v>6480</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>26</v>
       </c>
@@ -3257,7 +3265,7 @@
         <v>120479</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>27</v>
       </c>
@@ -3270,7 +3278,7 @@
         <v>90469</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>25</v>
       </c>
@@ -3283,7 +3291,7 @@
         <v>129672</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>28</v>
       </c>
@@ -3296,7 +3304,7 @@
         <v>54835</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>29</v>
       </c>
@@ -3309,7 +3317,7 @@
         <v>56699</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>31</v>
       </c>
@@ -3322,7 +3330,7 @@
         <v>19247</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>32</v>
       </c>
@@ -3335,7 +3343,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>30</v>
       </c>
@@ -3348,7 +3356,7 @@
         <v>44648</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>12</v>
       </c>
@@ -3361,7 +3369,7 @@
         <v>44661</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>13</v>
       </c>
@@ -3374,7 +3382,7 @@
         <v>44551</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>16</v>
       </c>
@@ -3387,7 +3395,7 @@
         <v>44247</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>14</v>
       </c>
@@ -3400,7 +3408,7 @@
         <v>41663</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>15</v>
       </c>
@@ -3413,7 +3421,7 @@
         <v>17529</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>18</v>
       </c>
@@ -3426,7 +3434,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>19</v>
       </c>
@@ -3439,7 +3447,7 @@
         <v>42386</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>17</v>
       </c>
@@ -3452,7 +3460,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>128</v>
       </c>
@@ -3465,7 +3473,7 @@
         <v>43351</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>129</v>
       </c>
@@ -3478,7 +3486,7 @@
         <v>36534</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>131</v>
       </c>
@@ -3491,7 +3499,7 @@
         <v>38779</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>132</v>
       </c>
@@ -3504,7 +3512,7 @@
         <v>11915</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>130</v>
       </c>
@@ -3517,7 +3525,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>134</v>
       </c>
@@ -3530,7 +3538,7 @@
         <v>17727</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>135</v>
       </c>
@@ -3543,7 +3551,7 @@
         <v>25354</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>133</v>
       </c>
@@ -3556,7 +3564,7 @@
         <v>25284</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>137</v>
       </c>
@@ -3569,7 +3577,7 @@
         <v>29658</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>136</v>
       </c>
@@ -3582,7 +3590,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>140</v>
       </c>
@@ -3595,7 +3603,7 @@
         <v>18705</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>139</v>
       </c>
@@ -3608,7 +3616,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>138</v>
       </c>
@@ -3621,7 +3629,7 @@
         <v>32642</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>142</v>
       </c>
@@ -3634,7 +3642,7 @@
         <v>37804</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>143</v>
       </c>
@@ -3647,7 +3655,7 @@
         <v>43943</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>141</v>
       </c>
@@ -3660,7 +3668,7 @@
         <v>55651</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>144</v>
       </c>
@@ -3673,7 +3681,7 @@
         <v>37641</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>145</v>
       </c>
@@ -3686,7 +3694,7 @@
         <v>7575</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>147</v>
       </c>
@@ -3699,7 +3707,7 @@
         <v>9420</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>146</v>
       </c>
@@ -3712,7 +3720,7 @@
         <v>23911</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>148</v>
       </c>
@@ -3725,7 +3733,7 @@
         <v>18163</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>151</v>
       </c>
@@ -3738,7 +3746,7 @@
         <v>10395</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>150</v>
       </c>
@@ -3751,7 +3759,7 @@
         <v>17582</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>149</v>
       </c>
@@ -3764,7 +3772,7 @@
         <v>20161</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>153</v>
       </c>
@@ -3777,7 +3785,7 @@
         <v>5489</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>152</v>
       </c>
@@ -3790,7 +3798,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>155</v>
       </c>
@@ -3803,7 +3811,7 @@
         <v>28552</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>156</v>
       </c>
@@ -3816,7 +3824,7 @@
         <v>18302</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>154</v>
       </c>
@@ -3829,7 +3837,7 @@
         <v>16915</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>157</v>
       </c>
@@ -3842,7 +3850,7 @@
         <v>16790</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>159</v>
       </c>
@@ -3855,7 +3863,7 @@
         <v>28303</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>158</v>
       </c>
@@ -3868,7 +3876,7 @@
         <v>9932</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>160</v>
       </c>
@@ -3881,7 +3889,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>161</v>
       </c>
@@ -3894,7 +3902,7 @@
         <v>15018</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>163</v>
       </c>
@@ -3907,7 +3915,7 @@
         <v>50307</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>162</v>
       </c>
@@ -3920,7 +3928,7 @@
         <v>55950</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>164</v>
       </c>
@@ -3933,7 +3941,7 @@
         <v>62335</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>165</v>
       </c>
@@ -3946,7 +3954,7 @@
         <v>70740</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>166</v>
       </c>
@@ -3959,7 +3967,7 @@
         <v>28330</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>127</v>
       </c>
@@ -3972,7 +3980,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>126</v>
       </c>
@@ -3985,7 +3993,7 @@
         <v>82237</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>125</v>
       </c>
@@ -3998,7 +4006,7 @@
         <v>82407</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>167</v>
       </c>
@@ -4011,7 +4019,7 @@
         <v>79948</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>168</v>
       </c>
@@ -4024,7 +4032,7 @@
         <v>301196</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>169</v>
       </c>
@@ -4037,7 +4045,7 @@
         <v>267874</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>170</v>
       </c>
@@ -4050,7 +4058,7 @@
         <v>95875</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>171</v>
       </c>
@@ -4063,7 +4071,7 @@
         <v>3924</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>173</v>
       </c>
@@ -4076,7 +4084,7 @@
         <v>111783</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>174</v>
       </c>
@@ -4089,7 +4097,7 @@
         <v>202806</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>172</v>
       </c>
@@ -4102,7 +4110,7 @@
         <v>132352</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>175</v>
       </c>
@@ -4115,7 +4123,7 @@
         <v>120031</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>176</v>
       </c>
@@ -4128,7 +4136,7 @@
         <v>140805</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>179</v>
       </c>
@@ -4141,7 +4149,7 @@
         <v>57995</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>177</v>
       </c>
@@ -4154,7 +4162,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>178</v>
       </c>
@@ -4167,7 +4175,7 @@
         <v>297686</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>180</v>
       </c>
@@ -4180,7 +4188,7 @@
         <v>242934</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>181</v>
       </c>
@@ -4193,7 +4201,7 @@
         <v>189002</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>182</v>
       </c>
@@ -4206,7 +4214,7 @@
         <v>165093</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>183</v>
       </c>
@@ -4219,7 +4227,7 @@
         <v>237622</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>185</v>
       </c>
@@ -4232,7 +4240,7 @@
         <v>121775</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>184</v>
       </c>
@@ -4245,7 +4253,7 @@
         <v>9448</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>187</v>
       </c>
@@ -4258,7 +4266,7 @@
         <v>248139</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>186</v>
       </c>
@@ -4271,7 +4279,7 @@
         <v>223331</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" s="4" t="s">
         <v>202</v>
       </c>
@@ -4284,7 +4292,7 @@
         <v>225004</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" s="4" t="s">
         <v>203</v>
       </c>
@@ -4297,7 +4305,7 @@
         <v>208641</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" s="4" t="s">
         <v>204</v>
       </c>
@@ -4310,7 +4318,7 @@
         <v>295588</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" s="4" t="s">
         <v>205</v>
       </c>
@@ -4323,7 +4331,7 @@
         <v>113820</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" s="4" t="s">
         <v>206</v>
       </c>
@@ -4336,7 +4344,7 @@
         <v>4663</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" s="4" t="s">
         <v>207</v>
       </c>
@@ -4349,7 +4357,7 @@
         <v>279852</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" s="4" t="s">
         <v>208</v>
       </c>
@@ -4362,7 +4370,7 @@
         <v>190401</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" s="4" t="s">
         <v>209</v>
       </c>
@@ -4375,7 +4383,7 @@
         <v>132000</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" s="4" t="s">
         <v>210</v>
       </c>
@@ -4388,7 +4396,7 @@
         <v>121955</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" s="4" t="s">
         <v>211</v>
       </c>
@@ -4401,7 +4409,7 @@
         <v>177042</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" s="4" t="s">
         <v>212</v>
       </c>
@@ -4414,7 +4422,7 @@
         <v>101863</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" s="4" t="s">
         <v>213</v>
       </c>
@@ -4427,7 +4435,7 @@
         <v>14292</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" s="4" t="s">
         <v>214</v>
       </c>
@@ -4440,7 +4448,7 @@
         <v>174809</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" s="4" t="s">
         <v>215</v>
       </c>
@@ -4453,7 +4461,7 @@
         <v>92529</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" s="4" t="s">
         <v>216</v>
       </c>
@@ -4466,7 +4474,7 @@
         <v>173934</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" s="4" t="s">
         <v>217</v>
       </c>
@@ -4479,7 +4487,7 @@
         <v>128669</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" s="4" t="s">
         <v>218</v>
       </c>
@@ -4492,7 +4500,7 @@
         <v>196914</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" s="4" t="s">
         <v>219</v>
       </c>
@@ -4505,7 +4513,7 @@
         <v>94070</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" s="4" t="s">
         <v>220</v>
       </c>
@@ -4518,7 +4526,7 @@
         <v>15104</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" s="4" t="s">
         <v>221</v>
       </c>
@@ -4531,7 +4539,7 @@
         <v>5152</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" s="4" t="s">
         <v>222</v>
       </c>
@@ -4544,7 +4552,7 @@
         <v>2823</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" s="4" t="s">
         <v>223</v>
       </c>
@@ -4557,7 +4565,7 @@
         <v>9899</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" s="4" t="s">
         <v>224</v>
       </c>
@@ -4570,7 +4578,7 @@
         <v>185097</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" s="4" t="s">
         <v>225</v>
       </c>
@@ -4583,7 +4591,7 @@
         <v>201419</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" s="4" t="s">
         <v>226</v>
       </c>
@@ -4596,7 +4604,7 @@
         <v>115074</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" s="4" t="s">
         <v>227</v>
       </c>
@@ -4609,7 +4617,7 @@
         <v>15009</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" s="4" t="s">
         <v>228</v>
       </c>
@@ -4622,7 +4630,7 @@
         <v>330706</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" s="4" t="s">
         <v>229</v>
       </c>
@@ -4635,7 +4643,7 @@
         <v>317562</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" s="4" t="s">
         <v>230</v>
       </c>
@@ -4648,7 +4656,7 @@
         <v>246013</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" s="4" t="s">
         <v>231</v>
       </c>
@@ -4661,7 +4669,7 @@
         <v>246483</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" s="4" t="s">
         <v>232</v>
       </c>
@@ -4674,7 +4682,7 @@
         <v>388264</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" s="4" t="s">
         <v>233</v>
       </c>
@@ -4687,7 +4695,7 @@
         <v>205901</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" s="4" t="s">
         <v>234</v>
       </c>
@@ -4700,7 +4708,7 @@
         <v>20713</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" s="4" t="s">
         <v>235</v>
       </c>
@@ -4713,7 +4721,7 @@
         <v>103879</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" s="4" t="s">
         <v>236</v>
       </c>
@@ -4726,7 +4734,7 @@
         <v>340659</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" s="4" t="s">
         <v>237</v>
       </c>
@@ -4739,7 +4747,7 @@
         <v>224435</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" s="4" t="s">
         <v>238</v>
       </c>
@@ -4752,7 +4760,7 @@
         <v>319767</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" s="4" t="s">
         <v>239</v>
       </c>
@@ -4765,7 +4773,7 @@
         <v>487803</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" s="4" t="s">
         <v>240</v>
       </c>
@@ -4778,7 +4786,7 @@
         <v>52426</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" s="4" t="s">
         <v>241</v>
       </c>
@@ -4791,7 +4799,7 @@
         <v>11561</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" s="4" t="s">
         <v>242</v>
       </c>
@@ -4804,7 +4812,7 @@
         <v>68156</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241" s="4" t="s">
         <v>243</v>
       </c>
@@ -4817,7 +4825,7 @@
         <v>258804</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" s="4" t="s">
         <v>244</v>
       </c>
@@ -4830,7 +4838,7 @@
         <v>182580</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" s="4" t="s">
         <v>245</v>
       </c>
@@ -4843,7 +4851,7 @@
         <v>218699</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" s="4" t="s">
         <v>246</v>
       </c>
@@ -4856,7 +4864,7 @@
         <v>333895</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" s="4" t="s">
         <v>247</v>
       </c>
@@ -4869,7 +4877,7 @@
         <v>175727</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" s="4" t="s">
         <v>248</v>
       </c>
@@ -4882,7 +4890,7 @@
         <v>12168</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" s="4" t="s">
         <v>249</v>
       </c>
@@ -4896,7 +4904,7 @@
       </c>
       <c r="E247" s="1"/>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" s="4" t="s">
         <v>250</v>
       </c>
@@ -4910,7 +4918,7 @@
       <c r="E248" s="1"/>
       <c r="G248" s="1"/>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" s="4" t="s">
         <v>251</v>
       </c>
@@ -4921,7 +4929,7 @@
         <v>10989</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" s="4" t="s">
         <v>252</v>
       </c>
@@ -4932,7 +4940,7 @@
         <v>3882</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" s="4" t="s">
         <v>253</v>
       </c>
@@ -4943,7 +4951,7 @@
         <v>15159</v>
       </c>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" s="4" t="s">
         <v>254</v>
       </c>
@@ -4954,7 +4962,7 @@
         <v>261935</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" s="4" t="s">
         <v>255</v>
       </c>
@@ -4965,7 +4973,7 @@
         <v>287958</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" s="4" t="s">
         <v>256</v>
       </c>
@@ -4976,7 +4984,7 @@
         <v>154425</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" s="4" t="s">
         <v>257</v>
       </c>
@@ -4987,7 +4995,7 @@
         <v>15816</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" s="4" t="s">
         <v>258</v>
       </c>
@@ -4998,7 +5006,7 @@
         <v>193841</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257" s="4" t="s">
         <v>259</v>
       </c>
@@ -5009,7 +5017,7 @@
         <v>122307</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258" s="4" t="s">
         <v>260</v>
       </c>
@@ -5020,7 +5028,7 @@
         <v>110062</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259" s="4" t="s">
         <v>261</v>
       </c>
@@ -5031,7 +5039,7 @@
         <v>171627</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260" s="4" t="s">
         <v>262</v>
       </c>
@@ -5043,7 +5051,7 @@
       </c>
       <c r="E260" s="1"/>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261" s="4" t="s">
         <v>263</v>
       </c>
@@ -5056,7 +5064,7 @@
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262" s="4" t="s">
         <v>264</v>
       </c>
@@ -5069,7 +5077,7 @@
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" s="4" t="s">
         <v>265</v>
       </c>
@@ -5082,7 +5090,7 @@
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" s="4" t="s">
         <v>266</v>
       </c>
@@ -5095,7 +5103,7 @@
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265" s="4" t="s">
         <v>267</v>
       </c>
@@ -5108,7 +5116,7 @@
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" s="4" t="s">
         <v>268</v>
       </c>
@@ -5121,7 +5129,7 @@
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" s="4" t="s">
         <v>269</v>
       </c>
@@ -5134,7 +5142,7 @@
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268" s="4" t="s">
         <v>270</v>
       </c>
@@ -5147,7 +5155,7 @@
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" s="4" t="s">
         <v>271</v>
       </c>
@@ -5160,7 +5168,7 @@
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" s="4" t="s">
         <v>272</v>
       </c>
@@ -5173,7 +5181,7 @@
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271" s="4" t="s">
         <v>273</v>
       </c>
@@ -5186,7 +5194,7 @@
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" s="4" t="s">
         <v>274</v>
       </c>
@@ -5199,7 +5207,7 @@
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273" s="4" t="s">
         <v>275</v>
       </c>
@@ -5212,7 +5220,7 @@
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274" s="4" t="s">
         <v>276</v>
       </c>
@@ -5225,7 +5233,7 @@
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" s="4" t="s">
         <v>277</v>
       </c>
@@ -5238,7 +5246,7 @@
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" s="4" t="s">
         <v>278</v>
       </c>
@@ -5251,7 +5259,7 @@
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" s="4" t="s">
         <v>279</v>
       </c>
@@ -5264,7 +5272,7 @@
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278" s="4" t="s">
         <v>280</v>
       </c>
@@ -5277,7 +5285,7 @@
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279" s="4" t="s">
         <v>281</v>
       </c>
@@ -5290,7 +5298,7 @@
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280" s="4" t="s">
         <v>282</v>
       </c>
@@ -5303,7 +5311,7 @@
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" s="4" t="s">
         <v>283</v>
       </c>
@@ -5316,7 +5324,7 @@
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" s="4" t="s">
         <v>284</v>
       </c>
@@ -5329,7 +5337,7 @@
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" s="4" t="s">
         <v>285</v>
       </c>
@@ -5342,7 +5350,7 @@
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A284" s="4" t="s">
         <v>286</v>
       </c>
@@ -5355,7 +5363,7 @@
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285" s="4" t="s">
         <v>287</v>
       </c>
@@ -5368,7 +5376,7 @@
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A286" s="4" t="s">
         <v>288</v>
       </c>
@@ -5381,7 +5389,7 @@
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A287" s="4" t="s">
         <v>289</v>
       </c>
@@ -5394,7 +5402,7 @@
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A288" s="4" t="s">
         <v>290</v>
       </c>
@@ -5407,7 +5415,7 @@
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" s="4" t="s">
         <v>291</v>
       </c>
@@ -5420,7 +5428,7 @@
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290" s="4" t="s">
         <v>292</v>
       </c>
@@ -5433,7 +5441,7 @@
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291" s="4" t="s">
         <v>293</v>
       </c>
@@ -5446,7 +5454,7 @@
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292" s="4" t="s">
         <v>294</v>
       </c>
@@ -5459,7 +5467,7 @@
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" s="4" t="s">
         <v>295</v>
       </c>
@@ -5472,7 +5480,7 @@
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" s="4" t="s">
         <v>296</v>
       </c>
@@ -5485,7 +5493,7 @@
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" s="4" t="s">
         <v>297</v>
       </c>
@@ -5498,7 +5506,7 @@
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296" s="4" t="s">
         <v>298</v>
       </c>
@@ -5511,7 +5519,7 @@
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" s="4" t="s">
         <v>299</v>
       </c>
@@ -5524,7 +5532,7 @@
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298" s="4" t="s">
         <v>300</v>
       </c>
@@ -5537,7 +5545,7 @@
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299" s="4" t="s">
         <v>301</v>
       </c>
@@ -5550,7 +5558,7 @@
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300" s="4" t="s">
         <v>302</v>
       </c>
@@ -5563,7 +5571,7 @@
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A301" s="4" t="s">
         <v>303</v>
       </c>
@@ -5576,7 +5584,7 @@
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A302" s="4" t="s">
         <v>304</v>
       </c>
@@ -5589,7 +5597,7 @@
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303" s="4" t="s">
         <v>305</v>
       </c>
@@ -5602,7 +5610,7 @@
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304" s="4" t="s">
         <v>306</v>
       </c>
@@ -5615,7 +5623,7 @@
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" s="4" t="s">
         <v>307</v>
       </c>
@@ -5628,7 +5636,7 @@
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" s="4" t="s">
         <v>308</v>
       </c>
@@ -5641,7 +5649,7 @@
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" s="4" t="s">
         <v>309</v>
       </c>
@@ -5654,7 +5662,7 @@
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" s="4" t="s">
         <v>310</v>
       </c>
@@ -5667,7 +5675,7 @@
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" s="4" t="s">
         <v>311</v>
       </c>
@@ -5680,7 +5688,7 @@
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" s="4" t="s">
         <v>312</v>
       </c>
@@ -5693,7 +5701,7 @@
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" s="4" t="s">
         <v>313</v>
       </c>
@@ -5706,7 +5714,7 @@
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" s="4" t="s">
         <v>314</v>
       </c>
@@ -5719,7 +5727,7 @@
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" s="4" t="s">
         <v>315</v>
       </c>
@@ -5732,7 +5740,7 @@
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" s="4" t="s">
         <v>316</v>
       </c>
@@ -5745,7 +5753,7 @@
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315" s="4" t="s">
         <v>317</v>
       </c>
@@ -5758,7 +5766,7 @@
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316" s="4" t="s">
         <v>318</v>
       </c>
@@ -5771,7 +5779,7 @@
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317" s="4" t="s">
         <v>319</v>
       </c>
@@ -5784,7 +5792,7 @@
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A318" s="4" t="s">
         <v>320</v>
       </c>
@@ -5797,7 +5805,7 @@
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A319" s="4" t="s">
         <v>321</v>
       </c>
@@ -5810,7 +5818,7 @@
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A320" s="4" t="s">
         <v>322</v>
       </c>
@@ -5823,7 +5831,7 @@
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" s="4" t="s">
         <v>323</v>
       </c>
@@ -5836,346 +5844,350 @@
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" s="4" t="s">
         <v>326</v>
       </c>
       <c r="B322" s="1">
-        <v>62113</v>
+        <v>0</v>
       </c>
       <c r="C322" s="1">
         <v>62113</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323" s="4" t="s">
         <v>327</v>
       </c>
       <c r="B323" s="1">
-        <v>62113</v>
+        <v>0</v>
       </c>
       <c r="C323" s="1">
         <v>62113</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324" s="4" t="s">
         <v>328</v>
       </c>
       <c r="B324" s="1">
-        <v>62113</v>
+        <v>0</v>
       </c>
       <c r="C324" s="1">
         <v>62113</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325" s="4" t="s">
         <v>329</v>
       </c>
       <c r="B325" s="1">
-        <v>62113</v>
+        <v>0</v>
       </c>
       <c r="C325" s="1">
         <v>62113</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326" s="4" t="s">
         <v>330</v>
       </c>
       <c r="B326" s="1">
-        <v>62113</v>
+        <v>0</v>
       </c>
       <c r="C326" s="1">
         <v>62113</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A327" s="4" t="s">
         <v>331</v>
       </c>
       <c r="B327" s="1">
-        <v>62113</v>
+        <v>0</v>
       </c>
       <c r="C327" s="1">
         <v>62113</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A328" s="4" t="s">
         <v>332</v>
       </c>
       <c r="B328" s="1">
-        <v>62113</v>
+        <v>0</v>
       </c>
       <c r="C328" s="1">
         <v>62113</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A329" s="4" t="s">
         <v>333</v>
       </c>
       <c r="B329" s="1">
-        <v>62113</v>
+        <v>0</v>
       </c>
       <c r="C329" s="1">
         <v>62113</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330" s="4" t="s">
         <v>334</v>
       </c>
       <c r="B330" s="1">
-        <v>62113</v>
+        <v>0</v>
       </c>
       <c r="C330" s="1">
         <v>62113</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A331" s="4" t="s">
         <v>335</v>
       </c>
       <c r="B331" s="1">
-        <v>62113</v>
+        <v>0</v>
       </c>
       <c r="C331" s="1">
         <v>62113</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" s="4" t="s">
         <v>336</v>
       </c>
       <c r="B332" s="1">
-        <v>62113</v>
+        <v>0</v>
       </c>
       <c r="C332" s="1">
         <v>62113</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A333" s="4" t="s">
         <v>337</v>
       </c>
       <c r="B333" s="1">
-        <v>62113</v>
+        <v>0</v>
       </c>
       <c r="C333" s="1">
         <v>62113</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A334" s="4" t="s">
         <v>338</v>
       </c>
       <c r="B334" s="1">
-        <v>62113</v>
+        <v>0</v>
       </c>
       <c r="C334" s="1">
         <v>62113</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A335" s="4" t="s">
         <v>339</v>
       </c>
       <c r="B335" s="1">
-        <v>62113</v>
+        <v>0</v>
       </c>
       <c r="C335" s="1">
         <v>62113</v>
       </c>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A336" s="4" t="s">
         <v>340</v>
       </c>
       <c r="B336" s="1">
-        <v>62113</v>
+        <v>0</v>
       </c>
       <c r="C336" s="1">
         <v>62113</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A337" s="4" t="s">
         <v>341</v>
       </c>
       <c r="B337" s="1">
-        <v>62113</v>
+        <v>0</v>
       </c>
       <c r="C337" s="1">
         <v>62113</v>
       </c>
     </row>
-    <row r="338" spans="1:3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A338" s="4" t="s">
         <v>342</v>
       </c>
       <c r="B338" s="1">
-        <v>62113</v>
+        <v>0</v>
       </c>
       <c r="C338" s="1">
         <v>62113</v>
       </c>
     </row>
-    <row r="339" spans="1:3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A339" s="4" t="s">
         <v>343</v>
       </c>
       <c r="B339" s="1">
-        <v>62113</v>
+        <v>0</v>
       </c>
       <c r="C339" s="1">
         <v>62113</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A340" s="4" t="s">
         <v>344</v>
       </c>
       <c r="B340" s="1">
-        <v>62113</v>
+        <v>0</v>
       </c>
       <c r="C340" s="1">
         <v>62113</v>
       </c>
     </row>
-    <row r="341" spans="1:3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A341" s="4" t="s">
         <v>345</v>
       </c>
       <c r="B341" s="1">
-        <v>62113</v>
+        <v>0</v>
       </c>
       <c r="C341" s="1">
         <v>62113</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A342" s="4" t="s">
         <v>346</v>
       </c>
       <c r="B342" s="1">
-        <v>62113</v>
+        <v>0</v>
       </c>
       <c r="C342" s="1">
         <v>62113</v>
       </c>
     </row>
-    <row r="343" spans="1:3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A343" s="4" t="s">
         <v>347</v>
       </c>
       <c r="B343" s="1">
-        <v>62113</v>
+        <v>0</v>
       </c>
       <c r="C343" s="1">
         <v>62113</v>
       </c>
     </row>
-    <row r="344" spans="1:3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A344" s="4" t="s">
         <v>348</v>
       </c>
       <c r="B344" s="1">
-        <v>62113</v>
+        <v>0</v>
       </c>
       <c r="C344" s="1">
         <v>62113</v>
       </c>
     </row>
-    <row r="345" spans="1:3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A345" s="4" t="s">
         <v>349</v>
       </c>
       <c r="B345" s="1">
-        <v>62113</v>
+        <v>0</v>
       </c>
       <c r="C345" s="1">
         <v>62113</v>
       </c>
     </row>
-    <row r="346" spans="1:3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A346" s="4" t="s">
         <v>350</v>
       </c>
       <c r="B346" s="1">
-        <v>62113</v>
+        <v>0</v>
       </c>
       <c r="C346" s="1">
         <v>62113</v>
       </c>
     </row>
-    <row r="347" spans="1:3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A347" s="4" t="s">
         <v>351</v>
       </c>
       <c r="B347" s="1">
-        <v>62113</v>
+        <v>0</v>
       </c>
       <c r="C347" s="1">
         <v>62113</v>
       </c>
     </row>
-    <row r="348" spans="1:3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A348" s="4" t="s">
         <v>352</v>
       </c>
       <c r="B348" s="1">
-        <v>62113</v>
+        <v>0</v>
       </c>
       <c r="C348" s="1">
         <v>62113</v>
       </c>
     </row>
-    <row r="349" spans="1:3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A349" s="4" t="s">
         <v>353</v>
       </c>
       <c r="B349" s="1">
-        <v>62113</v>
+        <v>0</v>
       </c>
       <c r="C349" s="1">
         <v>62113</v>
       </c>
     </row>
-    <row r="350" spans="1:3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A350" s="4" t="s">
         <v>354</v>
       </c>
       <c r="B350" s="1">
-        <v>62113</v>
+        <v>0</v>
       </c>
       <c r="C350" s="1">
         <v>62113</v>
       </c>
     </row>
-    <row r="351" spans="1:3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A351" s="4" t="s">
         <v>355</v>
       </c>
       <c r="B351" s="1">
-        <v>62113</v>
+        <v>0</v>
       </c>
       <c r="C351" s="1">
         <v>62113</v>
       </c>
     </row>
-    <row r="352" spans="1:3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A352" s="4" t="s">
         <v>356</v>
       </c>
       <c r="B352" s="1">
-        <v>62113</v>
+        <v>0</v>
       </c>
       <c r="C352" s="1">
         <v>62113</v>
       </c>
+    </row>
+    <row r="353" spans="3:5" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="C353" s="1"/>
+      <c r="E353" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6193,12 +6205,12 @@
       <selection activeCell="B248" sqref="B248"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.09765625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -6209,7 +6221,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>199</v>
       </c>
@@ -6220,7 +6232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>198</v>
       </c>
@@ -6231,7 +6243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>191</v>
       </c>
@@ -6242,7 +6254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>190</v>
       </c>
@@ -6253,7 +6265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>189</v>
       </c>
@@ -6264,7 +6276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>193</v>
       </c>
@@ -6275,7 +6287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>192</v>
       </c>
@@ -6286,7 +6298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>188</v>
       </c>
@@ -6297,7 +6309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>201</v>
       </c>
@@ -6308,7 +6320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>200</v>
       </c>
@@ -6319,7 +6331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>196</v>
       </c>
@@ -6330,7 +6342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -6341,7 +6353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -6352,7 +6364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -6363,7 +6375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -6374,7 +6386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -6385,7 +6397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -6396,7 +6408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -6407,7 +6419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -6418,7 +6430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -6429,7 +6441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -6440,7 +6452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -6451,7 +6463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -6462,7 +6474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -6473,7 +6485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -6484,7 +6496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -6495,7 +6507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -6506,7 +6518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -6517,7 +6529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -6528,7 +6540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -6539,7 +6551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -6550,7 +6562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -6561,7 +6573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -6572,7 +6584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -6583,7 +6595,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -6594,7 +6606,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -6605,7 +6617,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -6616,7 +6628,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -6627,7 +6639,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -6638,7 +6650,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -6649,7 +6661,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -6660,7 +6672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -6671,7 +6683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -6682,7 +6694,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>61</v>
       </c>
@@ -6693,7 +6705,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>62</v>
       </c>
@@ -6704,7 +6716,7 @@
         <v>2828</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -6715,7 +6727,7 @@
         <v>2955</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -6726,7 +6738,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -6737,7 +6749,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -6748,7 +6760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>69</v>
       </c>
@@ -6759,7 +6771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>68</v>
       </c>
@@ -6770,7 +6782,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>70</v>
       </c>
@@ -6781,7 +6793,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>71</v>
       </c>
@@ -6792,7 +6804,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>72</v>
       </c>
@@ -6803,7 +6815,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -6814,7 +6826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>74</v>
       </c>
@@ -6825,7 +6837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -6836,7 +6848,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>75</v>
       </c>
@@ -6847,7 +6859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>78</v>
       </c>
@@ -6858,7 +6870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>79</v>
       </c>
@@ -6869,7 +6881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -6880,7 +6892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>81</v>
       </c>
@@ -6891,7 +6903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>80</v>
       </c>
@@ -6902,7 +6914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>82</v>
       </c>
@@ -6913,7 +6925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>35</v>
       </c>
@@ -6924,7 +6936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>33</v>
       </c>
@@ -6935,7 +6947,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>34</v>
       </c>
@@ -6946,7 +6958,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>37</v>
       </c>
@@ -6957,7 +6969,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>38</v>
       </c>
@@ -6968,7 +6980,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>36</v>
       </c>
@@ -6979,7 +6991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>40</v>
       </c>
@@ -6990,7 +7002,7 @@
         <v>3411</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>39</v>
       </c>
@@ -7001,7 +7013,7 @@
         <v>3725</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>92</v>
       </c>
@@ -7012,7 +7024,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>93</v>
       </c>
@@ -7023,7 +7035,7 @@
         <v>3921</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>91</v>
       </c>
@@ -7034,7 +7046,7 @@
         <v>4280</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>95</v>
       </c>
@@ -7045,7 +7057,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>96</v>
       </c>
@@ -7056,7 +7068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>94</v>
       </c>
@@ -7067,7 +7079,7 @@
         <v>5033</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>98</v>
       </c>
@@ -7078,7 +7090,7 @@
         <v>4665</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>97</v>
       </c>
@@ -7089,7 +7101,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>101</v>
       </c>
@@ -7100,7 +7112,7 @@
         <v>11715</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>100</v>
       </c>
@@ -7111,7 +7123,7 @@
         <v>11486</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>99</v>
       </c>
@@ -7122,7 +7134,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>103</v>
       </c>
@@ -7133,7 +7145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>102</v>
       </c>
@@ -7144,7 +7156,7 @@
         <v>12457</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>106</v>
       </c>
@@ -7155,7 +7167,7 @@
         <v>13030</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>105</v>
       </c>
@@ -7166,7 +7178,7 @@
         <v>13970</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>104</v>
       </c>
@@ -7177,7 +7189,7 @@
         <v>12435</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>107</v>
       </c>
@@ -7188,7 +7200,7 @@
         <v>12751</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>108</v>
       </c>
@@ -7199,7 +7211,7 @@
         <v>3796</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>111</v>
       </c>
@@ -7210,7 +7222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>110</v>
       </c>
@@ -7221,7 +7233,7 @@
         <v>13074</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>109</v>
       </c>
@@ -7232,7 +7244,7 @@
         <v>16649</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>114</v>
       </c>
@@ -7243,7 +7255,7 @@
         <v>3724</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>113</v>
       </c>
@@ -7254,7 +7266,7 @@
         <v>22755</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>112</v>
       </c>
@@ -7265,7 +7277,7 @@
         <v>28449</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>115</v>
       </c>
@@ -7276,7 +7288,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>117</v>
       </c>
@@ -7287,7 +7299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -7298,7 +7310,7 @@
         <v>21524</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>118</v>
       </c>
@@ -7309,7 +7321,7 @@
         <v>21010</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>119</v>
       </c>
@@ -7320,7 +7332,7 @@
         <v>16175</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>121</v>
       </c>
@@ -7331,7 +7343,7 @@
         <v>13061</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>120</v>
       </c>
@@ -7342,7 +7354,7 @@
         <v>17084</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>123</v>
       </c>
@@ -7353,7 +7365,7 @@
         <v>3843</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>124</v>
       </c>
@@ -7364,7 +7376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>122</v>
       </c>
@@ -7375,7 +7387,7 @@
         <v>8127</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>85</v>
       </c>
@@ -7386,7 +7398,7 @@
         <v>7109</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>83</v>
       </c>
@@ -7397,7 +7409,7 @@
         <v>6277</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>84</v>
       </c>
@@ -7408,7 +7420,7 @@
         <v>8383</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>86</v>
       </c>
@@ -7419,7 +7431,7 @@
         <v>10339</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>87</v>
       </c>
@@ -7430,7 +7442,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>89</v>
       </c>
@@ -7441,7 +7453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>90</v>
       </c>
@@ -7452,7 +7464,7 @@
         <v>5412</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>88</v>
       </c>
@@ -7463,7 +7475,7 @@
         <v>4672</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>22</v>
       </c>
@@ -7474,7 +7486,7 @@
         <v>3076</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>20</v>
       </c>
@@ -7485,7 +7497,7 @@
         <v>68440</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>21</v>
       </c>
@@ -7496,7 +7508,7 @@
         <v>55544</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>24</v>
       </c>
@@ -7507,7 +7519,7 @@
         <v>28724</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>23</v>
       </c>
@@ -7518,7 +7530,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>26</v>
       </c>
@@ -7529,7 +7541,7 @@
         <v>52848</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>27</v>
       </c>
@@ -7540,7 +7552,7 @@
         <v>37687</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>25</v>
       </c>
@@ -7551,7 +7563,7 @@
         <v>57409</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>28</v>
       </c>
@@ -7562,7 +7574,7 @@
         <v>25631</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>29</v>
       </c>
@@ -7573,7 +7585,7 @@
         <v>27755</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>31</v>
       </c>
@@ -7584,7 +7596,7 @@
         <v>7884</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>32</v>
       </c>
@@ -7595,7 +7607,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>30</v>
       </c>
@@ -7606,7 +7618,7 @@
         <v>21087</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>12</v>
       </c>
@@ -7617,7 +7629,7 @@
         <v>21120</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>13</v>
       </c>
@@ -7628,7 +7640,7 @@
         <v>21120</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>16</v>
       </c>
@@ -7639,7 +7651,7 @@
         <v>22040</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>14</v>
       </c>
@@ -7650,7 +7662,7 @@
         <v>22720</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>15</v>
       </c>
@@ -7661,7 +7673,7 @@
         <v>6655</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>18</v>
       </c>
@@ -7672,7 +7684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>19</v>
       </c>
@@ -7683,7 +7695,7 @@
         <v>21853</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>17</v>
       </c>
@@ -7694,7 +7706,7 @@
         <v>22407</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>128</v>
       </c>
@@ -7705,7 +7717,7 @@
         <v>22749</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>129</v>
       </c>
@@ -7716,7 +7728,7 @@
         <v>18865</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>131</v>
       </c>
@@ -7727,7 +7739,7 @@
         <v>20529</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>132</v>
       </c>
@@ -7738,7 +7750,7 @@
         <v>4139</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>130</v>
       </c>
@@ -7749,7 +7761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>134</v>
       </c>
@@ -7760,7 +7772,7 @@
         <v>9389</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>135</v>
       </c>
@@ -7771,7 +7783,7 @@
         <v>12346</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>133</v>
       </c>
@@ -7782,7 +7794,7 @@
         <v>11909</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>137</v>
       </c>
@@ -7793,7 +7805,7 @@
         <v>13483</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>136</v>
       </c>
@@ -7804,7 +7816,7 @@
         <v>20660</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>140</v>
       </c>
@@ -7815,7 +7827,7 @@
         <v>8264</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>139</v>
       </c>
@@ -7826,7 +7838,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>138</v>
       </c>
@@ -7837,7 +7849,7 @@
         <v>13483</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>142</v>
       </c>
@@ -7848,7 +7860,7 @@
         <v>16581</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>143</v>
       </c>
@@ -7859,7 +7871,7 @@
         <v>18514</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>141</v>
       </c>
@@ -7870,7 +7882,7 @@
         <v>20650</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>144</v>
       </c>
@@ -7881,7 +7893,7 @@
         <v>27192</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>145</v>
       </c>
@@ -7892,7 +7904,7 @@
         <v>7397</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>147</v>
       </c>
@@ -7903,7 +7915,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>146</v>
       </c>
@@ -7914,7 +7926,7 @@
         <v>9668</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>148</v>
       </c>
@@ -7925,7 +7937,7 @@
         <v>8800</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>151</v>
       </c>
@@ -7936,7 +7948,7 @@
         <v>6008</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>150</v>
       </c>
@@ -7947,7 +7959,7 @@
         <v>8022</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>149</v>
       </c>
@@ -7958,7 +7970,7 @@
         <v>10128</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>153</v>
       </c>
@@ -7969,7 +7981,7 @@
         <v>2639</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>152</v>
       </c>
@@ -7980,7 +7992,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>155</v>
       </c>
@@ -7991,7 +8003,7 @@
         <v>14631</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>156</v>
       </c>
@@ -8002,7 +8014,7 @@
         <v>9381</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>154</v>
       </c>
@@ -8013,7 +8025,7 @@
         <v>8120</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>157</v>
       </c>
@@ -8024,7 +8036,7 @@
         <v>7742</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>159</v>
       </c>
@@ -8035,7 +8047,7 @@
         <v>13659</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>158</v>
       </c>
@@ -8046,7 +8058,7 @@
         <v>4188</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>160</v>
       </c>
@@ -8057,7 +8069,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>161</v>
       </c>
@@ -8068,7 +8080,7 @@
         <v>7123</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>163</v>
       </c>
@@ -8079,7 +8091,7 @@
         <v>20557</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>162</v>
       </c>
@@ -8090,7 +8102,7 @@
         <v>23102</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>164</v>
       </c>
@@ -8101,7 +8113,7 @@
         <v>25819</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>165</v>
       </c>
@@ -8112,7 +8124,7 @@
         <v>30152</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>166</v>
       </c>
@@ -8123,7 +8135,7 @@
         <v>8911</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>127</v>
       </c>
@@ -8134,7 +8146,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>126</v>
       </c>
@@ -8145,7 +8157,7 @@
         <v>35253</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>125</v>
       </c>
@@ -8156,7 +8168,7 @@
         <v>34387</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>167</v>
       </c>
@@ -8167,7 +8179,7 @@
         <v>35492</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>168</v>
       </c>
@@ -8178,7 +8190,7 @@
         <v>135399</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>169</v>
       </c>
@@ -8189,7 +8201,7 @@
         <v>121688</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>170</v>
       </c>
@@ -8200,7 +8212,7 @@
         <v>39280</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>171</v>
       </c>
@@ -8211,7 +8223,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>173</v>
       </c>
@@ -8222,7 +8234,7 @@
         <v>51259</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>174</v>
       </c>
@@ -8233,7 +8245,7 @@
         <v>94563</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>172</v>
       </c>
@@ -8244,7 +8256,7 @@
         <v>62833</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>175</v>
       </c>
@@ -8255,7 +8267,7 @@
         <v>57683</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>176</v>
       </c>
@@ -8266,7 +8278,7 @@
         <v>66759</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>179</v>
       </c>
@@ -8277,7 +8289,7 @@
         <v>26500</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>177</v>
       </c>
@@ -8288,7 +8300,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>178</v>
       </c>
@@ -8299,7 +8311,7 @@
         <v>130725</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>180</v>
       </c>
@@ -8310,7 +8322,7 @@
         <v>107587</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>181</v>
       </c>
@@ -8321,7 +8333,7 @@
         <v>82944</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>182</v>
       </c>
@@ -8332,7 +8344,7 @@
         <v>71032</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>183</v>
       </c>
@@ -8343,7 +8355,7 @@
         <v>101098</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>185</v>
       </c>
@@ -8354,7 +8366,7 @@
         <v>50134</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>184</v>
       </c>
@@ -8365,7 +8377,7 @@
         <v>2921</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>187</v>
       </c>
@@ -8376,7 +8388,7 @@
         <v>101098</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>186</v>
       </c>
@@ -8387,7 +8399,7 @@
         <v>95981</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" s="4" t="s">
         <v>202</v>
       </c>
@@ -8398,7 +8410,7 @@
         <v>94420</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" s="4" t="s">
         <v>203</v>
       </c>
@@ -8409,7 +8421,7 @@
         <v>88297</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" s="4" t="s">
         <v>204</v>
       </c>
@@ -8420,7 +8432,7 @@
         <v>113133</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" s="4" t="s">
         <v>205</v>
       </c>
@@ -8431,7 +8443,7 @@
         <v>42787</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" s="4" t="s">
         <v>206</v>
       </c>
@@ -8442,7 +8454,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" s="4" t="s">
         <v>207</v>
       </c>
@@ -8453,7 +8465,7 @@
         <v>116054</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" s="4" t="s">
         <v>208</v>
       </c>
@@ -8464,7 +8476,7 @@
         <v>80167</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" s="4" t="s">
         <v>209</v>
       </c>
@@ -8475,7 +8487,7 @@
         <v>54596</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" s="4" t="s">
         <v>210</v>
       </c>
@@ -8486,7 +8498,7 @@
         <v>50641</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" s="4" t="s">
         <v>324</v>
       </c>
@@ -8497,7 +8509,7 @@
         <v>72243</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" s="4" t="s">
         <v>212</v>
       </c>
@@ -8508,7 +8520,7 @@
         <v>40766</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" s="4" t="s">
         <v>213</v>
       </c>
@@ -8519,7 +8531,7 @@
         <v>4971</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" s="4" t="s">
         <v>214</v>
       </c>
@@ -8530,7 +8542,7 @@
         <v>68468</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" s="4" t="s">
         <v>215</v>
       </c>
@@ -8541,7 +8553,7 @@
         <v>35198</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" s="4" t="s">
         <v>216</v>
       </c>
@@ -8552,7 +8564,7 @@
         <v>68849</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" s="4" t="s">
         <v>217</v>
       </c>
@@ -8563,7 +8575,7 @@
         <v>51260</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" s="4" t="s">
         <v>218</v>
       </c>
@@ -8574,7 +8586,7 @@
         <v>81868</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" s="4" t="s">
         <v>219</v>
       </c>
@@ -8585,7 +8597,7 @@
         <v>39944</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" s="4" t="s">
         <v>220</v>
       </c>
@@ -8596,7 +8608,7 @@
         <v>5585</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" s="4" t="s">
         <v>221</v>
       </c>
@@ -8607,7 +8619,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" s="4" t="s">
         <v>222</v>
       </c>
@@ -8618,7 +8630,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" s="4" t="s">
         <v>223</v>
       </c>
@@ -8629,7 +8641,7 @@
         <v>4188</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" s="4" t="s">
         <v>224</v>
       </c>
@@ -8640,7 +8652,7 @@
         <v>80540</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" s="4" t="s">
         <v>225</v>
       </c>
@@ -8651,7 +8663,7 @@
         <v>84966</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" s="4" t="s">
         <v>226</v>
       </c>
@@ -8662,7 +8674,7 @@
         <v>46721</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" s="4" t="s">
         <v>227</v>
       </c>
@@ -8673,7 +8685,7 @@
         <v>5363</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" s="4" t="s">
         <v>228</v>
       </c>
@@ -8684,7 +8696,7 @@
         <v>139274</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" s="4" t="s">
         <v>229</v>
       </c>
@@ -8695,7 +8707,7 @@
         <v>132787</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" s="4" t="s">
         <v>230</v>
       </c>
@@ -8706,7 +8718,7 @@
         <v>105746</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" s="4" t="s">
         <v>231</v>
       </c>
@@ -8717,7 +8729,7 @@
         <v>104742</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" s="4" t="s">
         <v>325</v>
       </c>
@@ -8728,7 +8740,7 @@
         <v>156636</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" s="4" t="s">
         <v>233</v>
       </c>
@@ -8739,7 +8751,7 @@
         <v>80525</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" s="4" t="s">
         <v>234</v>
       </c>
@@ -8750,7 +8762,7 @@
         <v>6422</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" s="4" t="s">
         <v>235</v>
       </c>
@@ -8761,7 +8773,7 @@
         <v>41561</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" s="4" t="s">
         <v>236</v>
       </c>
@@ -8772,7 +8784,7 @@
         <v>146444</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" s="4" t="s">
         <v>237</v>
       </c>
@@ -8783,7 +8795,7 @@
         <v>95261</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" s="4" t="s">
         <v>238</v>
       </c>
@@ -8794,7 +8806,7 @@
         <v>138375</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" s="4" t="s">
         <v>239</v>
       </c>
@@ -8805,7 +8817,7 @@
         <v>200186</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" s="4" t="s">
         <v>240</v>
       </c>
@@ -8816,7 +8828,7 @@
         <v>15337</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" s="4" t="s">
         <v>241</v>
       </c>
@@ -8827,7 +8839,7 @@
         <v>3236</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" s="4" t="s">
         <v>242</v>
       </c>
@@ -8838,7 +8850,7 @@
         <v>28099</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" s="4" t="s">
         <v>243</v>
       </c>
@@ -8849,7 +8861,7 @@
         <v>110204</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" s="4" t="s">
         <v>244</v>
       </c>
@@ -8860,7 +8872,7 @@
         <v>77503</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" s="4" t="s">
         <v>245</v>
       </c>
@@ -8871,7 +8883,7 @@
         <v>94569</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" s="4" t="s">
         <v>246</v>
       </c>
@@ -8882,7 +8894,7 @@
         <v>133580</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" s="4" t="s">
         <v>247</v>
       </c>
@@ -8893,7 +8905,7 @@
         <v>66910</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" s="4" t="s">
         <v>248</v>
       </c>
@@ -8904,7 +8916,7 @@
         <v>3619</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" s="4" t="s">
         <v>249</v>
       </c>
@@ -8931,12 +8943,12 @@
       <selection activeCell="C209" sqref="C209"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -8947,7 +8959,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>199</v>
       </c>
@@ -8958,7 +8970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>198</v>
       </c>
@@ -8969,7 +8981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>191</v>
       </c>
@@ -8980,7 +8992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>190</v>
       </c>
@@ -8991,7 +9003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>189</v>
       </c>
@@ -9002,7 +9014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>193</v>
       </c>
@@ -9013,7 +9025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>192</v>
       </c>
@@ -9024,7 +9036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>188</v>
       </c>
@@ -9035,7 +9047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>201</v>
       </c>
@@ -9046,7 +9058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>200</v>
       </c>
@@ -9057,7 +9069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>196</v>
       </c>
@@ -9068,7 +9080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -9079,7 +9091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -9090,7 +9102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -9101,7 +9113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -9112,7 +9124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -9123,7 +9135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -9134,7 +9146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -9145,7 +9157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -9156,7 +9168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -9167,7 +9179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -9178,7 +9190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -9189,7 +9201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -9200,7 +9212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -9211,7 +9223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -9222,7 +9234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -9233,7 +9245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -9244,7 +9256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -9255,7 +9267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -9266,7 +9278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -9277,7 +9289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -9288,7 +9300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -9299,7 +9311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -9310,7 +9322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -9321,7 +9333,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -9332,7 +9344,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -9343,7 +9355,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -9354,7 +9366,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -9365,7 +9377,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -9376,7 +9388,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -9387,7 +9399,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -9398,7 +9410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -9409,7 +9421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -9420,7 +9432,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>61</v>
       </c>
@@ -9431,7 +9443,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>62</v>
       </c>
@@ -9442,7 +9454,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -9453,7 +9465,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -9464,7 +9476,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -9475,7 +9487,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -9486,7 +9498,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>69</v>
       </c>
@@ -9497,7 +9509,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>68</v>
       </c>
@@ -9508,7 +9520,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>70</v>
       </c>
@@ -9519,7 +9531,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>71</v>
       </c>
@@ -9530,7 +9542,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>72</v>
       </c>
@@ -9541,7 +9553,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -9552,7 +9564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>74</v>
       </c>
@@ -9563,7 +9575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -9574,7 +9586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>75</v>
       </c>
@@ -9585,7 +9597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>78</v>
       </c>
@@ -9596,7 +9608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>79</v>
       </c>
@@ -9607,7 +9619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -9618,7 +9630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>81</v>
       </c>
@@ -9629,7 +9641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>80</v>
       </c>
@@ -9640,7 +9652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>82</v>
       </c>
@@ -9651,7 +9663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>35</v>
       </c>
@@ -9662,7 +9674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>33</v>
       </c>
@@ -9673,7 +9685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>34</v>
       </c>
@@ -9684,7 +9696,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>37</v>
       </c>
@@ -9695,7 +9707,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>38</v>
       </c>
@@ -9706,7 +9718,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>36</v>
       </c>
@@ -9717,7 +9729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>40</v>
       </c>
@@ -9728,7 +9740,7 @@
         <v>2715</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>39</v>
       </c>
@@ -9739,7 +9751,7 @@
         <v>2815</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>92</v>
       </c>
@@ -9750,7 +9762,7 @@
         <v>2946</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>93</v>
       </c>
@@ -9761,7 +9773,7 @@
         <v>4824</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>91</v>
       </c>
@@ -9772,7 +9784,7 @@
         <v>5026</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>95</v>
       </c>
@@ -9783,7 +9795,7 @@
         <v>3167</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>96</v>
       </c>
@@ -9794,7 +9806,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>94</v>
       </c>
@@ -9805,7 +9817,7 @@
         <v>4987</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>98</v>
       </c>
@@ -9816,7 +9828,7 @@
         <v>5339</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>97</v>
       </c>
@@ -9827,7 +9839,7 @@
         <v>5682</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>101</v>
       </c>
@@ -9838,7 +9850,7 @@
         <v>12319</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>100</v>
       </c>
@@ -9849,7 +9861,7 @@
         <v>15032</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>99</v>
       </c>
@@ -9860,7 +9872,7 @@
         <v>11230</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>103</v>
       </c>
@@ -9871,7 +9883,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>102</v>
       </c>
@@ -9882,7 +9894,7 @@
         <v>15181</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>106</v>
       </c>
@@ -9893,7 +9905,7 @@
         <v>16269</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>105</v>
       </c>
@@ -9904,7 +9916,7 @@
         <v>16256</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>104</v>
       </c>
@@ -9915,7 +9927,7 @@
         <v>16547</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>107</v>
       </c>
@@ -9926,7 +9938,7 @@
         <v>17903</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>108</v>
       </c>
@@ -9937,7 +9949,7 @@
         <v>12299</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>111</v>
       </c>
@@ -9948,7 +9960,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>110</v>
       </c>
@@ -9959,7 +9971,7 @@
         <v>22514</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>109</v>
       </c>
@@ -9970,7 +9982,7 @@
         <v>30523</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>114</v>
       </c>
@@ -9981,7 +9993,7 @@
         <v>28132</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>113</v>
       </c>
@@ -9992,7 +10004,7 @@
         <v>48307</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>112</v>
       </c>
@@ -10003,7 +10015,7 @@
         <v>53596</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>115</v>
       </c>
@@ -10014,7 +10026,7 @@
         <v>10679</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>117</v>
       </c>
@@ -10025,7 +10037,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -10036,7 +10048,7 @@
         <v>16135</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>118</v>
       </c>
@@ -10047,7 +10059,7 @@
         <v>15576</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>119</v>
       </c>
@@ -10058,7 +10070,7 @@
         <v>12830</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>121</v>
       </c>
@@ -10069,7 +10081,7 @@
         <v>10333</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>120</v>
       </c>
@@ -10080,7 +10092,7 @@
         <v>12388</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>123</v>
       </c>
@@ -10091,7 +10103,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>124</v>
       </c>
@@ -10102,7 +10114,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>122</v>
       </c>
@@ -10113,7 +10125,7 @@
         <v>4896</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>85</v>
       </c>
@@ -10124,7 +10136,7 @@
         <v>5025</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>83</v>
       </c>
@@ -10135,7 +10147,7 @@
         <v>4772</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>84</v>
       </c>
@@ -10146,7 +10158,7 @@
         <v>5311</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>86</v>
       </c>
@@ -10157,7 +10169,7 @@
         <v>5708</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>87</v>
       </c>
@@ -10168,7 +10180,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>89</v>
       </c>
@@ -10179,7 +10191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>90</v>
       </c>
@@ -10190,7 +10202,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>88</v>
       </c>
@@ -10201,7 +10213,7 @@
         <v>3430</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>22</v>
       </c>
@@ -10212,7 +10224,7 @@
         <v>3708</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>20</v>
       </c>
@@ -10223,7 +10235,7 @@
         <v>72261</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>21</v>
       </c>
@@ -10234,7 +10246,7 @@
         <v>60128</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>24</v>
       </c>
@@ -10245,7 +10257,7 @@
         <v>32130</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>23</v>
       </c>
@@ -10256,7 +10268,7 @@
         <v>3958</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>26</v>
       </c>
@@ -10267,7 +10279,7 @@
         <v>67631</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>27</v>
       </c>
@@ -10278,7 +10290,7 @@
         <v>52782</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>25</v>
       </c>
@@ -10289,7 +10301,7 @@
         <v>72263</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>28</v>
       </c>
@@ -10300,7 +10312,7 @@
         <v>29204</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>29</v>
       </c>
@@ -10311,7 +10323,7 @@
         <v>28944</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>31</v>
       </c>
@@ -10322,7 +10334,7 @@
         <v>11363</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>32</v>
       </c>
@@ -10333,7 +10345,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>30</v>
       </c>
@@ -10344,7 +10356,7 @@
         <v>23561</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>12</v>
       </c>
@@ -10355,7 +10367,7 @@
         <v>23541</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>13</v>
       </c>
@@ -10366,7 +10378,7 @@
         <v>23431</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>16</v>
       </c>
@@ -10377,7 +10389,7 @@
         <v>22207</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>14</v>
       </c>
@@ -10388,7 +10400,7 @@
         <v>18943</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>15</v>
       </c>
@@ -10399,7 +10411,7 @@
         <v>10874</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>18</v>
       </c>
@@ -10410,7 +10422,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>19</v>
       </c>
@@ -10421,7 +10433,7 @@
         <v>20533</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>17</v>
       </c>
@@ -10432,7 +10444,7 @@
         <v>21221</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>128</v>
       </c>
@@ -10443,7 +10455,7 @@
         <v>20602</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>129</v>
       </c>
@@ -10454,7 +10466,7 @@
         <v>17669</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>131</v>
       </c>
@@ -10465,7 +10477,7 @@
         <v>18250</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>132</v>
       </c>
@@ -10476,7 +10488,7 @@
         <v>7776</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>130</v>
       </c>
@@ -10487,7 +10499,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>134</v>
       </c>
@@ -10498,7 +10510,7 @@
         <v>8338</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>135</v>
       </c>
@@ -10509,7 +10521,7 @@
         <v>13008</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>133</v>
       </c>
@@ -10520,7 +10532,7 @@
         <v>13375</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>137</v>
       </c>
@@ -10531,7 +10543,7 @@
         <v>16175</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>136</v>
       </c>
@@ -10542,7 +10554,7 @@
         <v>24711</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>140</v>
       </c>
@@ -10553,7 +10565,7 @@
         <v>10441</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>139</v>
       </c>
@@ -10564,7 +10576,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>138</v>
       </c>
@@ -10575,7 +10587,7 @@
         <v>19159</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>142</v>
       </c>
@@ -10586,7 +10598,7 @@
         <v>21223</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>143</v>
       </c>
@@ -10597,7 +10609,7 @@
         <v>25429</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>141</v>
       </c>
@@ -10608,7 +10620,7 @@
         <v>35001</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>144</v>
       </c>
@@ -10619,7 +10631,7 @@
         <v>10449</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>145</v>
       </c>
@@ -10630,7 +10642,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>147</v>
       </c>
@@ -10641,7 +10653,7 @@
         <v>9269</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>146</v>
       </c>
@@ -10652,7 +10664,7 @@
         <v>14243</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>148</v>
       </c>
@@ -10663,7 +10675,7 @@
         <v>9363</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>151</v>
       </c>
@@ -10674,7 +10686,7 @@
         <v>4387</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>150</v>
       </c>
@@ -10685,7 +10697,7 @@
         <v>9560</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>149</v>
       </c>
@@ -10696,7 +10708,7 @@
         <v>10033</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>153</v>
       </c>
@@ -10707,7 +10719,7 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>152</v>
       </c>
@@ -10718,7 +10730,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>155</v>
       </c>
@@ -10729,7 +10741,7 @@
         <v>13921</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>156</v>
       </c>
@@ -10740,7 +10752,7 @@
         <v>8921</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>154</v>
       </c>
@@ -10751,7 +10763,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>157</v>
       </c>
@@ -10762,7 +10774,7 @@
         <v>9048</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>159</v>
       </c>
@@ -10773,7 +10785,7 @@
         <v>14644</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>158</v>
       </c>
@@ -10784,7 +10796,7 @@
         <v>5744</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>160</v>
       </c>
@@ -10795,7 +10807,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>161</v>
       </c>
@@ -10806,7 +10818,7 @@
         <v>7895</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>163</v>
       </c>
@@ -10817,7 +10829,7 @@
         <v>29750</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>162</v>
       </c>
@@ -10828,7 +10840,7 @@
         <v>32848</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>164</v>
       </c>
@@ -10839,7 +10851,7 @@
         <v>36516</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>165</v>
       </c>
@@ -10850,7 +10862,7 @@
         <v>40588</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>166</v>
       </c>
@@ -10861,7 +10873,7 @@
         <v>19419</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>127</v>
       </c>
@@ -10872,7 +10884,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>126</v>
       </c>
@@ -10883,7 +10895,7 @@
         <v>46984</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>125</v>
       </c>
@@ -10894,7 +10906,7 @@
         <v>48020</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>167</v>
       </c>
@@ -10905,7 +10917,7 @@
         <v>44456</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>168</v>
       </c>
@@ -10916,7 +10928,7 @@
         <v>165797</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>169</v>
       </c>
@@ -10927,7 +10939,7 @@
         <v>146186</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>170</v>
       </c>
@@ -10938,7 +10950,7 @@
         <v>56595</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>171</v>
       </c>
@@ -10949,7 +10961,7 @@
         <v>2762</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>173</v>
       </c>
@@ -10960,7 +10972,7 @@
         <v>60524</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>174</v>
       </c>
@@ -10971,7 +10983,7 @@
         <v>108243</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>172</v>
       </c>
@@ -10982,7 +10994,7 @@
         <v>69519</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>175</v>
       </c>
@@ -10993,7 +11005,7 @@
         <v>62348</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>176</v>
       </c>
@@ -11004,7 +11016,7 @@
         <v>74046</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>179</v>
       </c>
@@ -11015,7 +11027,7 @@
         <v>31495</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>177</v>
       </c>
@@ -11026,7 +11038,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>178</v>
       </c>
@@ -11037,7 +11049,7 @@
         <v>166961</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>180</v>
       </c>
@@ -11048,7 +11060,7 @@
         <v>135347</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>181</v>
       </c>
@@ -11059,7 +11071,7 @@
         <v>106058</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>182</v>
       </c>
@@ -11070,7 +11082,7 @@
         <v>94061</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>183</v>
       </c>
@@ -11081,7 +11093,7 @@
         <v>136524</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>185</v>
       </c>
@@ -11092,7 +11104,7 @@
         <v>71641</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>184</v>
       </c>
@@ -11103,7 +11115,7 @@
         <v>6527</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>187</v>
       </c>
@@ -11114,7 +11126,7 @@
         <v>147041</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>186</v>
       </c>
@@ -11125,7 +11137,7 @@
         <v>127350</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" s="4" t="s">
         <v>202</v>
       </c>
@@ -11136,7 +11148,7 @@
         <v>130584</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" s="4" t="s">
         <v>203</v>
       </c>
@@ -11147,7 +11159,7 @@
         <v>120344</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" s="4" t="s">
         <v>204</v>
       </c>
@@ -11158,7 +11170,7 @@
         <v>182455</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" s="4" t="s">
         <v>205</v>
       </c>
@@ -11169,7 +11181,7 @@
         <v>71033</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" s="4" t="s">
         <v>206</v>
       </c>
@@ -11180,7 +11192,7 @@
         <v>3083</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" s="4" t="s">
         <v>207</v>
       </c>
@@ -11191,7 +11203,7 @@
         <v>163798</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" s="4" t="s">
         <v>208</v>
       </c>
@@ -11202,7 +11214,7 @@
         <v>110234</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" s="4" t="s">
         <v>209</v>
       </c>
@@ -11213,7 +11225,7 @@
         <v>77404</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" s="4" t="s">
         <v>210</v>
       </c>
@@ -11224,7 +11236,7 @@
         <v>71314</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" s="4" t="s">
         <v>324</v>
       </c>
@@ -11235,7 +11247,7 @@
         <v>104799</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" s="4" t="s">
         <v>212</v>
       </c>
@@ -11246,7 +11258,7 @@
         <v>61097</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" s="4" t="s">
         <v>213</v>
       </c>
@@ -11257,7 +11269,7 @@
         <v>9321</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" s="4" t="s">
         <v>214</v>
       </c>
@@ -11268,7 +11280,7 @@
         <v>106341</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" s="4" t="s">
         <v>215</v>
       </c>
@@ -11279,7 +11291,7 @@
         <v>57331</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" s="4" t="s">
         <v>216</v>
       </c>
@@ -11290,7 +11302,7 @@
         <v>105085</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" s="4" t="s">
         <v>217</v>
       </c>
@@ -11301,7 +11313,7 @@
         <v>77409</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" s="4" t="s">
         <v>218</v>
       </c>
@@ -11312,7 +11324,7 @@
         <v>115046</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" s="4" t="s">
         <v>219</v>
       </c>
@@ -11323,7 +11335,7 @@
         <v>54126</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" s="4" t="s">
         <v>220</v>
       </c>
@@ -11334,7 +11346,7 @@
         <v>9519</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" s="4" t="s">
         <v>221</v>
       </c>
@@ -11345,7 +11357,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" s="4" t="s">
         <v>222</v>
       </c>
@@ -11356,7 +11368,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" s="4" t="s">
         <v>223</v>
       </c>
@@ -11367,7 +11379,7 @@
         <v>5711</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" s="4" t="s">
         <v>224</v>
       </c>
@@ -11378,7 +11390,7 @@
         <v>104557</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" s="4" t="s">
         <v>225</v>
       </c>
@@ -11389,7 +11401,7 @@
         <v>116453</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" s="4" t="s">
         <v>226</v>
       </c>
@@ -11400,7 +11412,7 @@
         <v>68353</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" s="4" t="s">
         <v>227</v>
       </c>
@@ -11411,7 +11423,7 @@
         <v>9646</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" s="4" t="s">
         <v>228</v>
       </c>
@@ -11422,7 +11434,7 @@
         <v>191432</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" s="4" t="s">
         <v>229</v>
       </c>
@@ -11433,7 +11445,7 @@
         <v>184775</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" s="4" t="s">
         <v>230</v>
       </c>
@@ -11444,7 +11456,7 @@
         <v>140267</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" s="4" t="s">
         <v>231</v>
       </c>
@@ -11455,7 +11467,7 @@
         <v>141741</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" s="4" t="s">
         <v>325</v>
       </c>
@@ -11466,7 +11478,7 @@
         <v>231628</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" s="4" t="s">
         <v>233</v>
       </c>
@@ -11477,7 +11489,7 @@
         <v>125376</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" s="4" t="s">
         <v>234</v>
       </c>
@@ -11488,7 +11500,7 @@
         <v>14291</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" s="4" t="s">
         <v>235</v>
       </c>
@@ -11499,7 +11511,7 @@
         <v>62318</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" s="4" t="s">
         <v>236</v>
       </c>
@@ -11510,7 +11522,7 @@
         <v>194215</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" s="4" t="s">
         <v>237</v>
       </c>
@@ -11521,7 +11533,7 @@
         <v>129174</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" s="4" t="s">
         <v>238</v>
       </c>
@@ -11532,7 +11544,7 @@
         <v>181392</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" s="4" t="s">
         <v>239</v>
       </c>
@@ -11543,7 +11555,7 @@
         <v>287617</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" s="4" t="s">
         <v>240</v>
       </c>
@@ -11554,7 +11566,7 @@
         <v>37089</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" s="4" t="s">
         <v>241</v>
       </c>
@@ -11565,7 +11577,7 @@
         <v>8325</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" s="4" t="s">
         <v>242</v>
       </c>
@@ -11576,7 +11588,7 @@
         <v>40057</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" s="4" t="s">
         <v>243</v>
       </c>
@@ -11587,7 +11599,7 @@
         <v>148600</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" s="4" t="s">
         <v>244</v>
       </c>
@@ -11598,7 +11610,7 @@
         <v>105077</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" s="4" t="s">
         <v>245</v>
       </c>
@@ -11609,7 +11621,7 @@
         <v>124130</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" s="4" t="s">
         <v>246</v>
       </c>
@@ -11620,7 +11632,7 @@
         <v>200315</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" s="4" t="s">
         <v>247</v>
       </c>
@@ -11631,7 +11643,7 @@
         <v>108817</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" s="4" t="s">
         <v>248</v>
       </c>
@@ -11642,7 +11654,7 @@
         <v>8549</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" s="4" t="s">
         <v>249</v>
       </c>
